--- a/2025-SOZL/1_crs/DGS-081-03-2302_Hızarhane/081-Dgs-03-20230227- HSP-adem Duman.xlsx
+++ b/2025-SOZL/1_crs/DGS-081-03-2302_Hızarhane/081-Dgs-03-20230227- HSP-adem Duman.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2024-SOZL\1_crs\DGS-081-03-2302_Hızarhane\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2025-SOZL\1_crs\DGS-081-03-2302_Hızarhane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1828CF13-5533-453C-8E5C-F7FA68E58BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023B5F1C-A454-4128-893E-BC3F8E1B5C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Senet Önizleme" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="110">
   <si>
     <t>tutar</t>
   </si>
@@ -271,22 +271,7 @@
     <t>DÖNEM 1 Hesabı             24000</t>
   </si>
   <si>
-    <t>DÖNEM 1 Ek Hesabı        13056</t>
-  </si>
-  <si>
     <t>DÖNEM 3 Hesabı</t>
-  </si>
-  <si>
-    <t>DÖNEM 2 Hesabı             36000</t>
-  </si>
-  <si>
-    <t>DÖNEM 2 Ek Hesabı        26280</t>
-  </si>
-  <si>
-    <t>DÖNEM 2 Ek Hesabı        69000</t>
-  </si>
-  <si>
-    <t>DÖNEM 2 Hesabı             60000</t>
   </si>
   <si>
     <t>ADEM DUMAN - 2021-2025</t>
@@ -566,6 +551,49 @@
       <t>08-07-2024</t>
     </r>
   </si>
+  <si>
+    <t>DÖNEM 3 Hesabı   12*5=   60000</t>
+  </si>
+  <si>
+    <t>DÖNEM 5 Aylık Tutar</t>
+  </si>
+  <si>
+    <t>DÖNEM 4 Hesabı           151216</t>
+  </si>
+  <si>
+    <t>Nakit  22104 TL</t>
+  </si>
+  <si>
+    <t>30.04.20245</t>
+  </si>
+  <si>
+    <t>28-02-2024 31-1-2025 DÖNEMİ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t xml:space="preserve">DÖNEM 5 Hesabı         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>10 AYLIK</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -577,7 +605,7 @@
     <numFmt numFmtId="166" formatCode="&quot; &quot;* #,##0.00&quot;    &quot;;&quot;-&quot;* #,##0.00&quot;    &quot;;&quot; &quot;* &quot;-&quot;#&quot;    &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="167" formatCode="&quot; &quot;* #,##0.00&quot; ₺ &quot;;&quot;-&quot;* #,##0.00&quot; ₺ &quot;;&quot; &quot;* &quot;-&quot;#&quot; ₺ &quot;;&quot; &quot;@&quot; &quot;"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -799,6 +827,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -1029,7 +1066,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
@@ -1051,8 +1088,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1290,21 +1328,8 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1322,16 +1347,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="22">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1353,6 +1393,7 @@
     <cellStyle name="Status" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Text" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Warning" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Yüzde" xfId="21" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1664,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F89"/>
+  <dimension ref="A2:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1716,7 @@
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
     <col min="7" max="64" width="15.42578125" customWidth="1"/>
@@ -1683,7 +1724,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1693,7 +1734,7 @@
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F5" s="73">
         <f>E9/12</f>
@@ -1892,12 +1933,12 @@
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="73">
         <f>E26/12</f>
-        <v>3088</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1910,7 +1951,7 @@
       </c>
       <c r="F21" s="68">
         <f>E26/E21</f>
-        <v>13.11716814159292</v>
+        <v>12.743362831858407</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1934,6 +1975,9 @@
       <c r="C24" t="s">
         <v>77</v>
       </c>
+      <c r="D24" s="90">
+        <v>0.1925</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="1">
         <f>E24</f>
@@ -1942,9 +1986,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="65"/>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
+      <c r="D25" s="90"/>
       <c r="E25" s="4"/>
       <c r="F25" s="1">
         <f>F24+E25</f>
@@ -1957,11 +1999,11 @@
         <v>76</v>
       </c>
       <c r="E26" s="4">
-        <v>37056</v>
+        <v>36000</v>
       </c>
       <c r="F26" s="1">
         <f>F25+E26</f>
-        <v>37056</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1979,7 +2021,7 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" ref="F27:F41" si="1">F26+E27</f>
-        <v>35056</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1997,7 +2039,7 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
-        <v>33056</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2015,7 +2057,7 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
-        <v>31056</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2033,7 +2075,7 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="1"/>
-        <v>29056</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,7 +2093,7 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="1"/>
-        <v>27056</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2069,7 +2111,7 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
-        <v>25056</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,7 +2129,7 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="1"/>
-        <v>22056</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2105,7 +2147,7 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
-        <v>19056</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2116,14 +2158,14 @@
         <v>44681</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E35" s="1">
         <v>-5000</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="1"/>
-        <v>14056</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2134,7 +2176,7 @@
         <v>44711</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D36" s="71"/>
       <c r="E36" s="1">
@@ -2142,7 +2184,7 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" si="1"/>
-        <v>11056</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2153,14 +2195,14 @@
         <v>44742</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E37" s="1">
         <v>-4000</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="1"/>
-        <v>7056</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,14 +2213,14 @@
         <v>44772</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E38" s="1">
         <v>-3000</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="1"/>
-        <v>4056</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2187,14 +2229,14 @@
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E39" s="1">
         <v>-2000</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="1"/>
-        <v>2056</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2203,14 +2245,14 @@
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E40" s="1">
         <v>-1000</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="1"/>
-        <v>1056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2218,7 +2260,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1">
         <f t="shared" si="1"/>
-        <v>1056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2228,7 +2270,7 @@
       </c>
       <c r="F42" s="1">
         <f>F41</f>
-        <v>1056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2249,12 +2291,12 @@
     </row>
     <row r="47" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B47" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E47" s="69"/>
       <c r="F47" s="73">
         <f>E53/12</f>
-        <v>5190</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2267,7 +2309,7 @@
       </c>
       <c r="F48" s="68">
         <f>E53/E48</f>
-        <v>14.643780860569009</v>
+        <v>14.107688690336234</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2285,7 +2327,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="1">
@@ -2294,9 +2336,6 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>81</v>
-      </c>
       <c r="E52" s="4"/>
       <c r="F52" s="1">
         <f>F51+E52</f>
@@ -2305,14 +2344,14 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E53" s="4">
-        <v>62280</v>
+        <v>60000</v>
       </c>
       <c r="F53" s="1">
         <f>F52+E53</f>
-        <v>62280</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2330,7 +2369,7 @@
       </c>
       <c r="F54" s="1">
         <f>F53+E54</f>
-        <v>59280</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2341,14 +2380,14 @@
         <v>44834</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E55">
         <v>-3000</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" ref="F55:F66" si="2">F54+E55</f>
-        <v>56280</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2366,7 +2405,7 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="2"/>
-        <v>53280</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2377,14 +2416,14 @@
         <v>44895</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E57">
         <v>-3000</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="2"/>
-        <v>50280</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2402,7 +2441,7 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" si="2"/>
-        <v>47280</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2413,14 +2452,14 @@
         <v>44956</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E59">
         <v>-6000</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="2"/>
-        <v>41280</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2431,14 +2470,14 @@
         <v>44985</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E60">
         <v>-6500</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="2"/>
-        <v>34780</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2456,7 +2495,7 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="2"/>
-        <v>28280</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2474,7 +2513,7 @@
       </c>
       <c r="F62" s="1">
         <f t="shared" si="2"/>
-        <v>21780</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2485,14 +2524,14 @@
         <v>45076</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>-6500</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="2"/>
-        <v>15280</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2510,7 +2549,7 @@
       </c>
       <c r="F64" s="1">
         <f t="shared" si="2"/>
-        <v>8780</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2528,13 +2567,13 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" si="2"/>
-        <v>2280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F66" s="1">
         <f t="shared" si="2"/>
-        <v>2280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2543,16 +2582,16 @@
       </c>
       <c r="F67" s="1">
         <f>F66</f>
-        <v>2280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B69" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F69" s="73">
-        <f>E75/12</f>
-        <v>10750</v>
+        <v>98</v>
+      </c>
+      <c r="F69" s="91">
+        <f>(E71)/12</f>
+        <v>12601.333333333334</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2561,17 +2600,21 @@
       </c>
       <c r="D70" s="66"/>
       <c r="E70" s="67">
-        <v>8506</v>
+        <v>17002</v>
       </c>
       <c r="F70" s="68">
-        <f>E75/E70</f>
-        <v>15.165765342111451</v>
+        <f>(E74+E75+E76)/E70</f>
+        <v>8.8940124691212805</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="E71" s="4">
+        <f>SUM(E74:E76)</f>
+        <v>151216</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E72" s="4" t="s">
@@ -2583,7 +2626,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="1">
@@ -2592,88 +2635,76 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>82</v>
-      </c>
-      <c r="E74" s="4"/>
+      <c r="C74">
+        <v>6500</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74" s="4">
+        <f>D74*C74</f>
+        <v>39000</v>
+      </c>
       <c r="F74" s="1">
         <f>F73+E74</f>
-        <v>0</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="66"/>
-      <c r="E75" s="67">
-        <v>129000</v>
+      <c r="C75">
+        <v>17002</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75" s="4">
+        <f>D75*C75</f>
+        <v>68008</v>
       </c>
       <c r="F75" s="1">
         <f>F74+E75</f>
-        <v>129000</v>
+        <v>107008</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76" s="6">
-        <v>45168</v>
-      </c>
-      <c r="C76" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76">
-        <v>-6500</v>
+      <c r="C76">
+        <v>22104</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" s="4">
+        <f>D76*C76</f>
+        <v>44208</v>
       </c>
       <c r="F76" s="1">
-        <f>F75+E76</f>
-        <v>122500</v>
+        <f t="shared" ref="F76:F81" si="3">F75+E76</f>
+        <v>151216</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>2</v>
-      </c>
-      <c r="B77" s="6">
-        <v>45199</v>
-      </c>
-      <c r="C77" t="s">
-        <v>96</v>
-      </c>
-      <c r="E77">
-        <v>-6500</v>
-      </c>
       <c r="F77" s="1">
-        <f t="shared" ref="F77:F88" si="3">F76+E77</f>
-        <v>116000</v>
+        <f t="shared" si="3"/>
+        <v>151216</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>3</v>
-      </c>
-      <c r="B78" s="6">
-        <v>45229</v>
-      </c>
-      <c r="C78" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78">
-        <v>-6500</v>
-      </c>
+      <c r="C78" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="66"/>
+      <c r="E78" s="67"/>
       <c r="F78" s="1">
         <f t="shared" si="3"/>
-        <v>109500</v>
+        <v>151216</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B79" s="6">
-        <v>45260</v>
+        <v>45168</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
@@ -2683,163 +2714,528 @@
       </c>
       <c r="F79" s="1">
         <f t="shared" si="3"/>
-        <v>103000</v>
+        <v>144716</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B80" s="6">
-        <v>45290</v>
+        <v>45199</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E80">
         <v>-6500</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="3"/>
-        <v>96500</v>
+        <v>138216</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B81" s="6">
-        <v>45321</v>
+        <v>45229</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="E81">
         <v>-6500</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="3"/>
-        <v>90000</v>
+        <v>131716</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B82" s="6">
-        <v>45350</v>
+        <v>45260</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
-      </c>
-      <c r="E82" s="72">
+        <v>4</v>
+      </c>
+      <c r="E82">
         <v>-6500</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="3"/>
-        <v>83500</v>
+        <f t="shared" ref="F80:F91" si="4">F81+E82</f>
+        <v>125216</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B83" s="6">
-        <v>45381</v>
+        <v>45290</v>
       </c>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E83">
-        <v>-15000</v>
+        <v>-6500</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="3"/>
-        <v>68500</v>
+        <f t="shared" si="4"/>
+        <v>118716</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B84" s="6">
-        <v>45412</v>
+        <v>45321</v>
       </c>
       <c r="C84" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E84">
-        <v>-15000</v>
+        <v>-6500</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="3"/>
-        <v>53500</v>
+        <f t="shared" si="4"/>
+        <v>112216</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B85" s="6">
-        <v>45442</v>
+        <v>45350</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
-      </c>
-      <c r="E85">
-        <v>-15000</v>
+        <v>93</v>
+      </c>
+      <c r="E85" s="72">
+        <v>-6500</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="3"/>
-        <v>38500</v>
+        <f t="shared" si="4"/>
+        <v>105716</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B86" s="6">
-        <v>45473</v>
+        <v>45381</v>
       </c>
       <c r="C86" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E86">
         <v>-15000</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="3"/>
-        <v>23500</v>
+        <f t="shared" si="4"/>
+        <v>90716</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B87" s="6">
-        <v>45503</v>
+        <v>45412</v>
       </c>
       <c r="C87" t="s">
         <v>64</v>
       </c>
+      <c r="E87">
+        <v>-15000</v>
+      </c>
       <c r="F87" s="1">
-        <f t="shared" si="3"/>
-        <v>23500</v>
+        <f t="shared" si="4"/>
+        <v>75716</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>10</v>
+      </c>
+      <c r="B88" s="6">
+        <v>45442</v>
+      </c>
+      <c r="C88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88">
+        <v>-15000</v>
+      </c>
       <c r="F88" s="1">
-        <f t="shared" si="3"/>
-        <v>23500</v>
+        <f t="shared" si="4"/>
+        <v>60716</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E89" s="69" t="s">
+      <c r="A89">
+        <v>11</v>
+      </c>
+      <c r="B89" s="6">
+        <v>45473</v>
+      </c>
+      <c r="C89" t="s">
+        <v>102</v>
+      </c>
+      <c r="E89">
+        <v>-15000</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="4"/>
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>12</v>
+      </c>
+      <c r="B90" s="6">
+        <v>45503</v>
+      </c>
+      <c r="C90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90">
+        <v>-15000</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="4"/>
+        <v>30716</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="1">
+        <f t="shared" si="4"/>
+        <v>30716</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="F89" s="1">
-        <f>F88</f>
-        <v>23500</v>
+      <c r="F92" s="1">
+        <f>F91</f>
+        <v>30716</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B95" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F95" s="91">
+        <f>E97/10</f>
+        <v>22104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C96" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="66"/>
+      <c r="E96" s="67">
+        <v>22104</v>
+      </c>
+      <c r="F96" s="68">
+        <f>E104/E96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E97">
+        <f>E100</f>
+        <v>221040</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="1">
+        <f>F92</f>
+        <v>30716</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>22104</v>
+      </c>
+      <c r="D100">
+        <v>10</v>
+      </c>
+      <c r="E100" s="4">
+        <f>D100*C100</f>
+        <v>221040</v>
+      </c>
+      <c r="F100" s="1">
+        <f>F99+E100</f>
+        <v>251756</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="4"/>
+      <c r="F101" s="1">
+        <f>F100+E101</f>
+        <v>251756</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E102" s="4"/>
+      <c r="F102" s="1">
+        <f t="shared" ref="F102:F104" si="5">F101+E102</f>
+        <v>251756</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="4"/>
+      <c r="F103" s="1">
+        <f t="shared" si="5"/>
+        <v>251756</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C104" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D104" s="66"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="1">
+        <f t="shared" si="5"/>
+        <v>251756</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" s="6">
+        <v>45534</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+      <c r="E105">
+        <v>-15000</v>
+      </c>
+      <c r="F105" s="1">
+        <f>F104+E105</f>
+        <v>236756</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106" s="6">
+        <v>45565</v>
+      </c>
+      <c r="C106" t="s">
+        <v>106</v>
+      </c>
+      <c r="E106">
+        <v>-15000</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" ref="F106:F117" si="6">F105+E106</f>
+        <v>221756</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107" s="6">
+        <v>45595</v>
+      </c>
+      <c r="C107" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107">
+        <v>-15000</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="6"/>
+        <v>206756</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108" s="6">
+        <v>45626</v>
+      </c>
+      <c r="C108" t="s">
+        <v>106</v>
+      </c>
+      <c r="E108">
+        <v>-15000</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="6"/>
+        <v>191756</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>5</v>
+      </c>
+      <c r="B109" s="6">
+        <v>45656</v>
+      </c>
+      <c r="C109" t="s">
+        <v>106</v>
+      </c>
+      <c r="E109">
+        <v>-15000</v>
+      </c>
+      <c r="F109" s="1">
+        <f t="shared" si="6"/>
+        <v>176756</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>6</v>
+      </c>
+      <c r="B110" s="6">
+        <v>45687</v>
+      </c>
+      <c r="C110" t="s">
+        <v>106</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" si="6"/>
+        <v>176756</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>7</v>
+      </c>
+      <c r="B111" s="6">
+        <v>45716</v>
+      </c>
+      <c r="C111" t="s">
+        <v>106</v>
+      </c>
+      <c r="E111" s="72"/>
+      <c r="F111" s="1">
+        <f t="shared" si="6"/>
+        <v>176756</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>8</v>
+      </c>
+      <c r="B112" s="6">
+        <v>45746</v>
+      </c>
+      <c r="C112" t="s">
+        <v>106</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="6"/>
+        <v>176756</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>9</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C113" t="s">
+        <v>106</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="6"/>
+        <v>176756</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>10</v>
+      </c>
+      <c r="B114" s="6">
+        <v>45807</v>
+      </c>
+      <c r="C114" t="s">
+        <v>106</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="6"/>
+        <v>176756</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>11</v>
+      </c>
+      <c r="B115" s="6">
+        <v>45838</v>
+      </c>
+      <c r="C115" t="s">
+        <v>106</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" si="6"/>
+        <v>176756</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>12</v>
+      </c>
+      <c r="B116" s="6">
+        <v>45868</v>
+      </c>
+      <c r="C116" t="s">
+        <v>106</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" si="6"/>
+        <v>176756</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="1">
+        <f t="shared" si="6"/>
+        <v>176756</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E118" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="F118" s="1">
+        <f>F117</f>
+        <v>176756</v>
       </c>
     </row>
   </sheetData>
@@ -2904,7 +3300,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -3397,7 +3793,7 @@
         <v xml:space="preserve"> TL </v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -3546,7 +3942,7 @@
       <c r="D2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="89" t="str">
+      <c r="E2" s="79" t="str">
         <f>$D9 &amp;"    - Taksit No: " &amp; $D4&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 1 #  </v>
       </c>
@@ -3579,7 +3975,7 @@
       <c r="D3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="89"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="30"/>
       <c r="G3" s="45">
         <f>D17</f>
@@ -3615,7 +4011,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B3),"##.##0")&amp;" #"</f>
         <v># 1 #</v>
       </c>
-      <c r="E4" s="89"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
@@ -3635,20 +4031,20 @@
       <c r="D5" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="86" t="str">
+      <c r="E5" s="79"/>
+      <c r="F5" s="82" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G3,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F3&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G3&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
       <c r="P5" s="51"/>
     </row>
     <row r="6" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -3659,17 +4055,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E3),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
       <c r="P6" s="51"/>
     </row>
     <row r="7" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -3680,17 +4076,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E3-INT('Senet Taksit Giriş'!E3))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
       <c r="P7" s="51"/>
     </row>
     <row r="8" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -3700,28 +4096,28 @@
       <c r="D8" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
       <c r="P8" s="51"/>
     </row>
     <row r="9" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30"/>
       <c r="B9" s="55"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="79" t="str">
+      <c r="D9" s="84" t="str">
         <f>'Senet Borçlu Alacaklı Giriş'!C5</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E9" s="89"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
@@ -3738,22 +4134,22 @@
       <c r="A10" s="30"/>
       <c r="B10" s="42"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="80" t="s">
+      <c r="D10" s="84"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="81" t="str">
+      <c r="G10" s="89" t="str">
         <f>"İsim : "&amp;$D9</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
       <c r="O10" s="33"/>
       <c r="P10" s="51"/>
     </row>
@@ -3761,17 +4157,17 @@
       <c r="A11" s="30"/>
       <c r="B11" s="56"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="83" t="str">
+      <c r="D11" s="84"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
@@ -3782,14 +4178,14 @@
       <c r="A12" s="30"/>
       <c r="B12" s="56"/>
       <c r="C12" s="57"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
       <c r="L12" s="43" t="s">
         <v>49</v>
       </c>
@@ -3802,16 +4198,16 @@
       <c r="A13" s="30"/>
       <c r="B13" s="56"/>
       <c r="C13" s="57"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="84" t="str">
+      <c r="D13" s="84"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
@@ -3823,16 +4219,16 @@
       <c r="A14" s="30"/>
       <c r="B14" s="42"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="85" t="str">
+      <c r="D14" s="84"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
       <c r="K14" s="58"/>
       <c r="L14" s="58"/>
       <c r="M14" s="58"/>
@@ -3844,18 +4240,18 @@
       <c r="A15" s="30"/>
       <c r="B15" s="55"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="80" t="s">
+      <c r="D15" s="84"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="88" t="str">
+      <c r="G15" s="86" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
       <c r="K15" s="32"/>
       <c r="L15" s="60"/>
       <c r="M15" s="32"/>
@@ -3870,15 +4266,15 @@
       <c r="D16" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="83" t="str">
+      <c r="E16" s="79"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
@@ -3894,12 +4290,12 @@
         <f>'Senet Taksit Giriş'!D3</f>
         <v>45534</v>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
       <c r="K17" s="30"/>
       <c r="L17" s="43" t="s">
         <v>49</v>
@@ -3916,15 +4312,15 @@
       <c r="D18" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="84" t="str">
+      <c r="E18" s="79"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
@@ -3940,15 +4336,15 @@
         <f>'Senet Taksit Giriş'!C3</f>
         <v>45503</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="85" t="str">
+      <c r="E19" s="79"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
       <c r="K19" s="58"/>
       <c r="L19" s="58"/>
       <c r="M19" s="58"/>
@@ -4017,7 +4413,7 @@
       <c r="D23" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="89" t="str">
+      <c r="E23" s="79" t="str">
         <f>$D30 &amp;"    - Taksit No: " &amp; $D25&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 2 #  </v>
       </c>
@@ -4050,7 +4446,7 @@
       <c r="D24" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="89"/>
+      <c r="E24" s="79"/>
       <c r="F24" s="30"/>
       <c r="G24" s="45">
         <f>D38</f>
@@ -4086,7 +4482,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B4),"##.##0")&amp;" #"</f>
         <v># 2 #</v>
       </c>
-      <c r="E25" s="89"/>
+      <c r="E25" s="79"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
@@ -4106,20 +4502,20 @@
       <c r="D26" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="89"/>
-      <c r="F26" s="86" t="str">
+      <c r="E26" s="79"/>
+      <c r="F26" s="82" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G24,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F4&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G4&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
       <c r="P26" s="51"/>
     </row>
     <row r="27" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4130,17 +4526,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E4),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E27" s="89"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
       <c r="P27" s="51"/>
     </row>
     <row r="28" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4151,17 +4547,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E24-INT('Senet Taksit Giriş'!E24))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
       <c r="P28" s="51"/>
     </row>
     <row r="29" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4171,28 +4567,28 @@
       <c r="D29" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="89"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
       <c r="P29" s="51"/>
     </row>
     <row r="30" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="30"/>
       <c r="B30" s="55"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="79" t="str">
+      <c r="D30" s="84" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E30" s="89"/>
+      <c r="E30" s="79"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
@@ -4209,22 +4605,22 @@
       <c r="A31" s="30"/>
       <c r="B31" s="42"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="80" t="s">
+      <c r="D31" s="84"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="88" t="str">
+      <c r="G31" s="86" t="str">
         <f>"İsim : "&amp;$D30</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
       <c r="O31" s="33"/>
       <c r="P31" s="51"/>
     </row>
@@ -4232,17 +4628,17 @@
       <c r="A32" s="30"/>
       <c r="B32" s="56"/>
       <c r="C32" s="57"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="83" t="str">
+      <c r="D32" s="84"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
@@ -4253,14 +4649,14 @@
       <c r="A33" s="30"/>
       <c r="B33" s="56"/>
       <c r="C33" s="57"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
       <c r="L33" s="43" t="s">
         <v>49</v>
       </c>
@@ -4273,16 +4669,16 @@
       <c r="A34" s="30"/>
       <c r="B34" s="56"/>
       <c r="C34" s="57"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="84" t="str">
+      <c r="D34" s="84"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
       <c r="M34" s="30"/>
@@ -4294,16 +4690,16 @@
       <c r="A35" s="30"/>
       <c r="B35" s="42"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="85" t="str">
+      <c r="D35" s="84"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
       <c r="K35" s="58"/>
       <c r="L35" s="58"/>
       <c r="M35" s="58"/>
@@ -4315,18 +4711,18 @@
       <c r="A36" s="30"/>
       <c r="B36" s="55"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="80" t="s">
+      <c r="D36" s="84"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="88" t="str">
+      <c r="G36" s="86" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
       <c r="K36" s="32"/>
       <c r="L36" s="60"/>
       <c r="M36" s="32"/>
@@ -4341,15 +4737,15 @@
       <c r="D37" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="89"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="83" t="str">
+      <c r="E37" s="79"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
       <c r="M37" s="30"/>
@@ -4365,12 +4761,12 @@
         <f>'Senet Taksit Giriş'!D4</f>
         <v>45565</v>
       </c>
-      <c r="E38" s="89"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="88"/>
       <c r="K38" s="30"/>
       <c r="L38" s="43" t="s">
         <v>49</v>
@@ -4387,15 +4783,15 @@
       <c r="D39" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="89"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="84" t="str">
+      <c r="E39" s="79"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>
       <c r="M39" s="30"/>
@@ -4411,15 +4807,15 @@
         <f>'Senet Taksit Giriş'!C4</f>
         <v>45503</v>
       </c>
-      <c r="E40" s="89"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="85" t="str">
+      <c r="E40" s="79"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
       <c r="K40" s="58"/>
       <c r="L40" s="58"/>
       <c r="M40" s="58"/>
@@ -4470,7 +4866,7 @@
       <c r="D44" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="89" t="str">
+      <c r="E44" s="79" t="str">
         <f>$D51 &amp;"    - Taksit No: " &amp; $D46&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 3 #  </v>
       </c>
@@ -4503,7 +4899,7 @@
       <c r="D45" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="89"/>
+      <c r="E45" s="79"/>
       <c r="F45" s="30"/>
       <c r="G45" s="45">
         <f>D59</f>
@@ -4539,7 +4935,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B5),"##.##0")&amp;" #"</f>
         <v># 3 #</v>
       </c>
-      <c r="E46" s="89"/>
+      <c r="E46" s="79"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
@@ -4559,20 +4955,20 @@
       <c r="D47" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="89"/>
-      <c r="F47" s="86" t="str">
+      <c r="E47" s="79"/>
+      <c r="F47" s="82" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G45,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F5&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G5&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="86"/>
-      <c r="O47" s="86"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82"/>
+      <c r="O47" s="82"/>
       <c r="P47" s="51"/>
     </row>
     <row r="48" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4583,17 +4979,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E5),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E48" s="89"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="86"/>
-      <c r="M48" s="86"/>
-      <c r="N48" s="86"/>
-      <c r="O48" s="86"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
+      <c r="O48" s="82"/>
       <c r="P48" s="51"/>
     </row>
     <row r="49" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4604,17 +5000,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E46-INT('Senet Taksit Giriş'!E46))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E49" s="89"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="86"/>
-      <c r="N49" s="86"/>
-      <c r="O49" s="86"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="82"/>
       <c r="P49" s="51"/>
     </row>
     <row r="50" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4624,28 +5020,28 @@
       <c r="D50" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="89"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="86"/>
-      <c r="N50" s="86"/>
-      <c r="O50" s="86"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="82"/>
+      <c r="O50" s="82"/>
       <c r="P50" s="51"/>
     </row>
     <row r="51" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="30"/>
       <c r="B51" s="55"/>
       <c r="C51" s="30"/>
-      <c r="D51" s="79" t="str">
+      <c r="D51" s="84" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E51" s="89"/>
+      <c r="E51" s="79"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
@@ -4662,22 +5058,22 @@
       <c r="A52" s="30"/>
       <c r="B52" s="42"/>
       <c r="C52" s="30"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="80" t="s">
+      <c r="D52" s="84"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="G52" s="88" t="str">
+      <c r="G52" s="86" t="str">
         <f>"İsim : "&amp;$D51</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
       <c r="O52" s="33"/>
       <c r="P52" s="51"/>
     </row>
@@ -4685,17 +5081,17 @@
       <c r="A53" s="30"/>
       <c r="B53" s="56"/>
       <c r="C53" s="57"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="83" t="str">
+      <c r="D53" s="84"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="88"/>
       <c r="L53" s="30"/>
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
@@ -4706,14 +5102,14 @@
       <c r="A54" s="30"/>
       <c r="B54" s="56"/>
       <c r="C54" s="57"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
       <c r="L54" s="43" t="s">
         <v>49</v>
       </c>
@@ -4726,16 +5122,16 @@
       <c r="A55" s="30"/>
       <c r="B55" s="56"/>
       <c r="C55" s="57"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="84" t="str">
+      <c r="D55" s="84"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
       <c r="K55" s="30"/>
       <c r="L55" s="30"/>
       <c r="M55" s="30"/>
@@ -4747,16 +5143,16 @@
       <c r="A56" s="30"/>
       <c r="B56" s="42"/>
       <c r="C56" s="30"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="85" t="str">
+      <c r="D56" s="84"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
       <c r="K56" s="58"/>
       <c r="L56" s="58"/>
       <c r="M56" s="58"/>
@@ -4768,18 +5164,18 @@
       <c r="A57" s="30"/>
       <c r="B57" s="55"/>
       <c r="C57" s="30"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="80" t="s">
+      <c r="D57" s="84"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="88" t="str">
+      <c r="G57" s="86" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="J57" s="86"/>
       <c r="K57" s="32"/>
       <c r="L57" s="60"/>
       <c r="M57" s="32"/>
@@ -4794,15 +5190,15 @@
       <c r="D58" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="89"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="83" t="str">
+      <c r="E58" s="79"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
       <c r="K58" s="30"/>
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
@@ -4818,12 +5214,12 @@
         <f>'Senet Taksit Giriş'!D5</f>
         <v>45595</v>
       </c>
-      <c r="E59" s="89"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
       <c r="K59" s="30"/>
       <c r="L59" s="43" t="s">
         <v>49</v>
@@ -4840,15 +5236,15 @@
       <c r="D60" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E60" s="89"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="84" t="str">
+      <c r="E60" s="79"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="84"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
       <c r="K60" s="30"/>
       <c r="L60" s="30"/>
       <c r="M60" s="30"/>
@@ -4864,15 +5260,15 @@
         <f>'Senet Taksit Giriş'!C5</f>
         <v>45503</v>
       </c>
-      <c r="E61" s="89"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="85" t="str">
+      <c r="E61" s="79"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="81"/>
       <c r="K61" s="58"/>
       <c r="L61" s="58"/>
       <c r="M61" s="58"/>
@@ -4923,7 +5319,7 @@
       <c r="D64" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="89" t="str">
+      <c r="E64" s="79" t="str">
         <f>$D71 &amp;"    - Taksit No: " &amp; $D66&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 4 #  </v>
       </c>
@@ -4956,7 +5352,7 @@
       <c r="D65" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E65" s="89"/>
+      <c r="E65" s="79"/>
       <c r="F65" s="30"/>
       <c r="G65" s="45">
         <f>D79</f>
@@ -4992,7 +5388,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B6),"##.##0")&amp;" #"</f>
         <v># 4 #</v>
       </c>
-      <c r="E66" s="89"/>
+      <c r="E66" s="79"/>
       <c r="F66" s="30"/>
       <c r="G66" s="30"/>
       <c r="H66" s="30"/>
@@ -5012,20 +5408,20 @@
       <c r="D67" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="89"/>
-      <c r="F67" s="86" t="str">
+      <c r="E67" s="79"/>
+      <c r="F67" s="82" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G65,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F6&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G6&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
-      <c r="I67" s="86"/>
-      <c r="J67" s="86"/>
-      <c r="K67" s="86"/>
-      <c r="L67" s="86"/>
-      <c r="M67" s="86"/>
-      <c r="N67" s="86"/>
-      <c r="O67" s="86"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="82"/>
+      <c r="I67" s="82"/>
+      <c r="J67" s="82"/>
+      <c r="K67" s="82"/>
+      <c r="L67" s="82"/>
+      <c r="M67" s="82"/>
+      <c r="N67" s="82"/>
+      <c r="O67" s="82"/>
       <c r="P67" s="51"/>
     </row>
     <row r="68" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5036,17 +5432,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E6),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E68" s="89"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="86"/>
-      <c r="I68" s="86"/>
-      <c r="J68" s="86"/>
-      <c r="K68" s="86"/>
-      <c r="L68" s="86"/>
-      <c r="M68" s="86"/>
-      <c r="N68" s="86"/>
-      <c r="O68" s="86"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="82"/>
+      <c r="J68" s="82"/>
+      <c r="K68" s="82"/>
+      <c r="L68" s="82"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="82"/>
+      <c r="O68" s="82"/>
       <c r="P68" s="51"/>
     </row>
     <row r="69" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5057,17 +5453,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E68-INT('Senet Taksit Giriş'!E68))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E69" s="89"/>
-      <c r="F69" s="86"/>
-      <c r="G69" s="86"/>
-      <c r="H69" s="86"/>
-      <c r="I69" s="86"/>
-      <c r="J69" s="86"/>
-      <c r="K69" s="86"/>
-      <c r="L69" s="86"/>
-      <c r="M69" s="86"/>
-      <c r="N69" s="86"/>
-      <c r="O69" s="86"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="82"/>
+      <c r="I69" s="82"/>
+      <c r="J69" s="82"/>
+      <c r="K69" s="82"/>
+      <c r="L69" s="82"/>
+      <c r="M69" s="82"/>
+      <c r="N69" s="82"/>
+      <c r="O69" s="82"/>
       <c r="P69" s="51"/>
     </row>
     <row r="70" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5077,28 +5473,28 @@
       <c r="D70" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E70" s="89"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="86"/>
-      <c r="H70" s="86"/>
-      <c r="I70" s="86"/>
-      <c r="J70" s="86"/>
-      <c r="K70" s="86"/>
-      <c r="L70" s="86"/>
-      <c r="M70" s="86"/>
-      <c r="N70" s="86"/>
-      <c r="O70" s="86"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="82"/>
+      <c r="J70" s="82"/>
+      <c r="K70" s="82"/>
+      <c r="L70" s="82"/>
+      <c r="M70" s="82"/>
+      <c r="N70" s="82"/>
+      <c r="O70" s="82"/>
       <c r="P70" s="51"/>
     </row>
     <row r="71" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="30"/>
       <c r="B71" s="55"/>
       <c r="C71" s="30"/>
-      <c r="D71" s="79" t="str">
+      <c r="D71" s="84" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E71" s="89"/>
+      <c r="E71" s="79"/>
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
@@ -5115,22 +5511,22 @@
       <c r="A72" s="30"/>
       <c r="B72" s="42"/>
       <c r="C72" s="30"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="89"/>
-      <c r="F72" s="80" t="s">
+      <c r="D72" s="84"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="G72" s="88" t="str">
+      <c r="G72" s="86" t="str">
         <f>"İsim : "&amp;$D71</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H72" s="88"/>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
+      <c r="H72" s="86"/>
+      <c r="I72" s="86"/>
+      <c r="J72" s="86"/>
       <c r="K72" s="32"/>
       <c r="L72" s="32"/>
-      <c r="M72" s="82"/>
-      <c r="N72" s="82"/>
+      <c r="M72" s="87"/>
+      <c r="N72" s="87"/>
       <c r="O72" s="33"/>
       <c r="P72" s="51"/>
     </row>
@@ -5138,17 +5534,17 @@
       <c r="A73" s="30"/>
       <c r="B73" s="56"/>
       <c r="C73" s="57"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="89"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="83" t="str">
+      <c r="D73" s="84"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="83"/>
-      <c r="K73" s="83"/>
+      <c r="H73" s="88"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="88"/>
+      <c r="K73" s="88"/>
       <c r="L73" s="30"/>
       <c r="M73" s="30"/>
       <c r="N73" s="30"/>
@@ -5159,14 +5555,14 @@
       <c r="A74" s="30"/>
       <c r="B74" s="56"/>
       <c r="C74" s="57"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="83"/>
-      <c r="K74" s="83"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="88"/>
+      <c r="I74" s="88"/>
+      <c r="J74" s="88"/>
+      <c r="K74" s="88"/>
       <c r="L74" s="43" t="s">
         <v>49</v>
       </c>
@@ -5179,16 +5575,16 @@
       <c r="A75" s="30"/>
       <c r="B75" s="56"/>
       <c r="C75" s="57"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="89"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="84" t="str">
+      <c r="D75" s="84"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H75" s="84"/>
-      <c r="I75" s="84"/>
-      <c r="J75" s="84"/>
+      <c r="H75" s="80"/>
+      <c r="I75" s="80"/>
+      <c r="J75" s="80"/>
       <c r="K75" s="30"/>
       <c r="L75" s="30"/>
       <c r="M75" s="30"/>
@@ -5200,16 +5596,16 @@
       <c r="A76" s="30"/>
       <c r="B76" s="42"/>
       <c r="C76" s="30"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="89"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="85" t="str">
+      <c r="D76" s="84"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H76" s="85"/>
-      <c r="I76" s="85"/>
-      <c r="J76" s="85"/>
+      <c r="H76" s="81"/>
+      <c r="I76" s="81"/>
+      <c r="J76" s="81"/>
       <c r="K76" s="58"/>
       <c r="L76" s="58"/>
       <c r="M76" s="58"/>
@@ -5221,18 +5617,18 @@
       <c r="A77" s="30"/>
       <c r="B77" s="55"/>
       <c r="C77" s="30"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="80" t="s">
+      <c r="D77" s="84"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G77" s="88" t="str">
+      <c r="G77" s="86" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="88"/>
+      <c r="H77" s="86"/>
+      <c r="I77" s="86"/>
+      <c r="J77" s="86"/>
       <c r="K77" s="32"/>
       <c r="L77" s="60"/>
       <c r="M77" s="32"/>
@@ -5247,15 +5643,15 @@
       <c r="D78" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="89"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="83" t="str">
+      <c r="E78" s="79"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H78" s="83"/>
-      <c r="I78" s="83"/>
-      <c r="J78" s="83"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="88"/>
+      <c r="J78" s="88"/>
       <c r="K78" s="30"/>
       <c r="L78" s="30"/>
       <c r="M78" s="30"/>
@@ -5271,12 +5667,12 @@
         <f>'Senet Taksit Giriş'!D6</f>
         <v>45626</v>
       </c>
-      <c r="E79" s="89"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="83"/>
-      <c r="H79" s="83"/>
-      <c r="I79" s="83"/>
-      <c r="J79" s="83"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="88"/>
+      <c r="H79" s="88"/>
+      <c r="I79" s="88"/>
+      <c r="J79" s="88"/>
       <c r="K79" s="30"/>
       <c r="L79" s="43" t="s">
         <v>49</v>
@@ -5293,15 +5689,15 @@
       <c r="D80" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E80" s="89"/>
-      <c r="F80" s="80"/>
-      <c r="G80" s="84" t="str">
+      <c r="E80" s="79"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="84"/>
+      <c r="H80" s="80"/>
+      <c r="I80" s="80"/>
+      <c r="J80" s="80"/>
       <c r="K80" s="30"/>
       <c r="L80" s="30"/>
       <c r="M80" s="30"/>
@@ -5317,15 +5713,15 @@
         <f>'Senet Taksit Giriş'!C6</f>
         <v>45503</v>
       </c>
-      <c r="E81" s="89"/>
-      <c r="F81" s="80"/>
-      <c r="G81" s="85" t="str">
+      <c r="E81" s="79"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H81" s="85"/>
-      <c r="I81" s="85"/>
-      <c r="J81" s="85"/>
+      <c r="H81" s="81"/>
+      <c r="I81" s="81"/>
+      <c r="J81" s="81"/>
       <c r="K81" s="58"/>
       <c r="L81" s="58"/>
       <c r="M81" s="58"/>
@@ -5376,7 +5772,7 @@
       <c r="D85" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E85" s="89" t="str">
+      <c r="E85" s="79" t="str">
         <f>$D92 &amp;"    - Taksit No: " &amp; $D87&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 5 #  </v>
       </c>
@@ -5409,7 +5805,7 @@
       <c r="D86" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E86" s="89"/>
+      <c r="E86" s="79"/>
       <c r="F86" s="30"/>
       <c r="G86" s="45">
         <f>D100</f>
@@ -5445,7 +5841,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B7),"##.##0")&amp;" #"</f>
         <v># 5 #</v>
       </c>
-      <c r="E87" s="89"/>
+      <c r="E87" s="79"/>
       <c r="F87" s="30"/>
       <c r="G87" s="30"/>
       <c r="H87" s="30"/>
@@ -5465,20 +5861,20 @@
       <c r="D88" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E88" s="89"/>
-      <c r="F88" s="86" t="str">
+      <c r="E88" s="79"/>
+      <c r="F88" s="82" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G86,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F7&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G7&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G88" s="86"/>
-      <c r="H88" s="86"/>
-      <c r="I88" s="86"/>
-      <c r="J88" s="86"/>
-      <c r="K88" s="86"/>
-      <c r="L88" s="86"/>
-      <c r="M88" s="86"/>
-      <c r="N88" s="86"/>
-      <c r="O88" s="86"/>
+      <c r="G88" s="82"/>
+      <c r="H88" s="82"/>
+      <c r="I88" s="82"/>
+      <c r="J88" s="82"/>
+      <c r="K88" s="82"/>
+      <c r="L88" s="82"/>
+      <c r="M88" s="82"/>
+      <c r="N88" s="82"/>
+      <c r="O88" s="82"/>
       <c r="P88" s="51"/>
     </row>
     <row r="89" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5489,17 +5885,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E7),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E89" s="89"/>
-      <c r="F89" s="86"/>
-      <c r="G89" s="86"/>
-      <c r="H89" s="86"/>
-      <c r="I89" s="86"/>
-      <c r="J89" s="86"/>
-      <c r="K89" s="86"/>
-      <c r="L89" s="86"/>
-      <c r="M89" s="86"/>
-      <c r="N89" s="86"/>
-      <c r="O89" s="86"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="82"/>
+      <c r="G89" s="82"/>
+      <c r="H89" s="82"/>
+      <c r="I89" s="82"/>
+      <c r="J89" s="82"/>
+      <c r="K89" s="82"/>
+      <c r="L89" s="82"/>
+      <c r="M89" s="82"/>
+      <c r="N89" s="82"/>
+      <c r="O89" s="82"/>
       <c r="P89" s="51"/>
     </row>
     <row r="90" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5510,17 +5906,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E90-INT('Senet Taksit Giriş'!E90))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E90" s="89"/>
-      <c r="F90" s="86"/>
-      <c r="G90" s="86"/>
-      <c r="H90" s="86"/>
-      <c r="I90" s="86"/>
-      <c r="J90" s="86"/>
-      <c r="K90" s="86"/>
-      <c r="L90" s="86"/>
-      <c r="M90" s="86"/>
-      <c r="N90" s="86"/>
-      <c r="O90" s="86"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="82"/>
+      <c r="G90" s="82"/>
+      <c r="H90" s="82"/>
+      <c r="I90" s="82"/>
+      <c r="J90" s="82"/>
+      <c r="K90" s="82"/>
+      <c r="L90" s="82"/>
+      <c r="M90" s="82"/>
+      <c r="N90" s="82"/>
+      <c r="O90" s="82"/>
       <c r="P90" s="51"/>
     </row>
     <row r="91" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5530,28 +5926,28 @@
       <c r="D91" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="89"/>
-      <c r="F91" s="86"/>
-      <c r="G91" s="86"/>
-      <c r="H91" s="86"/>
-      <c r="I91" s="86"/>
-      <c r="J91" s="86"/>
-      <c r="K91" s="86"/>
-      <c r="L91" s="86"/>
-      <c r="M91" s="86"/>
-      <c r="N91" s="86"/>
-      <c r="O91" s="86"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="82"/>
+      <c r="H91" s="82"/>
+      <c r="I91" s="82"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="82"/>
+      <c r="L91" s="82"/>
+      <c r="M91" s="82"/>
+      <c r="N91" s="82"/>
+      <c r="O91" s="82"/>
       <c r="P91" s="51"/>
     </row>
     <row r="92" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="30"/>
       <c r="B92" s="55"/>
       <c r="C92" s="30"/>
-      <c r="D92" s="79" t="str">
+      <c r="D92" s="84" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E92" s="89"/>
+      <c r="E92" s="79"/>
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
@@ -5568,22 +5964,22 @@
       <c r="A93" s="30"/>
       <c r="B93" s="42"/>
       <c r="C93" s="30"/>
-      <c r="D93" s="79"/>
-      <c r="E93" s="89"/>
-      <c r="F93" s="80" t="s">
+      <c r="D93" s="84"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="G93" s="88" t="str">
+      <c r="G93" s="86" t="str">
         <f>"İsim : "&amp;$D92</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H93" s="88"/>
-      <c r="I93" s="88"/>
-      <c r="J93" s="88"/>
+      <c r="H93" s="86"/>
+      <c r="I93" s="86"/>
+      <c r="J93" s="86"/>
       <c r="K93" s="32"/>
       <c r="L93" s="32"/>
-      <c r="M93" s="82"/>
-      <c r="N93" s="82"/>
+      <c r="M93" s="87"/>
+      <c r="N93" s="87"/>
       <c r="O93" s="33"/>
       <c r="P93" s="51"/>
     </row>
@@ -5591,17 +5987,17 @@
       <c r="A94" s="30"/>
       <c r="B94" s="56"/>
       <c r="C94" s="57"/>
-      <c r="D94" s="79"/>
-      <c r="E94" s="89"/>
-      <c r="F94" s="80"/>
-      <c r="G94" s="83" t="str">
+      <c r="D94" s="84"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H94" s="83"/>
-      <c r="I94" s="83"/>
-      <c r="J94" s="83"/>
-      <c r="K94" s="83"/>
+      <c r="H94" s="88"/>
+      <c r="I94" s="88"/>
+      <c r="J94" s="88"/>
+      <c r="K94" s="88"/>
       <c r="L94" s="30"/>
       <c r="M94" s="30"/>
       <c r="N94" s="30"/>
@@ -5612,14 +6008,14 @@
       <c r="A95" s="30"/>
       <c r="B95" s="56"/>
       <c r="C95" s="57"/>
-      <c r="D95" s="79"/>
-      <c r="E95" s="89"/>
-      <c r="F95" s="80"/>
-      <c r="G95" s="83"/>
-      <c r="H95" s="83"/>
-      <c r="I95" s="83"/>
-      <c r="J95" s="83"/>
-      <c r="K95" s="83"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="85"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="88"/>
+      <c r="J95" s="88"/>
+      <c r="K95" s="88"/>
       <c r="L95" s="43" t="s">
         <v>49</v>
       </c>
@@ -5632,16 +6028,16 @@
       <c r="A96" s="30"/>
       <c r="B96" s="56"/>
       <c r="C96" s="57"/>
-      <c r="D96" s="79"/>
-      <c r="E96" s="89"/>
-      <c r="F96" s="80"/>
-      <c r="G96" s="84" t="str">
+      <c r="D96" s="84"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H96" s="84"/>
-      <c r="I96" s="84"/>
-      <c r="J96" s="84"/>
+      <c r="H96" s="80"/>
+      <c r="I96" s="80"/>
+      <c r="J96" s="80"/>
       <c r="K96" s="30"/>
       <c r="L96" s="30"/>
       <c r="M96" s="30"/>
@@ -5653,16 +6049,16 @@
       <c r="A97" s="30"/>
       <c r="B97" s="42"/>
       <c r="C97" s="30"/>
-      <c r="D97" s="79"/>
-      <c r="E97" s="89"/>
-      <c r="F97" s="80"/>
-      <c r="G97" s="85" t="str">
+      <c r="D97" s="84"/>
+      <c r="E97" s="79"/>
+      <c r="F97" s="85"/>
+      <c r="G97" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H97" s="85"/>
-      <c r="I97" s="85"/>
-      <c r="J97" s="85"/>
+      <c r="H97" s="81"/>
+      <c r="I97" s="81"/>
+      <c r="J97" s="81"/>
       <c r="K97" s="58"/>
       <c r="L97" s="58"/>
       <c r="M97" s="58"/>
@@ -5674,18 +6070,18 @@
       <c r="A98" s="30"/>
       <c r="B98" s="55"/>
       <c r="C98" s="30"/>
-      <c r="D98" s="79"/>
-      <c r="E98" s="89"/>
-      <c r="F98" s="80" t="s">
+      <c r="D98" s="84"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G98" s="88" t="str">
+      <c r="G98" s="86" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H98" s="88"/>
-      <c r="I98" s="88"/>
-      <c r="J98" s="88"/>
+      <c r="H98" s="86"/>
+      <c r="I98" s="86"/>
+      <c r="J98" s="86"/>
       <c r="K98" s="32"/>
       <c r="L98" s="60"/>
       <c r="M98" s="32"/>
@@ -5700,15 +6096,15 @@
       <c r="D99" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E99" s="89"/>
-      <c r="F99" s="80"/>
-      <c r="G99" s="83" t="str">
+      <c r="E99" s="79"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H99" s="83"/>
-      <c r="I99" s="83"/>
-      <c r="J99" s="83"/>
+      <c r="H99" s="88"/>
+      <c r="I99" s="88"/>
+      <c r="J99" s="88"/>
       <c r="K99" s="30"/>
       <c r="L99" s="30"/>
       <c r="M99" s="30"/>
@@ -5724,12 +6120,12 @@
         <f>'Senet Taksit Giriş'!D7</f>
         <v>45656</v>
       </c>
-      <c r="E100" s="89"/>
-      <c r="F100" s="80"/>
-      <c r="G100" s="83"/>
-      <c r="H100" s="83"/>
-      <c r="I100" s="83"/>
-      <c r="J100" s="83"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="88"/>
+      <c r="H100" s="88"/>
+      <c r="I100" s="88"/>
+      <c r="J100" s="88"/>
       <c r="K100" s="30"/>
       <c r="L100" s="43" t="s">
         <v>49</v>
@@ -5746,15 +6142,15 @@
       <c r="D101" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E101" s="89"/>
-      <c r="F101" s="80"/>
-      <c r="G101" s="84" t="str">
+      <c r="E101" s="79"/>
+      <c r="F101" s="85"/>
+      <c r="G101" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H101" s="84"/>
-      <c r="I101" s="84"/>
-      <c r="J101" s="84"/>
+      <c r="H101" s="80"/>
+      <c r="I101" s="80"/>
+      <c r="J101" s="80"/>
       <c r="K101" s="30"/>
       <c r="L101" s="30"/>
       <c r="M101" s="30"/>
@@ -5770,15 +6166,15 @@
         <f>'Senet Taksit Giriş'!C7</f>
         <v>45503</v>
       </c>
-      <c r="E102" s="89"/>
-      <c r="F102" s="80"/>
-      <c r="G102" s="85" t="str">
+      <c r="E102" s="79"/>
+      <c r="F102" s="85"/>
+      <c r="G102" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H102" s="85"/>
-      <c r="I102" s="85"/>
-      <c r="J102" s="85"/>
+      <c r="H102" s="81"/>
+      <c r="I102" s="81"/>
+      <c r="J102" s="81"/>
       <c r="K102" s="58"/>
       <c r="L102" s="58"/>
       <c r="M102" s="58"/>
@@ -5829,7 +6225,7 @@
       <c r="D106" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E106" s="89" t="str">
+      <c r="E106" s="79" t="str">
         <f>$D113 &amp;"    - Taksit No: " &amp; $D108&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 6 #  </v>
       </c>
@@ -5862,7 +6258,7 @@
       <c r="D107" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E107" s="89"/>
+      <c r="E107" s="79"/>
       <c r="F107" s="30"/>
       <c r="G107" s="45">
         <f>D121</f>
@@ -5898,7 +6294,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B8),"##.##0")&amp;" #"</f>
         <v># 6 #</v>
       </c>
-      <c r="E108" s="89"/>
+      <c r="E108" s="79"/>
       <c r="F108" s="30"/>
       <c r="G108" s="30"/>
       <c r="H108" s="30"/>
@@ -5918,20 +6314,20 @@
       <c r="D109" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E109" s="89"/>
-      <c r="F109" s="86" t="str">
+      <c r="E109" s="79"/>
+      <c r="F109" s="82" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G107,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F8&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G8&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G109" s="86"/>
-      <c r="H109" s="86"/>
-      <c r="I109" s="86"/>
-      <c r="J109" s="86"/>
-      <c r="K109" s="86"/>
-      <c r="L109" s="86"/>
-      <c r="M109" s="86"/>
-      <c r="N109" s="86"/>
-      <c r="O109" s="86"/>
+      <c r="G109" s="82"/>
+      <c r="H109" s="82"/>
+      <c r="I109" s="82"/>
+      <c r="J109" s="82"/>
+      <c r="K109" s="82"/>
+      <c r="L109" s="82"/>
+      <c r="M109" s="82"/>
+      <c r="N109" s="82"/>
+      <c r="O109" s="82"/>
       <c r="P109" s="51"/>
     </row>
     <row r="110" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5942,17 +6338,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E8),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E110" s="89"/>
-      <c r="F110" s="86"/>
-      <c r="G110" s="86"/>
-      <c r="H110" s="86"/>
-      <c r="I110" s="86"/>
-      <c r="J110" s="86"/>
-      <c r="K110" s="86"/>
-      <c r="L110" s="86"/>
-      <c r="M110" s="86"/>
-      <c r="N110" s="86"/>
-      <c r="O110" s="86"/>
+      <c r="E110" s="79"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="82"/>
+      <c r="H110" s="82"/>
+      <c r="I110" s="82"/>
+      <c r="J110" s="82"/>
+      <c r="K110" s="82"/>
+      <c r="L110" s="82"/>
+      <c r="M110" s="82"/>
+      <c r="N110" s="82"/>
+      <c r="O110" s="82"/>
       <c r="P110" s="51"/>
     </row>
     <row r="111" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5963,17 +6359,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E111-INT('Senet Taksit Giriş'!E111))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E111" s="89"/>
-      <c r="F111" s="86"/>
-      <c r="G111" s="86"/>
-      <c r="H111" s="86"/>
-      <c r="I111" s="86"/>
-      <c r="J111" s="86"/>
-      <c r="K111" s="86"/>
-      <c r="L111" s="86"/>
-      <c r="M111" s="86"/>
-      <c r="N111" s="86"/>
-      <c r="O111" s="86"/>
+      <c r="E111" s="79"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="82"/>
+      <c r="H111" s="82"/>
+      <c r="I111" s="82"/>
+      <c r="J111" s="82"/>
+      <c r="K111" s="82"/>
+      <c r="L111" s="82"/>
+      <c r="M111" s="82"/>
+      <c r="N111" s="82"/>
+      <c r="O111" s="82"/>
       <c r="P111" s="51"/>
     </row>
     <row r="112" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5983,28 +6379,28 @@
       <c r="D112" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E112" s="89"/>
-      <c r="F112" s="86"/>
-      <c r="G112" s="86"/>
-      <c r="H112" s="86"/>
-      <c r="I112" s="86"/>
-      <c r="J112" s="86"/>
-      <c r="K112" s="86"/>
-      <c r="L112" s="86"/>
-      <c r="M112" s="86"/>
-      <c r="N112" s="86"/>
-      <c r="O112" s="86"/>
+      <c r="E112" s="79"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="82"/>
+      <c r="H112" s="82"/>
+      <c r="I112" s="82"/>
+      <c r="J112" s="82"/>
+      <c r="K112" s="82"/>
+      <c r="L112" s="82"/>
+      <c r="M112" s="82"/>
+      <c r="N112" s="82"/>
+      <c r="O112" s="82"/>
       <c r="P112" s="51"/>
     </row>
     <row r="113" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="30"/>
       <c r="B113" s="55"/>
       <c r="C113" s="30"/>
-      <c r="D113" s="79" t="str">
+      <c r="D113" s="84" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E113" s="89"/>
+      <c r="E113" s="79"/>
       <c r="F113"/>
       <c r="G113"/>
       <c r="H113"/>
@@ -6021,22 +6417,22 @@
       <c r="A114" s="30"/>
       <c r="B114" s="42"/>
       <c r="C114" s="30"/>
-      <c r="D114" s="79"/>
-      <c r="E114" s="89"/>
-      <c r="F114" s="80" t="s">
+      <c r="D114" s="84"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="G114" s="88" t="str">
+      <c r="G114" s="86" t="str">
         <f>"İsim : "&amp;$D113</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H114" s="88"/>
-      <c r="I114" s="88"/>
-      <c r="J114" s="88"/>
+      <c r="H114" s="86"/>
+      <c r="I114" s="86"/>
+      <c r="J114" s="86"/>
       <c r="K114" s="32"/>
       <c r="L114" s="32"/>
-      <c r="M114" s="82"/>
-      <c r="N114" s="82"/>
+      <c r="M114" s="87"/>
+      <c r="N114" s="87"/>
       <c r="O114" s="33"/>
       <c r="P114" s="51"/>
     </row>
@@ -6044,17 +6440,17 @@
       <c r="A115" s="30"/>
       <c r="B115" s="56"/>
       <c r="C115" s="57"/>
-      <c r="D115" s="79"/>
-      <c r="E115" s="89"/>
-      <c r="F115" s="80"/>
-      <c r="G115" s="83" t="str">
+      <c r="D115" s="84"/>
+      <c r="E115" s="79"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H115" s="83"/>
-      <c r="I115" s="83"/>
-      <c r="J115" s="83"/>
-      <c r="K115" s="83"/>
+      <c r="H115" s="88"/>
+      <c r="I115" s="88"/>
+      <c r="J115" s="88"/>
+      <c r="K115" s="88"/>
       <c r="L115" s="30"/>
       <c r="M115" s="30"/>
       <c r="N115" s="30"/>
@@ -6065,14 +6461,14 @@
       <c r="A116" s="30"/>
       <c r="B116" s="56"/>
       <c r="C116" s="57"/>
-      <c r="D116" s="79"/>
-      <c r="E116" s="89"/>
-      <c r="F116" s="80"/>
-      <c r="G116" s="83"/>
-      <c r="H116" s="83"/>
-      <c r="I116" s="83"/>
-      <c r="J116" s="83"/>
-      <c r="K116" s="83"/>
+      <c r="D116" s="84"/>
+      <c r="E116" s="79"/>
+      <c r="F116" s="85"/>
+      <c r="G116" s="88"/>
+      <c r="H116" s="88"/>
+      <c r="I116" s="88"/>
+      <c r="J116" s="88"/>
+      <c r="K116" s="88"/>
       <c r="L116" s="43" t="s">
         <v>49</v>
       </c>
@@ -6085,16 +6481,16 @@
       <c r="A117" s="30"/>
       <c r="B117" s="56"/>
       <c r="C117" s="57"/>
-      <c r="D117" s="79"/>
-      <c r="E117" s="89"/>
-      <c r="F117" s="80"/>
-      <c r="G117" s="84" t="str">
+      <c r="D117" s="84"/>
+      <c r="E117" s="79"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H117" s="84"/>
-      <c r="I117" s="84"/>
-      <c r="J117" s="84"/>
+      <c r="H117" s="80"/>
+      <c r="I117" s="80"/>
+      <c r="J117" s="80"/>
       <c r="K117" s="30"/>
       <c r="L117" s="30"/>
       <c r="M117" s="30"/>
@@ -6106,16 +6502,16 @@
       <c r="A118" s="30"/>
       <c r="B118" s="42"/>
       <c r="C118" s="30"/>
-      <c r="D118" s="79"/>
-      <c r="E118" s="89"/>
-      <c r="F118" s="80"/>
-      <c r="G118" s="85" t="str">
+      <c r="D118" s="84"/>
+      <c r="E118" s="79"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H118" s="85"/>
-      <c r="I118" s="85"/>
-      <c r="J118" s="85"/>
+      <c r="H118" s="81"/>
+      <c r="I118" s="81"/>
+      <c r="J118" s="81"/>
       <c r="K118" s="58"/>
       <c r="L118" s="58"/>
       <c r="M118" s="58"/>
@@ -6127,18 +6523,18 @@
       <c r="A119" s="30"/>
       <c r="B119" s="55"/>
       <c r="C119" s="30"/>
-      <c r="D119" s="79"/>
-      <c r="E119" s="89"/>
-      <c r="F119" s="80" t="s">
+      <c r="D119" s="84"/>
+      <c r="E119" s="79"/>
+      <c r="F119" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G119" s="88" t="str">
+      <c r="G119" s="86" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H119" s="88"/>
-      <c r="I119" s="88"/>
-      <c r="J119" s="88"/>
+      <c r="H119" s="86"/>
+      <c r="I119" s="86"/>
+      <c r="J119" s="86"/>
       <c r="K119" s="32"/>
       <c r="L119" s="60"/>
       <c r="M119" s="32"/>
@@ -6153,15 +6549,15 @@
       <c r="D120" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E120" s="89"/>
-      <c r="F120" s="80"/>
-      <c r="G120" s="83" t="str">
+      <c r="E120" s="79"/>
+      <c r="F120" s="85"/>
+      <c r="G120" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H120" s="83"/>
-      <c r="I120" s="83"/>
-      <c r="J120" s="83"/>
+      <c r="H120" s="88"/>
+      <c r="I120" s="88"/>
+      <c r="J120" s="88"/>
       <c r="K120" s="30"/>
       <c r="L120" s="30"/>
       <c r="M120" s="30"/>
@@ -6177,12 +6573,12 @@
         <f>'Senet Taksit Giriş'!D8</f>
         <v>45687</v>
       </c>
-      <c r="E121" s="89"/>
-      <c r="F121" s="80"/>
-      <c r="G121" s="83"/>
-      <c r="H121" s="83"/>
-      <c r="I121" s="83"/>
-      <c r="J121" s="83"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="88"/>
+      <c r="I121" s="88"/>
+      <c r="J121" s="88"/>
       <c r="K121" s="30"/>
       <c r="L121" s="43" t="s">
         <v>49</v>
@@ -6199,15 +6595,15 @@
       <c r="D122" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E122" s="89"/>
-      <c r="F122" s="80"/>
-      <c r="G122" s="84" t="str">
+      <c r="E122" s="79"/>
+      <c r="F122" s="85"/>
+      <c r="G122" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H122" s="84"/>
-      <c r="I122" s="84"/>
-      <c r="J122" s="84"/>
+      <c r="H122" s="80"/>
+      <c r="I122" s="80"/>
+      <c r="J122" s="80"/>
       <c r="K122" s="30"/>
       <c r="L122" s="30"/>
       <c r="M122" s="30"/>
@@ -6223,15 +6619,15 @@
         <f>'Senet Taksit Giriş'!C8</f>
         <v>45503</v>
       </c>
-      <c r="E123" s="89"/>
-      <c r="F123" s="80"/>
-      <c r="G123" s="85" t="str">
+      <c r="E123" s="79"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H123" s="85"/>
-      <c r="I123" s="85"/>
-      <c r="J123" s="85"/>
+      <c r="H123" s="81"/>
+      <c r="I123" s="81"/>
+      <c r="J123" s="81"/>
       <c r="K123" s="58"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -6282,7 +6678,7 @@
       <c r="D126" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E126" s="89" t="str">
+      <c r="E126" s="79" t="str">
         <f>$D133 &amp;"    - Taksit No: " &amp; $D128&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 7 #  </v>
       </c>
@@ -6315,7 +6711,7 @@
       <c r="D127" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E127" s="89"/>
+      <c r="E127" s="79"/>
       <c r="F127" s="30"/>
       <c r="G127" s="45">
         <f>D141</f>
@@ -6351,7 +6747,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B9),"##.##0")&amp;" #"</f>
         <v># 7 #</v>
       </c>
-      <c r="E128" s="89"/>
+      <c r="E128" s="79"/>
       <c r="F128" s="30"/>
       <c r="G128" s="30"/>
       <c r="H128" s="30"/>
@@ -6371,20 +6767,20 @@
       <c r="D129" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E129" s="89"/>
-      <c r="F129" s="86" t="str">
+      <c r="E129" s="79"/>
+      <c r="F129" s="82" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G127,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F9&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G9&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G129" s="86"/>
-      <c r="H129" s="86"/>
-      <c r="I129" s="86"/>
-      <c r="J129" s="86"/>
-      <c r="K129" s="86"/>
-      <c r="L129" s="86"/>
-      <c r="M129" s="86"/>
-      <c r="N129" s="86"/>
-      <c r="O129" s="86"/>
+      <c r="G129" s="82"/>
+      <c r="H129" s="82"/>
+      <c r="I129" s="82"/>
+      <c r="J129" s="82"/>
+      <c r="K129" s="82"/>
+      <c r="L129" s="82"/>
+      <c r="M129" s="82"/>
+      <c r="N129" s="82"/>
+      <c r="O129" s="82"/>
       <c r="P129" s="51"/>
     </row>
     <row r="130" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6395,17 +6791,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E9),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E130" s="89"/>
-      <c r="F130" s="86"/>
-      <c r="G130" s="86"/>
-      <c r="H130" s="86"/>
-      <c r="I130" s="86"/>
-      <c r="J130" s="86"/>
-      <c r="K130" s="86"/>
-      <c r="L130" s="86"/>
-      <c r="M130" s="86"/>
-      <c r="N130" s="86"/>
-      <c r="O130" s="86"/>
+      <c r="E130" s="79"/>
+      <c r="F130" s="82"/>
+      <c r="G130" s="82"/>
+      <c r="H130" s="82"/>
+      <c r="I130" s="82"/>
+      <c r="J130" s="82"/>
+      <c r="K130" s="82"/>
+      <c r="L130" s="82"/>
+      <c r="M130" s="82"/>
+      <c r="N130" s="82"/>
+      <c r="O130" s="82"/>
       <c r="P130" s="51"/>
     </row>
     <row r="131" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6416,17 +6812,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E132-INT('Senet Taksit Giriş'!E132))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E131" s="89"/>
-      <c r="F131" s="86"/>
-      <c r="G131" s="86"/>
-      <c r="H131" s="86"/>
-      <c r="I131" s="86"/>
-      <c r="J131" s="86"/>
-      <c r="K131" s="86"/>
-      <c r="L131" s="86"/>
-      <c r="M131" s="86"/>
-      <c r="N131" s="86"/>
-      <c r="O131" s="86"/>
+      <c r="E131" s="79"/>
+      <c r="F131" s="82"/>
+      <c r="G131" s="82"/>
+      <c r="H131" s="82"/>
+      <c r="I131" s="82"/>
+      <c r="J131" s="82"/>
+      <c r="K131" s="82"/>
+      <c r="L131" s="82"/>
+      <c r="M131" s="82"/>
+      <c r="N131" s="82"/>
+      <c r="O131" s="82"/>
       <c r="P131" s="51"/>
     </row>
     <row r="132" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6436,28 +6832,28 @@
       <c r="D132" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E132" s="89"/>
-      <c r="F132" s="86"/>
-      <c r="G132" s="86"/>
-      <c r="H132" s="86"/>
-      <c r="I132" s="86"/>
-      <c r="J132" s="86"/>
-      <c r="K132" s="86"/>
-      <c r="L132" s="86"/>
-      <c r="M132" s="86"/>
-      <c r="N132" s="86"/>
-      <c r="O132" s="86"/>
+      <c r="E132" s="79"/>
+      <c r="F132" s="82"/>
+      <c r="G132" s="82"/>
+      <c r="H132" s="82"/>
+      <c r="I132" s="82"/>
+      <c r="J132" s="82"/>
+      <c r="K132" s="82"/>
+      <c r="L132" s="82"/>
+      <c r="M132" s="82"/>
+      <c r="N132" s="82"/>
+      <c r="O132" s="82"/>
       <c r="P132" s="51"/>
     </row>
     <row r="133" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="30"/>
       <c r="B133" s="55"/>
       <c r="C133" s="30"/>
-      <c r="D133" s="79" t="str">
+      <c r="D133" s="84" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E133" s="89"/>
+      <c r="E133" s="79"/>
       <c r="F133"/>
       <c r="G133"/>
       <c r="H133"/>
@@ -6474,22 +6870,22 @@
       <c r="A134" s="30"/>
       <c r="B134" s="42"/>
       <c r="C134" s="30"/>
-      <c r="D134" s="79"/>
-      <c r="E134" s="89"/>
-      <c r="F134" s="80" t="s">
+      <c r="D134" s="84"/>
+      <c r="E134" s="79"/>
+      <c r="F134" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="G134" s="88" t="str">
+      <c r="G134" s="86" t="str">
         <f>"İsim : "&amp;$D133</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H134" s="88"/>
-      <c r="I134" s="88"/>
-      <c r="J134" s="88"/>
+      <c r="H134" s="86"/>
+      <c r="I134" s="86"/>
+      <c r="J134" s="86"/>
       <c r="K134" s="32"/>
       <c r="L134" s="32"/>
-      <c r="M134" s="82"/>
-      <c r="N134" s="82"/>
+      <c r="M134" s="87"/>
+      <c r="N134" s="87"/>
       <c r="O134" s="33"/>
       <c r="P134" s="51"/>
     </row>
@@ -6497,17 +6893,17 @@
       <c r="A135" s="30"/>
       <c r="B135" s="56"/>
       <c r="C135" s="57"/>
-      <c r="D135" s="79"/>
-      <c r="E135" s="89"/>
-      <c r="F135" s="80"/>
-      <c r="G135" s="83" t="str">
+      <c r="D135" s="84"/>
+      <c r="E135" s="79"/>
+      <c r="F135" s="85"/>
+      <c r="G135" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H135" s="83"/>
-      <c r="I135" s="83"/>
-      <c r="J135" s="83"/>
-      <c r="K135" s="83"/>
+      <c r="H135" s="88"/>
+      <c r="I135" s="88"/>
+      <c r="J135" s="88"/>
+      <c r="K135" s="88"/>
       <c r="L135" s="30"/>
       <c r="M135" s="30"/>
       <c r="N135" s="30"/>
@@ -6518,14 +6914,14 @@
       <c r="A136" s="30"/>
       <c r="B136" s="56"/>
       <c r="C136" s="57"/>
-      <c r="D136" s="79"/>
-      <c r="E136" s="89"/>
-      <c r="F136" s="80"/>
-      <c r="G136" s="83"/>
-      <c r="H136" s="83"/>
-      <c r="I136" s="83"/>
-      <c r="J136" s="83"/>
-      <c r="K136" s="83"/>
+      <c r="D136" s="84"/>
+      <c r="E136" s="79"/>
+      <c r="F136" s="85"/>
+      <c r="G136" s="88"/>
+      <c r="H136" s="88"/>
+      <c r="I136" s="88"/>
+      <c r="J136" s="88"/>
+      <c r="K136" s="88"/>
       <c r="L136" s="43" t="s">
         <v>49</v>
       </c>
@@ -6538,16 +6934,16 @@
       <c r="A137" s="30"/>
       <c r="B137" s="56"/>
       <c r="C137" s="57"/>
-      <c r="D137" s="79"/>
-      <c r="E137" s="89"/>
-      <c r="F137" s="80"/>
-      <c r="G137" s="84" t="str">
+      <c r="D137" s="84"/>
+      <c r="E137" s="79"/>
+      <c r="F137" s="85"/>
+      <c r="G137" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H137" s="84"/>
-      <c r="I137" s="84"/>
-      <c r="J137" s="84"/>
+      <c r="H137" s="80"/>
+      <c r="I137" s="80"/>
+      <c r="J137" s="80"/>
       <c r="K137" s="30"/>
       <c r="L137" s="30"/>
       <c r="M137" s="30"/>
@@ -6559,16 +6955,16 @@
       <c r="A138" s="30"/>
       <c r="B138" s="42"/>
       <c r="C138" s="30"/>
-      <c r="D138" s="79"/>
-      <c r="E138" s="89"/>
-      <c r="F138" s="80"/>
-      <c r="G138" s="85" t="str">
+      <c r="D138" s="84"/>
+      <c r="E138" s="79"/>
+      <c r="F138" s="85"/>
+      <c r="G138" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H138" s="85"/>
-      <c r="I138" s="85"/>
-      <c r="J138" s="85"/>
+      <c r="H138" s="81"/>
+      <c r="I138" s="81"/>
+      <c r="J138" s="81"/>
       <c r="K138" s="58"/>
       <c r="L138" s="58"/>
       <c r="M138" s="58"/>
@@ -6580,18 +6976,18 @@
       <c r="A139" s="30"/>
       <c r="B139" s="55"/>
       <c r="C139" s="30"/>
-      <c r="D139" s="79"/>
-      <c r="E139" s="89"/>
-      <c r="F139" s="80" t="s">
+      <c r="D139" s="84"/>
+      <c r="E139" s="79"/>
+      <c r="F139" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G139" s="88" t="str">
+      <c r="G139" s="86" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H139" s="88"/>
-      <c r="I139" s="88"/>
-      <c r="J139" s="88"/>
+      <c r="H139" s="86"/>
+      <c r="I139" s="86"/>
+      <c r="J139" s="86"/>
       <c r="K139" s="32"/>
       <c r="L139" s="60"/>
       <c r="M139" s="32"/>
@@ -6606,15 +7002,15 @@
       <c r="D140" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E140" s="89"/>
-      <c r="F140" s="80"/>
-      <c r="G140" s="83" t="str">
+      <c r="E140" s="79"/>
+      <c r="F140" s="85"/>
+      <c r="G140" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H140" s="83"/>
-      <c r="I140" s="83"/>
-      <c r="J140" s="83"/>
+      <c r="H140" s="88"/>
+      <c r="I140" s="88"/>
+      <c r="J140" s="88"/>
       <c r="K140" s="30"/>
       <c r="L140" s="30"/>
       <c r="M140" s="30"/>
@@ -6630,12 +7026,12 @@
         <f>'Senet Taksit Giriş'!D9</f>
         <v>45716</v>
       </c>
-      <c r="E141" s="89"/>
-      <c r="F141" s="80"/>
-      <c r="G141" s="83"/>
-      <c r="H141" s="83"/>
-      <c r="I141" s="83"/>
-      <c r="J141" s="83"/>
+      <c r="E141" s="79"/>
+      <c r="F141" s="85"/>
+      <c r="G141" s="88"/>
+      <c r="H141" s="88"/>
+      <c r="I141" s="88"/>
+      <c r="J141" s="88"/>
       <c r="K141" s="30"/>
       <c r="L141" s="43" t="s">
         <v>49</v>
@@ -6652,15 +7048,15 @@
       <c r="D142" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E142" s="89"/>
-      <c r="F142" s="80"/>
-      <c r="G142" s="84" t="str">
+      <c r="E142" s="79"/>
+      <c r="F142" s="85"/>
+      <c r="G142" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H142" s="84"/>
-      <c r="I142" s="84"/>
-      <c r="J142" s="84"/>
+      <c r="H142" s="80"/>
+      <c r="I142" s="80"/>
+      <c r="J142" s="80"/>
       <c r="K142" s="30"/>
       <c r="L142" s="30"/>
       <c r="M142" s="30"/>
@@ -6676,15 +7072,15 @@
         <f>'Senet Taksit Giriş'!C9</f>
         <v>45503</v>
       </c>
-      <c r="E143" s="89"/>
-      <c r="F143" s="80"/>
-      <c r="G143" s="85" t="str">
+      <c r="E143" s="79"/>
+      <c r="F143" s="85"/>
+      <c r="G143" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H143" s="85"/>
-      <c r="I143" s="85"/>
-      <c r="J143" s="85"/>
+      <c r="H143" s="81"/>
+      <c r="I143" s="81"/>
+      <c r="J143" s="81"/>
       <c r="K143" s="58"/>
       <c r="L143" s="58"/>
       <c r="M143" s="58"/>
@@ -6735,7 +7131,7 @@
       <c r="D147" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E147" s="89" t="str">
+      <c r="E147" s="79" t="str">
         <f>$D154 &amp;"    - Taksit No: " &amp; $D149&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 8 #  </v>
       </c>
@@ -6768,7 +7164,7 @@
       <c r="D148" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E148" s="89"/>
+      <c r="E148" s="79"/>
       <c r="F148" s="30"/>
       <c r="G148" s="45">
         <f>D162</f>
@@ -6804,7 +7200,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B10),"##.##0")&amp;" #"</f>
         <v># 8 #</v>
       </c>
-      <c r="E149" s="89"/>
+      <c r="E149" s="79"/>
       <c r="F149" s="30"/>
       <c r="G149" s="30"/>
       <c r="H149" s="30"/>
@@ -6824,20 +7220,20 @@
       <c r="D150" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E150" s="89"/>
-      <c r="F150" s="86" t="str">
+      <c r="E150" s="79"/>
+      <c r="F150" s="82" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G148,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F10&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G10&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G150" s="86"/>
-      <c r="H150" s="86"/>
-      <c r="I150" s="86"/>
-      <c r="J150" s="86"/>
-      <c r="K150" s="86"/>
-      <c r="L150" s="86"/>
-      <c r="M150" s="86"/>
-      <c r="N150" s="86"/>
-      <c r="O150" s="86"/>
+      <c r="G150" s="82"/>
+      <c r="H150" s="82"/>
+      <c r="I150" s="82"/>
+      <c r="J150" s="82"/>
+      <c r="K150" s="82"/>
+      <c r="L150" s="82"/>
+      <c r="M150" s="82"/>
+      <c r="N150" s="82"/>
+      <c r="O150" s="82"/>
       <c r="P150" s="51"/>
     </row>
     <row r="151" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6848,17 +7244,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E10),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E151" s="89"/>
-      <c r="F151" s="86"/>
-      <c r="G151" s="86"/>
-      <c r="H151" s="86"/>
-      <c r="I151" s="86"/>
-      <c r="J151" s="86"/>
-      <c r="K151" s="86"/>
-      <c r="L151" s="86"/>
-      <c r="M151" s="86"/>
-      <c r="N151" s="86"/>
-      <c r="O151" s="86"/>
+      <c r="E151" s="79"/>
+      <c r="F151" s="82"/>
+      <c r="G151" s="82"/>
+      <c r="H151" s="82"/>
+      <c r="I151" s="82"/>
+      <c r="J151" s="82"/>
+      <c r="K151" s="82"/>
+      <c r="L151" s="82"/>
+      <c r="M151" s="82"/>
+      <c r="N151" s="82"/>
+      <c r="O151" s="82"/>
       <c r="P151" s="51"/>
     </row>
     <row r="152" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6869,17 +7265,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E153-INT('Senet Taksit Giriş'!E153))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E152" s="89"/>
-      <c r="F152" s="86"/>
-      <c r="G152" s="86"/>
-      <c r="H152" s="86"/>
-      <c r="I152" s="86"/>
-      <c r="J152" s="86"/>
-      <c r="K152" s="86"/>
-      <c r="L152" s="86"/>
-      <c r="M152" s="86"/>
-      <c r="N152" s="86"/>
-      <c r="O152" s="86"/>
+      <c r="E152" s="79"/>
+      <c r="F152" s="82"/>
+      <c r="G152" s="82"/>
+      <c r="H152" s="82"/>
+      <c r="I152" s="82"/>
+      <c r="J152" s="82"/>
+      <c r="K152" s="82"/>
+      <c r="L152" s="82"/>
+      <c r="M152" s="82"/>
+      <c r="N152" s="82"/>
+      <c r="O152" s="82"/>
       <c r="P152" s="51"/>
     </row>
     <row r="153" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6889,28 +7285,28 @@
       <c r="D153" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E153" s="89"/>
-      <c r="F153" s="86"/>
-      <c r="G153" s="86"/>
-      <c r="H153" s="86"/>
-      <c r="I153" s="86"/>
-      <c r="J153" s="86"/>
-      <c r="K153" s="86"/>
-      <c r="L153" s="86"/>
-      <c r="M153" s="86"/>
-      <c r="N153" s="86"/>
-      <c r="O153" s="86"/>
+      <c r="E153" s="79"/>
+      <c r="F153" s="82"/>
+      <c r="G153" s="82"/>
+      <c r="H153" s="82"/>
+      <c r="I153" s="82"/>
+      <c r="J153" s="82"/>
+      <c r="K153" s="82"/>
+      <c r="L153" s="82"/>
+      <c r="M153" s="82"/>
+      <c r="N153" s="82"/>
+      <c r="O153" s="82"/>
       <c r="P153" s="51"/>
     </row>
     <row r="154" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="30"/>
       <c r="B154" s="55"/>
       <c r="C154" s="30"/>
-      <c r="D154" s="79" t="str">
+      <c r="D154" s="84" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E154" s="89"/>
+      <c r="E154" s="79"/>
       <c r="F154"/>
       <c r="G154"/>
       <c r="H154"/>
@@ -6927,22 +7323,22 @@
       <c r="A155" s="30"/>
       <c r="B155" s="42"/>
       <c r="C155" s="30"/>
-      <c r="D155" s="79"/>
-      <c r="E155" s="89"/>
-      <c r="F155" s="80" t="s">
+      <c r="D155" s="84"/>
+      <c r="E155" s="79"/>
+      <c r="F155" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="G155" s="88" t="str">
+      <c r="G155" s="86" t="str">
         <f>"İsim : "&amp;$D154</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H155" s="88"/>
-      <c r="I155" s="88"/>
-      <c r="J155" s="88"/>
+      <c r="H155" s="86"/>
+      <c r="I155" s="86"/>
+      <c r="J155" s="86"/>
       <c r="K155" s="32"/>
       <c r="L155" s="32"/>
-      <c r="M155" s="82"/>
-      <c r="N155" s="82"/>
+      <c r="M155" s="87"/>
+      <c r="N155" s="87"/>
       <c r="O155" s="33"/>
       <c r="P155" s="51"/>
     </row>
@@ -6950,17 +7346,17 @@
       <c r="A156" s="30"/>
       <c r="B156" s="56"/>
       <c r="C156" s="57"/>
-      <c r="D156" s="79"/>
-      <c r="E156" s="89"/>
-      <c r="F156" s="80"/>
-      <c r="G156" s="83" t="str">
+      <c r="D156" s="84"/>
+      <c r="E156" s="79"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H156" s="83"/>
-      <c r="I156" s="83"/>
-      <c r="J156" s="83"/>
-      <c r="K156" s="83"/>
+      <c r="H156" s="88"/>
+      <c r="I156" s="88"/>
+      <c r="J156" s="88"/>
+      <c r="K156" s="88"/>
       <c r="L156" s="30"/>
       <c r="M156" s="30"/>
       <c r="N156" s="30"/>
@@ -6971,14 +7367,14 @@
       <c r="A157" s="30"/>
       <c r="B157" s="56"/>
       <c r="C157" s="57"/>
-      <c r="D157" s="79"/>
-      <c r="E157" s="89"/>
-      <c r="F157" s="80"/>
-      <c r="G157" s="83"/>
-      <c r="H157" s="83"/>
-      <c r="I157" s="83"/>
-      <c r="J157" s="83"/>
-      <c r="K157" s="83"/>
+      <c r="D157" s="84"/>
+      <c r="E157" s="79"/>
+      <c r="F157" s="85"/>
+      <c r="G157" s="88"/>
+      <c r="H157" s="88"/>
+      <c r="I157" s="88"/>
+      <c r="J157" s="88"/>
+      <c r="K157" s="88"/>
       <c r="L157" s="43" t="s">
         <v>49</v>
       </c>
@@ -6991,16 +7387,16 @@
       <c r="A158" s="30"/>
       <c r="B158" s="56"/>
       <c r="C158" s="57"/>
-      <c r="D158" s="79"/>
-      <c r="E158" s="89"/>
-      <c r="F158" s="80"/>
-      <c r="G158" s="84" t="str">
+      <c r="D158" s="84"/>
+      <c r="E158" s="79"/>
+      <c r="F158" s="85"/>
+      <c r="G158" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H158" s="84"/>
-      <c r="I158" s="84"/>
-      <c r="J158" s="84"/>
+      <c r="H158" s="80"/>
+      <c r="I158" s="80"/>
+      <c r="J158" s="80"/>
       <c r="K158" s="30"/>
       <c r="L158" s="30"/>
       <c r="M158" s="30"/>
@@ -7012,16 +7408,16 @@
       <c r="A159" s="30"/>
       <c r="B159" s="42"/>
       <c r="C159" s="30"/>
-      <c r="D159" s="79"/>
-      <c r="E159" s="89"/>
-      <c r="F159" s="80"/>
-      <c r="G159" s="85" t="str">
+      <c r="D159" s="84"/>
+      <c r="E159" s="79"/>
+      <c r="F159" s="85"/>
+      <c r="G159" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H159" s="85"/>
-      <c r="I159" s="85"/>
-      <c r="J159" s="85"/>
+      <c r="H159" s="81"/>
+      <c r="I159" s="81"/>
+      <c r="J159" s="81"/>
       <c r="K159" s="58"/>
       <c r="L159" s="58"/>
       <c r="M159" s="58"/>
@@ -7033,18 +7429,18 @@
       <c r="A160" s="30"/>
       <c r="B160" s="55"/>
       <c r="C160" s="30"/>
-      <c r="D160" s="79"/>
-      <c r="E160" s="89"/>
-      <c r="F160" s="80" t="s">
+      <c r="D160" s="84"/>
+      <c r="E160" s="79"/>
+      <c r="F160" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G160" s="88" t="str">
+      <c r="G160" s="86" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H160" s="88"/>
-      <c r="I160" s="88"/>
-      <c r="J160" s="88"/>
+      <c r="H160" s="86"/>
+      <c r="I160" s="86"/>
+      <c r="J160" s="86"/>
       <c r="K160" s="32"/>
       <c r="L160" s="60"/>
       <c r="M160" s="32"/>
@@ -7059,15 +7455,15 @@
       <c r="D161" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E161" s="89"/>
-      <c r="F161" s="80"/>
-      <c r="G161" s="83" t="str">
+      <c r="E161" s="79"/>
+      <c r="F161" s="85"/>
+      <c r="G161" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H161" s="83"/>
-      <c r="I161" s="83"/>
-      <c r="J161" s="83"/>
+      <c r="H161" s="88"/>
+      <c r="I161" s="88"/>
+      <c r="J161" s="88"/>
       <c r="K161" s="30"/>
       <c r="L161" s="30"/>
       <c r="M161" s="30"/>
@@ -7083,12 +7479,12 @@
         <f>'Senet Taksit Giriş'!D10</f>
         <v>45746</v>
       </c>
-      <c r="E162" s="89"/>
-      <c r="F162" s="80"/>
-      <c r="G162" s="83"/>
-      <c r="H162" s="83"/>
-      <c r="I162" s="83"/>
-      <c r="J162" s="83"/>
+      <c r="E162" s="79"/>
+      <c r="F162" s="85"/>
+      <c r="G162" s="88"/>
+      <c r="H162" s="88"/>
+      <c r="I162" s="88"/>
+      <c r="J162" s="88"/>
       <c r="K162" s="30"/>
       <c r="L162" s="43" t="s">
         <v>49</v>
@@ -7105,15 +7501,15 @@
       <c r="D163" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E163" s="89"/>
-      <c r="F163" s="80"/>
-      <c r="G163" s="84" t="str">
+      <c r="E163" s="79"/>
+      <c r="F163" s="85"/>
+      <c r="G163" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H163" s="84"/>
-      <c r="I163" s="84"/>
-      <c r="J163" s="84"/>
+      <c r="H163" s="80"/>
+      <c r="I163" s="80"/>
+      <c r="J163" s="80"/>
       <c r="K163" s="30"/>
       <c r="L163" s="30"/>
       <c r="M163" s="30"/>
@@ -7129,15 +7525,15 @@
         <f>'Senet Taksit Giriş'!C10</f>
         <v>45503</v>
       </c>
-      <c r="E164" s="89"/>
-      <c r="F164" s="80"/>
-      <c r="G164" s="85" t="str">
+      <c r="E164" s="79"/>
+      <c r="F164" s="85"/>
+      <c r="G164" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H164" s="85"/>
-      <c r="I164" s="85"/>
-      <c r="J164" s="85"/>
+      <c r="H164" s="81"/>
+      <c r="I164" s="81"/>
+      <c r="J164" s="81"/>
       <c r="K164" s="58"/>
       <c r="L164" s="58"/>
       <c r="M164" s="58"/>
@@ -7188,7 +7584,7 @@
       <c r="D168" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E168" s="89" t="str">
+      <c r="E168" s="79" t="str">
         <f>$D175 &amp;"    - Taksit No: " &amp; $D170&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 9 #  </v>
       </c>
@@ -7221,7 +7617,7 @@
       <c r="D169" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E169" s="89"/>
+      <c r="E169" s="79"/>
       <c r="F169" s="30"/>
       <c r="G169" s="45">
         <f>D183</f>
@@ -7257,7 +7653,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B11),"##.##0")&amp;" #"</f>
         <v># 9 #</v>
       </c>
-      <c r="E170" s="89"/>
+      <c r="E170" s="79"/>
       <c r="F170" s="30"/>
       <c r="G170" s="30"/>
       <c r="H170" s="30"/>
@@ -7277,20 +7673,20 @@
       <c r="D171" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E171" s="89"/>
-      <c r="F171" s="86" t="str">
+      <c r="E171" s="79"/>
+      <c r="F171" s="82" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G169,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F11&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G11&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G171" s="86"/>
-      <c r="H171" s="86"/>
-      <c r="I171" s="86"/>
-      <c r="J171" s="86"/>
-      <c r="K171" s="86"/>
-      <c r="L171" s="86"/>
-      <c r="M171" s="86"/>
-      <c r="N171" s="86"/>
-      <c r="O171" s="86"/>
+      <c r="G171" s="82"/>
+      <c r="H171" s="82"/>
+      <c r="I171" s="82"/>
+      <c r="J171" s="82"/>
+      <c r="K171" s="82"/>
+      <c r="L171" s="82"/>
+      <c r="M171" s="82"/>
+      <c r="N171" s="82"/>
+      <c r="O171" s="82"/>
       <c r="P171" s="51"/>
     </row>
     <row r="172" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7301,17 +7697,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E11),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E172" s="89"/>
-      <c r="F172" s="86"/>
-      <c r="G172" s="86"/>
-      <c r="H172" s="86"/>
-      <c r="I172" s="86"/>
-      <c r="J172" s="86"/>
-      <c r="K172" s="86"/>
-      <c r="L172" s="86"/>
-      <c r="M172" s="86"/>
-      <c r="N172" s="86"/>
-      <c r="O172" s="86"/>
+      <c r="E172" s="79"/>
+      <c r="F172" s="82"/>
+      <c r="G172" s="82"/>
+      <c r="H172" s="82"/>
+      <c r="I172" s="82"/>
+      <c r="J172" s="82"/>
+      <c r="K172" s="82"/>
+      <c r="L172" s="82"/>
+      <c r="M172" s="82"/>
+      <c r="N172" s="82"/>
+      <c r="O172" s="82"/>
       <c r="P172" s="51"/>
     </row>
     <row r="173" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7322,17 +7718,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E174-INT('Senet Taksit Giriş'!E174))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E173" s="89"/>
-      <c r="F173" s="86"/>
-      <c r="G173" s="86"/>
-      <c r="H173" s="86"/>
-      <c r="I173" s="86"/>
-      <c r="J173" s="86"/>
-      <c r="K173" s="86"/>
-      <c r="L173" s="86"/>
-      <c r="M173" s="86"/>
-      <c r="N173" s="86"/>
-      <c r="O173" s="86"/>
+      <c r="E173" s="79"/>
+      <c r="F173" s="82"/>
+      <c r="G173" s="82"/>
+      <c r="H173" s="82"/>
+      <c r="I173" s="82"/>
+      <c r="J173" s="82"/>
+      <c r="K173" s="82"/>
+      <c r="L173" s="82"/>
+      <c r="M173" s="82"/>
+      <c r="N173" s="82"/>
+      <c r="O173" s="82"/>
       <c r="P173" s="51"/>
     </row>
     <row r="174" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7342,28 +7738,28 @@
       <c r="D174" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E174" s="89"/>
-      <c r="F174" s="86"/>
-      <c r="G174" s="86"/>
-      <c r="H174" s="86"/>
-      <c r="I174" s="86"/>
-      <c r="J174" s="86"/>
-      <c r="K174" s="86"/>
-      <c r="L174" s="86"/>
-      <c r="M174" s="86"/>
-      <c r="N174" s="86"/>
-      <c r="O174" s="86"/>
+      <c r="E174" s="79"/>
+      <c r="F174" s="82"/>
+      <c r="G174" s="82"/>
+      <c r="H174" s="82"/>
+      <c r="I174" s="82"/>
+      <c r="J174" s="82"/>
+      <c r="K174" s="82"/>
+      <c r="L174" s="82"/>
+      <c r="M174" s="82"/>
+      <c r="N174" s="82"/>
+      <c r="O174" s="82"/>
       <c r="P174" s="51"/>
     </row>
     <row r="175" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="30"/>
       <c r="B175" s="55"/>
       <c r="C175" s="30"/>
-      <c r="D175" s="79" t="str">
+      <c r="D175" s="84" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E175" s="89"/>
+      <c r="E175" s="79"/>
       <c r="F175"/>
       <c r="G175"/>
       <c r="H175"/>
@@ -7380,22 +7776,22 @@
       <c r="A176" s="30"/>
       <c r="B176" s="42"/>
       <c r="C176" s="30"/>
-      <c r="D176" s="79"/>
-      <c r="E176" s="89"/>
-      <c r="F176" s="80" t="s">
+      <c r="D176" s="84"/>
+      <c r="E176" s="79"/>
+      <c r="F176" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="G176" s="88" t="str">
+      <c r="G176" s="86" t="str">
         <f>"İsim : "&amp;$D175</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H176" s="88"/>
-      <c r="I176" s="88"/>
-      <c r="J176" s="88"/>
+      <c r="H176" s="86"/>
+      <c r="I176" s="86"/>
+      <c r="J176" s="86"/>
       <c r="K176" s="32"/>
       <c r="L176" s="32"/>
-      <c r="M176" s="82"/>
-      <c r="N176" s="82"/>
+      <c r="M176" s="87"/>
+      <c r="N176" s="87"/>
       <c r="O176" s="33"/>
       <c r="P176" s="51"/>
     </row>
@@ -7403,17 +7799,17 @@
       <c r="A177" s="30"/>
       <c r="B177" s="56"/>
       <c r="C177" s="57"/>
-      <c r="D177" s="79"/>
-      <c r="E177" s="89"/>
-      <c r="F177" s="80"/>
-      <c r="G177" s="83" t="str">
+      <c r="D177" s="84"/>
+      <c r="E177" s="79"/>
+      <c r="F177" s="85"/>
+      <c r="G177" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H177" s="83"/>
-      <c r="I177" s="83"/>
-      <c r="J177" s="83"/>
-      <c r="K177" s="83"/>
+      <c r="H177" s="88"/>
+      <c r="I177" s="88"/>
+      <c r="J177" s="88"/>
+      <c r="K177" s="88"/>
       <c r="L177" s="30"/>
       <c r="M177" s="30"/>
       <c r="N177" s="30"/>
@@ -7424,14 +7820,14 @@
       <c r="A178" s="30"/>
       <c r="B178" s="56"/>
       <c r="C178" s="57"/>
-      <c r="D178" s="79"/>
-      <c r="E178" s="89"/>
-      <c r="F178" s="80"/>
-      <c r="G178" s="83"/>
-      <c r="H178" s="83"/>
-      <c r="I178" s="83"/>
-      <c r="J178" s="83"/>
-      <c r="K178" s="83"/>
+      <c r="D178" s="84"/>
+      <c r="E178" s="79"/>
+      <c r="F178" s="85"/>
+      <c r="G178" s="88"/>
+      <c r="H178" s="88"/>
+      <c r="I178" s="88"/>
+      <c r="J178" s="88"/>
+      <c r="K178" s="88"/>
       <c r="L178" s="43" t="s">
         <v>49</v>
       </c>
@@ -7444,16 +7840,16 @@
       <c r="A179" s="30"/>
       <c r="B179" s="56"/>
       <c r="C179" s="57"/>
-      <c r="D179" s="79"/>
-      <c r="E179" s="89"/>
-      <c r="F179" s="80"/>
-      <c r="G179" s="84" t="str">
+      <c r="D179" s="84"/>
+      <c r="E179" s="79"/>
+      <c r="F179" s="85"/>
+      <c r="G179" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H179" s="84"/>
-      <c r="I179" s="84"/>
-      <c r="J179" s="84"/>
+      <c r="H179" s="80"/>
+      <c r="I179" s="80"/>
+      <c r="J179" s="80"/>
       <c r="K179" s="30"/>
       <c r="L179" s="30"/>
       <c r="M179" s="30"/>
@@ -7465,16 +7861,16 @@
       <c r="A180" s="30"/>
       <c r="B180" s="42"/>
       <c r="C180" s="30"/>
-      <c r="D180" s="79"/>
-      <c r="E180" s="89"/>
-      <c r="F180" s="80"/>
-      <c r="G180" s="85" t="str">
+      <c r="D180" s="84"/>
+      <c r="E180" s="79"/>
+      <c r="F180" s="85"/>
+      <c r="G180" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H180" s="85"/>
-      <c r="I180" s="85"/>
-      <c r="J180" s="85"/>
+      <c r="H180" s="81"/>
+      <c r="I180" s="81"/>
+      <c r="J180" s="81"/>
       <c r="K180" s="58"/>
       <c r="L180" s="58"/>
       <c r="M180" s="58"/>
@@ -7486,18 +7882,18 @@
       <c r="A181" s="30"/>
       <c r="B181" s="55"/>
       <c r="C181" s="30"/>
-      <c r="D181" s="79"/>
-      <c r="E181" s="89"/>
-      <c r="F181" s="80" t="s">
+      <c r="D181" s="84"/>
+      <c r="E181" s="79"/>
+      <c r="F181" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G181" s="88" t="str">
+      <c r="G181" s="86" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H181" s="88"/>
-      <c r="I181" s="88"/>
-      <c r="J181" s="88"/>
+      <c r="H181" s="86"/>
+      <c r="I181" s="86"/>
+      <c r="J181" s="86"/>
       <c r="K181" s="32"/>
       <c r="L181" s="60"/>
       <c r="M181" s="32"/>
@@ -7512,15 +7908,15 @@
       <c r="D182" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E182" s="89"/>
-      <c r="F182" s="80"/>
-      <c r="G182" s="83" t="str">
+      <c r="E182" s="79"/>
+      <c r="F182" s="85"/>
+      <c r="G182" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H182" s="83"/>
-      <c r="I182" s="83"/>
-      <c r="J182" s="83"/>
+      <c r="H182" s="88"/>
+      <c r="I182" s="88"/>
+      <c r="J182" s="88"/>
       <c r="K182" s="30"/>
       <c r="L182" s="30"/>
       <c r="M182" s="30"/>
@@ -7536,12 +7932,12 @@
         <f>'Senet Taksit Giriş'!D11</f>
         <v>45777</v>
       </c>
-      <c r="E183" s="89"/>
-      <c r="F183" s="80"/>
-      <c r="G183" s="83"/>
-      <c r="H183" s="83"/>
-      <c r="I183" s="83"/>
-      <c r="J183" s="83"/>
+      <c r="E183" s="79"/>
+      <c r="F183" s="85"/>
+      <c r="G183" s="88"/>
+      <c r="H183" s="88"/>
+      <c r="I183" s="88"/>
+      <c r="J183" s="88"/>
       <c r="K183" s="30"/>
       <c r="L183" s="43" t="s">
         <v>49</v>
@@ -7558,15 +7954,15 @@
       <c r="D184" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E184" s="89"/>
-      <c r="F184" s="80"/>
-      <c r="G184" s="84" t="str">
+      <c r="E184" s="79"/>
+      <c r="F184" s="85"/>
+      <c r="G184" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H184" s="84"/>
-      <c r="I184" s="84"/>
-      <c r="J184" s="84"/>
+      <c r="H184" s="80"/>
+      <c r="I184" s="80"/>
+      <c r="J184" s="80"/>
       <c r="K184" s="30"/>
       <c r="L184" s="30"/>
       <c r="M184" s="30"/>
@@ -7582,15 +7978,15 @@
         <f>'Senet Taksit Giriş'!C11</f>
         <v>45503</v>
       </c>
-      <c r="E185" s="89"/>
-      <c r="F185" s="80"/>
-      <c r="G185" s="85" t="str">
+      <c r="E185" s="79"/>
+      <c r="F185" s="85"/>
+      <c r="G185" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H185" s="85"/>
-      <c r="I185" s="85"/>
-      <c r="J185" s="85"/>
+      <c r="H185" s="81"/>
+      <c r="I185" s="81"/>
+      <c r="J185" s="81"/>
       <c r="K185" s="58"/>
       <c r="L185" s="58"/>
       <c r="M185" s="58"/>
@@ -7641,7 +8037,7 @@
       <c r="D188" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E188" s="89" t="str">
+      <c r="E188" s="79" t="str">
         <f>$D195 &amp;"    - Taksit No: " &amp; $D190&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 10 #  </v>
       </c>
@@ -7674,7 +8070,7 @@
       <c r="D189" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E189" s="89"/>
+      <c r="E189" s="79"/>
       <c r="F189" s="30"/>
       <c r="G189" s="45">
         <f>D203</f>
@@ -7710,7 +8106,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B12),"##.##0")&amp;" #"</f>
         <v># 10 #</v>
       </c>
-      <c r="E190" s="89"/>
+      <c r="E190" s="79"/>
       <c r="F190" s="30"/>
       <c r="G190" s="30"/>
       <c r="H190" s="30"/>
@@ -7730,20 +8126,20 @@
       <c r="D191" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E191" s="89"/>
-      <c r="F191" s="86" t="str">
+      <c r="E191" s="79"/>
+      <c r="F191" s="82" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G189,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F12&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G12&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G191" s="86"/>
-      <c r="H191" s="86"/>
-      <c r="I191" s="86"/>
-      <c r="J191" s="86"/>
-      <c r="K191" s="86"/>
-      <c r="L191" s="86"/>
-      <c r="M191" s="86"/>
-      <c r="N191" s="86"/>
-      <c r="O191" s="86"/>
+      <c r="G191" s="82"/>
+      <c r="H191" s="82"/>
+      <c r="I191" s="82"/>
+      <c r="J191" s="82"/>
+      <c r="K191" s="82"/>
+      <c r="L191" s="82"/>
+      <c r="M191" s="82"/>
+      <c r="N191" s="82"/>
+      <c r="O191" s="82"/>
       <c r="P191" s="51"/>
     </row>
     <row r="192" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7754,17 +8150,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E12),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E192" s="89"/>
-      <c r="F192" s="86"/>
-      <c r="G192" s="86"/>
-      <c r="H192" s="86"/>
-      <c r="I192" s="86"/>
-      <c r="J192" s="86"/>
-      <c r="K192" s="86"/>
-      <c r="L192" s="86"/>
-      <c r="M192" s="86"/>
-      <c r="N192" s="86"/>
-      <c r="O192" s="86"/>
+      <c r="E192" s="79"/>
+      <c r="F192" s="82"/>
+      <c r="G192" s="82"/>
+      <c r="H192" s="82"/>
+      <c r="I192" s="82"/>
+      <c r="J192" s="82"/>
+      <c r="K192" s="82"/>
+      <c r="L192" s="82"/>
+      <c r="M192" s="82"/>
+      <c r="N192" s="82"/>
+      <c r="O192" s="82"/>
       <c r="P192" s="51"/>
     </row>
     <row r="193" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7775,17 +8171,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E195-INT('Senet Taksit Giriş'!E195))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E193" s="89"/>
-      <c r="F193" s="86"/>
-      <c r="G193" s="86"/>
-      <c r="H193" s="86"/>
-      <c r="I193" s="86"/>
-      <c r="J193" s="86"/>
-      <c r="K193" s="86"/>
-      <c r="L193" s="86"/>
-      <c r="M193" s="86"/>
-      <c r="N193" s="86"/>
-      <c r="O193" s="86"/>
+      <c r="E193" s="79"/>
+      <c r="F193" s="82"/>
+      <c r="G193" s="82"/>
+      <c r="H193" s="82"/>
+      <c r="I193" s="82"/>
+      <c r="J193" s="82"/>
+      <c r="K193" s="82"/>
+      <c r="L193" s="82"/>
+      <c r="M193" s="82"/>
+      <c r="N193" s="82"/>
+      <c r="O193" s="82"/>
       <c r="P193" s="51"/>
     </row>
     <row r="194" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7795,28 +8191,28 @@
       <c r="D194" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E194" s="89"/>
-      <c r="F194" s="86"/>
-      <c r="G194" s="86"/>
-      <c r="H194" s="86"/>
-      <c r="I194" s="86"/>
-      <c r="J194" s="86"/>
-      <c r="K194" s="86"/>
-      <c r="L194" s="86"/>
-      <c r="M194" s="86"/>
-      <c r="N194" s="86"/>
-      <c r="O194" s="86"/>
+      <c r="E194" s="79"/>
+      <c r="F194" s="82"/>
+      <c r="G194" s="82"/>
+      <c r="H194" s="82"/>
+      <c r="I194" s="82"/>
+      <c r="J194" s="82"/>
+      <c r="K194" s="82"/>
+      <c r="L194" s="82"/>
+      <c r="M194" s="82"/>
+      <c r="N194" s="82"/>
+      <c r="O194" s="82"/>
       <c r="P194" s="51"/>
     </row>
     <row r="195" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="30"/>
       <c r="B195" s="55"/>
       <c r="C195" s="30"/>
-      <c r="D195" s="79" t="str">
+      <c r="D195" s="84" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E195" s="89"/>
+      <c r="E195" s="79"/>
       <c r="F195"/>
       <c r="G195"/>
       <c r="H195"/>
@@ -7833,22 +8229,22 @@
       <c r="A196" s="30"/>
       <c r="B196" s="42"/>
       <c r="C196" s="30"/>
-      <c r="D196" s="79"/>
-      <c r="E196" s="89"/>
-      <c r="F196" s="80" t="s">
+      <c r="D196" s="84"/>
+      <c r="E196" s="79"/>
+      <c r="F196" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="G196" s="88" t="str">
+      <c r="G196" s="86" t="str">
         <f>"İsim : "&amp;$D195</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H196" s="88"/>
-      <c r="I196" s="88"/>
-      <c r="J196" s="88"/>
+      <c r="H196" s="86"/>
+      <c r="I196" s="86"/>
+      <c r="J196" s="86"/>
       <c r="K196" s="32"/>
       <c r="L196" s="32"/>
-      <c r="M196" s="82"/>
-      <c r="N196" s="82"/>
+      <c r="M196" s="87"/>
+      <c r="N196" s="87"/>
       <c r="O196" s="33"/>
       <c r="P196" s="51"/>
     </row>
@@ -7856,17 +8252,17 @@
       <c r="A197" s="30"/>
       <c r="B197" s="56"/>
       <c r="C197" s="57"/>
-      <c r="D197" s="79"/>
-      <c r="E197" s="89"/>
-      <c r="F197" s="80"/>
-      <c r="G197" s="83" t="str">
+      <c r="D197" s="84"/>
+      <c r="E197" s="79"/>
+      <c r="F197" s="85"/>
+      <c r="G197" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H197" s="83"/>
-      <c r="I197" s="83"/>
-      <c r="J197" s="83"/>
-      <c r="K197" s="83"/>
+      <c r="H197" s="88"/>
+      <c r="I197" s="88"/>
+      <c r="J197" s="88"/>
+      <c r="K197" s="88"/>
       <c r="L197" s="30"/>
       <c r="M197" s="30"/>
       <c r="N197" s="30"/>
@@ -7877,14 +8273,14 @@
       <c r="A198" s="30"/>
       <c r="B198" s="56"/>
       <c r="C198" s="57"/>
-      <c r="D198" s="79"/>
-      <c r="E198" s="89"/>
-      <c r="F198" s="80"/>
-      <c r="G198" s="83"/>
-      <c r="H198" s="83"/>
-      <c r="I198" s="83"/>
-      <c r="J198" s="83"/>
-      <c r="K198" s="83"/>
+      <c r="D198" s="84"/>
+      <c r="E198" s="79"/>
+      <c r="F198" s="85"/>
+      <c r="G198" s="88"/>
+      <c r="H198" s="88"/>
+      <c r="I198" s="88"/>
+      <c r="J198" s="88"/>
+      <c r="K198" s="88"/>
       <c r="L198" s="43" t="s">
         <v>49</v>
       </c>
@@ -7897,16 +8293,16 @@
       <c r="A199" s="30"/>
       <c r="B199" s="56"/>
       <c r="C199" s="57"/>
-      <c r="D199" s="79"/>
-      <c r="E199" s="89"/>
-      <c r="F199" s="80"/>
-      <c r="G199" s="84" t="str">
+      <c r="D199" s="84"/>
+      <c r="E199" s="79"/>
+      <c r="F199" s="85"/>
+      <c r="G199" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H199" s="84"/>
-      <c r="I199" s="84"/>
-      <c r="J199" s="84"/>
+      <c r="H199" s="80"/>
+      <c r="I199" s="80"/>
+      <c r="J199" s="80"/>
       <c r="K199" s="30"/>
       <c r="L199" s="30"/>
       <c r="M199" s="30"/>
@@ -7918,16 +8314,16 @@
       <c r="A200" s="30"/>
       <c r="B200" s="42"/>
       <c r="C200" s="30"/>
-      <c r="D200" s="79"/>
-      <c r="E200" s="89"/>
-      <c r="F200" s="80"/>
-      <c r="G200" s="85" t="str">
+      <c r="D200" s="84"/>
+      <c r="E200" s="79"/>
+      <c r="F200" s="85"/>
+      <c r="G200" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H200" s="85"/>
-      <c r="I200" s="85"/>
-      <c r="J200" s="85"/>
+      <c r="H200" s="81"/>
+      <c r="I200" s="81"/>
+      <c r="J200" s="81"/>
       <c r="K200" s="58"/>
       <c r="L200" s="58"/>
       <c r="M200" s="58"/>
@@ -7939,18 +8335,18 @@
       <c r="A201" s="30"/>
       <c r="B201" s="55"/>
       <c r="C201" s="30"/>
-      <c r="D201" s="79"/>
-      <c r="E201" s="89"/>
-      <c r="F201" s="80" t="s">
+      <c r="D201" s="84"/>
+      <c r="E201" s="79"/>
+      <c r="F201" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G201" s="88" t="str">
+      <c r="G201" s="86" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H201" s="88"/>
-      <c r="I201" s="88"/>
-      <c r="J201" s="88"/>
+      <c r="H201" s="86"/>
+      <c r="I201" s="86"/>
+      <c r="J201" s="86"/>
       <c r="K201" s="32"/>
       <c r="L201" s="60"/>
       <c r="M201" s="32"/>
@@ -7965,15 +8361,15 @@
       <c r="D202" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E202" s="89"/>
-      <c r="F202" s="80"/>
-      <c r="G202" s="83" t="str">
+      <c r="E202" s="79"/>
+      <c r="F202" s="85"/>
+      <c r="G202" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H202" s="83"/>
-      <c r="I202" s="83"/>
-      <c r="J202" s="83"/>
+      <c r="H202" s="88"/>
+      <c r="I202" s="88"/>
+      <c r="J202" s="88"/>
       <c r="K202" s="30"/>
       <c r="L202" s="30"/>
       <c r="M202" s="30"/>
@@ -7989,12 +8385,12 @@
         <f>'Senet Taksit Giriş'!D12</f>
         <v>45807</v>
       </c>
-      <c r="E203" s="89"/>
-      <c r="F203" s="80"/>
-      <c r="G203" s="83"/>
-      <c r="H203" s="83"/>
-      <c r="I203" s="83"/>
-      <c r="J203" s="83"/>
+      <c r="E203" s="79"/>
+      <c r="F203" s="85"/>
+      <c r="G203" s="88"/>
+      <c r="H203" s="88"/>
+      <c r="I203" s="88"/>
+      <c r="J203" s="88"/>
       <c r="K203" s="30"/>
       <c r="L203" s="43" t="s">
         <v>49</v>
@@ -8011,15 +8407,15 @@
       <c r="D204" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E204" s="89"/>
-      <c r="F204" s="80"/>
-      <c r="G204" s="84" t="str">
+      <c r="E204" s="79"/>
+      <c r="F204" s="85"/>
+      <c r="G204" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H204" s="84"/>
-      <c r="I204" s="84"/>
-      <c r="J204" s="84"/>
+      <c r="H204" s="80"/>
+      <c r="I204" s="80"/>
+      <c r="J204" s="80"/>
       <c r="K204" s="30"/>
       <c r="L204" s="30"/>
       <c r="M204" s="30"/>
@@ -8035,15 +8431,15 @@
         <f>'Senet Taksit Giriş'!C12</f>
         <v>45503</v>
       </c>
-      <c r="E205" s="89"/>
-      <c r="F205" s="80"/>
-      <c r="G205" s="85" t="str">
+      <c r="E205" s="79"/>
+      <c r="F205" s="85"/>
+      <c r="G205" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H205" s="85"/>
-      <c r="I205" s="85"/>
-      <c r="J205" s="85"/>
+      <c r="H205" s="81"/>
+      <c r="I205" s="81"/>
+      <c r="J205" s="81"/>
       <c r="K205" s="58"/>
       <c r="L205" s="58"/>
       <c r="M205" s="58"/>
@@ -8094,7 +8490,7 @@
       <c r="D209" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E209" s="89" t="str">
+      <c r="E209" s="79" t="str">
         <f>$D216 &amp;"    - Taksit No: " &amp; $D211&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 11 #  </v>
       </c>
@@ -8127,7 +8523,7 @@
       <c r="D210" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E210" s="89"/>
+      <c r="E210" s="79"/>
       <c r="F210" s="30"/>
       <c r="G210" s="45">
         <f>D224</f>
@@ -8163,7 +8559,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B13),"##.##0")&amp;" #"</f>
         <v># 11 #</v>
       </c>
-      <c r="E211" s="89"/>
+      <c r="E211" s="79"/>
       <c r="F211" s="30"/>
       <c r="G211" s="30"/>
       <c r="H211" s="30"/>
@@ -8183,20 +8579,20 @@
       <c r="D212" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E212" s="89"/>
-      <c r="F212" s="86" t="str">
+      <c r="E212" s="79"/>
+      <c r="F212" s="82" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G210,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F13&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G13&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G212" s="86"/>
-      <c r="H212" s="86"/>
-      <c r="I212" s="86"/>
-      <c r="J212" s="86"/>
-      <c r="K212" s="86"/>
-      <c r="L212" s="86"/>
-      <c r="M212" s="86"/>
-      <c r="N212" s="86"/>
-      <c r="O212" s="86"/>
+      <c r="G212" s="82"/>
+      <c r="H212" s="82"/>
+      <c r="I212" s="82"/>
+      <c r="J212" s="82"/>
+      <c r="K212" s="82"/>
+      <c r="L212" s="82"/>
+      <c r="M212" s="82"/>
+      <c r="N212" s="82"/>
+      <c r="O212" s="82"/>
       <c r="P212" s="51"/>
     </row>
     <row r="213" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8207,17 +8603,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E13),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E213" s="89"/>
-      <c r="F213" s="86"/>
-      <c r="G213" s="86"/>
-      <c r="H213" s="86"/>
-      <c r="I213" s="86"/>
-      <c r="J213" s="86"/>
-      <c r="K213" s="86"/>
-      <c r="L213" s="86"/>
-      <c r="M213" s="86"/>
-      <c r="N213" s="86"/>
-      <c r="O213" s="86"/>
+      <c r="E213" s="79"/>
+      <c r="F213" s="82"/>
+      <c r="G213" s="82"/>
+      <c r="H213" s="82"/>
+      <c r="I213" s="82"/>
+      <c r="J213" s="82"/>
+      <c r="K213" s="82"/>
+      <c r="L213" s="82"/>
+      <c r="M213" s="82"/>
+      <c r="N213" s="82"/>
+      <c r="O213" s="82"/>
       <c r="P213" s="51"/>
     </row>
     <row r="214" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8228,17 +8624,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E216-INT('Senet Taksit Giriş'!E216))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E214" s="89"/>
-      <c r="F214" s="86"/>
-      <c r="G214" s="86"/>
-      <c r="H214" s="86"/>
-      <c r="I214" s="86"/>
-      <c r="J214" s="86"/>
-      <c r="K214" s="86"/>
-      <c r="L214" s="86"/>
-      <c r="M214" s="86"/>
-      <c r="N214" s="86"/>
-      <c r="O214" s="86"/>
+      <c r="E214" s="79"/>
+      <c r="F214" s="82"/>
+      <c r="G214" s="82"/>
+      <c r="H214" s="82"/>
+      <c r="I214" s="82"/>
+      <c r="J214" s="82"/>
+      <c r="K214" s="82"/>
+      <c r="L214" s="82"/>
+      <c r="M214" s="82"/>
+      <c r="N214" s="82"/>
+      <c r="O214" s="82"/>
       <c r="P214" s="51"/>
     </row>
     <row r="215" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8248,28 +8644,28 @@
       <c r="D215" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E215" s="89"/>
-      <c r="F215" s="86"/>
-      <c r="G215" s="86"/>
-      <c r="H215" s="86"/>
-      <c r="I215" s="86"/>
-      <c r="J215" s="86"/>
-      <c r="K215" s="86"/>
-      <c r="L215" s="86"/>
-      <c r="M215" s="86"/>
-      <c r="N215" s="86"/>
-      <c r="O215" s="86"/>
+      <c r="E215" s="79"/>
+      <c r="F215" s="82"/>
+      <c r="G215" s="82"/>
+      <c r="H215" s="82"/>
+      <c r="I215" s="82"/>
+      <c r="J215" s="82"/>
+      <c r="K215" s="82"/>
+      <c r="L215" s="82"/>
+      <c r="M215" s="82"/>
+      <c r="N215" s="82"/>
+      <c r="O215" s="82"/>
       <c r="P215" s="51"/>
     </row>
     <row r="216" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="30"/>
       <c r="B216" s="55"/>
       <c r="C216" s="30"/>
-      <c r="D216" s="79" t="str">
+      <c r="D216" s="84" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E216" s="89"/>
+      <c r="E216" s="79"/>
       <c r="F216"/>
       <c r="G216"/>
       <c r="H216"/>
@@ -8286,22 +8682,22 @@
       <c r="A217" s="30"/>
       <c r="B217" s="42"/>
       <c r="C217" s="30"/>
-      <c r="D217" s="79"/>
-      <c r="E217" s="89"/>
-      <c r="F217" s="80" t="s">
+      <c r="D217" s="84"/>
+      <c r="E217" s="79"/>
+      <c r="F217" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="G217" s="88" t="str">
+      <c r="G217" s="86" t="str">
         <f>"İsim : "&amp;$D216</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H217" s="88"/>
-      <c r="I217" s="88"/>
-      <c r="J217" s="88"/>
+      <c r="H217" s="86"/>
+      <c r="I217" s="86"/>
+      <c r="J217" s="86"/>
       <c r="K217" s="32"/>
       <c r="L217" s="32"/>
-      <c r="M217" s="82"/>
-      <c r="N217" s="82"/>
+      <c r="M217" s="87"/>
+      <c r="N217" s="87"/>
       <c r="O217" s="33"/>
       <c r="P217" s="51"/>
     </row>
@@ -8309,17 +8705,17 @@
       <c r="A218" s="30"/>
       <c r="B218" s="56"/>
       <c r="C218" s="57"/>
-      <c r="D218" s="79"/>
-      <c r="E218" s="89"/>
-      <c r="F218" s="80"/>
-      <c r="G218" s="83" t="str">
+      <c r="D218" s="84"/>
+      <c r="E218" s="79"/>
+      <c r="F218" s="85"/>
+      <c r="G218" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H218" s="83"/>
-      <c r="I218" s="83"/>
-      <c r="J218" s="83"/>
-      <c r="K218" s="83"/>
+      <c r="H218" s="88"/>
+      <c r="I218" s="88"/>
+      <c r="J218" s="88"/>
+      <c r="K218" s="88"/>
       <c r="L218" s="30"/>
       <c r="M218" s="30"/>
       <c r="N218" s="30"/>
@@ -8330,14 +8726,14 @@
       <c r="A219" s="30"/>
       <c r="B219" s="56"/>
       <c r="C219" s="57"/>
-      <c r="D219" s="79"/>
-      <c r="E219" s="89"/>
-      <c r="F219" s="80"/>
-      <c r="G219" s="83"/>
-      <c r="H219" s="83"/>
-      <c r="I219" s="83"/>
-      <c r="J219" s="83"/>
-      <c r="K219" s="83"/>
+      <c r="D219" s="84"/>
+      <c r="E219" s="79"/>
+      <c r="F219" s="85"/>
+      <c r="G219" s="88"/>
+      <c r="H219" s="88"/>
+      <c r="I219" s="88"/>
+      <c r="J219" s="88"/>
+      <c r="K219" s="88"/>
       <c r="L219" s="43" t="s">
         <v>49</v>
       </c>
@@ -8350,16 +8746,16 @@
       <c r="A220" s="30"/>
       <c r="B220" s="56"/>
       <c r="C220" s="57"/>
-      <c r="D220" s="79"/>
-      <c r="E220" s="89"/>
-      <c r="F220" s="80"/>
-      <c r="G220" s="84" t="str">
+      <c r="D220" s="84"/>
+      <c r="E220" s="79"/>
+      <c r="F220" s="85"/>
+      <c r="G220" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H220" s="84"/>
-      <c r="I220" s="84"/>
-      <c r="J220" s="84"/>
+      <c r="H220" s="80"/>
+      <c r="I220" s="80"/>
+      <c r="J220" s="80"/>
       <c r="K220" s="30"/>
       <c r="L220" s="30"/>
       <c r="M220" s="30"/>
@@ -8371,16 +8767,16 @@
       <c r="A221" s="30"/>
       <c r="B221" s="42"/>
       <c r="C221" s="30"/>
-      <c r="D221" s="79"/>
-      <c r="E221" s="89"/>
-      <c r="F221" s="80"/>
-      <c r="G221" s="85" t="str">
+      <c r="D221" s="84"/>
+      <c r="E221" s="79"/>
+      <c r="F221" s="85"/>
+      <c r="G221" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H221" s="85"/>
-      <c r="I221" s="85"/>
-      <c r="J221" s="85"/>
+      <c r="H221" s="81"/>
+      <c r="I221" s="81"/>
+      <c r="J221" s="81"/>
       <c r="K221" s="58"/>
       <c r="L221" s="58"/>
       <c r="M221" s="58"/>
@@ -8392,18 +8788,18 @@
       <c r="A222" s="30"/>
       <c r="B222" s="55"/>
       <c r="C222" s="30"/>
-      <c r="D222" s="79"/>
-      <c r="E222" s="89"/>
-      <c r="F222" s="80" t="s">
+      <c r="D222" s="84"/>
+      <c r="E222" s="79"/>
+      <c r="F222" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G222" s="88" t="str">
+      <c r="G222" s="86" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H222" s="88"/>
-      <c r="I222" s="88"/>
-      <c r="J222" s="88"/>
+      <c r="H222" s="86"/>
+      <c r="I222" s="86"/>
+      <c r="J222" s="86"/>
       <c r="K222" s="32"/>
       <c r="L222" s="60"/>
       <c r="M222" s="32"/>
@@ -8418,15 +8814,15 @@
       <c r="D223" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E223" s="89"/>
-      <c r="F223" s="80"/>
-      <c r="G223" s="83" t="str">
+      <c r="E223" s="79"/>
+      <c r="F223" s="85"/>
+      <c r="G223" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H223" s="83"/>
-      <c r="I223" s="83"/>
-      <c r="J223" s="83"/>
+      <c r="H223" s="88"/>
+      <c r="I223" s="88"/>
+      <c r="J223" s="88"/>
       <c r="K223" s="30"/>
       <c r="L223" s="30"/>
       <c r="M223" s="30"/>
@@ -8442,12 +8838,12 @@
         <f>'Senet Taksit Giriş'!D13</f>
         <v>45838</v>
       </c>
-      <c r="E224" s="89"/>
-      <c r="F224" s="80"/>
-      <c r="G224" s="83"/>
-      <c r="H224" s="83"/>
-      <c r="I224" s="83"/>
-      <c r="J224" s="83"/>
+      <c r="E224" s="79"/>
+      <c r="F224" s="85"/>
+      <c r="G224" s="88"/>
+      <c r="H224" s="88"/>
+      <c r="I224" s="88"/>
+      <c r="J224" s="88"/>
       <c r="K224" s="30"/>
       <c r="L224" s="43" t="s">
         <v>49</v>
@@ -8464,15 +8860,15 @@
       <c r="D225" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E225" s="89"/>
-      <c r="F225" s="80"/>
-      <c r="G225" s="84" t="str">
+      <c r="E225" s="79"/>
+      <c r="F225" s="85"/>
+      <c r="G225" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H225" s="84"/>
-      <c r="I225" s="84"/>
-      <c r="J225" s="84"/>
+      <c r="H225" s="80"/>
+      <c r="I225" s="80"/>
+      <c r="J225" s="80"/>
       <c r="K225" s="30"/>
       <c r="L225" s="30"/>
       <c r="M225" s="30"/>
@@ -8488,15 +8884,15 @@
         <f>'Senet Taksit Giriş'!C13</f>
         <v>45503</v>
       </c>
-      <c r="E226" s="89"/>
-      <c r="F226" s="80"/>
-      <c r="G226" s="85" t="str">
+      <c r="E226" s="79"/>
+      <c r="F226" s="85"/>
+      <c r="G226" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H226" s="85"/>
-      <c r="I226" s="85"/>
-      <c r="J226" s="85"/>
+      <c r="H226" s="81"/>
+      <c r="I226" s="81"/>
+      <c r="J226" s="81"/>
       <c r="K226" s="58"/>
       <c r="L226" s="58"/>
       <c r="M226" s="58"/>
@@ -8547,13 +8943,13 @@
       <c r="D230" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E230" s="89" t="str">
+      <c r="E230" s="79" t="str">
         <f>$D238 &amp;"    - Taksit No: " &amp; $D232&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: #         #  </v>
       </c>
       <c r="F230" s="35"/>
       <c r="G230" s="38" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H230" s="35"/>
       <c r="I230" s="38" t="s">
@@ -8580,7 +8976,7 @@
       <c r="D231" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E231" s="89"/>
+      <c r="E231" s="79"/>
       <c r="F231" s="30"/>
       <c r="G231" s="45"/>
       <c r="H231" s="46"/>
@@ -8610,7 +9006,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B14),"##.##    ")&amp;"    #"</f>
         <v>#         #</v>
       </c>
-      <c r="E232" s="89"/>
+      <c r="E232" s="79"/>
       <c r="F232" s="30"/>
       <c r="G232" s="30"/>
       <c r="H232" s="30"/>
@@ -8630,20 +9026,20 @@
       <c r="D233" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E233" s="89"/>
-      <c r="F233" s="86" t="str">
+      <c r="E233" s="79"/>
+      <c r="F233" s="82" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin") &amp; " mükabilinde                 " &amp; "              tarihinde Sayın :                                                                       'ya "&amp;" veyahut emruhavalesine yukarıda yazılı Yalnız #                                      " &amp; "                                                                                            # TL ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G14&amp;"  ahzolunmuştur. "</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde                               tarihinde Sayın :                                                                       'ya  veyahut emruhavalesine yukarıda yazılı Yalnız #                                                                                                                                  # TL ödeyeceğim. Bedeli nakden  ahzolunmuştur. </v>
       </c>
-      <c r="G233" s="87"/>
-      <c r="H233" s="87"/>
-      <c r="I233" s="87"/>
-      <c r="J233" s="87"/>
-      <c r="K233" s="87"/>
-      <c r="L233" s="87"/>
-      <c r="M233" s="87"/>
-      <c r="N233" s="87"/>
-      <c r="O233" s="87"/>
+      <c r="G233" s="83"/>
+      <c r="H233" s="83"/>
+      <c r="I233" s="83"/>
+      <c r="J233" s="83"/>
+      <c r="K233" s="83"/>
+      <c r="L233" s="83"/>
+      <c r="M233" s="83"/>
+      <c r="N233" s="83"/>
+      <c r="O233" s="83"/>
       <c r="P233" s="51"/>
     </row>
     <row r="234" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8654,17 +9050,17 @@
         <f>TEXT(INT('Senet Taksit Giriş'!E14),"##.##                        ")&amp;" TL "</f>
         <v xml:space="preserve">                         TL </v>
       </c>
-      <c r="E234" s="89"/>
-      <c r="F234" s="87"/>
-      <c r="G234" s="87"/>
-      <c r="H234" s="87"/>
-      <c r="I234" s="87"/>
-      <c r="J234" s="87"/>
-      <c r="K234" s="87"/>
-      <c r="L234" s="87"/>
-      <c r="M234" s="87"/>
-      <c r="N234" s="87"/>
-      <c r="O234" s="87"/>
+      <c r="E234" s="79"/>
+      <c r="F234" s="83"/>
+      <c r="G234" s="83"/>
+      <c r="H234" s="83"/>
+      <c r="I234" s="83"/>
+      <c r="J234" s="83"/>
+      <c r="K234" s="83"/>
+      <c r="L234" s="83"/>
+      <c r="M234" s="83"/>
+      <c r="N234" s="83"/>
+      <c r="O234" s="83"/>
       <c r="P234" s="51"/>
     </row>
     <row r="235" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8675,17 +9071,17 @@
         <f>" "&amp;TEXT(('Senet Taksit Giriş'!E237-INT('Senet Taksit Giriş'!E237))*100,"##.##       ")&amp;" Krş "</f>
         <v xml:space="preserve">         Krş </v>
       </c>
-      <c r="E235" s="89"/>
-      <c r="F235" s="87"/>
-      <c r="G235" s="87"/>
-      <c r="H235" s="87"/>
-      <c r="I235" s="87"/>
-      <c r="J235" s="87"/>
-      <c r="K235" s="87"/>
-      <c r="L235" s="87"/>
-      <c r="M235" s="87"/>
-      <c r="N235" s="87"/>
-      <c r="O235" s="87"/>
+      <c r="E235" s="79"/>
+      <c r="F235" s="83"/>
+      <c r="G235" s="83"/>
+      <c r="H235" s="83"/>
+      <c r="I235" s="83"/>
+      <c r="J235" s="83"/>
+      <c r="K235" s="83"/>
+      <c r="L235" s="83"/>
+      <c r="M235" s="83"/>
+      <c r="N235" s="83"/>
+      <c r="O235" s="83"/>
       <c r="P235" s="51"/>
     </row>
     <row r="236" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8695,20 +9091,20 @@
       <c r="D236" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E236" s="89"/>
-      <c r="F236" s="86" t="str">
+      <c r="E236" s="79"/>
+      <c r="F236" s="82" t="str">
         <f>"İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak, temerrüt faizi olarak ise yasal faizin iki katı faiz uygulanmasını kabul ettiğimi, "&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v>İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak, temerrüt faizi olarak ise yasal faizin iki katı faiz uygulanmasını kabul ettiğimi,  ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G236" s="87"/>
-      <c r="H236" s="87"/>
-      <c r="I236" s="87"/>
-      <c r="J236" s="87"/>
-      <c r="K236" s="87"/>
-      <c r="L236" s="87"/>
-      <c r="M236" s="87"/>
-      <c r="N236" s="87"/>
-      <c r="O236" s="87"/>
+      <c r="G236" s="83"/>
+      <c r="H236" s="83"/>
+      <c r="I236" s="83"/>
+      <c r="J236" s="83"/>
+      <c r="K236" s="83"/>
+      <c r="L236" s="83"/>
+      <c r="M236" s="83"/>
+      <c r="N236" s="83"/>
+      <c r="O236" s="83"/>
       <c r="P236" s="51"/>
     </row>
     <row r="237" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -8716,28 +9112,28 @@
       <c r="B237" s="42"/>
       <c r="C237" s="30"/>
       <c r="D237" s="74"/>
-      <c r="E237" s="89"/>
-      <c r="F237" s="87"/>
-      <c r="G237" s="87"/>
-      <c r="H237" s="87"/>
-      <c r="I237" s="87"/>
-      <c r="J237" s="87"/>
-      <c r="K237" s="87"/>
-      <c r="L237" s="87"/>
-      <c r="M237" s="87"/>
-      <c r="N237" s="87"/>
-      <c r="O237" s="87"/>
+      <c r="E237" s="79"/>
+      <c r="F237" s="83"/>
+      <c r="G237" s="83"/>
+      <c r="H237" s="83"/>
+      <c r="I237" s="83"/>
+      <c r="J237" s="83"/>
+      <c r="K237" s="83"/>
+      <c r="L237" s="83"/>
+      <c r="M237" s="83"/>
+      <c r="N237" s="83"/>
+      <c r="O237" s="83"/>
       <c r="P237" s="51"/>
     </row>
     <row r="238" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="30"/>
       <c r="B238" s="55"/>
       <c r="C238" s="30"/>
-      <c r="D238" s="79" t="str">
+      <c r="D238" s="84" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E238" s="89"/>
+      <c r="E238" s="79"/>
       <c r="F238"/>
       <c r="G238"/>
       <c r="H238"/>
@@ -8754,22 +9150,22 @@
       <c r="A239" s="30"/>
       <c r="B239" s="42"/>
       <c r="C239" s="30"/>
-      <c r="D239" s="79"/>
-      <c r="E239" s="89"/>
-      <c r="F239" s="80" t="s">
+      <c r="D239" s="84"/>
+      <c r="E239" s="79"/>
+      <c r="F239" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="G239" s="88" t="str">
+      <c r="G239" s="86" t="str">
         <f>"İsim : "&amp;$D238</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H239" s="88"/>
-      <c r="I239" s="88"/>
-      <c r="J239" s="88"/>
+      <c r="H239" s="86"/>
+      <c r="I239" s="86"/>
+      <c r="J239" s="86"/>
       <c r="K239" s="32"/>
       <c r="L239" s="32"/>
-      <c r="M239" s="82"/>
-      <c r="N239" s="82"/>
+      <c r="M239" s="87"/>
+      <c r="N239" s="87"/>
       <c r="O239" s="33"/>
       <c r="P239" s="51"/>
     </row>
@@ -8777,17 +9173,17 @@
       <c r="A240" s="30"/>
       <c r="B240" s="56"/>
       <c r="C240" s="57"/>
-      <c r="D240" s="79"/>
-      <c r="E240" s="89"/>
-      <c r="F240" s="80"/>
-      <c r="G240" s="83" t="str">
+      <c r="D240" s="84"/>
+      <c r="E240" s="79"/>
+      <c r="F240" s="85"/>
+      <c r="G240" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H240" s="83"/>
-      <c r="I240" s="83"/>
-      <c r="J240" s="83"/>
-      <c r="K240" s="83"/>
+      <c r="H240" s="88"/>
+      <c r="I240" s="88"/>
+      <c r="J240" s="88"/>
+      <c r="K240" s="88"/>
       <c r="L240" s="30"/>
       <c r="M240" s="30"/>
       <c r="N240" s="30"/>
@@ -8798,14 +9194,14 @@
       <c r="A241" s="30"/>
       <c r="B241" s="56"/>
       <c r="C241" s="57"/>
-      <c r="D241" s="79"/>
-      <c r="E241" s="89"/>
-      <c r="F241" s="80"/>
-      <c r="G241" s="83"/>
-      <c r="H241" s="83"/>
-      <c r="I241" s="83"/>
-      <c r="J241" s="83"/>
-      <c r="K241" s="83"/>
+      <c r="D241" s="84"/>
+      <c r="E241" s="79"/>
+      <c r="F241" s="85"/>
+      <c r="G241" s="88"/>
+      <c r="H241" s="88"/>
+      <c r="I241" s="88"/>
+      <c r="J241" s="88"/>
+      <c r="K241" s="88"/>
       <c r="L241" s="43" t="s">
         <v>49</v>
       </c>
@@ -8818,16 +9214,16 @@
       <c r="A242" s="30"/>
       <c r="B242" s="56"/>
       <c r="C242" s="57"/>
-      <c r="D242" s="79"/>
-      <c r="E242" s="89"/>
-      <c r="F242" s="80"/>
-      <c r="G242" s="84" t="str">
+      <c r="D242" s="84"/>
+      <c r="E242" s="79"/>
+      <c r="F242" s="85"/>
+      <c r="G242" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H242" s="84"/>
-      <c r="I242" s="84"/>
-      <c r="J242" s="84"/>
+      <c r="H242" s="80"/>
+      <c r="I242" s="80"/>
+      <c r="J242" s="80"/>
       <c r="K242" s="30"/>
       <c r="L242" s="30"/>
       <c r="M242" s="30"/>
@@ -8839,16 +9235,16 @@
       <c r="A243" s="30"/>
       <c r="B243" s="42"/>
       <c r="C243" s="30"/>
-      <c r="D243" s="79"/>
-      <c r="E243" s="89"/>
-      <c r="F243" s="80"/>
-      <c r="G243" s="85" t="str">
+      <c r="D243" s="84"/>
+      <c r="E243" s="79"/>
+      <c r="F243" s="85"/>
+      <c r="G243" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H243" s="85"/>
-      <c r="I243" s="85"/>
-      <c r="J243" s="85"/>
+      <c r="H243" s="81"/>
+      <c r="I243" s="81"/>
+      <c r="J243" s="81"/>
       <c r="K243" s="58"/>
       <c r="L243" s="58"/>
       <c r="M243" s="58"/>
@@ -8860,18 +9256,18 @@
       <c r="A244" s="30"/>
       <c r="B244" s="55"/>
       <c r="C244" s="30"/>
-      <c r="D244" s="79"/>
-      <c r="E244" s="89"/>
-      <c r="F244" s="80" t="s">
+      <c r="D244" s="84"/>
+      <c r="E244" s="79"/>
+      <c r="F244" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G244" s="88" t="str">
+      <c r="G244" s="86" t="str">
         <f>"İsim : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H244" s="88"/>
-      <c r="I244" s="88"/>
-      <c r="J244" s="88"/>
+      <c r="H244" s="86"/>
+      <c r="I244" s="86"/>
+      <c r="J244" s="86"/>
       <c r="K244" s="32"/>
       <c r="L244" s="60"/>
       <c r="M244" s="32"/>
@@ -8886,15 +9282,15 @@
       <c r="D245" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E245" s="89"/>
-      <c r="F245" s="80"/>
-      <c r="G245" s="83" t="str">
+      <c r="E245" s="79"/>
+      <c r="F245" s="85"/>
+      <c r="G245" s="88" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H245" s="83"/>
-      <c r="I245" s="83"/>
-      <c r="J245" s="83"/>
+      <c r="H245" s="88"/>
+      <c r="I245" s="88"/>
+      <c r="J245" s="88"/>
       <c r="K245" s="30"/>
       <c r="L245" s="30"/>
       <c r="M245" s="30"/>
@@ -8910,12 +9306,12 @@
         <f>'Senet Taksit Giriş'!D14</f>
         <v>0</v>
       </c>
-      <c r="E246" s="89"/>
-      <c r="F246" s="80"/>
-      <c r="G246" s="83"/>
-      <c r="H246" s="83"/>
-      <c r="I246" s="83"/>
-      <c r="J246" s="83"/>
+      <c r="E246" s="79"/>
+      <c r="F246" s="85"/>
+      <c r="G246" s="88"/>
+      <c r="H246" s="88"/>
+      <c r="I246" s="88"/>
+      <c r="J246" s="88"/>
       <c r="K246" s="30"/>
       <c r="L246" s="43" t="s">
         <v>49</v>
@@ -8932,15 +9328,15 @@
       <c r="D247" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E247" s="89"/>
-      <c r="F247" s="80"/>
-      <c r="G247" s="84" t="str">
+      <c r="E247" s="79"/>
+      <c r="F247" s="85"/>
+      <c r="G247" s="80" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H247" s="84"/>
-      <c r="I247" s="84"/>
-      <c r="J247" s="84"/>
+      <c r="H247" s="80"/>
+      <c r="I247" s="80"/>
+      <c r="J247" s="80"/>
       <c r="K247" s="30"/>
       <c r="L247" s="30"/>
       <c r="M247" s="30"/>
@@ -8956,15 +9352,15 @@
         <f>'Senet Taksit Giriş'!C14</f>
         <v>45503</v>
       </c>
-      <c r="E248" s="89"/>
-      <c r="F248" s="80"/>
-      <c r="G248" s="85" t="str">
+      <c r="E248" s="79"/>
+      <c r="F248" s="85"/>
+      <c r="G248" s="81" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H248" s="85"/>
-      <c r="I248" s="85"/>
-      <c r="J248" s="85"/>
+      <c r="H248" s="81"/>
+      <c r="I248" s="81"/>
+      <c r="J248" s="81"/>
       <c r="K248" s="58"/>
       <c r="L248" s="58"/>
       <c r="M248" s="58"/>
@@ -9020,6 +9416,151 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="169">
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="G11:K12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F233:O235"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="E23:E40"/>
+    <mergeCell ref="F26:O29"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="F5:O8"/>
+    <mergeCell ref="D51:D57"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="G53:K54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="G32:K33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J38"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="G58:J59"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="E64:E81"/>
+    <mergeCell ref="F67:O70"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="E44:E61"/>
+    <mergeCell ref="F47:O50"/>
+    <mergeCell ref="D92:D98"/>
+    <mergeCell ref="F93:F97"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="G94:K95"/>
+    <mergeCell ref="G96:J96"/>
+    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="F98:F102"/>
+    <mergeCell ref="D71:D77"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="G73:K74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="G78:J79"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="G99:J100"/>
+    <mergeCell ref="G101:J101"/>
+    <mergeCell ref="G102:J102"/>
+    <mergeCell ref="E106:E123"/>
+    <mergeCell ref="F109:O112"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="E85:E102"/>
+    <mergeCell ref="F88:O91"/>
+    <mergeCell ref="D133:D139"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="G134:J134"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="G135:K136"/>
+    <mergeCell ref="G137:J137"/>
+    <mergeCell ref="G138:J138"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="D113:D119"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="G114:J114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="G115:K116"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="F119:F123"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="G120:J121"/>
+    <mergeCell ref="G139:J139"/>
+    <mergeCell ref="G140:J141"/>
+    <mergeCell ref="G142:J142"/>
+    <mergeCell ref="G143:J143"/>
+    <mergeCell ref="E147:E164"/>
+    <mergeCell ref="F150:O153"/>
+    <mergeCell ref="G163:J163"/>
+    <mergeCell ref="G164:J164"/>
+    <mergeCell ref="E126:E143"/>
+    <mergeCell ref="F129:O132"/>
+    <mergeCell ref="D175:D181"/>
+    <mergeCell ref="F176:F180"/>
+    <mergeCell ref="G176:J176"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="G177:K178"/>
+    <mergeCell ref="G179:J179"/>
+    <mergeCell ref="G180:J180"/>
+    <mergeCell ref="F181:F185"/>
+    <mergeCell ref="D154:D160"/>
+    <mergeCell ref="F155:F159"/>
+    <mergeCell ref="G155:J155"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="G156:K157"/>
+    <mergeCell ref="G158:J158"/>
+    <mergeCell ref="G159:J159"/>
+    <mergeCell ref="F160:F164"/>
+    <mergeCell ref="G160:J160"/>
+    <mergeCell ref="G161:J162"/>
+    <mergeCell ref="G222:J222"/>
+    <mergeCell ref="G223:J224"/>
+    <mergeCell ref="G225:J225"/>
+    <mergeCell ref="G226:J226"/>
+    <mergeCell ref="G181:J181"/>
+    <mergeCell ref="G182:J183"/>
+    <mergeCell ref="G184:J184"/>
+    <mergeCell ref="G185:J185"/>
+    <mergeCell ref="E188:E205"/>
+    <mergeCell ref="F191:O194"/>
+    <mergeCell ref="G204:J204"/>
+    <mergeCell ref="G205:J205"/>
+    <mergeCell ref="E168:E185"/>
+    <mergeCell ref="F171:O174"/>
+    <mergeCell ref="D195:D201"/>
+    <mergeCell ref="F196:F200"/>
+    <mergeCell ref="G196:J196"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="G197:K198"/>
+    <mergeCell ref="G199:J199"/>
+    <mergeCell ref="G200:J200"/>
+    <mergeCell ref="F201:F205"/>
+    <mergeCell ref="G201:J201"/>
+    <mergeCell ref="G202:J203"/>
     <mergeCell ref="E230:E248"/>
     <mergeCell ref="G247:J247"/>
     <mergeCell ref="G248:J248"/>
@@ -9044,151 +9585,6 @@
     <mergeCell ref="G220:J220"/>
     <mergeCell ref="G221:J221"/>
     <mergeCell ref="F222:F226"/>
-    <mergeCell ref="D195:D201"/>
-    <mergeCell ref="F196:F200"/>
-    <mergeCell ref="G196:J196"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="G197:K198"/>
-    <mergeCell ref="G199:J199"/>
-    <mergeCell ref="G200:J200"/>
-    <mergeCell ref="F201:F205"/>
-    <mergeCell ref="G201:J201"/>
-    <mergeCell ref="G202:J203"/>
-    <mergeCell ref="G222:J222"/>
-    <mergeCell ref="G223:J224"/>
-    <mergeCell ref="G225:J225"/>
-    <mergeCell ref="G226:J226"/>
-    <mergeCell ref="G181:J181"/>
-    <mergeCell ref="G182:J183"/>
-    <mergeCell ref="G184:J184"/>
-    <mergeCell ref="G185:J185"/>
-    <mergeCell ref="E188:E205"/>
-    <mergeCell ref="F191:O194"/>
-    <mergeCell ref="G204:J204"/>
-    <mergeCell ref="G205:J205"/>
-    <mergeCell ref="E168:E185"/>
-    <mergeCell ref="F171:O174"/>
-    <mergeCell ref="E147:E164"/>
-    <mergeCell ref="F150:O153"/>
-    <mergeCell ref="G163:J163"/>
-    <mergeCell ref="G164:J164"/>
-    <mergeCell ref="E126:E143"/>
-    <mergeCell ref="F129:O132"/>
-    <mergeCell ref="D175:D181"/>
-    <mergeCell ref="F176:F180"/>
-    <mergeCell ref="G176:J176"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="G177:K178"/>
-    <mergeCell ref="G179:J179"/>
-    <mergeCell ref="G180:J180"/>
-    <mergeCell ref="F181:F185"/>
-    <mergeCell ref="D154:D160"/>
-    <mergeCell ref="F155:F159"/>
-    <mergeCell ref="G155:J155"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="G156:K157"/>
-    <mergeCell ref="G158:J158"/>
-    <mergeCell ref="G159:J159"/>
-    <mergeCell ref="F160:F164"/>
-    <mergeCell ref="G160:J160"/>
-    <mergeCell ref="G161:J162"/>
-    <mergeCell ref="D133:D139"/>
-    <mergeCell ref="F134:F138"/>
-    <mergeCell ref="G134:J134"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="G135:K136"/>
-    <mergeCell ref="G137:J137"/>
-    <mergeCell ref="G138:J138"/>
-    <mergeCell ref="F139:F143"/>
-    <mergeCell ref="D113:D119"/>
-    <mergeCell ref="F114:F118"/>
-    <mergeCell ref="G114:J114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="G115:K116"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="G118:J118"/>
-    <mergeCell ref="F119:F123"/>
-    <mergeCell ref="G119:J119"/>
-    <mergeCell ref="G120:J121"/>
-    <mergeCell ref="G139:J139"/>
-    <mergeCell ref="G140:J141"/>
-    <mergeCell ref="G142:J142"/>
-    <mergeCell ref="G143:J143"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="G99:J100"/>
-    <mergeCell ref="G101:J101"/>
-    <mergeCell ref="G102:J102"/>
-    <mergeCell ref="E106:E123"/>
-    <mergeCell ref="F109:O112"/>
-    <mergeCell ref="G122:J122"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="E85:E102"/>
-    <mergeCell ref="F88:O91"/>
-    <mergeCell ref="E64:E81"/>
-    <mergeCell ref="F67:O70"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="E44:E61"/>
-    <mergeCell ref="F47:O50"/>
-    <mergeCell ref="D92:D98"/>
-    <mergeCell ref="F93:F97"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="G94:K95"/>
-    <mergeCell ref="G96:J96"/>
-    <mergeCell ref="G97:J97"/>
-    <mergeCell ref="F98:F102"/>
-    <mergeCell ref="D71:D77"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="G73:K74"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="G78:J79"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="G32:K33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J38"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="G58:J59"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="G11:K12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F233:O235"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="E23:E40"/>
-    <mergeCell ref="F26:O29"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="E2:E19"/>
-    <mergeCell ref="F5:O8"/>
-    <mergeCell ref="D51:D57"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="G53:K54"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.59015748031496074" bottom="1.1417322834645671" header="0.19645669291338586" footer="0.74803149606299213"/>
@@ -9201,7 +9597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView topLeftCell="A53" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/2025-SOZL/1_crs/DGS-081-03-2302_Hızarhane/081-Dgs-03-20230227- HSP-adem Duman.xlsx
+++ b/2025-SOZL/1_crs/DGS-081-03-2302_Hızarhane/081-Dgs-03-20230227- HSP-adem Duman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2025-SOZL\1_crs\DGS-081-03-2302_Hızarhane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023B5F1C-A454-4128-893E-BC3F8E1B5C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECB8B8B-03BC-4ACB-B68C-5D50B47D54A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="111">
   <si>
     <t>tutar</t>
   </si>
@@ -567,9 +567,6 @@
     <t>30.04.20245</t>
   </si>
   <si>
-    <t>28-02-2024 31-1-2025 DÖNEMİ</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -593,6 +590,12 @@
       </rPr>
       <t>10 AYLIK</t>
     </r>
+  </si>
+  <si>
+    <t>DÖNEM 5 Hesabı</t>
+  </si>
+  <si>
+    <t>28-02-2025 27-2-2026 DÖNEMİ</t>
   </si>
 </sst>
 </file>
@@ -1318,6 +1321,8 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1328,8 +1333,21 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1347,29 +1365,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1707,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,7 +1978,7 @@
       <c r="C24" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D24" s="75">
         <v>0.1925</v>
       </c>
       <c r="E24" s="4"/>
@@ -1986,7 +1989,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="65"/>
-      <c r="D25" s="90"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="4"/>
       <c r="F25" s="1">
         <f>F24+E25</f>
@@ -2589,7 +2592,7 @@
       <c r="B69" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F69" s="91">
+      <c r="F69" s="76">
         <f>(E71)/12</f>
         <v>12601.333333333334</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>-6500</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" ref="F80:F91" si="4">F81+E82</f>
+        <f t="shared" ref="F82:F91" si="4">F81+E82</f>
         <v>125216</v>
       </c>
     </row>
@@ -2934,7 +2937,7 @@
       <c r="B95" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F95" s="91">
+      <c r="F95" s="76">
         <f>E97/10</f>
         <v>22104</v>
       </c>
@@ -2954,7 +2957,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E97">
         <f>E100</f>
@@ -2971,7 +2974,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="1">
@@ -3018,7 +3021,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" s="70" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D104" s="66"/>
       <c r="E104" s="67"/>
@@ -3265,7 +3268,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
@@ -3276,7 +3279,7 @@
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
@@ -3293,7 +3296,7 @@
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -3306,7 +3309,7 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
@@ -3317,7 +3320,7 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
@@ -3328,7 +3331,7 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
@@ -3339,7 +3342,7 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
@@ -3350,7 +3353,7 @@
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -3363,7 +3366,7 @@
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="76"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
@@ -3374,7 +3377,7 @@
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
@@ -3385,7 +3388,7 @@
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="76"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -3462,7 +3465,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="77"/>
+      <c r="A1" s="79"/>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
@@ -3472,7 +3475,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
+      <c r="A2" s="79"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
       </c>
@@ -3496,7 +3499,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="18">
         <v>1</v>
       </c>
@@ -3521,7 +3524,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="21">
         <v>2</v>
       </c>
@@ -3547,7 +3550,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="21">
         <v>3</v>
       </c>
@@ -3573,7 +3576,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="21">
         <v>4</v>
       </c>
@@ -3599,7 +3602,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="21">
         <v>5</v>
       </c>
@@ -3625,7 +3628,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="21">
         <v>6</v>
       </c>
@@ -3651,7 +3654,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="21">
         <v>7</v>
       </c>
@@ -3703,7 +3706,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="77"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="21">
         <v>9</v>
       </c>
@@ -3729,7 +3732,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="77"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="21">
         <v>10</v>
       </c>
@@ -3755,7 +3758,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="21">
         <v>11</v>
       </c>
@@ -3781,7 +3784,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23">
         <v>45503</v>
@@ -3798,7 +3801,7 @@
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="17"/>
       <c r="C15" s="23"/>
       <c r="D15" s="19"/>
@@ -3808,7 +3811,7 @@
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="17"/>
       <c r="C16" s="23"/>
       <c r="D16" s="19"/>
@@ -3818,7 +3821,7 @@
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="77"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="17"/>
       <c r="C17" s="23"/>
       <c r="D17" s="19"/>
@@ -3828,7 +3831,7 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="77"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
@@ -3838,7 +3841,7 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="77"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="17"/>
       <c r="C19" s="21"/>
       <c r="D19" s="19"/>
@@ -3942,7 +3945,7 @@
       <c r="D2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="79" t="str">
+      <c r="E2" s="91" t="str">
         <f>$D9 &amp;"    - Taksit No: " &amp; $D4&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 1 #  </v>
       </c>
@@ -3975,7 +3978,7 @@
       <c r="D3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="79"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="30"/>
       <c r="G3" s="45">
         <f>D17</f>
@@ -4011,7 +4014,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B3),"##.##0")&amp;" #"</f>
         <v># 1 #</v>
       </c>
-      <c r="E4" s="79"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
@@ -4031,20 +4034,20 @@
       <c r="D5" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="82" t="str">
+      <c r="E5" s="91"/>
+      <c r="F5" s="88" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G3,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F3&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G3&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
       <c r="P5" s="51"/>
     </row>
     <row r="6" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4055,17 +4058,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E3),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
       <c r="P6" s="51"/>
     </row>
     <row r="7" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4076,17 +4079,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E3-INT('Senet Taksit Giriş'!E3))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
       <c r="P7" s="51"/>
     </row>
     <row r="8" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4096,28 +4099,28 @@
       <c r="D8" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
       <c r="P8" s="51"/>
     </row>
     <row r="9" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30"/>
       <c r="B9" s="55"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="84" t="str">
+      <c r="D9" s="81" t="str">
         <f>'Senet Borçlu Alacaklı Giriş'!C5</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E9" s="79"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
@@ -4134,22 +4137,22 @@
       <c r="A10" s="30"/>
       <c r="B10" s="42"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="85" t="s">
+      <c r="D10" s="81"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="89" t="str">
+      <c r="G10" s="83" t="str">
         <f>"İsim : "&amp;$D9</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
       <c r="O10" s="33"/>
       <c r="P10" s="51"/>
     </row>
@@ -4157,17 +4160,17 @@
       <c r="A11" s="30"/>
       <c r="B11" s="56"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="88" t="str">
+      <c r="D11" s="81"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
@@ -4178,14 +4181,14 @@
       <c r="A12" s="30"/>
       <c r="B12" s="56"/>
       <c r="C12" s="57"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
       <c r="L12" s="43" t="s">
         <v>49</v>
       </c>
@@ -4198,16 +4201,16 @@
       <c r="A13" s="30"/>
       <c r="B13" s="56"/>
       <c r="C13" s="57"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="80" t="str">
+      <c r="D13" s="81"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
@@ -4219,16 +4222,16 @@
       <c r="A14" s="30"/>
       <c r="B14" s="42"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="81" t="str">
+      <c r="D14" s="81"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
       <c r="K14" s="58"/>
       <c r="L14" s="58"/>
       <c r="M14" s="58"/>
@@ -4240,18 +4243,18 @@
       <c r="A15" s="30"/>
       <c r="B15" s="55"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="85" t="s">
+      <c r="D15" s="81"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="86" t="str">
+      <c r="G15" s="90" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
       <c r="K15" s="32"/>
       <c r="L15" s="60"/>
       <c r="M15" s="32"/>
@@ -4266,15 +4269,15 @@
       <c r="D16" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="88" t="str">
+      <c r="E16" s="91"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
@@ -4290,12 +4293,12 @@
         <f>'Senet Taksit Giriş'!D3</f>
         <v>45534</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
       <c r="K17" s="30"/>
       <c r="L17" s="43" t="s">
         <v>49</v>
@@ -4312,15 +4315,15 @@
       <c r="D18" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="80" t="str">
+      <c r="E18" s="91"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
@@ -4336,15 +4339,15 @@
         <f>'Senet Taksit Giriş'!C3</f>
         <v>45503</v>
       </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="81" t="str">
+      <c r="E19" s="91"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
       <c r="K19" s="58"/>
       <c r="L19" s="58"/>
       <c r="M19" s="58"/>
@@ -4413,7 +4416,7 @@
       <c r="D23" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="79" t="str">
+      <c r="E23" s="91" t="str">
         <f>$D30 &amp;"    - Taksit No: " &amp; $D25&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 2 #  </v>
       </c>
@@ -4446,7 +4449,7 @@
       <c r="D24" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="79"/>
+      <c r="E24" s="91"/>
       <c r="F24" s="30"/>
       <c r="G24" s="45">
         <f>D38</f>
@@ -4482,7 +4485,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B4),"##.##0")&amp;" #"</f>
         <v># 2 #</v>
       </c>
-      <c r="E25" s="79"/>
+      <c r="E25" s="91"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
@@ -4502,20 +4505,20 @@
       <c r="D26" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="82" t="str">
+      <c r="E26" s="91"/>
+      <c r="F26" s="88" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G24,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F4&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G4&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
       <c r="P26" s="51"/>
     </row>
     <row r="27" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4526,17 +4529,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E4),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E27" s="79"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
       <c r="P27" s="51"/>
     </row>
     <row r="28" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4547,17 +4550,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E24-INT('Senet Taksit Giriş'!E24))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E28" s="79"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
       <c r="P28" s="51"/>
     </row>
     <row r="29" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4567,28 +4570,28 @@
       <c r="D29" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="79"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
       <c r="P29" s="51"/>
     </row>
     <row r="30" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="30"/>
       <c r="B30" s="55"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="84" t="str">
+      <c r="D30" s="81" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E30" s="79"/>
+      <c r="E30" s="91"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
@@ -4605,22 +4608,22 @@
       <c r="A31" s="30"/>
       <c r="B31" s="42"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="85" t="s">
+      <c r="D31" s="81"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="86" t="str">
+      <c r="G31" s="90" t="str">
         <f>"İsim : "&amp;$D30</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
       <c r="O31" s="33"/>
       <c r="P31" s="51"/>
     </row>
@@ -4628,17 +4631,17 @@
       <c r="A32" s="30"/>
       <c r="B32" s="56"/>
       <c r="C32" s="57"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="88" t="str">
+      <c r="D32" s="81"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
@@ -4649,14 +4652,14 @@
       <c r="A33" s="30"/>
       <c r="B33" s="56"/>
       <c r="C33" s="57"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
       <c r="L33" s="43" t="s">
         <v>49</v>
       </c>
@@ -4669,16 +4672,16 @@
       <c r="A34" s="30"/>
       <c r="B34" s="56"/>
       <c r="C34" s="57"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="80" t="str">
+      <c r="D34" s="81"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
       <c r="M34" s="30"/>
@@ -4690,16 +4693,16 @@
       <c r="A35" s="30"/>
       <c r="B35" s="42"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="81" t="str">
+      <c r="D35" s="81"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
       <c r="K35" s="58"/>
       <c r="L35" s="58"/>
       <c r="M35" s="58"/>
@@ -4711,18 +4714,18 @@
       <c r="A36" s="30"/>
       <c r="B36" s="55"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="85" t="s">
+      <c r="D36" s="81"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="86" t="str">
+      <c r="G36" s="90" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
       <c r="K36" s="32"/>
       <c r="L36" s="60"/>
       <c r="M36" s="32"/>
@@ -4737,15 +4740,15 @@
       <c r="D37" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="88" t="str">
+      <c r="E37" s="91"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
       <c r="M37" s="30"/>
@@ -4761,12 +4764,12 @@
         <f>'Senet Taksit Giriş'!D4</f>
         <v>45565</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
       <c r="K38" s="30"/>
       <c r="L38" s="43" t="s">
         <v>49</v>
@@ -4783,15 +4786,15 @@
       <c r="D39" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="80" t="str">
+      <c r="E39" s="91"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>
       <c r="M39" s="30"/>
@@ -4807,15 +4810,15 @@
         <f>'Senet Taksit Giriş'!C4</f>
         <v>45503</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="81" t="str">
+      <c r="E40" s="91"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
       <c r="K40" s="58"/>
       <c r="L40" s="58"/>
       <c r="M40" s="58"/>
@@ -4866,7 +4869,7 @@
       <c r="D44" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="79" t="str">
+      <c r="E44" s="91" t="str">
         <f>$D51 &amp;"    - Taksit No: " &amp; $D46&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 3 #  </v>
       </c>
@@ -4899,7 +4902,7 @@
       <c r="D45" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="79"/>
+      <c r="E45" s="91"/>
       <c r="F45" s="30"/>
       <c r="G45" s="45">
         <f>D59</f>
@@ -4935,7 +4938,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B5),"##.##0")&amp;" #"</f>
         <v># 3 #</v>
       </c>
-      <c r="E46" s="79"/>
+      <c r="E46" s="91"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
@@ -4955,20 +4958,20 @@
       <c r="D47" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="79"/>
-      <c r="F47" s="82" t="str">
+      <c r="E47" s="91"/>
+      <c r="F47" s="88" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G45,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F5&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G5&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="88"/>
       <c r="P47" s="51"/>
     </row>
     <row r="48" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4979,17 +4982,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E5),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E48" s="79"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="88"/>
       <c r="P48" s="51"/>
     </row>
     <row r="49" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5000,17 +5003,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E46-INT('Senet Taksit Giriş'!E46))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E49" s="79"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="88"/>
+      <c r="N49" s="88"/>
+      <c r="O49" s="88"/>
       <c r="P49" s="51"/>
     </row>
     <row r="50" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5020,28 +5023,28 @@
       <c r="D50" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="79"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="88"/>
       <c r="P50" s="51"/>
     </row>
     <row r="51" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="30"/>
       <c r="B51" s="55"/>
       <c r="C51" s="30"/>
-      <c r="D51" s="84" t="str">
+      <c r="D51" s="81" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E51" s="79"/>
+      <c r="E51" s="91"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
@@ -5058,22 +5061,22 @@
       <c r="A52" s="30"/>
       <c r="B52" s="42"/>
       <c r="C52" s="30"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="85" t="s">
+      <c r="D52" s="81"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="G52" s="86" t="str">
+      <c r="G52" s="90" t="str">
         <f>"İsim : "&amp;$D51</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H52" s="86"/>
-      <c r="I52" s="86"/>
-      <c r="J52" s="86"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="90"/>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="87"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
       <c r="O52" s="33"/>
       <c r="P52" s="51"/>
     </row>
@@ -5081,17 +5084,17 @@
       <c r="A53" s="30"/>
       <c r="B53" s="56"/>
       <c r="C53" s="57"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="88" t="str">
+      <c r="D53" s="81"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="85"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="85"/>
       <c r="L53" s="30"/>
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
@@ -5102,14 +5105,14 @@
       <c r="A54" s="30"/>
       <c r="B54" s="56"/>
       <c r="C54" s="57"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="85"/>
       <c r="L54" s="43" t="s">
         <v>49</v>
       </c>
@@ -5122,16 +5125,16 @@
       <c r="A55" s="30"/>
       <c r="B55" s="56"/>
       <c r="C55" s="57"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="80" t="str">
+      <c r="D55" s="81"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="86"/>
       <c r="K55" s="30"/>
       <c r="L55" s="30"/>
       <c r="M55" s="30"/>
@@ -5143,16 +5146,16 @@
       <c r="A56" s="30"/>
       <c r="B56" s="42"/>
       <c r="C56" s="30"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="81" t="str">
+      <c r="D56" s="81"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
       <c r="K56" s="58"/>
       <c r="L56" s="58"/>
       <c r="M56" s="58"/>
@@ -5164,18 +5167,18 @@
       <c r="A57" s="30"/>
       <c r="B57" s="55"/>
       <c r="C57" s="30"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="85" t="s">
+      <c r="D57" s="81"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="86" t="str">
+      <c r="G57" s="90" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H57" s="86"/>
-      <c r="I57" s="86"/>
-      <c r="J57" s="86"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
       <c r="K57" s="32"/>
       <c r="L57" s="60"/>
       <c r="M57" s="32"/>
@@ -5190,15 +5193,15 @@
       <c r="D58" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="79"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="88" t="str">
+      <c r="E58" s="91"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="85"/>
       <c r="K58" s="30"/>
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
@@ -5214,12 +5217,12 @@
         <f>'Senet Taksit Giriş'!D5</f>
         <v>45595</v>
       </c>
-      <c r="E59" s="79"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="85"/>
       <c r="K59" s="30"/>
       <c r="L59" s="43" t="s">
         <v>49</v>
@@ -5236,15 +5239,15 @@
       <c r="D60" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E60" s="79"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="80" t="str">
+      <c r="E60" s="91"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
+      <c r="H60" s="86"/>
+      <c r="I60" s="86"/>
+      <c r="J60" s="86"/>
       <c r="K60" s="30"/>
       <c r="L60" s="30"/>
       <c r="M60" s="30"/>
@@ -5260,15 +5263,15 @@
         <f>'Senet Taksit Giriş'!C5</f>
         <v>45503</v>
       </c>
-      <c r="E61" s="79"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="81" t="str">
+      <c r="E61" s="91"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="87"/>
+      <c r="J61" s="87"/>
       <c r="K61" s="58"/>
       <c r="L61" s="58"/>
       <c r="M61" s="58"/>
@@ -5319,7 +5322,7 @@
       <c r="D64" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="79" t="str">
+      <c r="E64" s="91" t="str">
         <f>$D71 &amp;"    - Taksit No: " &amp; $D66&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 4 #  </v>
       </c>
@@ -5352,7 +5355,7 @@
       <c r="D65" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E65" s="79"/>
+      <c r="E65" s="91"/>
       <c r="F65" s="30"/>
       <c r="G65" s="45">
         <f>D79</f>
@@ -5388,7 +5391,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B6),"##.##0")&amp;" #"</f>
         <v># 4 #</v>
       </c>
-      <c r="E66" s="79"/>
+      <c r="E66" s="91"/>
       <c r="F66" s="30"/>
       <c r="G66" s="30"/>
       <c r="H66" s="30"/>
@@ -5408,20 +5411,20 @@
       <c r="D67" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="79"/>
-      <c r="F67" s="82" t="str">
+      <c r="E67" s="91"/>
+      <c r="F67" s="88" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G65,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F6&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G6&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G67" s="82"/>
-      <c r="H67" s="82"/>
-      <c r="I67" s="82"/>
-      <c r="J67" s="82"/>
-      <c r="K67" s="82"/>
-      <c r="L67" s="82"/>
-      <c r="M67" s="82"/>
-      <c r="N67" s="82"/>
-      <c r="O67" s="82"/>
+      <c r="G67" s="88"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="88"/>
+      <c r="L67" s="88"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="88"/>
       <c r="P67" s="51"/>
     </row>
     <row r="68" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5432,17 +5435,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E6),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E68" s="79"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="82"/>
-      <c r="I68" s="82"/>
-      <c r="J68" s="82"/>
-      <c r="K68" s="82"/>
-      <c r="L68" s="82"/>
-      <c r="M68" s="82"/>
-      <c r="N68" s="82"/>
-      <c r="O68" s="82"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
+      <c r="J68" s="88"/>
+      <c r="K68" s="88"/>
+      <c r="L68" s="88"/>
+      <c r="M68" s="88"/>
+      <c r="N68" s="88"/>
+      <c r="O68" s="88"/>
       <c r="P68" s="51"/>
     </row>
     <row r="69" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5453,17 +5456,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E68-INT('Senet Taksit Giriş'!E68))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E69" s="79"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="82"/>
-      <c r="H69" s="82"/>
-      <c r="I69" s="82"/>
-      <c r="J69" s="82"/>
-      <c r="K69" s="82"/>
-      <c r="L69" s="82"/>
-      <c r="M69" s="82"/>
-      <c r="N69" s="82"/>
-      <c r="O69" s="82"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
+      <c r="J69" s="88"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="88"/>
+      <c r="M69" s="88"/>
+      <c r="N69" s="88"/>
+      <c r="O69" s="88"/>
       <c r="P69" s="51"/>
     </row>
     <row r="70" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5473,28 +5476,28 @@
       <c r="D70" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E70" s="79"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
-      <c r="H70" s="82"/>
-      <c r="I70" s="82"/>
-      <c r="J70" s="82"/>
-      <c r="K70" s="82"/>
-      <c r="L70" s="82"/>
-      <c r="M70" s="82"/>
-      <c r="N70" s="82"/>
-      <c r="O70" s="82"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="88"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="88"/>
+      <c r="J70" s="88"/>
+      <c r="K70" s="88"/>
+      <c r="L70" s="88"/>
+      <c r="M70" s="88"/>
+      <c r="N70" s="88"/>
+      <c r="O70" s="88"/>
       <c r="P70" s="51"/>
     </row>
     <row r="71" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="30"/>
       <c r="B71" s="55"/>
       <c r="C71" s="30"/>
-      <c r="D71" s="84" t="str">
+      <c r="D71" s="81" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E71" s="79"/>
+      <c r="E71" s="91"/>
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
@@ -5511,22 +5514,22 @@
       <c r="A72" s="30"/>
       <c r="B72" s="42"/>
       <c r="C72" s="30"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="85" t="s">
+      <c r="D72" s="81"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="G72" s="86" t="str">
+      <c r="G72" s="90" t="str">
         <f>"İsim : "&amp;$D71</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H72" s="86"/>
-      <c r="I72" s="86"/>
-      <c r="J72" s="86"/>
+      <c r="H72" s="90"/>
+      <c r="I72" s="90"/>
+      <c r="J72" s="90"/>
       <c r="K72" s="32"/>
       <c r="L72" s="32"/>
-      <c r="M72" s="87"/>
-      <c r="N72" s="87"/>
+      <c r="M72" s="84"/>
+      <c r="N72" s="84"/>
       <c r="O72" s="33"/>
       <c r="P72" s="51"/>
     </row>
@@ -5534,17 +5537,17 @@
       <c r="A73" s="30"/>
       <c r="B73" s="56"/>
       <c r="C73" s="57"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="88" t="str">
+      <c r="D73" s="81"/>
+      <c r="E73" s="91"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H73" s="88"/>
-      <c r="I73" s="88"/>
-      <c r="J73" s="88"/>
-      <c r="K73" s="88"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="85"/>
+      <c r="J73" s="85"/>
+      <c r="K73" s="85"/>
       <c r="L73" s="30"/>
       <c r="M73" s="30"/>
       <c r="N73" s="30"/>
@@ -5555,14 +5558,14 @@
       <c r="A74" s="30"/>
       <c r="B74" s="56"/>
       <c r="C74" s="57"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="88"/>
-      <c r="H74" s="88"/>
-      <c r="I74" s="88"/>
-      <c r="J74" s="88"/>
-      <c r="K74" s="88"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="91"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="85"/>
+      <c r="K74" s="85"/>
       <c r="L74" s="43" t="s">
         <v>49</v>
       </c>
@@ -5575,16 +5578,16 @@
       <c r="A75" s="30"/>
       <c r="B75" s="56"/>
       <c r="C75" s="57"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="80" t="str">
+      <c r="D75" s="81"/>
+      <c r="E75" s="91"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H75" s="80"/>
-      <c r="I75" s="80"/>
-      <c r="J75" s="80"/>
+      <c r="H75" s="86"/>
+      <c r="I75" s="86"/>
+      <c r="J75" s="86"/>
       <c r="K75" s="30"/>
       <c r="L75" s="30"/>
       <c r="M75" s="30"/>
@@ -5596,16 +5599,16 @@
       <c r="A76" s="30"/>
       <c r="B76" s="42"/>
       <c r="C76" s="30"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="81" t="str">
+      <c r="D76" s="81"/>
+      <c r="E76" s="91"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H76" s="81"/>
-      <c r="I76" s="81"/>
-      <c r="J76" s="81"/>
+      <c r="H76" s="87"/>
+      <c r="I76" s="87"/>
+      <c r="J76" s="87"/>
       <c r="K76" s="58"/>
       <c r="L76" s="58"/>
       <c r="M76" s="58"/>
@@ -5617,18 +5620,18 @@
       <c r="A77" s="30"/>
       <c r="B77" s="55"/>
       <c r="C77" s="30"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="85" t="s">
+      <c r="D77" s="81"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G77" s="86" t="str">
+      <c r="G77" s="90" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H77" s="86"/>
-      <c r="I77" s="86"/>
-      <c r="J77" s="86"/>
+      <c r="H77" s="90"/>
+      <c r="I77" s="90"/>
+      <c r="J77" s="90"/>
       <c r="K77" s="32"/>
       <c r="L77" s="60"/>
       <c r="M77" s="32"/>
@@ -5643,15 +5646,15 @@
       <c r="D78" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="79"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="88" t="str">
+      <c r="E78" s="91"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="88"/>
+      <c r="H78" s="85"/>
+      <c r="I78" s="85"/>
+      <c r="J78" s="85"/>
       <c r="K78" s="30"/>
       <c r="L78" s="30"/>
       <c r="M78" s="30"/>
@@ -5667,12 +5670,12 @@
         <f>'Senet Taksit Giriş'!D6</f>
         <v>45626</v>
       </c>
-      <c r="E79" s="79"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="88"/>
-      <c r="H79" s="88"/>
-      <c r="I79" s="88"/>
-      <c r="J79" s="88"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="85"/>
+      <c r="J79" s="85"/>
       <c r="K79" s="30"/>
       <c r="L79" s="43" t="s">
         <v>49</v>
@@ -5689,15 +5692,15 @@
       <c r="D80" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E80" s="79"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="80" t="str">
+      <c r="E80" s="91"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H80" s="80"/>
-      <c r="I80" s="80"/>
-      <c r="J80" s="80"/>
+      <c r="H80" s="86"/>
+      <c r="I80" s="86"/>
+      <c r="J80" s="86"/>
       <c r="K80" s="30"/>
       <c r="L80" s="30"/>
       <c r="M80" s="30"/>
@@ -5713,15 +5716,15 @@
         <f>'Senet Taksit Giriş'!C6</f>
         <v>45503</v>
       </c>
-      <c r="E81" s="79"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="81" t="str">
+      <c r="E81" s="91"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H81" s="81"/>
-      <c r="I81" s="81"/>
-      <c r="J81" s="81"/>
+      <c r="H81" s="87"/>
+      <c r="I81" s="87"/>
+      <c r="J81" s="87"/>
       <c r="K81" s="58"/>
       <c r="L81" s="58"/>
       <c r="M81" s="58"/>
@@ -5772,7 +5775,7 @@
       <c r="D85" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E85" s="79" t="str">
+      <c r="E85" s="91" t="str">
         <f>$D92 &amp;"    - Taksit No: " &amp; $D87&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 5 #  </v>
       </c>
@@ -5805,7 +5808,7 @@
       <c r="D86" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E86" s="79"/>
+      <c r="E86" s="91"/>
       <c r="F86" s="30"/>
       <c r="G86" s="45">
         <f>D100</f>
@@ -5841,7 +5844,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B7),"##.##0")&amp;" #"</f>
         <v># 5 #</v>
       </c>
-      <c r="E87" s="79"/>
+      <c r="E87" s="91"/>
       <c r="F87" s="30"/>
       <c r="G87" s="30"/>
       <c r="H87" s="30"/>
@@ -5861,20 +5864,20 @@
       <c r="D88" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E88" s="79"/>
-      <c r="F88" s="82" t="str">
+      <c r="E88" s="91"/>
+      <c r="F88" s="88" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G86,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F7&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G7&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G88" s="82"/>
-      <c r="H88" s="82"/>
-      <c r="I88" s="82"/>
-      <c r="J88" s="82"/>
-      <c r="K88" s="82"/>
-      <c r="L88" s="82"/>
-      <c r="M88" s="82"/>
-      <c r="N88" s="82"/>
-      <c r="O88" s="82"/>
+      <c r="G88" s="88"/>
+      <c r="H88" s="88"/>
+      <c r="I88" s="88"/>
+      <c r="J88" s="88"/>
+      <c r="K88" s="88"/>
+      <c r="L88" s="88"/>
+      <c r="M88" s="88"/>
+      <c r="N88" s="88"/>
+      <c r="O88" s="88"/>
       <c r="P88" s="51"/>
     </row>
     <row r="89" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5885,17 +5888,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E7),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E89" s="79"/>
-      <c r="F89" s="82"/>
-      <c r="G89" s="82"/>
-      <c r="H89" s="82"/>
-      <c r="I89" s="82"/>
-      <c r="J89" s="82"/>
-      <c r="K89" s="82"/>
-      <c r="L89" s="82"/>
-      <c r="M89" s="82"/>
-      <c r="N89" s="82"/>
-      <c r="O89" s="82"/>
+      <c r="E89" s="91"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="88"/>
+      <c r="I89" s="88"/>
+      <c r="J89" s="88"/>
+      <c r="K89" s="88"/>
+      <c r="L89" s="88"/>
+      <c r="M89" s="88"/>
+      <c r="N89" s="88"/>
+      <c r="O89" s="88"/>
       <c r="P89" s="51"/>
     </row>
     <row r="90" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5906,17 +5909,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E90-INT('Senet Taksit Giriş'!E90))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E90" s="79"/>
-      <c r="F90" s="82"/>
-      <c r="G90" s="82"/>
-      <c r="H90" s="82"/>
-      <c r="I90" s="82"/>
-      <c r="J90" s="82"/>
-      <c r="K90" s="82"/>
-      <c r="L90" s="82"/>
-      <c r="M90" s="82"/>
-      <c r="N90" s="82"/>
-      <c r="O90" s="82"/>
+      <c r="E90" s="91"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="88"/>
+      <c r="J90" s="88"/>
+      <c r="K90" s="88"/>
+      <c r="L90" s="88"/>
+      <c r="M90" s="88"/>
+      <c r="N90" s="88"/>
+      <c r="O90" s="88"/>
       <c r="P90" s="51"/>
     </row>
     <row r="91" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5926,28 +5929,28 @@
       <c r="D91" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="79"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="82"/>
-      <c r="H91" s="82"/>
-      <c r="I91" s="82"/>
-      <c r="J91" s="82"/>
-      <c r="K91" s="82"/>
-      <c r="L91" s="82"/>
-      <c r="M91" s="82"/>
-      <c r="N91" s="82"/>
-      <c r="O91" s="82"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="88"/>
+      <c r="G91" s="88"/>
+      <c r="H91" s="88"/>
+      <c r="I91" s="88"/>
+      <c r="J91" s="88"/>
+      <c r="K91" s="88"/>
+      <c r="L91" s="88"/>
+      <c r="M91" s="88"/>
+      <c r="N91" s="88"/>
+      <c r="O91" s="88"/>
       <c r="P91" s="51"/>
     </row>
     <row r="92" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="30"/>
       <c r="B92" s="55"/>
       <c r="C92" s="30"/>
-      <c r="D92" s="84" t="str">
+      <c r="D92" s="81" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E92" s="79"/>
+      <c r="E92" s="91"/>
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
@@ -5964,22 +5967,22 @@
       <c r="A93" s="30"/>
       <c r="B93" s="42"/>
       <c r="C93" s="30"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="79"/>
-      <c r="F93" s="85" t="s">
+      <c r="D93" s="81"/>
+      <c r="E93" s="91"/>
+      <c r="F93" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="G93" s="86" t="str">
+      <c r="G93" s="90" t="str">
         <f>"İsim : "&amp;$D92</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H93" s="86"/>
-      <c r="I93" s="86"/>
-      <c r="J93" s="86"/>
+      <c r="H93" s="90"/>
+      <c r="I93" s="90"/>
+      <c r="J93" s="90"/>
       <c r="K93" s="32"/>
       <c r="L93" s="32"/>
-      <c r="M93" s="87"/>
-      <c r="N93" s="87"/>
+      <c r="M93" s="84"/>
+      <c r="N93" s="84"/>
       <c r="O93" s="33"/>
       <c r="P93" s="51"/>
     </row>
@@ -5987,17 +5990,17 @@
       <c r="A94" s="30"/>
       <c r="B94" s="56"/>
       <c r="C94" s="57"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="79"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="88" t="str">
+      <c r="D94" s="81"/>
+      <c r="E94" s="91"/>
+      <c r="F94" s="82"/>
+      <c r="G94" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H94" s="88"/>
-      <c r="I94" s="88"/>
-      <c r="J94" s="88"/>
-      <c r="K94" s="88"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="85"/>
       <c r="L94" s="30"/>
       <c r="M94" s="30"/>
       <c r="N94" s="30"/>
@@ -6008,14 +6011,14 @@
       <c r="A95" s="30"/>
       <c r="B95" s="56"/>
       <c r="C95" s="57"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="79"/>
-      <c r="F95" s="85"/>
-      <c r="G95" s="88"/>
-      <c r="H95" s="88"/>
-      <c r="I95" s="88"/>
-      <c r="J95" s="88"/>
-      <c r="K95" s="88"/>
+      <c r="D95" s="81"/>
+      <c r="E95" s="91"/>
+      <c r="F95" s="82"/>
+      <c r="G95" s="85"/>
+      <c r="H95" s="85"/>
+      <c r="I95" s="85"/>
+      <c r="J95" s="85"/>
+      <c r="K95" s="85"/>
       <c r="L95" s="43" t="s">
         <v>49</v>
       </c>
@@ -6028,16 +6031,16 @@
       <c r="A96" s="30"/>
       <c r="B96" s="56"/>
       <c r="C96" s="57"/>
-      <c r="D96" s="84"/>
-      <c r="E96" s="79"/>
-      <c r="F96" s="85"/>
-      <c r="G96" s="80" t="str">
+      <c r="D96" s="81"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H96" s="80"/>
-      <c r="I96" s="80"/>
-      <c r="J96" s="80"/>
+      <c r="H96" s="86"/>
+      <c r="I96" s="86"/>
+      <c r="J96" s="86"/>
       <c r="K96" s="30"/>
       <c r="L96" s="30"/>
       <c r="M96" s="30"/>
@@ -6049,16 +6052,16 @@
       <c r="A97" s="30"/>
       <c r="B97" s="42"/>
       <c r="C97" s="30"/>
-      <c r="D97" s="84"/>
-      <c r="E97" s="79"/>
-      <c r="F97" s="85"/>
-      <c r="G97" s="81" t="str">
+      <c r="D97" s="81"/>
+      <c r="E97" s="91"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H97" s="81"/>
-      <c r="I97" s="81"/>
-      <c r="J97" s="81"/>
+      <c r="H97" s="87"/>
+      <c r="I97" s="87"/>
+      <c r="J97" s="87"/>
       <c r="K97" s="58"/>
       <c r="L97" s="58"/>
       <c r="M97" s="58"/>
@@ -6070,18 +6073,18 @@
       <c r="A98" s="30"/>
       <c r="B98" s="55"/>
       <c r="C98" s="30"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="85" t="s">
+      <c r="D98" s="81"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G98" s="86" t="str">
+      <c r="G98" s="90" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H98" s="86"/>
-      <c r="I98" s="86"/>
-      <c r="J98" s="86"/>
+      <c r="H98" s="90"/>
+      <c r="I98" s="90"/>
+      <c r="J98" s="90"/>
       <c r="K98" s="32"/>
       <c r="L98" s="60"/>
       <c r="M98" s="32"/>
@@ -6096,15 +6099,15 @@
       <c r="D99" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E99" s="79"/>
-      <c r="F99" s="85"/>
-      <c r="G99" s="88" t="str">
+      <c r="E99" s="91"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H99" s="88"/>
-      <c r="I99" s="88"/>
-      <c r="J99" s="88"/>
+      <c r="H99" s="85"/>
+      <c r="I99" s="85"/>
+      <c r="J99" s="85"/>
       <c r="K99" s="30"/>
       <c r="L99" s="30"/>
       <c r="M99" s="30"/>
@@ -6120,12 +6123,12 @@
         <f>'Senet Taksit Giriş'!D7</f>
         <v>45656</v>
       </c>
-      <c r="E100" s="79"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="88"/>
-      <c r="H100" s="88"/>
-      <c r="I100" s="88"/>
-      <c r="J100" s="88"/>
+      <c r="E100" s="91"/>
+      <c r="F100" s="82"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="85"/>
+      <c r="I100" s="85"/>
+      <c r="J100" s="85"/>
       <c r="K100" s="30"/>
       <c r="L100" s="43" t="s">
         <v>49</v>
@@ -6142,15 +6145,15 @@
       <c r="D101" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E101" s="79"/>
-      <c r="F101" s="85"/>
-      <c r="G101" s="80" t="str">
+      <c r="E101" s="91"/>
+      <c r="F101" s="82"/>
+      <c r="G101" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H101" s="80"/>
-      <c r="I101" s="80"/>
-      <c r="J101" s="80"/>
+      <c r="H101" s="86"/>
+      <c r="I101" s="86"/>
+      <c r="J101" s="86"/>
       <c r="K101" s="30"/>
       <c r="L101" s="30"/>
       <c r="M101" s="30"/>
@@ -6166,15 +6169,15 @@
         <f>'Senet Taksit Giriş'!C7</f>
         <v>45503</v>
       </c>
-      <c r="E102" s="79"/>
-      <c r="F102" s="85"/>
-      <c r="G102" s="81" t="str">
+      <c r="E102" s="91"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H102" s="81"/>
-      <c r="I102" s="81"/>
-      <c r="J102" s="81"/>
+      <c r="H102" s="87"/>
+      <c r="I102" s="87"/>
+      <c r="J102" s="87"/>
       <c r="K102" s="58"/>
       <c r="L102" s="58"/>
       <c r="M102" s="58"/>
@@ -6225,7 +6228,7 @@
       <c r="D106" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E106" s="79" t="str">
+      <c r="E106" s="91" t="str">
         <f>$D113 &amp;"    - Taksit No: " &amp; $D108&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 6 #  </v>
       </c>
@@ -6258,7 +6261,7 @@
       <c r="D107" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E107" s="79"/>
+      <c r="E107" s="91"/>
       <c r="F107" s="30"/>
       <c r="G107" s="45">
         <f>D121</f>
@@ -6294,7 +6297,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B8),"##.##0")&amp;" #"</f>
         <v># 6 #</v>
       </c>
-      <c r="E108" s="79"/>
+      <c r="E108" s="91"/>
       <c r="F108" s="30"/>
       <c r="G108" s="30"/>
       <c r="H108" s="30"/>
@@ -6314,20 +6317,20 @@
       <c r="D109" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E109" s="79"/>
-      <c r="F109" s="82" t="str">
+      <c r="E109" s="91"/>
+      <c r="F109" s="88" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G107,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F8&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G8&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G109" s="82"/>
-      <c r="H109" s="82"/>
-      <c r="I109" s="82"/>
-      <c r="J109" s="82"/>
-      <c r="K109" s="82"/>
-      <c r="L109" s="82"/>
-      <c r="M109" s="82"/>
-      <c r="N109" s="82"/>
-      <c r="O109" s="82"/>
+      <c r="G109" s="88"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="88"/>
+      <c r="J109" s="88"/>
+      <c r="K109" s="88"/>
+      <c r="L109" s="88"/>
+      <c r="M109" s="88"/>
+      <c r="N109" s="88"/>
+      <c r="O109" s="88"/>
       <c r="P109" s="51"/>
     </row>
     <row r="110" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6338,17 +6341,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E8),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E110" s="79"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="82"/>
-      <c r="H110" s="82"/>
-      <c r="I110" s="82"/>
-      <c r="J110" s="82"/>
-      <c r="K110" s="82"/>
-      <c r="L110" s="82"/>
-      <c r="M110" s="82"/>
-      <c r="N110" s="82"/>
-      <c r="O110" s="82"/>
+      <c r="E110" s="91"/>
+      <c r="F110" s="88"/>
+      <c r="G110" s="88"/>
+      <c r="H110" s="88"/>
+      <c r="I110" s="88"/>
+      <c r="J110" s="88"/>
+      <c r="K110" s="88"/>
+      <c r="L110" s="88"/>
+      <c r="M110" s="88"/>
+      <c r="N110" s="88"/>
+      <c r="O110" s="88"/>
       <c r="P110" s="51"/>
     </row>
     <row r="111" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6359,17 +6362,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E111-INT('Senet Taksit Giriş'!E111))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E111" s="79"/>
-      <c r="F111" s="82"/>
-      <c r="G111" s="82"/>
-      <c r="H111" s="82"/>
-      <c r="I111" s="82"/>
-      <c r="J111" s="82"/>
-      <c r="K111" s="82"/>
-      <c r="L111" s="82"/>
-      <c r="M111" s="82"/>
-      <c r="N111" s="82"/>
-      <c r="O111" s="82"/>
+      <c r="E111" s="91"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="88"/>
+      <c r="H111" s="88"/>
+      <c r="I111" s="88"/>
+      <c r="J111" s="88"/>
+      <c r="K111" s="88"/>
+      <c r="L111" s="88"/>
+      <c r="M111" s="88"/>
+      <c r="N111" s="88"/>
+      <c r="O111" s="88"/>
       <c r="P111" s="51"/>
     </row>
     <row r="112" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6379,28 +6382,28 @@
       <c r="D112" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E112" s="79"/>
-      <c r="F112" s="82"/>
-      <c r="G112" s="82"/>
-      <c r="H112" s="82"/>
-      <c r="I112" s="82"/>
-      <c r="J112" s="82"/>
-      <c r="K112" s="82"/>
-      <c r="L112" s="82"/>
-      <c r="M112" s="82"/>
-      <c r="N112" s="82"/>
-      <c r="O112" s="82"/>
+      <c r="E112" s="91"/>
+      <c r="F112" s="88"/>
+      <c r="G112" s="88"/>
+      <c r="H112" s="88"/>
+      <c r="I112" s="88"/>
+      <c r="J112" s="88"/>
+      <c r="K112" s="88"/>
+      <c r="L112" s="88"/>
+      <c r="M112" s="88"/>
+      <c r="N112" s="88"/>
+      <c r="O112" s="88"/>
       <c r="P112" s="51"/>
     </row>
     <row r="113" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="30"/>
       <c r="B113" s="55"/>
       <c r="C113" s="30"/>
-      <c r="D113" s="84" t="str">
+      <c r="D113" s="81" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E113" s="79"/>
+      <c r="E113" s="91"/>
       <c r="F113"/>
       <c r="G113"/>
       <c r="H113"/>
@@ -6417,22 +6420,22 @@
       <c r="A114" s="30"/>
       <c r="B114" s="42"/>
       <c r="C114" s="30"/>
-      <c r="D114" s="84"/>
-      <c r="E114" s="79"/>
-      <c r="F114" s="85" t="s">
+      <c r="D114" s="81"/>
+      <c r="E114" s="91"/>
+      <c r="F114" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="G114" s="86" t="str">
+      <c r="G114" s="90" t="str">
         <f>"İsim : "&amp;$D113</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H114" s="86"/>
-      <c r="I114" s="86"/>
-      <c r="J114" s="86"/>
+      <c r="H114" s="90"/>
+      <c r="I114" s="90"/>
+      <c r="J114" s="90"/>
       <c r="K114" s="32"/>
       <c r="L114" s="32"/>
-      <c r="M114" s="87"/>
-      <c r="N114" s="87"/>
+      <c r="M114" s="84"/>
+      <c r="N114" s="84"/>
       <c r="O114" s="33"/>
       <c r="P114" s="51"/>
     </row>
@@ -6440,17 +6443,17 @@
       <c r="A115" s="30"/>
       <c r="B115" s="56"/>
       <c r="C115" s="57"/>
-      <c r="D115" s="84"/>
-      <c r="E115" s="79"/>
-      <c r="F115" s="85"/>
-      <c r="G115" s="88" t="str">
+      <c r="D115" s="81"/>
+      <c r="E115" s="91"/>
+      <c r="F115" s="82"/>
+      <c r="G115" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H115" s="88"/>
-      <c r="I115" s="88"/>
-      <c r="J115" s="88"/>
-      <c r="K115" s="88"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="85"/>
+      <c r="J115" s="85"/>
+      <c r="K115" s="85"/>
       <c r="L115" s="30"/>
       <c r="M115" s="30"/>
       <c r="N115" s="30"/>
@@ -6461,14 +6464,14 @@
       <c r="A116" s="30"/>
       <c r="B116" s="56"/>
       <c r="C116" s="57"/>
-      <c r="D116" s="84"/>
-      <c r="E116" s="79"/>
-      <c r="F116" s="85"/>
-      <c r="G116" s="88"/>
-      <c r="H116" s="88"/>
-      <c r="I116" s="88"/>
-      <c r="J116" s="88"/>
-      <c r="K116" s="88"/>
+      <c r="D116" s="81"/>
+      <c r="E116" s="91"/>
+      <c r="F116" s="82"/>
+      <c r="G116" s="85"/>
+      <c r="H116" s="85"/>
+      <c r="I116" s="85"/>
+      <c r="J116" s="85"/>
+      <c r="K116" s="85"/>
       <c r="L116" s="43" t="s">
         <v>49</v>
       </c>
@@ -6481,16 +6484,16 @@
       <c r="A117" s="30"/>
       <c r="B117" s="56"/>
       <c r="C117" s="57"/>
-      <c r="D117" s="84"/>
-      <c r="E117" s="79"/>
-      <c r="F117" s="85"/>
-      <c r="G117" s="80" t="str">
+      <c r="D117" s="81"/>
+      <c r="E117" s="91"/>
+      <c r="F117" s="82"/>
+      <c r="G117" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H117" s="80"/>
-      <c r="I117" s="80"/>
-      <c r="J117" s="80"/>
+      <c r="H117" s="86"/>
+      <c r="I117" s="86"/>
+      <c r="J117" s="86"/>
       <c r="K117" s="30"/>
       <c r="L117" s="30"/>
       <c r="M117" s="30"/>
@@ -6502,16 +6505,16 @@
       <c r="A118" s="30"/>
       <c r="B118" s="42"/>
       <c r="C118" s="30"/>
-      <c r="D118" s="84"/>
-      <c r="E118" s="79"/>
-      <c r="F118" s="85"/>
-      <c r="G118" s="81" t="str">
+      <c r="D118" s="81"/>
+      <c r="E118" s="91"/>
+      <c r="F118" s="82"/>
+      <c r="G118" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H118" s="81"/>
-      <c r="I118" s="81"/>
-      <c r="J118" s="81"/>
+      <c r="H118" s="87"/>
+      <c r="I118" s="87"/>
+      <c r="J118" s="87"/>
       <c r="K118" s="58"/>
       <c r="L118" s="58"/>
       <c r="M118" s="58"/>
@@ -6523,18 +6526,18 @@
       <c r="A119" s="30"/>
       <c r="B119" s="55"/>
       <c r="C119" s="30"/>
-      <c r="D119" s="84"/>
-      <c r="E119" s="79"/>
-      <c r="F119" s="85" t="s">
+      <c r="D119" s="81"/>
+      <c r="E119" s="91"/>
+      <c r="F119" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G119" s="86" t="str">
+      <c r="G119" s="90" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H119" s="86"/>
-      <c r="I119" s="86"/>
-      <c r="J119" s="86"/>
+      <c r="H119" s="90"/>
+      <c r="I119" s="90"/>
+      <c r="J119" s="90"/>
       <c r="K119" s="32"/>
       <c r="L119" s="60"/>
       <c r="M119" s="32"/>
@@ -6549,15 +6552,15 @@
       <c r="D120" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E120" s="79"/>
-      <c r="F120" s="85"/>
-      <c r="G120" s="88" t="str">
+      <c r="E120" s="91"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H120" s="88"/>
-      <c r="I120" s="88"/>
-      <c r="J120" s="88"/>
+      <c r="H120" s="85"/>
+      <c r="I120" s="85"/>
+      <c r="J120" s="85"/>
       <c r="K120" s="30"/>
       <c r="L120" s="30"/>
       <c r="M120" s="30"/>
@@ -6573,12 +6576,12 @@
         <f>'Senet Taksit Giriş'!D8</f>
         <v>45687</v>
       </c>
-      <c r="E121" s="79"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="88"/>
-      <c r="H121" s="88"/>
-      <c r="I121" s="88"/>
-      <c r="J121" s="88"/>
+      <c r="E121" s="91"/>
+      <c r="F121" s="82"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="85"/>
+      <c r="I121" s="85"/>
+      <c r="J121" s="85"/>
       <c r="K121" s="30"/>
       <c r="L121" s="43" t="s">
         <v>49</v>
@@ -6595,15 +6598,15 @@
       <c r="D122" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E122" s="79"/>
-      <c r="F122" s="85"/>
-      <c r="G122" s="80" t="str">
+      <c r="E122" s="91"/>
+      <c r="F122" s="82"/>
+      <c r="G122" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H122" s="80"/>
-      <c r="I122" s="80"/>
-      <c r="J122" s="80"/>
+      <c r="H122" s="86"/>
+      <c r="I122" s="86"/>
+      <c r="J122" s="86"/>
       <c r="K122" s="30"/>
       <c r="L122" s="30"/>
       <c r="M122" s="30"/>
@@ -6619,15 +6622,15 @@
         <f>'Senet Taksit Giriş'!C8</f>
         <v>45503</v>
       </c>
-      <c r="E123" s="79"/>
-      <c r="F123" s="85"/>
-      <c r="G123" s="81" t="str">
+      <c r="E123" s="91"/>
+      <c r="F123" s="82"/>
+      <c r="G123" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H123" s="81"/>
-      <c r="I123" s="81"/>
-      <c r="J123" s="81"/>
+      <c r="H123" s="87"/>
+      <c r="I123" s="87"/>
+      <c r="J123" s="87"/>
       <c r="K123" s="58"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -6678,7 +6681,7 @@
       <c r="D126" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E126" s="79" t="str">
+      <c r="E126" s="91" t="str">
         <f>$D133 &amp;"    - Taksit No: " &amp; $D128&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 7 #  </v>
       </c>
@@ -6711,7 +6714,7 @@
       <c r="D127" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E127" s="79"/>
+      <c r="E127" s="91"/>
       <c r="F127" s="30"/>
       <c r="G127" s="45">
         <f>D141</f>
@@ -6747,7 +6750,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B9),"##.##0")&amp;" #"</f>
         <v># 7 #</v>
       </c>
-      <c r="E128" s="79"/>
+      <c r="E128" s="91"/>
       <c r="F128" s="30"/>
       <c r="G128" s="30"/>
       <c r="H128" s="30"/>
@@ -6767,20 +6770,20 @@
       <c r="D129" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E129" s="79"/>
-      <c r="F129" s="82" t="str">
+      <c r="E129" s="91"/>
+      <c r="F129" s="88" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G127,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F9&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G9&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G129" s="82"/>
-      <c r="H129" s="82"/>
-      <c r="I129" s="82"/>
-      <c r="J129" s="82"/>
-      <c r="K129" s="82"/>
-      <c r="L129" s="82"/>
-      <c r="M129" s="82"/>
-      <c r="N129" s="82"/>
-      <c r="O129" s="82"/>
+      <c r="G129" s="88"/>
+      <c r="H129" s="88"/>
+      <c r="I129" s="88"/>
+      <c r="J129" s="88"/>
+      <c r="K129" s="88"/>
+      <c r="L129" s="88"/>
+      <c r="M129" s="88"/>
+      <c r="N129" s="88"/>
+      <c r="O129" s="88"/>
       <c r="P129" s="51"/>
     </row>
     <row r="130" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6791,17 +6794,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E9),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E130" s="79"/>
-      <c r="F130" s="82"/>
-      <c r="G130" s="82"/>
-      <c r="H130" s="82"/>
-      <c r="I130" s="82"/>
-      <c r="J130" s="82"/>
-      <c r="K130" s="82"/>
-      <c r="L130" s="82"/>
-      <c r="M130" s="82"/>
-      <c r="N130" s="82"/>
-      <c r="O130" s="82"/>
+      <c r="E130" s="91"/>
+      <c r="F130" s="88"/>
+      <c r="G130" s="88"/>
+      <c r="H130" s="88"/>
+      <c r="I130" s="88"/>
+      <c r="J130" s="88"/>
+      <c r="K130" s="88"/>
+      <c r="L130" s="88"/>
+      <c r="M130" s="88"/>
+      <c r="N130" s="88"/>
+      <c r="O130" s="88"/>
       <c r="P130" s="51"/>
     </row>
     <row r="131" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6812,17 +6815,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E132-INT('Senet Taksit Giriş'!E132))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E131" s="79"/>
-      <c r="F131" s="82"/>
-      <c r="G131" s="82"/>
-      <c r="H131" s="82"/>
-      <c r="I131" s="82"/>
-      <c r="J131" s="82"/>
-      <c r="K131" s="82"/>
-      <c r="L131" s="82"/>
-      <c r="M131" s="82"/>
-      <c r="N131" s="82"/>
-      <c r="O131" s="82"/>
+      <c r="E131" s="91"/>
+      <c r="F131" s="88"/>
+      <c r="G131" s="88"/>
+      <c r="H131" s="88"/>
+      <c r="I131" s="88"/>
+      <c r="J131" s="88"/>
+      <c r="K131" s="88"/>
+      <c r="L131" s="88"/>
+      <c r="M131" s="88"/>
+      <c r="N131" s="88"/>
+      <c r="O131" s="88"/>
       <c r="P131" s="51"/>
     </row>
     <row r="132" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6832,28 +6835,28 @@
       <c r="D132" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E132" s="79"/>
-      <c r="F132" s="82"/>
-      <c r="G132" s="82"/>
-      <c r="H132" s="82"/>
-      <c r="I132" s="82"/>
-      <c r="J132" s="82"/>
-      <c r="K132" s="82"/>
-      <c r="L132" s="82"/>
-      <c r="M132" s="82"/>
-      <c r="N132" s="82"/>
-      <c r="O132" s="82"/>
+      <c r="E132" s="91"/>
+      <c r="F132" s="88"/>
+      <c r="G132" s="88"/>
+      <c r="H132" s="88"/>
+      <c r="I132" s="88"/>
+      <c r="J132" s="88"/>
+      <c r="K132" s="88"/>
+      <c r="L132" s="88"/>
+      <c r="M132" s="88"/>
+      <c r="N132" s="88"/>
+      <c r="O132" s="88"/>
       <c r="P132" s="51"/>
     </row>
     <row r="133" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="30"/>
       <c r="B133" s="55"/>
       <c r="C133" s="30"/>
-      <c r="D133" s="84" t="str">
+      <c r="D133" s="81" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E133" s="79"/>
+      <c r="E133" s="91"/>
       <c r="F133"/>
       <c r="G133"/>
       <c r="H133"/>
@@ -6870,22 +6873,22 @@
       <c r="A134" s="30"/>
       <c r="B134" s="42"/>
       <c r="C134" s="30"/>
-      <c r="D134" s="84"/>
-      <c r="E134" s="79"/>
-      <c r="F134" s="85" t="s">
+      <c r="D134" s="81"/>
+      <c r="E134" s="91"/>
+      <c r="F134" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="G134" s="86" t="str">
+      <c r="G134" s="90" t="str">
         <f>"İsim : "&amp;$D133</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H134" s="86"/>
-      <c r="I134" s="86"/>
-      <c r="J134" s="86"/>
+      <c r="H134" s="90"/>
+      <c r="I134" s="90"/>
+      <c r="J134" s="90"/>
       <c r="K134" s="32"/>
       <c r="L134" s="32"/>
-      <c r="M134" s="87"/>
-      <c r="N134" s="87"/>
+      <c r="M134" s="84"/>
+      <c r="N134" s="84"/>
       <c r="O134" s="33"/>
       <c r="P134" s="51"/>
     </row>
@@ -6893,17 +6896,17 @@
       <c r="A135" s="30"/>
       <c r="B135" s="56"/>
       <c r="C135" s="57"/>
-      <c r="D135" s="84"/>
-      <c r="E135" s="79"/>
-      <c r="F135" s="85"/>
-      <c r="G135" s="88" t="str">
+      <c r="D135" s="81"/>
+      <c r="E135" s="91"/>
+      <c r="F135" s="82"/>
+      <c r="G135" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H135" s="88"/>
-      <c r="I135" s="88"/>
-      <c r="J135" s="88"/>
-      <c r="K135" s="88"/>
+      <c r="H135" s="85"/>
+      <c r="I135" s="85"/>
+      <c r="J135" s="85"/>
+      <c r="K135" s="85"/>
       <c r="L135" s="30"/>
       <c r="M135" s="30"/>
       <c r="N135" s="30"/>
@@ -6914,14 +6917,14 @@
       <c r="A136" s="30"/>
       <c r="B136" s="56"/>
       <c r="C136" s="57"/>
-      <c r="D136" s="84"/>
-      <c r="E136" s="79"/>
-      <c r="F136" s="85"/>
-      <c r="G136" s="88"/>
-      <c r="H136" s="88"/>
-      <c r="I136" s="88"/>
-      <c r="J136" s="88"/>
-      <c r="K136" s="88"/>
+      <c r="D136" s="81"/>
+      <c r="E136" s="91"/>
+      <c r="F136" s="82"/>
+      <c r="G136" s="85"/>
+      <c r="H136" s="85"/>
+      <c r="I136" s="85"/>
+      <c r="J136" s="85"/>
+      <c r="K136" s="85"/>
       <c r="L136" s="43" t="s">
         <v>49</v>
       </c>
@@ -6934,16 +6937,16 @@
       <c r="A137" s="30"/>
       <c r="B137" s="56"/>
       <c r="C137" s="57"/>
-      <c r="D137" s="84"/>
-      <c r="E137" s="79"/>
-      <c r="F137" s="85"/>
-      <c r="G137" s="80" t="str">
+      <c r="D137" s="81"/>
+      <c r="E137" s="91"/>
+      <c r="F137" s="82"/>
+      <c r="G137" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H137" s="80"/>
-      <c r="I137" s="80"/>
-      <c r="J137" s="80"/>
+      <c r="H137" s="86"/>
+      <c r="I137" s="86"/>
+      <c r="J137" s="86"/>
       <c r="K137" s="30"/>
       <c r="L137" s="30"/>
       <c r="M137" s="30"/>
@@ -6955,16 +6958,16 @@
       <c r="A138" s="30"/>
       <c r="B138" s="42"/>
       <c r="C138" s="30"/>
-      <c r="D138" s="84"/>
-      <c r="E138" s="79"/>
-      <c r="F138" s="85"/>
-      <c r="G138" s="81" t="str">
+      <c r="D138" s="81"/>
+      <c r="E138" s="91"/>
+      <c r="F138" s="82"/>
+      <c r="G138" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H138" s="81"/>
-      <c r="I138" s="81"/>
-      <c r="J138" s="81"/>
+      <c r="H138" s="87"/>
+      <c r="I138" s="87"/>
+      <c r="J138" s="87"/>
       <c r="K138" s="58"/>
       <c r="L138" s="58"/>
       <c r="M138" s="58"/>
@@ -6976,18 +6979,18 @@
       <c r="A139" s="30"/>
       <c r="B139" s="55"/>
       <c r="C139" s="30"/>
-      <c r="D139" s="84"/>
-      <c r="E139" s="79"/>
-      <c r="F139" s="85" t="s">
+      <c r="D139" s="81"/>
+      <c r="E139" s="91"/>
+      <c r="F139" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G139" s="86" t="str">
+      <c r="G139" s="90" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H139" s="86"/>
-      <c r="I139" s="86"/>
-      <c r="J139" s="86"/>
+      <c r="H139" s="90"/>
+      <c r="I139" s="90"/>
+      <c r="J139" s="90"/>
       <c r="K139" s="32"/>
       <c r="L139" s="60"/>
       <c r="M139" s="32"/>
@@ -7002,15 +7005,15 @@
       <c r="D140" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E140" s="79"/>
-      <c r="F140" s="85"/>
-      <c r="G140" s="88" t="str">
+      <c r="E140" s="91"/>
+      <c r="F140" s="82"/>
+      <c r="G140" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H140" s="88"/>
-      <c r="I140" s="88"/>
-      <c r="J140" s="88"/>
+      <c r="H140" s="85"/>
+      <c r="I140" s="85"/>
+      <c r="J140" s="85"/>
       <c r="K140" s="30"/>
       <c r="L140" s="30"/>
       <c r="M140" s="30"/>
@@ -7026,12 +7029,12 @@
         <f>'Senet Taksit Giriş'!D9</f>
         <v>45716</v>
       </c>
-      <c r="E141" s="79"/>
-      <c r="F141" s="85"/>
-      <c r="G141" s="88"/>
-      <c r="H141" s="88"/>
-      <c r="I141" s="88"/>
-      <c r="J141" s="88"/>
+      <c r="E141" s="91"/>
+      <c r="F141" s="82"/>
+      <c r="G141" s="85"/>
+      <c r="H141" s="85"/>
+      <c r="I141" s="85"/>
+      <c r="J141" s="85"/>
       <c r="K141" s="30"/>
       <c r="L141" s="43" t="s">
         <v>49</v>
@@ -7048,15 +7051,15 @@
       <c r="D142" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E142" s="79"/>
-      <c r="F142" s="85"/>
-      <c r="G142" s="80" t="str">
+      <c r="E142" s="91"/>
+      <c r="F142" s="82"/>
+      <c r="G142" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H142" s="80"/>
-      <c r="I142" s="80"/>
-      <c r="J142" s="80"/>
+      <c r="H142" s="86"/>
+      <c r="I142" s="86"/>
+      <c r="J142" s="86"/>
       <c r="K142" s="30"/>
       <c r="L142" s="30"/>
       <c r="M142" s="30"/>
@@ -7072,15 +7075,15 @@
         <f>'Senet Taksit Giriş'!C9</f>
         <v>45503</v>
       </c>
-      <c r="E143" s="79"/>
-      <c r="F143" s="85"/>
-      <c r="G143" s="81" t="str">
+      <c r="E143" s="91"/>
+      <c r="F143" s="82"/>
+      <c r="G143" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H143" s="81"/>
-      <c r="I143" s="81"/>
-      <c r="J143" s="81"/>
+      <c r="H143" s="87"/>
+      <c r="I143" s="87"/>
+      <c r="J143" s="87"/>
       <c r="K143" s="58"/>
       <c r="L143" s="58"/>
       <c r="M143" s="58"/>
@@ -7131,7 +7134,7 @@
       <c r="D147" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E147" s="79" t="str">
+      <c r="E147" s="91" t="str">
         <f>$D154 &amp;"    - Taksit No: " &amp; $D149&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 8 #  </v>
       </c>
@@ -7164,7 +7167,7 @@
       <c r="D148" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E148" s="79"/>
+      <c r="E148" s="91"/>
       <c r="F148" s="30"/>
       <c r="G148" s="45">
         <f>D162</f>
@@ -7200,7 +7203,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B10),"##.##0")&amp;" #"</f>
         <v># 8 #</v>
       </c>
-      <c r="E149" s="79"/>
+      <c r="E149" s="91"/>
       <c r="F149" s="30"/>
       <c r="G149" s="30"/>
       <c r="H149" s="30"/>
@@ -7220,20 +7223,20 @@
       <c r="D150" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E150" s="79"/>
-      <c r="F150" s="82" t="str">
+      <c r="E150" s="91"/>
+      <c r="F150" s="88" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G148,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F10&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G10&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G150" s="82"/>
-      <c r="H150" s="82"/>
-      <c r="I150" s="82"/>
-      <c r="J150" s="82"/>
-      <c r="K150" s="82"/>
-      <c r="L150" s="82"/>
-      <c r="M150" s="82"/>
-      <c r="N150" s="82"/>
-      <c r="O150" s="82"/>
+      <c r="G150" s="88"/>
+      <c r="H150" s="88"/>
+      <c r="I150" s="88"/>
+      <c r="J150" s="88"/>
+      <c r="K150" s="88"/>
+      <c r="L150" s="88"/>
+      <c r="M150" s="88"/>
+      <c r="N150" s="88"/>
+      <c r="O150" s="88"/>
       <c r="P150" s="51"/>
     </row>
     <row r="151" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7244,17 +7247,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E10),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E151" s="79"/>
-      <c r="F151" s="82"/>
-      <c r="G151" s="82"/>
-      <c r="H151" s="82"/>
-      <c r="I151" s="82"/>
-      <c r="J151" s="82"/>
-      <c r="K151" s="82"/>
-      <c r="L151" s="82"/>
-      <c r="M151" s="82"/>
-      <c r="N151" s="82"/>
-      <c r="O151" s="82"/>
+      <c r="E151" s="91"/>
+      <c r="F151" s="88"/>
+      <c r="G151" s="88"/>
+      <c r="H151" s="88"/>
+      <c r="I151" s="88"/>
+      <c r="J151" s="88"/>
+      <c r="K151" s="88"/>
+      <c r="L151" s="88"/>
+      <c r="M151" s="88"/>
+      <c r="N151" s="88"/>
+      <c r="O151" s="88"/>
       <c r="P151" s="51"/>
     </row>
     <row r="152" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7265,17 +7268,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E153-INT('Senet Taksit Giriş'!E153))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E152" s="79"/>
-      <c r="F152" s="82"/>
-      <c r="G152" s="82"/>
-      <c r="H152" s="82"/>
-      <c r="I152" s="82"/>
-      <c r="J152" s="82"/>
-      <c r="K152" s="82"/>
-      <c r="L152" s="82"/>
-      <c r="M152" s="82"/>
-      <c r="N152" s="82"/>
-      <c r="O152" s="82"/>
+      <c r="E152" s="91"/>
+      <c r="F152" s="88"/>
+      <c r="G152" s="88"/>
+      <c r="H152" s="88"/>
+      <c r="I152" s="88"/>
+      <c r="J152" s="88"/>
+      <c r="K152" s="88"/>
+      <c r="L152" s="88"/>
+      <c r="M152" s="88"/>
+      <c r="N152" s="88"/>
+      <c r="O152" s="88"/>
       <c r="P152" s="51"/>
     </row>
     <row r="153" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7285,28 +7288,28 @@
       <c r="D153" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E153" s="79"/>
-      <c r="F153" s="82"/>
-      <c r="G153" s="82"/>
-      <c r="H153" s="82"/>
-      <c r="I153" s="82"/>
-      <c r="J153" s="82"/>
-      <c r="K153" s="82"/>
-      <c r="L153" s="82"/>
-      <c r="M153" s="82"/>
-      <c r="N153" s="82"/>
-      <c r="O153" s="82"/>
+      <c r="E153" s="91"/>
+      <c r="F153" s="88"/>
+      <c r="G153" s="88"/>
+      <c r="H153" s="88"/>
+      <c r="I153" s="88"/>
+      <c r="J153" s="88"/>
+      <c r="K153" s="88"/>
+      <c r="L153" s="88"/>
+      <c r="M153" s="88"/>
+      <c r="N153" s="88"/>
+      <c r="O153" s="88"/>
       <c r="P153" s="51"/>
     </row>
     <row r="154" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="30"/>
       <c r="B154" s="55"/>
       <c r="C154" s="30"/>
-      <c r="D154" s="84" t="str">
+      <c r="D154" s="81" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E154" s="79"/>
+      <c r="E154" s="91"/>
       <c r="F154"/>
       <c r="G154"/>
       <c r="H154"/>
@@ -7323,22 +7326,22 @@
       <c r="A155" s="30"/>
       <c r="B155" s="42"/>
       <c r="C155" s="30"/>
-      <c r="D155" s="84"/>
-      <c r="E155" s="79"/>
-      <c r="F155" s="85" t="s">
+      <c r="D155" s="81"/>
+      <c r="E155" s="91"/>
+      <c r="F155" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="G155" s="86" t="str">
+      <c r="G155" s="90" t="str">
         <f>"İsim : "&amp;$D154</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H155" s="86"/>
-      <c r="I155" s="86"/>
-      <c r="J155" s="86"/>
+      <c r="H155" s="90"/>
+      <c r="I155" s="90"/>
+      <c r="J155" s="90"/>
       <c r="K155" s="32"/>
       <c r="L155" s="32"/>
-      <c r="M155" s="87"/>
-      <c r="N155" s="87"/>
+      <c r="M155" s="84"/>
+      <c r="N155" s="84"/>
       <c r="O155" s="33"/>
       <c r="P155" s="51"/>
     </row>
@@ -7346,17 +7349,17 @@
       <c r="A156" s="30"/>
       <c r="B156" s="56"/>
       <c r="C156" s="57"/>
-      <c r="D156" s="84"/>
-      <c r="E156" s="79"/>
-      <c r="F156" s="85"/>
-      <c r="G156" s="88" t="str">
+      <c r="D156" s="81"/>
+      <c r="E156" s="91"/>
+      <c r="F156" s="82"/>
+      <c r="G156" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H156" s="88"/>
-      <c r="I156" s="88"/>
-      <c r="J156" s="88"/>
-      <c r="K156" s="88"/>
+      <c r="H156" s="85"/>
+      <c r="I156" s="85"/>
+      <c r="J156" s="85"/>
+      <c r="K156" s="85"/>
       <c r="L156" s="30"/>
       <c r="M156" s="30"/>
       <c r="N156" s="30"/>
@@ -7367,14 +7370,14 @@
       <c r="A157" s="30"/>
       <c r="B157" s="56"/>
       <c r="C157" s="57"/>
-      <c r="D157" s="84"/>
-      <c r="E157" s="79"/>
-      <c r="F157" s="85"/>
-      <c r="G157" s="88"/>
-      <c r="H157" s="88"/>
-      <c r="I157" s="88"/>
-      <c r="J157" s="88"/>
-      <c r="K157" s="88"/>
+      <c r="D157" s="81"/>
+      <c r="E157" s="91"/>
+      <c r="F157" s="82"/>
+      <c r="G157" s="85"/>
+      <c r="H157" s="85"/>
+      <c r="I157" s="85"/>
+      <c r="J157" s="85"/>
+      <c r="K157" s="85"/>
       <c r="L157" s="43" t="s">
         <v>49</v>
       </c>
@@ -7387,16 +7390,16 @@
       <c r="A158" s="30"/>
       <c r="B158" s="56"/>
       <c r="C158" s="57"/>
-      <c r="D158" s="84"/>
-      <c r="E158" s="79"/>
-      <c r="F158" s="85"/>
-      <c r="G158" s="80" t="str">
+      <c r="D158" s="81"/>
+      <c r="E158" s="91"/>
+      <c r="F158" s="82"/>
+      <c r="G158" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H158" s="80"/>
-      <c r="I158" s="80"/>
-      <c r="J158" s="80"/>
+      <c r="H158" s="86"/>
+      <c r="I158" s="86"/>
+      <c r="J158" s="86"/>
       <c r="K158" s="30"/>
       <c r="L158" s="30"/>
       <c r="M158" s="30"/>
@@ -7408,16 +7411,16 @@
       <c r="A159" s="30"/>
       <c r="B159" s="42"/>
       <c r="C159" s="30"/>
-      <c r="D159" s="84"/>
-      <c r="E159" s="79"/>
-      <c r="F159" s="85"/>
-      <c r="G159" s="81" t="str">
+      <c r="D159" s="81"/>
+      <c r="E159" s="91"/>
+      <c r="F159" s="82"/>
+      <c r="G159" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H159" s="81"/>
-      <c r="I159" s="81"/>
-      <c r="J159" s="81"/>
+      <c r="H159" s="87"/>
+      <c r="I159" s="87"/>
+      <c r="J159" s="87"/>
       <c r="K159" s="58"/>
       <c r="L159" s="58"/>
       <c r="M159" s="58"/>
@@ -7429,18 +7432,18 @@
       <c r="A160" s="30"/>
       <c r="B160" s="55"/>
       <c r="C160" s="30"/>
-      <c r="D160" s="84"/>
-      <c r="E160" s="79"/>
-      <c r="F160" s="85" t="s">
+      <c r="D160" s="81"/>
+      <c r="E160" s="91"/>
+      <c r="F160" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G160" s="86" t="str">
+      <c r="G160" s="90" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H160" s="86"/>
-      <c r="I160" s="86"/>
-      <c r="J160" s="86"/>
+      <c r="H160" s="90"/>
+      <c r="I160" s="90"/>
+      <c r="J160" s="90"/>
       <c r="K160" s="32"/>
       <c r="L160" s="60"/>
       <c r="M160" s="32"/>
@@ -7455,15 +7458,15 @@
       <c r="D161" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E161" s="79"/>
-      <c r="F161" s="85"/>
-      <c r="G161" s="88" t="str">
+      <c r="E161" s="91"/>
+      <c r="F161" s="82"/>
+      <c r="G161" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H161" s="88"/>
-      <c r="I161" s="88"/>
-      <c r="J161" s="88"/>
+      <c r="H161" s="85"/>
+      <c r="I161" s="85"/>
+      <c r="J161" s="85"/>
       <c r="K161" s="30"/>
       <c r="L161" s="30"/>
       <c r="M161" s="30"/>
@@ -7479,12 +7482,12 @@
         <f>'Senet Taksit Giriş'!D10</f>
         <v>45746</v>
       </c>
-      <c r="E162" s="79"/>
-      <c r="F162" s="85"/>
-      <c r="G162" s="88"/>
-      <c r="H162" s="88"/>
-      <c r="I162" s="88"/>
-      <c r="J162" s="88"/>
+      <c r="E162" s="91"/>
+      <c r="F162" s="82"/>
+      <c r="G162" s="85"/>
+      <c r="H162" s="85"/>
+      <c r="I162" s="85"/>
+      <c r="J162" s="85"/>
       <c r="K162" s="30"/>
       <c r="L162" s="43" t="s">
         <v>49</v>
@@ -7501,15 +7504,15 @@
       <c r="D163" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E163" s="79"/>
-      <c r="F163" s="85"/>
-      <c r="G163" s="80" t="str">
+      <c r="E163" s="91"/>
+      <c r="F163" s="82"/>
+      <c r="G163" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H163" s="80"/>
-      <c r="I163" s="80"/>
-      <c r="J163" s="80"/>
+      <c r="H163" s="86"/>
+      <c r="I163" s="86"/>
+      <c r="J163" s="86"/>
       <c r="K163" s="30"/>
       <c r="L163" s="30"/>
       <c r="M163" s="30"/>
@@ -7525,15 +7528,15 @@
         <f>'Senet Taksit Giriş'!C10</f>
         <v>45503</v>
       </c>
-      <c r="E164" s="79"/>
-      <c r="F164" s="85"/>
-      <c r="G164" s="81" t="str">
+      <c r="E164" s="91"/>
+      <c r="F164" s="82"/>
+      <c r="G164" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H164" s="81"/>
-      <c r="I164" s="81"/>
-      <c r="J164" s="81"/>
+      <c r="H164" s="87"/>
+      <c r="I164" s="87"/>
+      <c r="J164" s="87"/>
       <c r="K164" s="58"/>
       <c r="L164" s="58"/>
       <c r="M164" s="58"/>
@@ -7584,7 +7587,7 @@
       <c r="D168" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E168" s="79" t="str">
+      <c r="E168" s="91" t="str">
         <f>$D175 &amp;"    - Taksit No: " &amp; $D170&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 9 #  </v>
       </c>
@@ -7617,7 +7620,7 @@
       <c r="D169" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E169" s="79"/>
+      <c r="E169" s="91"/>
       <c r="F169" s="30"/>
       <c r="G169" s="45">
         <f>D183</f>
@@ -7653,7 +7656,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B11),"##.##0")&amp;" #"</f>
         <v># 9 #</v>
       </c>
-      <c r="E170" s="79"/>
+      <c r="E170" s="91"/>
       <c r="F170" s="30"/>
       <c r="G170" s="30"/>
       <c r="H170" s="30"/>
@@ -7673,20 +7676,20 @@
       <c r="D171" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E171" s="79"/>
-      <c r="F171" s="82" t="str">
+      <c r="E171" s="91"/>
+      <c r="F171" s="88" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G169,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F11&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G11&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G171" s="82"/>
-      <c r="H171" s="82"/>
-      <c r="I171" s="82"/>
-      <c r="J171" s="82"/>
-      <c r="K171" s="82"/>
-      <c r="L171" s="82"/>
-      <c r="M171" s="82"/>
-      <c r="N171" s="82"/>
-      <c r="O171" s="82"/>
+      <c r="G171" s="88"/>
+      <c r="H171" s="88"/>
+      <c r="I171" s="88"/>
+      <c r="J171" s="88"/>
+      <c r="K171" s="88"/>
+      <c r="L171" s="88"/>
+      <c r="M171" s="88"/>
+      <c r="N171" s="88"/>
+      <c r="O171" s="88"/>
       <c r="P171" s="51"/>
     </row>
     <row r="172" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7697,17 +7700,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E11),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E172" s="79"/>
-      <c r="F172" s="82"/>
-      <c r="G172" s="82"/>
-      <c r="H172" s="82"/>
-      <c r="I172" s="82"/>
-      <c r="J172" s="82"/>
-      <c r="K172" s="82"/>
-      <c r="L172" s="82"/>
-      <c r="M172" s="82"/>
-      <c r="N172" s="82"/>
-      <c r="O172" s="82"/>
+      <c r="E172" s="91"/>
+      <c r="F172" s="88"/>
+      <c r="G172" s="88"/>
+      <c r="H172" s="88"/>
+      <c r="I172" s="88"/>
+      <c r="J172" s="88"/>
+      <c r="K172" s="88"/>
+      <c r="L172" s="88"/>
+      <c r="M172" s="88"/>
+      <c r="N172" s="88"/>
+      <c r="O172" s="88"/>
       <c r="P172" s="51"/>
     </row>
     <row r="173" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7718,17 +7721,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E174-INT('Senet Taksit Giriş'!E174))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E173" s="79"/>
-      <c r="F173" s="82"/>
-      <c r="G173" s="82"/>
-      <c r="H173" s="82"/>
-      <c r="I173" s="82"/>
-      <c r="J173" s="82"/>
-      <c r="K173" s="82"/>
-      <c r="L173" s="82"/>
-      <c r="M173" s="82"/>
-      <c r="N173" s="82"/>
-      <c r="O173" s="82"/>
+      <c r="E173" s="91"/>
+      <c r="F173" s="88"/>
+      <c r="G173" s="88"/>
+      <c r="H173" s="88"/>
+      <c r="I173" s="88"/>
+      <c r="J173" s="88"/>
+      <c r="K173" s="88"/>
+      <c r="L173" s="88"/>
+      <c r="M173" s="88"/>
+      <c r="N173" s="88"/>
+      <c r="O173" s="88"/>
       <c r="P173" s="51"/>
     </row>
     <row r="174" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7738,28 +7741,28 @@
       <c r="D174" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E174" s="79"/>
-      <c r="F174" s="82"/>
-      <c r="G174" s="82"/>
-      <c r="H174" s="82"/>
-      <c r="I174" s="82"/>
-      <c r="J174" s="82"/>
-      <c r="K174" s="82"/>
-      <c r="L174" s="82"/>
-      <c r="M174" s="82"/>
-      <c r="N174" s="82"/>
-      <c r="O174" s="82"/>
+      <c r="E174" s="91"/>
+      <c r="F174" s="88"/>
+      <c r="G174" s="88"/>
+      <c r="H174" s="88"/>
+      <c r="I174" s="88"/>
+      <c r="J174" s="88"/>
+      <c r="K174" s="88"/>
+      <c r="L174" s="88"/>
+      <c r="M174" s="88"/>
+      <c r="N174" s="88"/>
+      <c r="O174" s="88"/>
       <c r="P174" s="51"/>
     </row>
     <row r="175" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="30"/>
       <c r="B175" s="55"/>
       <c r="C175" s="30"/>
-      <c r="D175" s="84" t="str">
+      <c r="D175" s="81" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E175" s="79"/>
+      <c r="E175" s="91"/>
       <c r="F175"/>
       <c r="G175"/>
       <c r="H175"/>
@@ -7776,22 +7779,22 @@
       <c r="A176" s="30"/>
       <c r="B176" s="42"/>
       <c r="C176" s="30"/>
-      <c r="D176" s="84"/>
-      <c r="E176" s="79"/>
-      <c r="F176" s="85" t="s">
+      <c r="D176" s="81"/>
+      <c r="E176" s="91"/>
+      <c r="F176" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="G176" s="86" t="str">
+      <c r="G176" s="90" t="str">
         <f>"İsim : "&amp;$D175</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H176" s="86"/>
-      <c r="I176" s="86"/>
-      <c r="J176" s="86"/>
+      <c r="H176" s="90"/>
+      <c r="I176" s="90"/>
+      <c r="J176" s="90"/>
       <c r="K176" s="32"/>
       <c r="L176" s="32"/>
-      <c r="M176" s="87"/>
-      <c r="N176" s="87"/>
+      <c r="M176" s="84"/>
+      <c r="N176" s="84"/>
       <c r="O176" s="33"/>
       <c r="P176" s="51"/>
     </row>
@@ -7799,17 +7802,17 @@
       <c r="A177" s="30"/>
       <c r="B177" s="56"/>
       <c r="C177" s="57"/>
-      <c r="D177" s="84"/>
-      <c r="E177" s="79"/>
-      <c r="F177" s="85"/>
-      <c r="G177" s="88" t="str">
+      <c r="D177" s="81"/>
+      <c r="E177" s="91"/>
+      <c r="F177" s="82"/>
+      <c r="G177" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H177" s="88"/>
-      <c r="I177" s="88"/>
-      <c r="J177" s="88"/>
-      <c r="K177" s="88"/>
+      <c r="H177" s="85"/>
+      <c r="I177" s="85"/>
+      <c r="J177" s="85"/>
+      <c r="K177" s="85"/>
       <c r="L177" s="30"/>
       <c r="M177" s="30"/>
       <c r="N177" s="30"/>
@@ -7820,14 +7823,14 @@
       <c r="A178" s="30"/>
       <c r="B178" s="56"/>
       <c r="C178" s="57"/>
-      <c r="D178" s="84"/>
-      <c r="E178" s="79"/>
-      <c r="F178" s="85"/>
-      <c r="G178" s="88"/>
-      <c r="H178" s="88"/>
-      <c r="I178" s="88"/>
-      <c r="J178" s="88"/>
-      <c r="K178" s="88"/>
+      <c r="D178" s="81"/>
+      <c r="E178" s="91"/>
+      <c r="F178" s="82"/>
+      <c r="G178" s="85"/>
+      <c r="H178" s="85"/>
+      <c r="I178" s="85"/>
+      <c r="J178" s="85"/>
+      <c r="K178" s="85"/>
       <c r="L178" s="43" t="s">
         <v>49</v>
       </c>
@@ -7840,16 +7843,16 @@
       <c r="A179" s="30"/>
       <c r="B179" s="56"/>
       <c r="C179" s="57"/>
-      <c r="D179" s="84"/>
-      <c r="E179" s="79"/>
-      <c r="F179" s="85"/>
-      <c r="G179" s="80" t="str">
+      <c r="D179" s="81"/>
+      <c r="E179" s="91"/>
+      <c r="F179" s="82"/>
+      <c r="G179" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H179" s="80"/>
-      <c r="I179" s="80"/>
-      <c r="J179" s="80"/>
+      <c r="H179" s="86"/>
+      <c r="I179" s="86"/>
+      <c r="J179" s="86"/>
       <c r="K179" s="30"/>
       <c r="L179" s="30"/>
       <c r="M179" s="30"/>
@@ -7861,16 +7864,16 @@
       <c r="A180" s="30"/>
       <c r="B180" s="42"/>
       <c r="C180" s="30"/>
-      <c r="D180" s="84"/>
-      <c r="E180" s="79"/>
-      <c r="F180" s="85"/>
-      <c r="G180" s="81" t="str">
+      <c r="D180" s="81"/>
+      <c r="E180" s="91"/>
+      <c r="F180" s="82"/>
+      <c r="G180" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H180" s="81"/>
-      <c r="I180" s="81"/>
-      <c r="J180" s="81"/>
+      <c r="H180" s="87"/>
+      <c r="I180" s="87"/>
+      <c r="J180" s="87"/>
       <c r="K180" s="58"/>
       <c r="L180" s="58"/>
       <c r="M180" s="58"/>
@@ -7882,18 +7885,18 @@
       <c r="A181" s="30"/>
       <c r="B181" s="55"/>
       <c r="C181" s="30"/>
-      <c r="D181" s="84"/>
-      <c r="E181" s="79"/>
-      <c r="F181" s="85" t="s">
+      <c r="D181" s="81"/>
+      <c r="E181" s="91"/>
+      <c r="F181" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G181" s="86" t="str">
+      <c r="G181" s="90" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H181" s="86"/>
-      <c r="I181" s="86"/>
-      <c r="J181" s="86"/>
+      <c r="H181" s="90"/>
+      <c r="I181" s="90"/>
+      <c r="J181" s="90"/>
       <c r="K181" s="32"/>
       <c r="L181" s="60"/>
       <c r="M181" s="32"/>
@@ -7908,15 +7911,15 @@
       <c r="D182" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E182" s="79"/>
-      <c r="F182" s="85"/>
-      <c r="G182" s="88" t="str">
+      <c r="E182" s="91"/>
+      <c r="F182" s="82"/>
+      <c r="G182" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H182" s="88"/>
-      <c r="I182" s="88"/>
-      <c r="J182" s="88"/>
+      <c r="H182" s="85"/>
+      <c r="I182" s="85"/>
+      <c r="J182" s="85"/>
       <c r="K182" s="30"/>
       <c r="L182" s="30"/>
       <c r="M182" s="30"/>
@@ -7932,12 +7935,12 @@
         <f>'Senet Taksit Giriş'!D11</f>
         <v>45777</v>
       </c>
-      <c r="E183" s="79"/>
-      <c r="F183" s="85"/>
-      <c r="G183" s="88"/>
-      <c r="H183" s="88"/>
-      <c r="I183" s="88"/>
-      <c r="J183" s="88"/>
+      <c r="E183" s="91"/>
+      <c r="F183" s="82"/>
+      <c r="G183" s="85"/>
+      <c r="H183" s="85"/>
+      <c r="I183" s="85"/>
+      <c r="J183" s="85"/>
       <c r="K183" s="30"/>
       <c r="L183" s="43" t="s">
         <v>49</v>
@@ -7954,15 +7957,15 @@
       <c r="D184" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E184" s="79"/>
-      <c r="F184" s="85"/>
-      <c r="G184" s="80" t="str">
+      <c r="E184" s="91"/>
+      <c r="F184" s="82"/>
+      <c r="G184" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H184" s="80"/>
-      <c r="I184" s="80"/>
-      <c r="J184" s="80"/>
+      <c r="H184" s="86"/>
+      <c r="I184" s="86"/>
+      <c r="J184" s="86"/>
       <c r="K184" s="30"/>
       <c r="L184" s="30"/>
       <c r="M184" s="30"/>
@@ -7978,15 +7981,15 @@
         <f>'Senet Taksit Giriş'!C11</f>
         <v>45503</v>
       </c>
-      <c r="E185" s="79"/>
-      <c r="F185" s="85"/>
-      <c r="G185" s="81" t="str">
+      <c r="E185" s="91"/>
+      <c r="F185" s="82"/>
+      <c r="G185" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H185" s="81"/>
-      <c r="I185" s="81"/>
-      <c r="J185" s="81"/>
+      <c r="H185" s="87"/>
+      <c r="I185" s="87"/>
+      <c r="J185" s="87"/>
       <c r="K185" s="58"/>
       <c r="L185" s="58"/>
       <c r="M185" s="58"/>
@@ -8037,7 +8040,7 @@
       <c r="D188" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E188" s="79" t="str">
+      <c r="E188" s="91" t="str">
         <f>$D195 &amp;"    - Taksit No: " &amp; $D190&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 10 #  </v>
       </c>
@@ -8070,7 +8073,7 @@
       <c r="D189" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E189" s="79"/>
+      <c r="E189" s="91"/>
       <c r="F189" s="30"/>
       <c r="G189" s="45">
         <f>D203</f>
@@ -8106,7 +8109,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B12),"##.##0")&amp;" #"</f>
         <v># 10 #</v>
       </c>
-      <c r="E190" s="79"/>
+      <c r="E190" s="91"/>
       <c r="F190" s="30"/>
       <c r="G190" s="30"/>
       <c r="H190" s="30"/>
@@ -8126,20 +8129,20 @@
       <c r="D191" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E191" s="79"/>
-      <c r="F191" s="82" t="str">
+      <c r="E191" s="91"/>
+      <c r="F191" s="88" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G189,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F12&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G12&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G191" s="82"/>
-      <c r="H191" s="82"/>
-      <c r="I191" s="82"/>
-      <c r="J191" s="82"/>
-      <c r="K191" s="82"/>
-      <c r="L191" s="82"/>
-      <c r="M191" s="82"/>
-      <c r="N191" s="82"/>
-      <c r="O191" s="82"/>
+      <c r="G191" s="88"/>
+      <c r="H191" s="88"/>
+      <c r="I191" s="88"/>
+      <c r="J191" s="88"/>
+      <c r="K191" s="88"/>
+      <c r="L191" s="88"/>
+      <c r="M191" s="88"/>
+      <c r="N191" s="88"/>
+      <c r="O191" s="88"/>
       <c r="P191" s="51"/>
     </row>
     <row r="192" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8150,17 +8153,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E12),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E192" s="79"/>
-      <c r="F192" s="82"/>
-      <c r="G192" s="82"/>
-      <c r="H192" s="82"/>
-      <c r="I192" s="82"/>
-      <c r="J192" s="82"/>
-      <c r="K192" s="82"/>
-      <c r="L192" s="82"/>
-      <c r="M192" s="82"/>
-      <c r="N192" s="82"/>
-      <c r="O192" s="82"/>
+      <c r="E192" s="91"/>
+      <c r="F192" s="88"/>
+      <c r="G192" s="88"/>
+      <c r="H192" s="88"/>
+      <c r="I192" s="88"/>
+      <c r="J192" s="88"/>
+      <c r="K192" s="88"/>
+      <c r="L192" s="88"/>
+      <c r="M192" s="88"/>
+      <c r="N192" s="88"/>
+      <c r="O192" s="88"/>
       <c r="P192" s="51"/>
     </row>
     <row r="193" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8171,17 +8174,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E195-INT('Senet Taksit Giriş'!E195))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E193" s="79"/>
-      <c r="F193" s="82"/>
-      <c r="G193" s="82"/>
-      <c r="H193" s="82"/>
-      <c r="I193" s="82"/>
-      <c r="J193" s="82"/>
-      <c r="K193" s="82"/>
-      <c r="L193" s="82"/>
-      <c r="M193" s="82"/>
-      <c r="N193" s="82"/>
-      <c r="O193" s="82"/>
+      <c r="E193" s="91"/>
+      <c r="F193" s="88"/>
+      <c r="G193" s="88"/>
+      <c r="H193" s="88"/>
+      <c r="I193" s="88"/>
+      <c r="J193" s="88"/>
+      <c r="K193" s="88"/>
+      <c r="L193" s="88"/>
+      <c r="M193" s="88"/>
+      <c r="N193" s="88"/>
+      <c r="O193" s="88"/>
       <c r="P193" s="51"/>
     </row>
     <row r="194" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8191,28 +8194,28 @@
       <c r="D194" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E194" s="79"/>
-      <c r="F194" s="82"/>
-      <c r="G194" s="82"/>
-      <c r="H194" s="82"/>
-      <c r="I194" s="82"/>
-      <c r="J194" s="82"/>
-      <c r="K194" s="82"/>
-      <c r="L194" s="82"/>
-      <c r="M194" s="82"/>
-      <c r="N194" s="82"/>
-      <c r="O194" s="82"/>
+      <c r="E194" s="91"/>
+      <c r="F194" s="88"/>
+      <c r="G194" s="88"/>
+      <c r="H194" s="88"/>
+      <c r="I194" s="88"/>
+      <c r="J194" s="88"/>
+      <c r="K194" s="88"/>
+      <c r="L194" s="88"/>
+      <c r="M194" s="88"/>
+      <c r="N194" s="88"/>
+      <c r="O194" s="88"/>
       <c r="P194" s="51"/>
     </row>
     <row r="195" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="30"/>
       <c r="B195" s="55"/>
       <c r="C195" s="30"/>
-      <c r="D195" s="84" t="str">
+      <c r="D195" s="81" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E195" s="79"/>
+      <c r="E195" s="91"/>
       <c r="F195"/>
       <c r="G195"/>
       <c r="H195"/>
@@ -8229,22 +8232,22 @@
       <c r="A196" s="30"/>
       <c r="B196" s="42"/>
       <c r="C196" s="30"/>
-      <c r="D196" s="84"/>
-      <c r="E196" s="79"/>
-      <c r="F196" s="85" t="s">
+      <c r="D196" s="81"/>
+      <c r="E196" s="91"/>
+      <c r="F196" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="G196" s="86" t="str">
+      <c r="G196" s="90" t="str">
         <f>"İsim : "&amp;$D195</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H196" s="86"/>
-      <c r="I196" s="86"/>
-      <c r="J196" s="86"/>
+      <c r="H196" s="90"/>
+      <c r="I196" s="90"/>
+      <c r="J196" s="90"/>
       <c r="K196" s="32"/>
       <c r="L196" s="32"/>
-      <c r="M196" s="87"/>
-      <c r="N196" s="87"/>
+      <c r="M196" s="84"/>
+      <c r="N196" s="84"/>
       <c r="O196" s="33"/>
       <c r="P196" s="51"/>
     </row>
@@ -8252,17 +8255,17 @@
       <c r="A197" s="30"/>
       <c r="B197" s="56"/>
       <c r="C197" s="57"/>
-      <c r="D197" s="84"/>
-      <c r="E197" s="79"/>
-      <c r="F197" s="85"/>
-      <c r="G197" s="88" t="str">
+      <c r="D197" s="81"/>
+      <c r="E197" s="91"/>
+      <c r="F197" s="82"/>
+      <c r="G197" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H197" s="88"/>
-      <c r="I197" s="88"/>
-      <c r="J197" s="88"/>
-      <c r="K197" s="88"/>
+      <c r="H197" s="85"/>
+      <c r="I197" s="85"/>
+      <c r="J197" s="85"/>
+      <c r="K197" s="85"/>
       <c r="L197" s="30"/>
       <c r="M197" s="30"/>
       <c r="N197" s="30"/>
@@ -8273,14 +8276,14 @@
       <c r="A198" s="30"/>
       <c r="B198" s="56"/>
       <c r="C198" s="57"/>
-      <c r="D198" s="84"/>
-      <c r="E198" s="79"/>
-      <c r="F198" s="85"/>
-      <c r="G198" s="88"/>
-      <c r="H198" s="88"/>
-      <c r="I198" s="88"/>
-      <c r="J198" s="88"/>
-      <c r="K198" s="88"/>
+      <c r="D198" s="81"/>
+      <c r="E198" s="91"/>
+      <c r="F198" s="82"/>
+      <c r="G198" s="85"/>
+      <c r="H198" s="85"/>
+      <c r="I198" s="85"/>
+      <c r="J198" s="85"/>
+      <c r="K198" s="85"/>
       <c r="L198" s="43" t="s">
         <v>49</v>
       </c>
@@ -8293,16 +8296,16 @@
       <c r="A199" s="30"/>
       <c r="B199" s="56"/>
       <c r="C199" s="57"/>
-      <c r="D199" s="84"/>
-      <c r="E199" s="79"/>
-      <c r="F199" s="85"/>
-      <c r="G199" s="80" t="str">
+      <c r="D199" s="81"/>
+      <c r="E199" s="91"/>
+      <c r="F199" s="82"/>
+      <c r="G199" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H199" s="80"/>
-      <c r="I199" s="80"/>
-      <c r="J199" s="80"/>
+      <c r="H199" s="86"/>
+      <c r="I199" s="86"/>
+      <c r="J199" s="86"/>
       <c r="K199" s="30"/>
       <c r="L199" s="30"/>
       <c r="M199" s="30"/>
@@ -8314,16 +8317,16 @@
       <c r="A200" s="30"/>
       <c r="B200" s="42"/>
       <c r="C200" s="30"/>
-      <c r="D200" s="84"/>
-      <c r="E200" s="79"/>
-      <c r="F200" s="85"/>
-      <c r="G200" s="81" t="str">
+      <c r="D200" s="81"/>
+      <c r="E200" s="91"/>
+      <c r="F200" s="82"/>
+      <c r="G200" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H200" s="81"/>
-      <c r="I200" s="81"/>
-      <c r="J200" s="81"/>
+      <c r="H200" s="87"/>
+      <c r="I200" s="87"/>
+      <c r="J200" s="87"/>
       <c r="K200" s="58"/>
       <c r="L200" s="58"/>
       <c r="M200" s="58"/>
@@ -8335,18 +8338,18 @@
       <c r="A201" s="30"/>
       <c r="B201" s="55"/>
       <c r="C201" s="30"/>
-      <c r="D201" s="84"/>
-      <c r="E201" s="79"/>
-      <c r="F201" s="85" t="s">
+      <c r="D201" s="81"/>
+      <c r="E201" s="91"/>
+      <c r="F201" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G201" s="86" t="str">
+      <c r="G201" s="90" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H201" s="86"/>
-      <c r="I201" s="86"/>
-      <c r="J201" s="86"/>
+      <c r="H201" s="90"/>
+      <c r="I201" s="90"/>
+      <c r="J201" s="90"/>
       <c r="K201" s="32"/>
       <c r="L201" s="60"/>
       <c r="M201" s="32"/>
@@ -8361,15 +8364,15 @@
       <c r="D202" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E202" s="79"/>
-      <c r="F202" s="85"/>
-      <c r="G202" s="88" t="str">
+      <c r="E202" s="91"/>
+      <c r="F202" s="82"/>
+      <c r="G202" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H202" s="88"/>
-      <c r="I202" s="88"/>
-      <c r="J202" s="88"/>
+      <c r="H202" s="85"/>
+      <c r="I202" s="85"/>
+      <c r="J202" s="85"/>
       <c r="K202" s="30"/>
       <c r="L202" s="30"/>
       <c r="M202" s="30"/>
@@ -8385,12 +8388,12 @@
         <f>'Senet Taksit Giriş'!D12</f>
         <v>45807</v>
       </c>
-      <c r="E203" s="79"/>
-      <c r="F203" s="85"/>
-      <c r="G203" s="88"/>
-      <c r="H203" s="88"/>
-      <c r="I203" s="88"/>
-      <c r="J203" s="88"/>
+      <c r="E203" s="91"/>
+      <c r="F203" s="82"/>
+      <c r="G203" s="85"/>
+      <c r="H203" s="85"/>
+      <c r="I203" s="85"/>
+      <c r="J203" s="85"/>
       <c r="K203" s="30"/>
       <c r="L203" s="43" t="s">
         <v>49</v>
@@ -8407,15 +8410,15 @@
       <c r="D204" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E204" s="79"/>
-      <c r="F204" s="85"/>
-      <c r="G204" s="80" t="str">
+      <c r="E204" s="91"/>
+      <c r="F204" s="82"/>
+      <c r="G204" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H204" s="80"/>
-      <c r="I204" s="80"/>
-      <c r="J204" s="80"/>
+      <c r="H204" s="86"/>
+      <c r="I204" s="86"/>
+      <c r="J204" s="86"/>
       <c r="K204" s="30"/>
       <c r="L204" s="30"/>
       <c r="M204" s="30"/>
@@ -8431,15 +8434,15 @@
         <f>'Senet Taksit Giriş'!C12</f>
         <v>45503</v>
       </c>
-      <c r="E205" s="79"/>
-      <c r="F205" s="85"/>
-      <c r="G205" s="81" t="str">
+      <c r="E205" s="91"/>
+      <c r="F205" s="82"/>
+      <c r="G205" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H205" s="81"/>
-      <c r="I205" s="81"/>
-      <c r="J205" s="81"/>
+      <c r="H205" s="87"/>
+      <c r="I205" s="87"/>
+      <c r="J205" s="87"/>
       <c r="K205" s="58"/>
       <c r="L205" s="58"/>
       <c r="M205" s="58"/>
@@ -8490,7 +8493,7 @@
       <c r="D209" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E209" s="79" t="str">
+      <c r="E209" s="91" t="str">
         <f>$D216 &amp;"    - Taksit No: " &amp; $D211&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 11 #  </v>
       </c>
@@ -8523,7 +8526,7 @@
       <c r="D210" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E210" s="79"/>
+      <c r="E210" s="91"/>
       <c r="F210" s="30"/>
       <c r="G210" s="45">
         <f>D224</f>
@@ -8559,7 +8562,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B13),"##.##0")&amp;" #"</f>
         <v># 11 #</v>
       </c>
-      <c r="E211" s="79"/>
+      <c r="E211" s="91"/>
       <c r="F211" s="30"/>
       <c r="G211" s="30"/>
       <c r="H211" s="30"/>
@@ -8579,20 +8582,20 @@
       <c r="D212" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E212" s="79"/>
-      <c r="F212" s="82" t="str">
+      <c r="E212" s="91"/>
+      <c r="F212" s="88" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G210,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F13&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G13&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G212" s="82"/>
-      <c r="H212" s="82"/>
-      <c r="I212" s="82"/>
-      <c r="J212" s="82"/>
-      <c r="K212" s="82"/>
-      <c r="L212" s="82"/>
-      <c r="M212" s="82"/>
-      <c r="N212" s="82"/>
-      <c r="O212" s="82"/>
+      <c r="G212" s="88"/>
+      <c r="H212" s="88"/>
+      <c r="I212" s="88"/>
+      <c r="J212" s="88"/>
+      <c r="K212" s="88"/>
+      <c r="L212" s="88"/>
+      <c r="M212" s="88"/>
+      <c r="N212" s="88"/>
+      <c r="O212" s="88"/>
       <c r="P212" s="51"/>
     </row>
     <row r="213" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8603,17 +8606,17 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E13),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E213" s="79"/>
-      <c r="F213" s="82"/>
-      <c r="G213" s="82"/>
-      <c r="H213" s="82"/>
-      <c r="I213" s="82"/>
-      <c r="J213" s="82"/>
-      <c r="K213" s="82"/>
-      <c r="L213" s="82"/>
-      <c r="M213" s="82"/>
-      <c r="N213" s="82"/>
-      <c r="O213" s="82"/>
+      <c r="E213" s="91"/>
+      <c r="F213" s="88"/>
+      <c r="G213" s="88"/>
+      <c r="H213" s="88"/>
+      <c r="I213" s="88"/>
+      <c r="J213" s="88"/>
+      <c r="K213" s="88"/>
+      <c r="L213" s="88"/>
+      <c r="M213" s="88"/>
+      <c r="N213" s="88"/>
+      <c r="O213" s="88"/>
       <c r="P213" s="51"/>
     </row>
     <row r="214" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8624,17 +8627,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E216-INT('Senet Taksit Giriş'!E216))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E214" s="79"/>
-      <c r="F214" s="82"/>
-      <c r="G214" s="82"/>
-      <c r="H214" s="82"/>
-      <c r="I214" s="82"/>
-      <c r="J214" s="82"/>
-      <c r="K214" s="82"/>
-      <c r="L214" s="82"/>
-      <c r="M214" s="82"/>
-      <c r="N214" s="82"/>
-      <c r="O214" s="82"/>
+      <c r="E214" s="91"/>
+      <c r="F214" s="88"/>
+      <c r="G214" s="88"/>
+      <c r="H214" s="88"/>
+      <c r="I214" s="88"/>
+      <c r="J214" s="88"/>
+      <c r="K214" s="88"/>
+      <c r="L214" s="88"/>
+      <c r="M214" s="88"/>
+      <c r="N214" s="88"/>
+      <c r="O214" s="88"/>
       <c r="P214" s="51"/>
     </row>
     <row r="215" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8644,28 +8647,28 @@
       <c r="D215" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E215" s="79"/>
-      <c r="F215" s="82"/>
-      <c r="G215" s="82"/>
-      <c r="H215" s="82"/>
-      <c r="I215" s="82"/>
-      <c r="J215" s="82"/>
-      <c r="K215" s="82"/>
-      <c r="L215" s="82"/>
-      <c r="M215" s="82"/>
-      <c r="N215" s="82"/>
-      <c r="O215" s="82"/>
+      <c r="E215" s="91"/>
+      <c r="F215" s="88"/>
+      <c r="G215" s="88"/>
+      <c r="H215" s="88"/>
+      <c r="I215" s="88"/>
+      <c r="J215" s="88"/>
+      <c r="K215" s="88"/>
+      <c r="L215" s="88"/>
+      <c r="M215" s="88"/>
+      <c r="N215" s="88"/>
+      <c r="O215" s="88"/>
       <c r="P215" s="51"/>
     </row>
     <row r="216" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="30"/>
       <c r="B216" s="55"/>
       <c r="C216" s="30"/>
-      <c r="D216" s="84" t="str">
+      <c r="D216" s="81" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E216" s="79"/>
+      <c r="E216" s="91"/>
       <c r="F216"/>
       <c r="G216"/>
       <c r="H216"/>
@@ -8682,22 +8685,22 @@
       <c r="A217" s="30"/>
       <c r="B217" s="42"/>
       <c r="C217" s="30"/>
-      <c r="D217" s="84"/>
-      <c r="E217" s="79"/>
-      <c r="F217" s="85" t="s">
+      <c r="D217" s="81"/>
+      <c r="E217" s="91"/>
+      <c r="F217" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="G217" s="86" t="str">
+      <c r="G217" s="90" t="str">
         <f>"İsim : "&amp;$D216</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H217" s="86"/>
-      <c r="I217" s="86"/>
-      <c r="J217" s="86"/>
+      <c r="H217" s="90"/>
+      <c r="I217" s="90"/>
+      <c r="J217" s="90"/>
       <c r="K217" s="32"/>
       <c r="L217" s="32"/>
-      <c r="M217" s="87"/>
-      <c r="N217" s="87"/>
+      <c r="M217" s="84"/>
+      <c r="N217" s="84"/>
       <c r="O217" s="33"/>
       <c r="P217" s="51"/>
     </row>
@@ -8705,17 +8708,17 @@
       <c r="A218" s="30"/>
       <c r="B218" s="56"/>
       <c r="C218" s="57"/>
-      <c r="D218" s="84"/>
-      <c r="E218" s="79"/>
-      <c r="F218" s="85"/>
-      <c r="G218" s="88" t="str">
+      <c r="D218" s="81"/>
+      <c r="E218" s="91"/>
+      <c r="F218" s="82"/>
+      <c r="G218" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H218" s="88"/>
-      <c r="I218" s="88"/>
-      <c r="J218" s="88"/>
-      <c r="K218" s="88"/>
+      <c r="H218" s="85"/>
+      <c r="I218" s="85"/>
+      <c r="J218" s="85"/>
+      <c r="K218" s="85"/>
       <c r="L218" s="30"/>
       <c r="M218" s="30"/>
       <c r="N218" s="30"/>
@@ -8726,14 +8729,14 @@
       <c r="A219" s="30"/>
       <c r="B219" s="56"/>
       <c r="C219" s="57"/>
-      <c r="D219" s="84"/>
-      <c r="E219" s="79"/>
-      <c r="F219" s="85"/>
-      <c r="G219" s="88"/>
-      <c r="H219" s="88"/>
-      <c r="I219" s="88"/>
-      <c r="J219" s="88"/>
-      <c r="K219" s="88"/>
+      <c r="D219" s="81"/>
+      <c r="E219" s="91"/>
+      <c r="F219" s="82"/>
+      <c r="G219" s="85"/>
+      <c r="H219" s="85"/>
+      <c r="I219" s="85"/>
+      <c r="J219" s="85"/>
+      <c r="K219" s="85"/>
       <c r="L219" s="43" t="s">
         <v>49</v>
       </c>
@@ -8746,16 +8749,16 @@
       <c r="A220" s="30"/>
       <c r="B220" s="56"/>
       <c r="C220" s="57"/>
-      <c r="D220" s="84"/>
-      <c r="E220" s="79"/>
-      <c r="F220" s="85"/>
-      <c r="G220" s="80" t="str">
+      <c r="D220" s="81"/>
+      <c r="E220" s="91"/>
+      <c r="F220" s="82"/>
+      <c r="G220" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H220" s="80"/>
-      <c r="I220" s="80"/>
-      <c r="J220" s="80"/>
+      <c r="H220" s="86"/>
+      <c r="I220" s="86"/>
+      <c r="J220" s="86"/>
       <c r="K220" s="30"/>
       <c r="L220" s="30"/>
       <c r="M220" s="30"/>
@@ -8767,16 +8770,16 @@
       <c r="A221" s="30"/>
       <c r="B221" s="42"/>
       <c r="C221" s="30"/>
-      <c r="D221" s="84"/>
-      <c r="E221" s="79"/>
-      <c r="F221" s="85"/>
-      <c r="G221" s="81" t="str">
+      <c r="D221" s="81"/>
+      <c r="E221" s="91"/>
+      <c r="F221" s="82"/>
+      <c r="G221" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H221" s="81"/>
-      <c r="I221" s="81"/>
-      <c r="J221" s="81"/>
+      <c r="H221" s="87"/>
+      <c r="I221" s="87"/>
+      <c r="J221" s="87"/>
       <c r="K221" s="58"/>
       <c r="L221" s="58"/>
       <c r="M221" s="58"/>
@@ -8788,18 +8791,18 @@
       <c r="A222" s="30"/>
       <c r="B222" s="55"/>
       <c r="C222" s="30"/>
-      <c r="D222" s="84"/>
-      <c r="E222" s="79"/>
-      <c r="F222" s="85" t="s">
+      <c r="D222" s="81"/>
+      <c r="E222" s="91"/>
+      <c r="F222" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G222" s="86" t="str">
+      <c r="G222" s="90" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H222" s="86"/>
-      <c r="I222" s="86"/>
-      <c r="J222" s="86"/>
+      <c r="H222" s="90"/>
+      <c r="I222" s="90"/>
+      <c r="J222" s="90"/>
       <c r="K222" s="32"/>
       <c r="L222" s="60"/>
       <c r="M222" s="32"/>
@@ -8814,15 +8817,15 @@
       <c r="D223" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E223" s="79"/>
-      <c r="F223" s="85"/>
-      <c r="G223" s="88" t="str">
+      <c r="E223" s="91"/>
+      <c r="F223" s="82"/>
+      <c r="G223" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H223" s="88"/>
-      <c r="I223" s="88"/>
-      <c r="J223" s="88"/>
+      <c r="H223" s="85"/>
+      <c r="I223" s="85"/>
+      <c r="J223" s="85"/>
       <c r="K223" s="30"/>
       <c r="L223" s="30"/>
       <c r="M223" s="30"/>
@@ -8838,12 +8841,12 @@
         <f>'Senet Taksit Giriş'!D13</f>
         <v>45838</v>
       </c>
-      <c r="E224" s="79"/>
-      <c r="F224" s="85"/>
-      <c r="G224" s="88"/>
-      <c r="H224" s="88"/>
-      <c r="I224" s="88"/>
-      <c r="J224" s="88"/>
+      <c r="E224" s="91"/>
+      <c r="F224" s="82"/>
+      <c r="G224" s="85"/>
+      <c r="H224" s="85"/>
+      <c r="I224" s="85"/>
+      <c r="J224" s="85"/>
       <c r="K224" s="30"/>
       <c r="L224" s="43" t="s">
         <v>49</v>
@@ -8860,15 +8863,15 @@
       <c r="D225" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E225" s="79"/>
-      <c r="F225" s="85"/>
-      <c r="G225" s="80" t="str">
+      <c r="E225" s="91"/>
+      <c r="F225" s="82"/>
+      <c r="G225" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H225" s="80"/>
-      <c r="I225" s="80"/>
-      <c r="J225" s="80"/>
+      <c r="H225" s="86"/>
+      <c r="I225" s="86"/>
+      <c r="J225" s="86"/>
       <c r="K225" s="30"/>
       <c r="L225" s="30"/>
       <c r="M225" s="30"/>
@@ -8884,15 +8887,15 @@
         <f>'Senet Taksit Giriş'!C13</f>
         <v>45503</v>
       </c>
-      <c r="E226" s="79"/>
-      <c r="F226" s="85"/>
-      <c r="G226" s="81" t="str">
+      <c r="E226" s="91"/>
+      <c r="F226" s="82"/>
+      <c r="G226" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H226" s="81"/>
-      <c r="I226" s="81"/>
-      <c r="J226" s="81"/>
+      <c r="H226" s="87"/>
+      <c r="I226" s="87"/>
+      <c r="J226" s="87"/>
       <c r="K226" s="58"/>
       <c r="L226" s="58"/>
       <c r="M226" s="58"/>
@@ -8943,7 +8946,7 @@
       <c r="D230" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E230" s="79" t="str">
+      <c r="E230" s="91" t="str">
         <f>$D238 &amp;"    - Taksit No: " &amp; $D232&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: #         #  </v>
       </c>
@@ -8976,7 +8979,7 @@
       <c r="D231" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E231" s="79"/>
+      <c r="E231" s="91"/>
       <c r="F231" s="30"/>
       <c r="G231" s="45"/>
       <c r="H231" s="46"/>
@@ -9006,7 +9009,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B14),"##.##    ")&amp;"    #"</f>
         <v>#         #</v>
       </c>
-      <c r="E232" s="79"/>
+      <c r="E232" s="91"/>
       <c r="F232" s="30"/>
       <c r="G232" s="30"/>
       <c r="H232" s="30"/>
@@ -9026,20 +9029,20 @@
       <c r="D233" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E233" s="79"/>
-      <c r="F233" s="82" t="str">
+      <c r="E233" s="91"/>
+      <c r="F233" s="88" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin") &amp; " mükabilinde                 " &amp; "              tarihinde Sayın :                                                                       'ya "&amp;" veyahut emruhavalesine yukarıda yazılı Yalnız #                                      " &amp; "                                                                                            # TL ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G14&amp;"  ahzolunmuştur. "</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde                               tarihinde Sayın :                                                                       'ya  veyahut emruhavalesine yukarıda yazılı Yalnız #                                                                                                                                  # TL ödeyeceğim. Bedeli nakden  ahzolunmuştur. </v>
       </c>
-      <c r="G233" s="83"/>
-      <c r="H233" s="83"/>
-      <c r="I233" s="83"/>
-      <c r="J233" s="83"/>
-      <c r="K233" s="83"/>
-      <c r="L233" s="83"/>
-      <c r="M233" s="83"/>
-      <c r="N233" s="83"/>
-      <c r="O233" s="83"/>
+      <c r="G233" s="89"/>
+      <c r="H233" s="89"/>
+      <c r="I233" s="89"/>
+      <c r="J233" s="89"/>
+      <c r="K233" s="89"/>
+      <c r="L233" s="89"/>
+      <c r="M233" s="89"/>
+      <c r="N233" s="89"/>
+      <c r="O233" s="89"/>
       <c r="P233" s="51"/>
     </row>
     <row r="234" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -9050,17 +9053,17 @@
         <f>TEXT(INT('Senet Taksit Giriş'!E14),"##.##                        ")&amp;" TL "</f>
         <v xml:space="preserve">                         TL </v>
       </c>
-      <c r="E234" s="79"/>
-      <c r="F234" s="83"/>
-      <c r="G234" s="83"/>
-      <c r="H234" s="83"/>
-      <c r="I234" s="83"/>
-      <c r="J234" s="83"/>
-      <c r="K234" s="83"/>
-      <c r="L234" s="83"/>
-      <c r="M234" s="83"/>
-      <c r="N234" s="83"/>
-      <c r="O234" s="83"/>
+      <c r="E234" s="91"/>
+      <c r="F234" s="89"/>
+      <c r="G234" s="89"/>
+      <c r="H234" s="89"/>
+      <c r="I234" s="89"/>
+      <c r="J234" s="89"/>
+      <c r="K234" s="89"/>
+      <c r="L234" s="89"/>
+      <c r="M234" s="89"/>
+      <c r="N234" s="89"/>
+      <c r="O234" s="89"/>
       <c r="P234" s="51"/>
     </row>
     <row r="235" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -9071,17 +9074,17 @@
         <f>" "&amp;TEXT(('Senet Taksit Giriş'!E237-INT('Senet Taksit Giriş'!E237))*100,"##.##       ")&amp;" Krş "</f>
         <v xml:space="preserve">         Krş </v>
       </c>
-      <c r="E235" s="79"/>
-      <c r="F235" s="83"/>
-      <c r="G235" s="83"/>
-      <c r="H235" s="83"/>
-      <c r="I235" s="83"/>
-      <c r="J235" s="83"/>
-      <c r="K235" s="83"/>
-      <c r="L235" s="83"/>
-      <c r="M235" s="83"/>
-      <c r="N235" s="83"/>
-      <c r="O235" s="83"/>
+      <c r="E235" s="91"/>
+      <c r="F235" s="89"/>
+      <c r="G235" s="89"/>
+      <c r="H235" s="89"/>
+      <c r="I235" s="89"/>
+      <c r="J235" s="89"/>
+      <c r="K235" s="89"/>
+      <c r="L235" s="89"/>
+      <c r="M235" s="89"/>
+      <c r="N235" s="89"/>
+      <c r="O235" s="89"/>
       <c r="P235" s="51"/>
     </row>
     <row r="236" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9091,20 +9094,20 @@
       <c r="D236" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E236" s="79"/>
-      <c r="F236" s="82" t="str">
+      <c r="E236" s="91"/>
+      <c r="F236" s="88" t="str">
         <f>"İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak, temerrüt faizi olarak ise yasal faizin iki katı faiz uygulanmasını kabul ettiğimi, "&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v>İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak, temerrüt faizi olarak ise yasal faizin iki katı faiz uygulanmasını kabul ettiğimi,  ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G236" s="83"/>
-      <c r="H236" s="83"/>
-      <c r="I236" s="83"/>
-      <c r="J236" s="83"/>
-      <c r="K236" s="83"/>
-      <c r="L236" s="83"/>
-      <c r="M236" s="83"/>
-      <c r="N236" s="83"/>
-      <c r="O236" s="83"/>
+      <c r="G236" s="89"/>
+      <c r="H236" s="89"/>
+      <c r="I236" s="89"/>
+      <c r="J236" s="89"/>
+      <c r="K236" s="89"/>
+      <c r="L236" s="89"/>
+      <c r="M236" s="89"/>
+      <c r="N236" s="89"/>
+      <c r="O236" s="89"/>
       <c r="P236" s="51"/>
     </row>
     <row r="237" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -9112,28 +9115,28 @@
       <c r="B237" s="42"/>
       <c r="C237" s="30"/>
       <c r="D237" s="74"/>
-      <c r="E237" s="79"/>
-      <c r="F237" s="83"/>
-      <c r="G237" s="83"/>
-      <c r="H237" s="83"/>
-      <c r="I237" s="83"/>
-      <c r="J237" s="83"/>
-      <c r="K237" s="83"/>
-      <c r="L237" s="83"/>
-      <c r="M237" s="83"/>
-      <c r="N237" s="83"/>
-      <c r="O237" s="83"/>
+      <c r="E237" s="91"/>
+      <c r="F237" s="89"/>
+      <c r="G237" s="89"/>
+      <c r="H237" s="89"/>
+      <c r="I237" s="89"/>
+      <c r="J237" s="89"/>
+      <c r="K237" s="89"/>
+      <c r="L237" s="89"/>
+      <c r="M237" s="89"/>
+      <c r="N237" s="89"/>
+      <c r="O237" s="89"/>
       <c r="P237" s="51"/>
     </row>
     <row r="238" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="30"/>
       <c r="B238" s="55"/>
       <c r="C238" s="30"/>
-      <c r="D238" s="84" t="str">
+      <c r="D238" s="81" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E238" s="79"/>
+      <c r="E238" s="91"/>
       <c r="F238"/>
       <c r="G238"/>
       <c r="H238"/>
@@ -9150,22 +9153,22 @@
       <c r="A239" s="30"/>
       <c r="B239" s="42"/>
       <c r="C239" s="30"/>
-      <c r="D239" s="84"/>
-      <c r="E239" s="79"/>
-      <c r="F239" s="85" t="s">
+      <c r="D239" s="81"/>
+      <c r="E239" s="91"/>
+      <c r="F239" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="G239" s="86" t="str">
+      <c r="G239" s="90" t="str">
         <f>"İsim : "&amp;$D238</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H239" s="86"/>
-      <c r="I239" s="86"/>
-      <c r="J239" s="86"/>
+      <c r="H239" s="90"/>
+      <c r="I239" s="90"/>
+      <c r="J239" s="90"/>
       <c r="K239" s="32"/>
       <c r="L239" s="32"/>
-      <c r="M239" s="87"/>
-      <c r="N239" s="87"/>
+      <c r="M239" s="84"/>
+      <c r="N239" s="84"/>
       <c r="O239" s="33"/>
       <c r="P239" s="51"/>
     </row>
@@ -9173,17 +9176,17 @@
       <c r="A240" s="30"/>
       <c r="B240" s="56"/>
       <c r="C240" s="57"/>
-      <c r="D240" s="84"/>
-      <c r="E240" s="79"/>
-      <c r="F240" s="85"/>
-      <c r="G240" s="88" t="str">
+      <c r="D240" s="81"/>
+      <c r="E240" s="91"/>
+      <c r="F240" s="82"/>
+      <c r="G240" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H240" s="88"/>
-      <c r="I240" s="88"/>
-      <c r="J240" s="88"/>
-      <c r="K240" s="88"/>
+      <c r="H240" s="85"/>
+      <c r="I240" s="85"/>
+      <c r="J240" s="85"/>
+      <c r="K240" s="85"/>
       <c r="L240" s="30"/>
       <c r="M240" s="30"/>
       <c r="N240" s="30"/>
@@ -9194,14 +9197,14 @@
       <c r="A241" s="30"/>
       <c r="B241" s="56"/>
       <c r="C241" s="57"/>
-      <c r="D241" s="84"/>
-      <c r="E241" s="79"/>
-      <c r="F241" s="85"/>
-      <c r="G241" s="88"/>
-      <c r="H241" s="88"/>
-      <c r="I241" s="88"/>
-      <c r="J241" s="88"/>
-      <c r="K241" s="88"/>
+      <c r="D241" s="81"/>
+      <c r="E241" s="91"/>
+      <c r="F241" s="82"/>
+      <c r="G241" s="85"/>
+      <c r="H241" s="85"/>
+      <c r="I241" s="85"/>
+      <c r="J241" s="85"/>
+      <c r="K241" s="85"/>
       <c r="L241" s="43" t="s">
         <v>49</v>
       </c>
@@ -9214,16 +9217,16 @@
       <c r="A242" s="30"/>
       <c r="B242" s="56"/>
       <c r="C242" s="57"/>
-      <c r="D242" s="84"/>
-      <c r="E242" s="79"/>
-      <c r="F242" s="85"/>
-      <c r="G242" s="80" t="str">
+      <c r="D242" s="81"/>
+      <c r="E242" s="91"/>
+      <c r="F242" s="82"/>
+      <c r="G242" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H242" s="80"/>
-      <c r="I242" s="80"/>
-      <c r="J242" s="80"/>
+      <c r="H242" s="86"/>
+      <c r="I242" s="86"/>
+      <c r="J242" s="86"/>
       <c r="K242" s="30"/>
       <c r="L242" s="30"/>
       <c r="M242" s="30"/>
@@ -9235,16 +9238,16 @@
       <c r="A243" s="30"/>
       <c r="B243" s="42"/>
       <c r="C243" s="30"/>
-      <c r="D243" s="84"/>
-      <c r="E243" s="79"/>
-      <c r="F243" s="85"/>
-      <c r="G243" s="81" t="str">
+      <c r="D243" s="81"/>
+      <c r="E243" s="91"/>
+      <c r="F243" s="82"/>
+      <c r="G243" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H243" s="81"/>
-      <c r="I243" s="81"/>
-      <c r="J243" s="81"/>
+      <c r="H243" s="87"/>
+      <c r="I243" s="87"/>
+      <c r="J243" s="87"/>
       <c r="K243" s="58"/>
       <c r="L243" s="58"/>
       <c r="M243" s="58"/>
@@ -9256,18 +9259,18 @@
       <c r="A244" s="30"/>
       <c r="B244" s="55"/>
       <c r="C244" s="30"/>
-      <c r="D244" s="84"/>
-      <c r="E244" s="79"/>
-      <c r="F244" s="85" t="s">
+      <c r="D244" s="81"/>
+      <c r="E244" s="91"/>
+      <c r="F244" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G244" s="86" t="str">
+      <c r="G244" s="90" t="str">
         <f>"İsim : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H244" s="86"/>
-      <c r="I244" s="86"/>
-      <c r="J244" s="86"/>
+      <c r="H244" s="90"/>
+      <c r="I244" s="90"/>
+      <c r="J244" s="90"/>
       <c r="K244" s="32"/>
       <c r="L244" s="60"/>
       <c r="M244" s="32"/>
@@ -9282,15 +9285,15 @@
       <c r="D245" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E245" s="79"/>
-      <c r="F245" s="85"/>
-      <c r="G245" s="88" t="str">
+      <c r="E245" s="91"/>
+      <c r="F245" s="82"/>
+      <c r="G245" s="85" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H245" s="88"/>
-      <c r="I245" s="88"/>
-      <c r="J245" s="88"/>
+      <c r="H245" s="85"/>
+      <c r="I245" s="85"/>
+      <c r="J245" s="85"/>
       <c r="K245" s="30"/>
       <c r="L245" s="30"/>
       <c r="M245" s="30"/>
@@ -9306,12 +9309,12 @@
         <f>'Senet Taksit Giriş'!D14</f>
         <v>0</v>
       </c>
-      <c r="E246" s="79"/>
-      <c r="F246" s="85"/>
-      <c r="G246" s="88"/>
-      <c r="H246" s="88"/>
-      <c r="I246" s="88"/>
-      <c r="J246" s="88"/>
+      <c r="E246" s="91"/>
+      <c r="F246" s="82"/>
+      <c r="G246" s="85"/>
+      <c r="H246" s="85"/>
+      <c r="I246" s="85"/>
+      <c r="J246" s="85"/>
       <c r="K246" s="30"/>
       <c r="L246" s="43" t="s">
         <v>49</v>
@@ -9328,15 +9331,15 @@
       <c r="D247" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E247" s="79"/>
-      <c r="F247" s="85"/>
-      <c r="G247" s="80" t="str">
+      <c r="E247" s="91"/>
+      <c r="F247" s="82"/>
+      <c r="G247" s="86" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H247" s="80"/>
-      <c r="I247" s="80"/>
-      <c r="J247" s="80"/>
+      <c r="H247" s="86"/>
+      <c r="I247" s="86"/>
+      <c r="J247" s="86"/>
       <c r="K247" s="30"/>
       <c r="L247" s="30"/>
       <c r="M247" s="30"/>
@@ -9352,15 +9355,15 @@
         <f>'Senet Taksit Giriş'!C14</f>
         <v>45503</v>
       </c>
-      <c r="E248" s="79"/>
-      <c r="F248" s="85"/>
-      <c r="G248" s="81" t="str">
+      <c r="E248" s="91"/>
+      <c r="F248" s="82"/>
+      <c r="G248" s="87" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H248" s="81"/>
-      <c r="I248" s="81"/>
-      <c r="J248" s="81"/>
+      <c r="H248" s="87"/>
+      <c r="I248" s="87"/>
+      <c r="J248" s="87"/>
       <c r="K248" s="58"/>
       <c r="L248" s="58"/>
       <c r="M248" s="58"/>
@@ -9416,6 +9419,151 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="169">
+    <mergeCell ref="E230:E248"/>
+    <mergeCell ref="G247:J247"/>
+    <mergeCell ref="G248:J248"/>
+    <mergeCell ref="E209:E226"/>
+    <mergeCell ref="F212:O215"/>
+    <mergeCell ref="F236:O237"/>
+    <mergeCell ref="D238:D244"/>
+    <mergeCell ref="F239:F243"/>
+    <mergeCell ref="G239:J239"/>
+    <mergeCell ref="M239:N239"/>
+    <mergeCell ref="G240:K241"/>
+    <mergeCell ref="G242:J242"/>
+    <mergeCell ref="G243:J243"/>
+    <mergeCell ref="F244:F248"/>
+    <mergeCell ref="G244:J244"/>
+    <mergeCell ref="G245:J246"/>
+    <mergeCell ref="D216:D222"/>
+    <mergeCell ref="F217:F221"/>
+    <mergeCell ref="G217:J217"/>
+    <mergeCell ref="M217:N217"/>
+    <mergeCell ref="G218:K219"/>
+    <mergeCell ref="G220:J220"/>
+    <mergeCell ref="G221:J221"/>
+    <mergeCell ref="F222:F226"/>
+    <mergeCell ref="D195:D201"/>
+    <mergeCell ref="F196:F200"/>
+    <mergeCell ref="G196:J196"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="G197:K198"/>
+    <mergeCell ref="G199:J199"/>
+    <mergeCell ref="G200:J200"/>
+    <mergeCell ref="F201:F205"/>
+    <mergeCell ref="G201:J201"/>
+    <mergeCell ref="G202:J203"/>
+    <mergeCell ref="G222:J222"/>
+    <mergeCell ref="G223:J224"/>
+    <mergeCell ref="G225:J225"/>
+    <mergeCell ref="G226:J226"/>
+    <mergeCell ref="G181:J181"/>
+    <mergeCell ref="G182:J183"/>
+    <mergeCell ref="G184:J184"/>
+    <mergeCell ref="G185:J185"/>
+    <mergeCell ref="E188:E205"/>
+    <mergeCell ref="F191:O194"/>
+    <mergeCell ref="G204:J204"/>
+    <mergeCell ref="G205:J205"/>
+    <mergeCell ref="E168:E185"/>
+    <mergeCell ref="F171:O174"/>
+    <mergeCell ref="E147:E164"/>
+    <mergeCell ref="F150:O153"/>
+    <mergeCell ref="G163:J163"/>
+    <mergeCell ref="G164:J164"/>
+    <mergeCell ref="E126:E143"/>
+    <mergeCell ref="F129:O132"/>
+    <mergeCell ref="D175:D181"/>
+    <mergeCell ref="F176:F180"/>
+    <mergeCell ref="G176:J176"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="G177:K178"/>
+    <mergeCell ref="G179:J179"/>
+    <mergeCell ref="G180:J180"/>
+    <mergeCell ref="F181:F185"/>
+    <mergeCell ref="D154:D160"/>
+    <mergeCell ref="F155:F159"/>
+    <mergeCell ref="G155:J155"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="G156:K157"/>
+    <mergeCell ref="G158:J158"/>
+    <mergeCell ref="G159:J159"/>
+    <mergeCell ref="F160:F164"/>
+    <mergeCell ref="G160:J160"/>
+    <mergeCell ref="G161:J162"/>
+    <mergeCell ref="D133:D139"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="G134:J134"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="G135:K136"/>
+    <mergeCell ref="G137:J137"/>
+    <mergeCell ref="G138:J138"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="D113:D119"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="G114:J114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="G115:K116"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="F119:F123"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="G120:J121"/>
+    <mergeCell ref="G139:J139"/>
+    <mergeCell ref="G140:J141"/>
+    <mergeCell ref="G142:J142"/>
+    <mergeCell ref="G143:J143"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="G99:J100"/>
+    <mergeCell ref="G101:J101"/>
+    <mergeCell ref="G102:J102"/>
+    <mergeCell ref="E106:E123"/>
+    <mergeCell ref="F109:O112"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="E85:E102"/>
+    <mergeCell ref="F88:O91"/>
+    <mergeCell ref="E64:E81"/>
+    <mergeCell ref="F67:O70"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="E44:E61"/>
+    <mergeCell ref="F47:O50"/>
+    <mergeCell ref="D92:D98"/>
+    <mergeCell ref="F93:F97"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="G94:K95"/>
+    <mergeCell ref="G96:J96"/>
+    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="F98:F102"/>
+    <mergeCell ref="D71:D77"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="G73:K74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="G78:J79"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="G32:K33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J38"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="G58:J59"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="G61:J61"/>
     <mergeCell ref="D9:D15"/>
     <mergeCell ref="F10:F14"/>
     <mergeCell ref="G10:J10"/>
@@ -9440,151 +9588,6 @@
     <mergeCell ref="G52:J52"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="G53:K54"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="G32:K33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J38"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="G58:J59"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="E64:E81"/>
-    <mergeCell ref="F67:O70"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="E44:E61"/>
-    <mergeCell ref="F47:O50"/>
-    <mergeCell ref="D92:D98"/>
-    <mergeCell ref="F93:F97"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="G94:K95"/>
-    <mergeCell ref="G96:J96"/>
-    <mergeCell ref="G97:J97"/>
-    <mergeCell ref="F98:F102"/>
-    <mergeCell ref="D71:D77"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="G73:K74"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="G78:J79"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="G99:J100"/>
-    <mergeCell ref="G101:J101"/>
-    <mergeCell ref="G102:J102"/>
-    <mergeCell ref="E106:E123"/>
-    <mergeCell ref="F109:O112"/>
-    <mergeCell ref="G122:J122"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="E85:E102"/>
-    <mergeCell ref="F88:O91"/>
-    <mergeCell ref="D133:D139"/>
-    <mergeCell ref="F134:F138"/>
-    <mergeCell ref="G134:J134"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="G135:K136"/>
-    <mergeCell ref="G137:J137"/>
-    <mergeCell ref="G138:J138"/>
-    <mergeCell ref="F139:F143"/>
-    <mergeCell ref="D113:D119"/>
-    <mergeCell ref="F114:F118"/>
-    <mergeCell ref="G114:J114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="G115:K116"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="G118:J118"/>
-    <mergeCell ref="F119:F123"/>
-    <mergeCell ref="G119:J119"/>
-    <mergeCell ref="G120:J121"/>
-    <mergeCell ref="G139:J139"/>
-    <mergeCell ref="G140:J141"/>
-    <mergeCell ref="G142:J142"/>
-    <mergeCell ref="G143:J143"/>
-    <mergeCell ref="E147:E164"/>
-    <mergeCell ref="F150:O153"/>
-    <mergeCell ref="G163:J163"/>
-    <mergeCell ref="G164:J164"/>
-    <mergeCell ref="E126:E143"/>
-    <mergeCell ref="F129:O132"/>
-    <mergeCell ref="D175:D181"/>
-    <mergeCell ref="F176:F180"/>
-    <mergeCell ref="G176:J176"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="G177:K178"/>
-    <mergeCell ref="G179:J179"/>
-    <mergeCell ref="G180:J180"/>
-    <mergeCell ref="F181:F185"/>
-    <mergeCell ref="D154:D160"/>
-    <mergeCell ref="F155:F159"/>
-    <mergeCell ref="G155:J155"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="G156:K157"/>
-    <mergeCell ref="G158:J158"/>
-    <mergeCell ref="G159:J159"/>
-    <mergeCell ref="F160:F164"/>
-    <mergeCell ref="G160:J160"/>
-    <mergeCell ref="G161:J162"/>
-    <mergeCell ref="G222:J222"/>
-    <mergeCell ref="G223:J224"/>
-    <mergeCell ref="G225:J225"/>
-    <mergeCell ref="G226:J226"/>
-    <mergeCell ref="G181:J181"/>
-    <mergeCell ref="G182:J183"/>
-    <mergeCell ref="G184:J184"/>
-    <mergeCell ref="G185:J185"/>
-    <mergeCell ref="E188:E205"/>
-    <mergeCell ref="F191:O194"/>
-    <mergeCell ref="G204:J204"/>
-    <mergeCell ref="G205:J205"/>
-    <mergeCell ref="E168:E185"/>
-    <mergeCell ref="F171:O174"/>
-    <mergeCell ref="D195:D201"/>
-    <mergeCell ref="F196:F200"/>
-    <mergeCell ref="G196:J196"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="G197:K198"/>
-    <mergeCell ref="G199:J199"/>
-    <mergeCell ref="G200:J200"/>
-    <mergeCell ref="F201:F205"/>
-    <mergeCell ref="G201:J201"/>
-    <mergeCell ref="G202:J203"/>
-    <mergeCell ref="E230:E248"/>
-    <mergeCell ref="G247:J247"/>
-    <mergeCell ref="G248:J248"/>
-    <mergeCell ref="E209:E226"/>
-    <mergeCell ref="F212:O215"/>
-    <mergeCell ref="F236:O237"/>
-    <mergeCell ref="D238:D244"/>
-    <mergeCell ref="F239:F243"/>
-    <mergeCell ref="G239:J239"/>
-    <mergeCell ref="M239:N239"/>
-    <mergeCell ref="G240:K241"/>
-    <mergeCell ref="G242:J242"/>
-    <mergeCell ref="G243:J243"/>
-    <mergeCell ref="F244:F248"/>
-    <mergeCell ref="G244:J244"/>
-    <mergeCell ref="G245:J246"/>
-    <mergeCell ref="D216:D222"/>
-    <mergeCell ref="F217:F221"/>
-    <mergeCell ref="G217:J217"/>
-    <mergeCell ref="M217:N217"/>
-    <mergeCell ref="G218:K219"/>
-    <mergeCell ref="G220:J220"/>
-    <mergeCell ref="G221:J221"/>
-    <mergeCell ref="F222:F226"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.59015748031496074" bottom="1.1417322834645671" header="0.19645669291338586" footer="0.74803149606299213"/>

--- a/2025-SOZL/1_crs/DGS-081-03-2302_Hızarhane/081-Dgs-03-20230227- HSP-adem Duman.xlsx
+++ b/2025-SOZL/1_crs/DGS-081-03-2302_Hızarhane/081-Dgs-03-20230227- HSP-adem Duman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2025-SOZL\1_crs\DGS-081-03-2302_Hızarhane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECB8B8B-03BC-4ACB-B68C-5D50B47D54A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BAF4A4-7B03-4C6B-96BB-F9E317D9BA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1333,21 +1333,8 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1365,12 +1352,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1710,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3130,9 +3130,12 @@
       <c r="C110" t="s">
         <v>106</v>
       </c>
+      <c r="E110">
+        <v>-15000</v>
+      </c>
       <c r="F110" s="1">
         <f t="shared" si="6"/>
-        <v>176756</v>
+        <v>161756</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3148,7 +3151,7 @@
       <c r="E111" s="72"/>
       <c r="F111" s="1">
         <f t="shared" si="6"/>
-        <v>176756</v>
+        <v>161756</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3163,7 +3166,7 @@
       </c>
       <c r="F112" s="1">
         <f t="shared" si="6"/>
-        <v>176756</v>
+        <v>161756</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3178,7 +3181,7 @@
       </c>
       <c r="F113" s="1">
         <f t="shared" si="6"/>
-        <v>176756</v>
+        <v>161756</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3193,7 +3196,7 @@
       </c>
       <c r="F114" s="1">
         <f t="shared" si="6"/>
-        <v>176756</v>
+        <v>161756</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3208,7 +3211,7 @@
       </c>
       <c r="F115" s="1">
         <f t="shared" si="6"/>
-        <v>176756</v>
+        <v>161756</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3223,13 +3226,13 @@
       </c>
       <c r="F116" s="1">
         <f t="shared" si="6"/>
-        <v>176756</v>
+        <v>161756</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F117" s="1">
         <f t="shared" si="6"/>
-        <v>176756</v>
+        <v>161756</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3238,7 +3241,7 @@
       </c>
       <c r="F118" s="1">
         <f>F117</f>
-        <v>176756</v>
+        <v>161756</v>
       </c>
     </row>
   </sheetData>
@@ -3448,7 +3451,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3504,17 +3507,17 @@
         <v>1</v>
       </c>
       <c r="C3" s="23">
-        <v>45503</v>
+        <v>45715</v>
       </c>
       <c r="D3" s="23">
-        <v>45534</v>
+        <v>45777</v>
       </c>
       <c r="E3" s="24">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="F3" s="25" t="str">
         <f t="shared" ref="F3:F14" si="0">PROPER(IF(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1&gt;=10^6,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,7),1)+1,"","birmilyon","ikimilyon","üçmilyon","dörtmilyon","beşmilyon","altımilyon","yedimilyon","sekizmilyon","dokuzmilyon"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(AND(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1&gt;=10^3,VALUE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,6),3))&gt;0),IF(AND(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1&gt;1999,LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,4),1)="1",LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,6),2)&lt;&gt;"00"),"birbin","bin"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1&gt;=100,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,3),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2)),ROUND(E3,2),TRIM(LEFT(ROUND(E3,2),FIND(",",ROUND(E3,2))-1)))*1,10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " TL " &amp; IF(OR(LEN(SUBSTITUTE(E3, ",", ""))=LEN(E3),LEN(SUBSTITUTE(ROUND(E3,2), ",", ""))=LEN(ROUND(E3,2))),"", PROPER(IF(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1)&gt;=10^5,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1),6),1)+1,"","yüz","ikiyüz","üçyüz","dörtyüz","beşyüz","altıyüz","yediyüz","sekizyüz","dokuzyüz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1)&gt;=10^4,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1),5),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1)&gt;=10^3,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1),4),1)+1,"","","iki","üç","dört","beş","altı","yedi","sekiz","dokuz"),"")&amp;IF(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1)&gt;=10,CHOOSE(LEFT(RIGHT(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1),2),1)+1,"","on","yirmi","otuz","kırk","elli","altmış","yetmiş","seksen","doksan"),"")&amp;CHOOSE(MOD(IF(LEN(TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2)))))&lt;2,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*10,TRIM(RIGHT(ROUND(E3,2),LEN(ROUND(E3,2))-FIND(",",ROUND(E3,2))))*1),10)+1,"","bir","iki","üç","dört","beş","altı","yedi","sekiz","dokuz")) &amp; " Kr")</f>
-        <v xml:space="preserve">Onyedibin TL </v>
+        <v xml:space="preserve">Yüzellibin TL </v>
       </c>
       <c r="G3" s="18" t="s">
         <v>28</v>
@@ -3528,18 +3531,12 @@
       <c r="B4" s="21">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
-        <v>45503</v>
-      </c>
-      <c r="D4" s="23">
-        <v>45565</v>
-      </c>
-      <c r="E4" s="26">
-        <v>17000</v>
-      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Onyedibin TL </v>
+        <v xml:space="preserve"> TL </v>
       </c>
       <c r="G4" s="21" t="str">
         <f t="shared" ref="G4:G13" si="1">G3</f>
@@ -3554,18 +3551,12 @@
       <c r="B5" s="21">
         <v>3</v>
       </c>
-      <c r="C5" s="23">
-        <v>45503</v>
-      </c>
-      <c r="D5" s="23">
-        <v>45595</v>
-      </c>
-      <c r="E5" s="26">
-        <v>17000</v>
-      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Onyedibin TL </v>
+        <v xml:space="preserve"> TL </v>
       </c>
       <c r="G5" s="21" t="str">
         <f t="shared" si="1"/>
@@ -3580,18 +3571,12 @@
       <c r="B6" s="21">
         <v>4</v>
       </c>
-      <c r="C6" s="23">
-        <v>45503</v>
-      </c>
-      <c r="D6" s="23">
-        <v>45626</v>
-      </c>
-      <c r="E6" s="26">
-        <v>17000</v>
-      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Onyedibin TL </v>
+        <v xml:space="preserve"> TL </v>
       </c>
       <c r="G6" s="21" t="str">
         <f t="shared" si="1"/>
@@ -3606,18 +3591,12 @@
       <c r="B7" s="21">
         <v>5</v>
       </c>
-      <c r="C7" s="23">
-        <v>45503</v>
-      </c>
-      <c r="D7" s="23">
-        <v>45656</v>
-      </c>
-      <c r="E7" s="26">
-        <v>17000</v>
-      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Onyedibin TL </v>
+        <v xml:space="preserve"> TL </v>
       </c>
       <c r="G7" s="21" t="str">
         <f t="shared" si="1"/>
@@ -3632,18 +3611,12 @@
       <c r="B8" s="21">
         <v>6</v>
       </c>
-      <c r="C8" s="23">
-        <v>45503</v>
-      </c>
-      <c r="D8" s="23">
-        <v>45687</v>
-      </c>
-      <c r="E8" s="26">
-        <v>17000</v>
-      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Onyedibin TL </v>
+        <v xml:space="preserve"> TL </v>
       </c>
       <c r="G8" s="21" t="str">
         <f t="shared" si="1"/>
@@ -3658,18 +3631,12 @@
       <c r="B9" s="21">
         <v>7</v>
       </c>
-      <c r="C9" s="23">
-        <v>45503</v>
-      </c>
-      <c r="D9" s="23">
-        <v>45716</v>
-      </c>
-      <c r="E9" s="26">
-        <v>17000</v>
-      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Onyedibin TL </v>
+        <v xml:space="preserve"> TL </v>
       </c>
       <c r="G9" s="21" t="str">
         <f t="shared" si="1"/>
@@ -3684,18 +3651,12 @@
       <c r="B10" s="21">
         <v>8</v>
       </c>
-      <c r="C10" s="23">
-        <v>45503</v>
-      </c>
-      <c r="D10" s="23">
-        <v>45746</v>
-      </c>
-      <c r="E10" s="26">
-        <v>17000</v>
-      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Onyedibin TL </v>
+        <v xml:space="preserve"> TL </v>
       </c>
       <c r="G10" s="21" t="str">
         <f t="shared" si="1"/>
@@ -3710,18 +3671,12 @@
       <c r="B11" s="21">
         <v>9</v>
       </c>
-      <c r="C11" s="23">
-        <v>45503</v>
-      </c>
-      <c r="D11" s="23">
-        <v>45777</v>
-      </c>
-      <c r="E11" s="26">
-        <v>17000</v>
-      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Onyedibin TL </v>
+        <v xml:space="preserve"> TL </v>
       </c>
       <c r="G11" s="21" t="str">
         <f t="shared" si="1"/>
@@ -3736,18 +3691,12 @@
       <c r="B12" s="21">
         <v>10</v>
       </c>
-      <c r="C12" s="23">
-        <v>45503</v>
-      </c>
-      <c r="D12" s="23">
-        <v>45807</v>
-      </c>
-      <c r="E12" s="26">
-        <v>17000</v>
-      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Onyedibin TL </v>
+        <v xml:space="preserve"> TL </v>
       </c>
       <c r="G12" s="21" t="str">
         <f t="shared" si="1"/>
@@ -3762,18 +3711,12 @@
       <c r="B13" s="21">
         <v>11</v>
       </c>
-      <c r="C13" s="23">
-        <v>45503</v>
-      </c>
-      <c r="D13" s="23">
-        <v>45838</v>
-      </c>
-      <c r="E13" s="26">
-        <v>17000</v>
-      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Onyedibin TL </v>
+        <v xml:space="preserve"> TL </v>
       </c>
       <c r="G13" s="21" t="str">
         <f t="shared" si="1"/>
@@ -3786,9 +3729,7 @@
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" s="21"/>
-      <c r="C14" s="23">
-        <v>45503</v>
-      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="26"/>
       <c r="F14" s="25" t="str">
@@ -3895,8 +3836,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D234" sqref="D234"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -3945,7 +3886,7 @@
       <c r="D2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="91" t="str">
+      <c r="E2" s="81" t="str">
         <f>$D9 &amp;"    - Taksit No: " &amp; $D4&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 1 #  </v>
       </c>
@@ -3978,16 +3919,16 @@
       <c r="D3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="91"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="30"/>
       <c r="G3" s="45">
         <f>D17</f>
-        <v>45534</v>
+        <v>45777</v>
       </c>
       <c r="H3" s="46"/>
       <c r="I3" s="47" t="str">
         <f>D6</f>
-        <v># 17.000 TL #</v>
+        <v># 150.000 TL #</v>
       </c>
       <c r="J3" s="48" t="str">
         <f>D7</f>
@@ -4002,7 +3943,7 @@
       <c r="N3" s="39"/>
       <c r="O3" s="50">
         <f>D19</f>
-        <v>45503</v>
+        <v>45715</v>
       </c>
       <c r="P3" s="51"/>
     </row>
@@ -4014,7 +3955,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B3),"##.##0")&amp;" #"</f>
         <v># 1 #</v>
       </c>
-      <c r="E4" s="91"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
@@ -4034,20 +3975,20 @@
       <c r="D5" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="88" t="str">
+      <c r="E5" s="81"/>
+      <c r="F5" s="84" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G3,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F3&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G3&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
-        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
-      </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
+        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Yüzellibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
+      </c>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="51"/>
     </row>
     <row r="6" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4056,19 +3997,19 @@
       <c r="C6" s="43"/>
       <c r="D6" s="54" t="str">
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E3),"##.##0")&amp;" TL #"</f>
-        <v># 17.000 TL #</v>
-      </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
+        <v># 150.000 TL #</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
       <c r="P6" s="51"/>
     </row>
     <row r="7" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4079,17 +4020,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E3-INT('Senet Taksit Giriş'!E3))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
       <c r="P7" s="51"/>
     </row>
     <row r="8" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4099,28 +4040,28 @@
       <c r="D8" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
       <c r="P8" s="51"/>
     </row>
     <row r="9" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30"/>
       <c r="B9" s="55"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="81" t="str">
+      <c r="D9" s="86" t="str">
         <f>'Senet Borçlu Alacaklı Giriş'!C5</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E9" s="91"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
@@ -4137,22 +4078,22 @@
       <c r="A10" s="30"/>
       <c r="B10" s="42"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="82" t="s">
+      <c r="D10" s="86"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="83" t="str">
+      <c r="G10" s="91" t="str">
         <f>"İsim : "&amp;$D9</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
       <c r="O10" s="33"/>
       <c r="P10" s="51"/>
     </row>
@@ -4160,17 +4101,17 @@
       <c r="A11" s="30"/>
       <c r="B11" s="56"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="85" t="str">
+      <c r="D11" s="86"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
@@ -4181,14 +4122,14 @@
       <c r="A12" s="30"/>
       <c r="B12" s="56"/>
       <c r="C12" s="57"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
       <c r="L12" s="43" t="s">
         <v>49</v>
       </c>
@@ -4201,16 +4142,16 @@
       <c r="A13" s="30"/>
       <c r="B13" s="56"/>
       <c r="C13" s="57"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="86" t="str">
+      <c r="D13" s="86"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
@@ -4222,16 +4163,16 @@
       <c r="A14" s="30"/>
       <c r="B14" s="42"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="87" t="str">
+      <c r="D14" s="86"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
       <c r="K14" s="58"/>
       <c r="L14" s="58"/>
       <c r="M14" s="58"/>
@@ -4243,18 +4184,18 @@
       <c r="A15" s="30"/>
       <c r="B15" s="55"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="82" t="s">
+      <c r="D15" s="86"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="90" t="str">
+      <c r="G15" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
       <c r="K15" s="32"/>
       <c r="L15" s="60"/>
       <c r="M15" s="32"/>
@@ -4269,15 +4210,15 @@
       <c r="D16" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="85" t="str">
+      <c r="E16" s="81"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
@@ -4291,14 +4232,14 @@
       <c r="C17" s="30"/>
       <c r="D17" s="61">
         <f>'Senet Taksit Giriş'!D3</f>
-        <v>45534</v>
-      </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
+        <v>45777</v>
+      </c>
+      <c r="E17" s="81"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
       <c r="K17" s="30"/>
       <c r="L17" s="43" t="s">
         <v>49</v>
@@ -4315,15 +4256,15 @@
       <c r="D18" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="86" t="str">
+      <c r="E18" s="81"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
@@ -4337,17 +4278,17 @@
       <c r="C19" s="30"/>
       <c r="D19" s="61">
         <f>'Senet Taksit Giriş'!C3</f>
-        <v>45503</v>
-      </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="87" t="str">
+        <v>45715</v>
+      </c>
+      <c r="E19" s="81"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
       <c r="K19" s="58"/>
       <c r="L19" s="58"/>
       <c r="M19" s="58"/>
@@ -4416,7 +4357,7 @@
       <c r="D23" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="91" t="str">
+      <c r="E23" s="81" t="str">
         <f>$D30 &amp;"    - Taksit No: " &amp; $D25&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 2 #  </v>
       </c>
@@ -4449,16 +4390,16 @@
       <c r="D24" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="91"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="30"/>
       <c r="G24" s="45">
         <f>D38</f>
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H24" s="46"/>
       <c r="I24" s="47" t="str">
         <f>D27</f>
-        <v># 17.000 TL #</v>
+        <v># 0 TL #</v>
       </c>
       <c r="J24" s="48" t="str">
         <f>D28</f>
@@ -4473,7 +4414,7 @@
       <c r="N24" s="39"/>
       <c r="O24" s="50">
         <f>D40</f>
-        <v>45503</v>
+        <v>0</v>
       </c>
       <c r="P24" s="51"/>
     </row>
@@ -4485,7 +4426,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B4),"##.##0")&amp;" #"</f>
         <v># 2 #</v>
       </c>
-      <c r="E25" s="91"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
@@ -4505,20 +4446,20 @@
       <c r="D26" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="88" t="str">
+      <c r="E26" s="81"/>
+      <c r="F26" s="84" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G24,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F4&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G4&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
-        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
-      </c>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
+        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 1900 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız #  TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
+      </c>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
       <c r="P26" s="51"/>
     </row>
     <row r="27" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4527,19 +4468,19 @@
       <c r="C27" s="43"/>
       <c r="D27" s="54" t="str">
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E4),"##.##0")&amp;" TL #"</f>
-        <v># 17.000 TL #</v>
-      </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
+        <v># 0 TL #</v>
+      </c>
+      <c r="E27" s="81"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
       <c r="P27" s="51"/>
     </row>
     <row r="28" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4550,17 +4491,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E24-INT('Senet Taksit Giriş'!E24))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E28" s="91"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
       <c r="P28" s="51"/>
     </row>
     <row r="29" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4570,28 +4511,28 @@
       <c r="D29" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="91"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
       <c r="P29" s="51"/>
     </row>
     <row r="30" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="30"/>
       <c r="B30" s="55"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="81" t="str">
+      <c r="D30" s="86" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E30" s="91"/>
+      <c r="E30" s="81"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
@@ -4608,22 +4549,22 @@
       <c r="A31" s="30"/>
       <c r="B31" s="42"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="82" t="s">
+      <c r="D31" s="86"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="90" t="str">
+      <c r="G31" s="88" t="str">
         <f>"İsim : "&amp;$D30</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
       <c r="O31" s="33"/>
       <c r="P31" s="51"/>
     </row>
@@ -4631,17 +4572,17 @@
       <c r="A32" s="30"/>
       <c r="B32" s="56"/>
       <c r="C32" s="57"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="85" t="str">
+      <c r="D32" s="86"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
@@ -4652,14 +4593,14 @@
       <c r="A33" s="30"/>
       <c r="B33" s="56"/>
       <c r="C33" s="57"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
       <c r="L33" s="43" t="s">
         <v>49</v>
       </c>
@@ -4672,16 +4613,16 @@
       <c r="A34" s="30"/>
       <c r="B34" s="56"/>
       <c r="C34" s="57"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="86" t="str">
+      <c r="D34" s="86"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
       <c r="M34" s="30"/>
@@ -4693,16 +4634,16 @@
       <c r="A35" s="30"/>
       <c r="B35" s="42"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="87" t="str">
+      <c r="D35" s="86"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
       <c r="K35" s="58"/>
       <c r="L35" s="58"/>
       <c r="M35" s="58"/>
@@ -4714,18 +4655,18 @@
       <c r="A36" s="30"/>
       <c r="B36" s="55"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="82" t="s">
+      <c r="D36" s="86"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="90" t="str">
+      <c r="G36" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
       <c r="K36" s="32"/>
       <c r="L36" s="60"/>
       <c r="M36" s="32"/>
@@ -4740,15 +4681,15 @@
       <c r="D37" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="91"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="85" t="str">
+      <c r="E37" s="81"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
       <c r="M37" s="30"/>
@@ -4762,14 +4703,14 @@
       <c r="C38" s="30"/>
       <c r="D38" s="61">
         <f>'Senet Taksit Giriş'!D4</f>
-        <v>45565</v>
-      </c>
-      <c r="E38" s="91"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="81"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
       <c r="K38" s="30"/>
       <c r="L38" s="43" t="s">
         <v>49</v>
@@ -4786,15 +4727,15 @@
       <c r="D39" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="91"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="86" t="str">
+      <c r="E39" s="81"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>
       <c r="M39" s="30"/>
@@ -4808,17 +4749,17 @@
       <c r="C40" s="30"/>
       <c r="D40" s="61">
         <f>'Senet Taksit Giriş'!C4</f>
-        <v>45503</v>
-      </c>
-      <c r="E40" s="91"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="E40" s="81"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
       <c r="K40" s="58"/>
       <c r="L40" s="58"/>
       <c r="M40" s="58"/>
@@ -4869,7 +4810,7 @@
       <c r="D44" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="91" t="str">
+      <c r="E44" s="81" t="str">
         <f>$D51 &amp;"    - Taksit No: " &amp; $D46&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 3 #  </v>
       </c>
@@ -4902,16 +4843,16 @@
       <c r="D45" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="91"/>
+      <c r="E45" s="81"/>
       <c r="F45" s="30"/>
       <c r="G45" s="45">
         <f>D59</f>
-        <v>45595</v>
+        <v>0</v>
       </c>
       <c r="H45" s="46"/>
       <c r="I45" s="47" t="str">
         <f>D48</f>
-        <v># 17.000 TL #</v>
+        <v># 0 TL #</v>
       </c>
       <c r="J45" s="48" t="str">
         <f>D49</f>
@@ -4926,7 +4867,7 @@
       <c r="N45" s="39"/>
       <c r="O45" s="50">
         <f>D61</f>
-        <v>45503</v>
+        <v>0</v>
       </c>
       <c r="P45" s="51"/>
     </row>
@@ -4938,7 +4879,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B5),"##.##0")&amp;" #"</f>
         <v># 3 #</v>
       </c>
-      <c r="E46" s="91"/>
+      <c r="E46" s="81"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
@@ -4958,20 +4899,20 @@
       <c r="D47" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="91"/>
-      <c r="F47" s="88" t="str">
+      <c r="E47" s="81"/>
+      <c r="F47" s="84" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G45,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F5&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G5&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
-        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
-      </c>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
+        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 1900 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız #  TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
+      </c>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
       <c r="P47" s="51"/>
     </row>
     <row r="48" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4980,19 +4921,19 @@
       <c r="C48" s="43"/>
       <c r="D48" s="54" t="str">
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E5),"##.##0")&amp;" TL #"</f>
-        <v># 17.000 TL #</v>
-      </c>
-      <c r="E48" s="91"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
+        <v># 0 TL #</v>
+      </c>
+      <c r="E48" s="81"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="84"/>
       <c r="P48" s="51"/>
     </row>
     <row r="49" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5003,17 +4944,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E46-INT('Senet Taksit Giriş'!E46))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E49" s="91"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="84"/>
       <c r="P49" s="51"/>
     </row>
     <row r="50" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5023,28 +4964,28 @@
       <c r="D50" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="91"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
       <c r="P50" s="51"/>
     </row>
     <row r="51" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="30"/>
       <c r="B51" s="55"/>
       <c r="C51" s="30"/>
-      <c r="D51" s="81" t="str">
+      <c r="D51" s="86" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E51" s="91"/>
+      <c r="E51" s="81"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
@@ -5061,22 +5002,22 @@
       <c r="A52" s="30"/>
       <c r="B52" s="42"/>
       <c r="C52" s="30"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="91"/>
-      <c r="F52" s="82" t="s">
+      <c r="D52" s="86"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G52" s="90" t="str">
+      <c r="G52" s="88" t="str">
         <f>"İsim : "&amp;$D51</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="90"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88"/>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
       <c r="O52" s="33"/>
       <c r="P52" s="51"/>
     </row>
@@ -5084,17 +5025,17 @@
       <c r="A53" s="30"/>
       <c r="B53" s="56"/>
       <c r="C53" s="57"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="85" t="str">
+      <c r="D53" s="86"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
       <c r="L53" s="30"/>
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
@@ -5105,14 +5046,14 @@
       <c r="A54" s="30"/>
       <c r="B54" s="56"/>
       <c r="C54" s="57"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
       <c r="L54" s="43" t="s">
         <v>49</v>
       </c>
@@ -5125,16 +5066,16 @@
       <c r="A55" s="30"/>
       <c r="B55" s="56"/>
       <c r="C55" s="57"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="86" t="str">
+      <c r="D55" s="86"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82"/>
       <c r="K55" s="30"/>
       <c r="L55" s="30"/>
       <c r="M55" s="30"/>
@@ -5146,16 +5087,16 @@
       <c r="A56" s="30"/>
       <c r="B56" s="42"/>
       <c r="C56" s="30"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="87" t="str">
+      <c r="D56" s="86"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
       <c r="K56" s="58"/>
       <c r="L56" s="58"/>
       <c r="M56" s="58"/>
@@ -5167,18 +5108,18 @@
       <c r="A57" s="30"/>
       <c r="B57" s="55"/>
       <c r="C57" s="30"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="82" t="s">
+      <c r="D57" s="86"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="90" t="str">
+      <c r="G57" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
       <c r="K57" s="32"/>
       <c r="L57" s="60"/>
       <c r="M57" s="32"/>
@@ -5193,15 +5134,15 @@
       <c r="D58" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="91"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="85" t="str">
+      <c r="E58" s="81"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="90"/>
       <c r="K58" s="30"/>
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
@@ -5215,14 +5156,14 @@
       <c r="C59" s="30"/>
       <c r="D59" s="61">
         <f>'Senet Taksit Giriş'!D5</f>
-        <v>45595</v>
-      </c>
-      <c r="E59" s="91"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="81"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="90"/>
       <c r="K59" s="30"/>
       <c r="L59" s="43" t="s">
         <v>49</v>
@@ -5239,15 +5180,15 @@
       <c r="D60" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E60" s="91"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="86" t="str">
+      <c r="E60" s="81"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H60" s="86"/>
-      <c r="I60" s="86"/>
-      <c r="J60" s="86"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
       <c r="K60" s="30"/>
       <c r="L60" s="30"/>
       <c r="M60" s="30"/>
@@ -5261,17 +5202,17 @@
       <c r="C61" s="30"/>
       <c r="D61" s="61">
         <f>'Senet Taksit Giriş'!C5</f>
-        <v>45503</v>
-      </c>
-      <c r="E61" s="91"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="E61" s="81"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="87"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
       <c r="K61" s="58"/>
       <c r="L61" s="58"/>
       <c r="M61" s="58"/>
@@ -5322,7 +5263,7 @@
       <c r="D64" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="91" t="str">
+      <c r="E64" s="81" t="str">
         <f>$D71 &amp;"    - Taksit No: " &amp; $D66&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 4 #  </v>
       </c>
@@ -5355,16 +5296,16 @@
       <c r="D65" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E65" s="91"/>
+      <c r="E65" s="81"/>
       <c r="F65" s="30"/>
       <c r="G65" s="45">
         <f>D79</f>
-        <v>45626</v>
+        <v>0</v>
       </c>
       <c r="H65" s="46"/>
       <c r="I65" s="47" t="str">
         <f>D68</f>
-        <v># 17.000 TL #</v>
+        <v># 0 TL #</v>
       </c>
       <c r="J65" s="48" t="str">
         <f>D69</f>
@@ -5379,7 +5320,7 @@
       <c r="N65" s="39"/>
       <c r="O65" s="50">
         <f>D81</f>
-        <v>45503</v>
+        <v>0</v>
       </c>
       <c r="P65" s="51"/>
     </row>
@@ -5391,7 +5332,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B6),"##.##0")&amp;" #"</f>
         <v># 4 #</v>
       </c>
-      <c r="E66" s="91"/>
+      <c r="E66" s="81"/>
       <c r="F66" s="30"/>
       <c r="G66" s="30"/>
       <c r="H66" s="30"/>
@@ -5411,20 +5352,20 @@
       <c r="D67" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="91"/>
-      <c r="F67" s="88" t="str">
+      <c r="E67" s="81"/>
+      <c r="F67" s="84" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G65,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F6&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G6&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
-        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
-      </c>
-      <c r="G67" s="88"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="88"/>
-      <c r="K67" s="88"/>
-      <c r="L67" s="88"/>
-      <c r="M67" s="88"/>
-      <c r="N67" s="88"/>
-      <c r="O67" s="88"/>
+        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 1900 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız #  TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
+      </c>
+      <c r="G67" s="84"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="84"/>
+      <c r="K67" s="84"/>
+      <c r="L67" s="84"/>
+      <c r="M67" s="84"/>
+      <c r="N67" s="84"/>
+      <c r="O67" s="84"/>
       <c r="P67" s="51"/>
     </row>
     <row r="68" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5433,19 +5374,19 @@
       <c r="C68" s="43"/>
       <c r="D68" s="54" t="str">
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E6),"##.##0")&amp;" TL #"</f>
-        <v># 17.000 TL #</v>
-      </c>
-      <c r="E68" s="91"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="88"/>
-      <c r="K68" s="88"/>
-      <c r="L68" s="88"/>
-      <c r="M68" s="88"/>
-      <c r="N68" s="88"/>
-      <c r="O68" s="88"/>
+        <v># 0 TL #</v>
+      </c>
+      <c r="E68" s="81"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="84"/>
+      <c r="K68" s="84"/>
+      <c r="L68" s="84"/>
+      <c r="M68" s="84"/>
+      <c r="N68" s="84"/>
+      <c r="O68" s="84"/>
       <c r="P68" s="51"/>
     </row>
     <row r="69" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5456,17 +5397,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E68-INT('Senet Taksit Giriş'!E68))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E69" s="91"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="88"/>
-      <c r="K69" s="88"/>
-      <c r="L69" s="88"/>
-      <c r="M69" s="88"/>
-      <c r="N69" s="88"/>
-      <c r="O69" s="88"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="84"/>
+      <c r="O69" s="84"/>
       <c r="P69" s="51"/>
     </row>
     <row r="70" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5476,28 +5417,28 @@
       <c r="D70" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E70" s="91"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="88"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
-      <c r="J70" s="88"/>
-      <c r="K70" s="88"/>
-      <c r="L70" s="88"/>
-      <c r="M70" s="88"/>
-      <c r="N70" s="88"/>
-      <c r="O70" s="88"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="84"/>
+      <c r="K70" s="84"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="84"/>
       <c r="P70" s="51"/>
     </row>
     <row r="71" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="30"/>
       <c r="B71" s="55"/>
       <c r="C71" s="30"/>
-      <c r="D71" s="81" t="str">
+      <c r="D71" s="86" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E71" s="91"/>
+      <c r="E71" s="81"/>
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
@@ -5514,22 +5455,22 @@
       <c r="A72" s="30"/>
       <c r="B72" s="42"/>
       <c r="C72" s="30"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="91"/>
-      <c r="F72" s="82" t="s">
+      <c r="D72" s="86"/>
+      <c r="E72" s="81"/>
+      <c r="F72" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G72" s="90" t="str">
+      <c r="G72" s="88" t="str">
         <f>"İsim : "&amp;$D71</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H72" s="90"/>
-      <c r="I72" s="90"/>
-      <c r="J72" s="90"/>
+      <c r="H72" s="88"/>
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
       <c r="K72" s="32"/>
       <c r="L72" s="32"/>
-      <c r="M72" s="84"/>
-      <c r="N72" s="84"/>
+      <c r="M72" s="89"/>
+      <c r="N72" s="89"/>
       <c r="O72" s="33"/>
       <c r="P72" s="51"/>
     </row>
@@ -5537,17 +5478,17 @@
       <c r="A73" s="30"/>
       <c r="B73" s="56"/>
       <c r="C73" s="57"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="91"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="85" t="str">
+      <c r="D73" s="86"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H73" s="85"/>
-      <c r="I73" s="85"/>
-      <c r="J73" s="85"/>
-      <c r="K73" s="85"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="90"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="90"/>
       <c r="L73" s="30"/>
       <c r="M73" s="30"/>
       <c r="N73" s="30"/>
@@ -5558,14 +5499,14 @@
       <c r="A74" s="30"/>
       <c r="B74" s="56"/>
       <c r="C74" s="57"/>
-      <c r="D74" s="81"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="82"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="85"/>
-      <c r="K74" s="85"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="90"/>
+      <c r="J74" s="90"/>
+      <c r="K74" s="90"/>
       <c r="L74" s="43" t="s">
         <v>49</v>
       </c>
@@ -5578,16 +5519,16 @@
       <c r="A75" s="30"/>
       <c r="B75" s="56"/>
       <c r="C75" s="57"/>
-      <c r="D75" s="81"/>
-      <c r="E75" s="91"/>
-      <c r="F75" s="82"/>
-      <c r="G75" s="86" t="str">
+      <c r="D75" s="86"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H75" s="86"/>
-      <c r="I75" s="86"/>
-      <c r="J75" s="86"/>
+      <c r="H75" s="82"/>
+      <c r="I75" s="82"/>
+      <c r="J75" s="82"/>
       <c r="K75" s="30"/>
       <c r="L75" s="30"/>
       <c r="M75" s="30"/>
@@ -5599,16 +5540,16 @@
       <c r="A76" s="30"/>
       <c r="B76" s="42"/>
       <c r="C76" s="30"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="91"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="87" t="str">
+      <c r="D76" s="86"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="87"/>
+      <c r="G76" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H76" s="87"/>
-      <c r="I76" s="87"/>
-      <c r="J76" s="87"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="83"/>
       <c r="K76" s="58"/>
       <c r="L76" s="58"/>
       <c r="M76" s="58"/>
@@ -5620,18 +5561,18 @@
       <c r="A77" s="30"/>
       <c r="B77" s="55"/>
       <c r="C77" s="30"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="82" t="s">
+      <c r="D77" s="86"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G77" s="90" t="str">
+      <c r="G77" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H77" s="90"/>
-      <c r="I77" s="90"/>
-      <c r="J77" s="90"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
       <c r="K77" s="32"/>
       <c r="L77" s="60"/>
       <c r="M77" s="32"/>
@@ -5646,15 +5587,15 @@
       <c r="D78" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="91"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="85" t="str">
+      <c r="E78" s="81"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H78" s="85"/>
-      <c r="I78" s="85"/>
-      <c r="J78" s="85"/>
+      <c r="H78" s="90"/>
+      <c r="I78" s="90"/>
+      <c r="J78" s="90"/>
       <c r="K78" s="30"/>
       <c r="L78" s="30"/>
       <c r="M78" s="30"/>
@@ -5668,14 +5609,14 @@
       <c r="C79" s="30"/>
       <c r="D79" s="61">
         <f>'Senet Taksit Giriş'!D6</f>
-        <v>45626</v>
-      </c>
-      <c r="E79" s="91"/>
-      <c r="F79" s="82"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="85"/>
-      <c r="J79" s="85"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="81"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="90"/>
       <c r="K79" s="30"/>
       <c r="L79" s="43" t="s">
         <v>49</v>
@@ -5692,15 +5633,15 @@
       <c r="D80" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E80" s="91"/>
-      <c r="F80" s="82"/>
-      <c r="G80" s="86" t="str">
+      <c r="E80" s="81"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H80" s="86"/>
-      <c r="I80" s="86"/>
-      <c r="J80" s="86"/>
+      <c r="H80" s="82"/>
+      <c r="I80" s="82"/>
+      <c r="J80" s="82"/>
       <c r="K80" s="30"/>
       <c r="L80" s="30"/>
       <c r="M80" s="30"/>
@@ -5714,17 +5655,17 @@
       <c r="C81" s="30"/>
       <c r="D81" s="61">
         <f>'Senet Taksit Giriş'!C6</f>
-        <v>45503</v>
-      </c>
-      <c r="E81" s="91"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="E81" s="81"/>
+      <c r="F81" s="87"/>
+      <c r="G81" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H81" s="87"/>
-      <c r="I81" s="87"/>
-      <c r="J81" s="87"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="83"/>
+      <c r="J81" s="83"/>
       <c r="K81" s="58"/>
       <c r="L81" s="58"/>
       <c r="M81" s="58"/>
@@ -5775,7 +5716,7 @@
       <c r="D85" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E85" s="91" t="str">
+      <c r="E85" s="81" t="str">
         <f>$D92 &amp;"    - Taksit No: " &amp; $D87&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 5 #  </v>
       </c>
@@ -5808,16 +5749,16 @@
       <c r="D86" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E86" s="91"/>
+      <c r="E86" s="81"/>
       <c r="F86" s="30"/>
       <c r="G86" s="45">
         <f>D100</f>
-        <v>45656</v>
+        <v>0</v>
       </c>
       <c r="H86" s="46"/>
       <c r="I86" s="47" t="str">
         <f>D89</f>
-        <v># 17.000 TL #</v>
+        <v># 0 TL #</v>
       </c>
       <c r="J86" s="48" t="str">
         <f>D90</f>
@@ -5832,7 +5773,7 @@
       <c r="N86" s="39"/>
       <c r="O86" s="50">
         <f>D102</f>
-        <v>45503</v>
+        <v>0</v>
       </c>
       <c r="P86" s="51"/>
     </row>
@@ -5844,7 +5785,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B7),"##.##0")&amp;" #"</f>
         <v># 5 #</v>
       </c>
-      <c r="E87" s="91"/>
+      <c r="E87" s="81"/>
       <c r="F87" s="30"/>
       <c r="G87" s="30"/>
       <c r="H87" s="30"/>
@@ -5864,20 +5805,20 @@
       <c r="D88" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E88" s="91"/>
-      <c r="F88" s="88" t="str">
+      <c r="E88" s="81"/>
+      <c r="F88" s="84" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G86,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F7&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G7&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
-        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
-      </c>
-      <c r="G88" s="88"/>
-      <c r="H88" s="88"/>
-      <c r="I88" s="88"/>
-      <c r="J88" s="88"/>
-      <c r="K88" s="88"/>
-      <c r="L88" s="88"/>
-      <c r="M88" s="88"/>
-      <c r="N88" s="88"/>
-      <c r="O88" s="88"/>
+        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 1900 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız #  TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
+      </c>
+      <c r="G88" s="84"/>
+      <c r="H88" s="84"/>
+      <c r="I88" s="84"/>
+      <c r="J88" s="84"/>
+      <c r="K88" s="84"/>
+      <c r="L88" s="84"/>
+      <c r="M88" s="84"/>
+      <c r="N88" s="84"/>
+      <c r="O88" s="84"/>
       <c r="P88" s="51"/>
     </row>
     <row r="89" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5886,19 +5827,19 @@
       <c r="C89" s="43"/>
       <c r="D89" s="54" t="str">
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E7),"##.##0")&amp;" TL #"</f>
-        <v># 17.000 TL #</v>
-      </c>
-      <c r="E89" s="91"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="88"/>
-      <c r="H89" s="88"/>
-      <c r="I89" s="88"/>
-      <c r="J89" s="88"/>
-      <c r="K89" s="88"/>
-      <c r="L89" s="88"/>
-      <c r="M89" s="88"/>
-      <c r="N89" s="88"/>
-      <c r="O89" s="88"/>
+        <v># 0 TL #</v>
+      </c>
+      <c r="E89" s="81"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
+      <c r="K89" s="84"/>
+      <c r="L89" s="84"/>
+      <c r="M89" s="84"/>
+      <c r="N89" s="84"/>
+      <c r="O89" s="84"/>
       <c r="P89" s="51"/>
     </row>
     <row r="90" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5909,17 +5850,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E90-INT('Senet Taksit Giriş'!E90))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E90" s="91"/>
-      <c r="F90" s="88"/>
-      <c r="G90" s="88"/>
-      <c r="H90" s="88"/>
-      <c r="I90" s="88"/>
-      <c r="J90" s="88"/>
-      <c r="K90" s="88"/>
-      <c r="L90" s="88"/>
-      <c r="M90" s="88"/>
-      <c r="N90" s="88"/>
-      <c r="O90" s="88"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="84"/>
+      <c r="G90" s="84"/>
+      <c r="H90" s="84"/>
+      <c r="I90" s="84"/>
+      <c r="J90" s="84"/>
+      <c r="K90" s="84"/>
+      <c r="L90" s="84"/>
+      <c r="M90" s="84"/>
+      <c r="N90" s="84"/>
+      <c r="O90" s="84"/>
       <c r="P90" s="51"/>
     </row>
     <row r="91" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -5929,28 +5870,28 @@
       <c r="D91" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="91"/>
-      <c r="F91" s="88"/>
-      <c r="G91" s="88"/>
-      <c r="H91" s="88"/>
-      <c r="I91" s="88"/>
-      <c r="J91" s="88"/>
-      <c r="K91" s="88"/>
-      <c r="L91" s="88"/>
-      <c r="M91" s="88"/>
-      <c r="N91" s="88"/>
-      <c r="O91" s="88"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="84"/>
+      <c r="G91" s="84"/>
+      <c r="H91" s="84"/>
+      <c r="I91" s="84"/>
+      <c r="J91" s="84"/>
+      <c r="K91" s="84"/>
+      <c r="L91" s="84"/>
+      <c r="M91" s="84"/>
+      <c r="N91" s="84"/>
+      <c r="O91" s="84"/>
       <c r="P91" s="51"/>
     </row>
     <row r="92" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="30"/>
       <c r="B92" s="55"/>
       <c r="C92" s="30"/>
-      <c r="D92" s="81" t="str">
+      <c r="D92" s="86" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E92" s="91"/>
+      <c r="E92" s="81"/>
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
@@ -5967,22 +5908,22 @@
       <c r="A93" s="30"/>
       <c r="B93" s="42"/>
       <c r="C93" s="30"/>
-      <c r="D93" s="81"/>
-      <c r="E93" s="91"/>
-      <c r="F93" s="82" t="s">
+      <c r="D93" s="86"/>
+      <c r="E93" s="81"/>
+      <c r="F93" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G93" s="90" t="str">
+      <c r="G93" s="88" t="str">
         <f>"İsim : "&amp;$D92</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H93" s="90"/>
-      <c r="I93" s="90"/>
-      <c r="J93" s="90"/>
+      <c r="H93" s="88"/>
+      <c r="I93" s="88"/>
+      <c r="J93" s="88"/>
       <c r="K93" s="32"/>
       <c r="L93" s="32"/>
-      <c r="M93" s="84"/>
-      <c r="N93" s="84"/>
+      <c r="M93" s="89"/>
+      <c r="N93" s="89"/>
       <c r="O93" s="33"/>
       <c r="P93" s="51"/>
     </row>
@@ -5990,17 +5931,17 @@
       <c r="A94" s="30"/>
       <c r="B94" s="56"/>
       <c r="C94" s="57"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="91"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="85" t="str">
+      <c r="D94" s="86"/>
+      <c r="E94" s="81"/>
+      <c r="F94" s="87"/>
+      <c r="G94" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H94" s="85"/>
-      <c r="I94" s="85"/>
-      <c r="J94" s="85"/>
-      <c r="K94" s="85"/>
+      <c r="H94" s="90"/>
+      <c r="I94" s="90"/>
+      <c r="J94" s="90"/>
+      <c r="K94" s="90"/>
       <c r="L94" s="30"/>
       <c r="M94" s="30"/>
       <c r="N94" s="30"/>
@@ -6011,14 +5952,14 @@
       <c r="A95" s="30"/>
       <c r="B95" s="56"/>
       <c r="C95" s="57"/>
-      <c r="D95" s="81"/>
-      <c r="E95" s="91"/>
-      <c r="F95" s="82"/>
-      <c r="G95" s="85"/>
-      <c r="H95" s="85"/>
-      <c r="I95" s="85"/>
-      <c r="J95" s="85"/>
-      <c r="K95" s="85"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="87"/>
+      <c r="G95" s="90"/>
+      <c r="H95" s="90"/>
+      <c r="I95" s="90"/>
+      <c r="J95" s="90"/>
+      <c r="K95" s="90"/>
       <c r="L95" s="43" t="s">
         <v>49</v>
       </c>
@@ -6031,16 +5972,16 @@
       <c r="A96" s="30"/>
       <c r="B96" s="56"/>
       <c r="C96" s="57"/>
-      <c r="D96" s="81"/>
-      <c r="E96" s="91"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="86" t="str">
+      <c r="D96" s="86"/>
+      <c r="E96" s="81"/>
+      <c r="F96" s="87"/>
+      <c r="G96" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H96" s="86"/>
-      <c r="I96" s="86"/>
-      <c r="J96" s="86"/>
+      <c r="H96" s="82"/>
+      <c r="I96" s="82"/>
+      <c r="J96" s="82"/>
       <c r="K96" s="30"/>
       <c r="L96" s="30"/>
       <c r="M96" s="30"/>
@@ -6052,16 +5993,16 @@
       <c r="A97" s="30"/>
       <c r="B97" s="42"/>
       <c r="C97" s="30"/>
-      <c r="D97" s="81"/>
-      <c r="E97" s="91"/>
-      <c r="F97" s="82"/>
-      <c r="G97" s="87" t="str">
+      <c r="D97" s="86"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="87"/>
+      <c r="G97" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H97" s="87"/>
-      <c r="I97" s="87"/>
-      <c r="J97" s="87"/>
+      <c r="H97" s="83"/>
+      <c r="I97" s="83"/>
+      <c r="J97" s="83"/>
       <c r="K97" s="58"/>
       <c r="L97" s="58"/>
       <c r="M97" s="58"/>
@@ -6073,18 +6014,18 @@
       <c r="A98" s="30"/>
       <c r="B98" s="55"/>
       <c r="C98" s="30"/>
-      <c r="D98" s="81"/>
-      <c r="E98" s="91"/>
-      <c r="F98" s="82" t="s">
+      <c r="D98" s="86"/>
+      <c r="E98" s="81"/>
+      <c r="F98" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G98" s="90" t="str">
+      <c r="G98" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H98" s="90"/>
-      <c r="I98" s="90"/>
-      <c r="J98" s="90"/>
+      <c r="H98" s="88"/>
+      <c r="I98" s="88"/>
+      <c r="J98" s="88"/>
       <c r="K98" s="32"/>
       <c r="L98" s="60"/>
       <c r="M98" s="32"/>
@@ -6099,15 +6040,15 @@
       <c r="D99" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E99" s="91"/>
-      <c r="F99" s="82"/>
-      <c r="G99" s="85" t="str">
+      <c r="E99" s="81"/>
+      <c r="F99" s="87"/>
+      <c r="G99" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H99" s="85"/>
-      <c r="I99" s="85"/>
-      <c r="J99" s="85"/>
+      <c r="H99" s="90"/>
+      <c r="I99" s="90"/>
+      <c r="J99" s="90"/>
       <c r="K99" s="30"/>
       <c r="L99" s="30"/>
       <c r="M99" s="30"/>
@@ -6121,14 +6062,14 @@
       <c r="C100" s="30"/>
       <c r="D100" s="61">
         <f>'Senet Taksit Giriş'!D7</f>
-        <v>45656</v>
-      </c>
-      <c r="E100" s="91"/>
-      <c r="F100" s="82"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
-      <c r="I100" s="85"/>
-      <c r="J100" s="85"/>
+        <v>0</v>
+      </c>
+      <c r="E100" s="81"/>
+      <c r="F100" s="87"/>
+      <c r="G100" s="90"/>
+      <c r="H100" s="90"/>
+      <c r="I100" s="90"/>
+      <c r="J100" s="90"/>
       <c r="K100" s="30"/>
       <c r="L100" s="43" t="s">
         <v>49</v>
@@ -6145,15 +6086,15 @@
       <c r="D101" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E101" s="91"/>
-      <c r="F101" s="82"/>
-      <c r="G101" s="86" t="str">
+      <c r="E101" s="81"/>
+      <c r="F101" s="87"/>
+      <c r="G101" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H101" s="86"/>
-      <c r="I101" s="86"/>
-      <c r="J101" s="86"/>
+      <c r="H101" s="82"/>
+      <c r="I101" s="82"/>
+      <c r="J101" s="82"/>
       <c r="K101" s="30"/>
       <c r="L101" s="30"/>
       <c r="M101" s="30"/>
@@ -6167,17 +6108,17 @@
       <c r="C102" s="30"/>
       <c r="D102" s="61">
         <f>'Senet Taksit Giriş'!C7</f>
-        <v>45503</v>
-      </c>
-      <c r="E102" s="91"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="E102" s="81"/>
+      <c r="F102" s="87"/>
+      <c r="G102" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H102" s="87"/>
-      <c r="I102" s="87"/>
-      <c r="J102" s="87"/>
+      <c r="H102" s="83"/>
+      <c r="I102" s="83"/>
+      <c r="J102" s="83"/>
       <c r="K102" s="58"/>
       <c r="L102" s="58"/>
       <c r="M102" s="58"/>
@@ -6228,7 +6169,7 @@
       <c r="D106" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E106" s="91" t="str">
+      <c r="E106" s="81" t="str">
         <f>$D113 &amp;"    - Taksit No: " &amp; $D108&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 6 #  </v>
       </c>
@@ -6261,16 +6202,16 @@
       <c r="D107" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E107" s="91"/>
+      <c r="E107" s="81"/>
       <c r="F107" s="30"/>
       <c r="G107" s="45">
         <f>D121</f>
-        <v>45687</v>
+        <v>0</v>
       </c>
       <c r="H107" s="46"/>
       <c r="I107" s="47" t="str">
         <f>D110</f>
-        <v># 17.000 TL #</v>
+        <v># 0 TL #</v>
       </c>
       <c r="J107" s="48" t="str">
         <f>D111</f>
@@ -6285,7 +6226,7 @@
       <c r="N107" s="39"/>
       <c r="O107" s="50">
         <f>D123</f>
-        <v>45503</v>
+        <v>0</v>
       </c>
       <c r="P107" s="51"/>
     </row>
@@ -6297,7 +6238,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B8),"##.##0")&amp;" #"</f>
         <v># 6 #</v>
       </c>
-      <c r="E108" s="91"/>
+      <c r="E108" s="81"/>
       <c r="F108" s="30"/>
       <c r="G108" s="30"/>
       <c r="H108" s="30"/>
@@ -6317,20 +6258,20 @@
       <c r="D109" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E109" s="91"/>
-      <c r="F109" s="88" t="str">
+      <c r="E109" s="81"/>
+      <c r="F109" s="84" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G107,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F8&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G8&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
-        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
-      </c>
-      <c r="G109" s="88"/>
-      <c r="H109" s="88"/>
-      <c r="I109" s="88"/>
-      <c r="J109" s="88"/>
-      <c r="K109" s="88"/>
-      <c r="L109" s="88"/>
-      <c r="M109" s="88"/>
-      <c r="N109" s="88"/>
-      <c r="O109" s="88"/>
+        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 1900 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız #  TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
+      </c>
+      <c r="G109" s="84"/>
+      <c r="H109" s="84"/>
+      <c r="I109" s="84"/>
+      <c r="J109" s="84"/>
+      <c r="K109" s="84"/>
+      <c r="L109" s="84"/>
+      <c r="M109" s="84"/>
+      <c r="N109" s="84"/>
+      <c r="O109" s="84"/>
       <c r="P109" s="51"/>
     </row>
     <row r="110" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6339,19 +6280,19 @@
       <c r="C110" s="43"/>
       <c r="D110" s="54" t="str">
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E8),"##.##0")&amp;" TL #"</f>
-        <v># 17.000 TL #</v>
-      </c>
-      <c r="E110" s="91"/>
-      <c r="F110" s="88"/>
-      <c r="G110" s="88"/>
-      <c r="H110" s="88"/>
-      <c r="I110" s="88"/>
-      <c r="J110" s="88"/>
-      <c r="K110" s="88"/>
-      <c r="L110" s="88"/>
-      <c r="M110" s="88"/>
-      <c r="N110" s="88"/>
-      <c r="O110" s="88"/>
+        <v># 0 TL #</v>
+      </c>
+      <c r="E110" s="81"/>
+      <c r="F110" s="84"/>
+      <c r="G110" s="84"/>
+      <c r="H110" s="84"/>
+      <c r="I110" s="84"/>
+      <c r="J110" s="84"/>
+      <c r="K110" s="84"/>
+      <c r="L110" s="84"/>
+      <c r="M110" s="84"/>
+      <c r="N110" s="84"/>
+      <c r="O110" s="84"/>
       <c r="P110" s="51"/>
     </row>
     <row r="111" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6362,17 +6303,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E111-INT('Senet Taksit Giriş'!E111))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E111" s="91"/>
-      <c r="F111" s="88"/>
-      <c r="G111" s="88"/>
-      <c r="H111" s="88"/>
-      <c r="I111" s="88"/>
-      <c r="J111" s="88"/>
-      <c r="K111" s="88"/>
-      <c r="L111" s="88"/>
-      <c r="M111" s="88"/>
-      <c r="N111" s="88"/>
-      <c r="O111" s="88"/>
+      <c r="E111" s="81"/>
+      <c r="F111" s="84"/>
+      <c r="G111" s="84"/>
+      <c r="H111" s="84"/>
+      <c r="I111" s="84"/>
+      <c r="J111" s="84"/>
+      <c r="K111" s="84"/>
+      <c r="L111" s="84"/>
+      <c r="M111" s="84"/>
+      <c r="N111" s="84"/>
+      <c r="O111" s="84"/>
       <c r="P111" s="51"/>
     </row>
     <row r="112" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6382,28 +6323,28 @@
       <c r="D112" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E112" s="91"/>
-      <c r="F112" s="88"/>
-      <c r="G112" s="88"/>
-      <c r="H112" s="88"/>
-      <c r="I112" s="88"/>
-      <c r="J112" s="88"/>
-      <c r="K112" s="88"/>
-      <c r="L112" s="88"/>
-      <c r="M112" s="88"/>
-      <c r="N112" s="88"/>
-      <c r="O112" s="88"/>
+      <c r="E112" s="81"/>
+      <c r="F112" s="84"/>
+      <c r="G112" s="84"/>
+      <c r="H112" s="84"/>
+      <c r="I112" s="84"/>
+      <c r="J112" s="84"/>
+      <c r="K112" s="84"/>
+      <c r="L112" s="84"/>
+      <c r="M112" s="84"/>
+      <c r="N112" s="84"/>
+      <c r="O112" s="84"/>
       <c r="P112" s="51"/>
     </row>
     <row r="113" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="30"/>
       <c r="B113" s="55"/>
       <c r="C113" s="30"/>
-      <c r="D113" s="81" t="str">
+      <c r="D113" s="86" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E113" s="91"/>
+      <c r="E113" s="81"/>
       <c r="F113"/>
       <c r="G113"/>
       <c r="H113"/>
@@ -6420,22 +6361,22 @@
       <c r="A114" s="30"/>
       <c r="B114" s="42"/>
       <c r="C114" s="30"/>
-      <c r="D114" s="81"/>
-      <c r="E114" s="91"/>
-      <c r="F114" s="82" t="s">
+      <c r="D114" s="86"/>
+      <c r="E114" s="81"/>
+      <c r="F114" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G114" s="90" t="str">
+      <c r="G114" s="88" t="str">
         <f>"İsim : "&amp;$D113</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H114" s="90"/>
-      <c r="I114" s="90"/>
-      <c r="J114" s="90"/>
+      <c r="H114" s="88"/>
+      <c r="I114" s="88"/>
+      <c r="J114" s="88"/>
       <c r="K114" s="32"/>
       <c r="L114" s="32"/>
-      <c r="M114" s="84"/>
-      <c r="N114" s="84"/>
+      <c r="M114" s="89"/>
+      <c r="N114" s="89"/>
       <c r="O114" s="33"/>
       <c r="P114" s="51"/>
     </row>
@@ -6443,17 +6384,17 @@
       <c r="A115" s="30"/>
       <c r="B115" s="56"/>
       <c r="C115" s="57"/>
-      <c r="D115" s="81"/>
-      <c r="E115" s="91"/>
-      <c r="F115" s="82"/>
-      <c r="G115" s="85" t="str">
+      <c r="D115" s="86"/>
+      <c r="E115" s="81"/>
+      <c r="F115" s="87"/>
+      <c r="G115" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H115" s="85"/>
-      <c r="I115" s="85"/>
-      <c r="J115" s="85"/>
-      <c r="K115" s="85"/>
+      <c r="H115" s="90"/>
+      <c r="I115" s="90"/>
+      <c r="J115" s="90"/>
+      <c r="K115" s="90"/>
       <c r="L115" s="30"/>
       <c r="M115" s="30"/>
       <c r="N115" s="30"/>
@@ -6464,14 +6405,14 @@
       <c r="A116" s="30"/>
       <c r="B116" s="56"/>
       <c r="C116" s="57"/>
-      <c r="D116" s="81"/>
-      <c r="E116" s="91"/>
-      <c r="F116" s="82"/>
-      <c r="G116" s="85"/>
-      <c r="H116" s="85"/>
-      <c r="I116" s="85"/>
-      <c r="J116" s="85"/>
-      <c r="K116" s="85"/>
+      <c r="D116" s="86"/>
+      <c r="E116" s="81"/>
+      <c r="F116" s="87"/>
+      <c r="G116" s="90"/>
+      <c r="H116" s="90"/>
+      <c r="I116" s="90"/>
+      <c r="J116" s="90"/>
+      <c r="K116" s="90"/>
       <c r="L116" s="43" t="s">
         <v>49</v>
       </c>
@@ -6484,16 +6425,16 @@
       <c r="A117" s="30"/>
       <c r="B117" s="56"/>
       <c r="C117" s="57"/>
-      <c r="D117" s="81"/>
-      <c r="E117" s="91"/>
-      <c r="F117" s="82"/>
-      <c r="G117" s="86" t="str">
+      <c r="D117" s="86"/>
+      <c r="E117" s="81"/>
+      <c r="F117" s="87"/>
+      <c r="G117" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H117" s="86"/>
-      <c r="I117" s="86"/>
-      <c r="J117" s="86"/>
+      <c r="H117" s="82"/>
+      <c r="I117" s="82"/>
+      <c r="J117" s="82"/>
       <c r="K117" s="30"/>
       <c r="L117" s="30"/>
       <c r="M117" s="30"/>
@@ -6505,16 +6446,16 @@
       <c r="A118" s="30"/>
       <c r="B118" s="42"/>
       <c r="C118" s="30"/>
-      <c r="D118" s="81"/>
-      <c r="E118" s="91"/>
-      <c r="F118" s="82"/>
-      <c r="G118" s="87" t="str">
+      <c r="D118" s="86"/>
+      <c r="E118" s="81"/>
+      <c r="F118" s="87"/>
+      <c r="G118" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H118" s="87"/>
-      <c r="I118" s="87"/>
-      <c r="J118" s="87"/>
+      <c r="H118" s="83"/>
+      <c r="I118" s="83"/>
+      <c r="J118" s="83"/>
       <c r="K118" s="58"/>
       <c r="L118" s="58"/>
       <c r="M118" s="58"/>
@@ -6526,18 +6467,18 @@
       <c r="A119" s="30"/>
       <c r="B119" s="55"/>
       <c r="C119" s="30"/>
-      <c r="D119" s="81"/>
-      <c r="E119" s="91"/>
-      <c r="F119" s="82" t="s">
+      <c r="D119" s="86"/>
+      <c r="E119" s="81"/>
+      <c r="F119" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G119" s="90" t="str">
+      <c r="G119" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H119" s="90"/>
-      <c r="I119" s="90"/>
-      <c r="J119" s="90"/>
+      <c r="H119" s="88"/>
+      <c r="I119" s="88"/>
+      <c r="J119" s="88"/>
       <c r="K119" s="32"/>
       <c r="L119" s="60"/>
       <c r="M119" s="32"/>
@@ -6552,15 +6493,15 @@
       <c r="D120" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E120" s="91"/>
-      <c r="F120" s="82"/>
-      <c r="G120" s="85" t="str">
+      <c r="E120" s="81"/>
+      <c r="F120" s="87"/>
+      <c r="G120" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H120" s="85"/>
-      <c r="I120" s="85"/>
-      <c r="J120" s="85"/>
+      <c r="H120" s="90"/>
+      <c r="I120" s="90"/>
+      <c r="J120" s="90"/>
       <c r="K120" s="30"/>
       <c r="L120" s="30"/>
       <c r="M120" s="30"/>
@@ -6574,14 +6515,14 @@
       <c r="C121" s="30"/>
       <c r="D121" s="61">
         <f>'Senet Taksit Giriş'!D8</f>
-        <v>45687</v>
-      </c>
-      <c r="E121" s="91"/>
-      <c r="F121" s="82"/>
-      <c r="G121" s="85"/>
-      <c r="H121" s="85"/>
-      <c r="I121" s="85"/>
-      <c r="J121" s="85"/>
+        <v>0</v>
+      </c>
+      <c r="E121" s="81"/>
+      <c r="F121" s="87"/>
+      <c r="G121" s="90"/>
+      <c r="H121" s="90"/>
+      <c r="I121" s="90"/>
+      <c r="J121" s="90"/>
       <c r="K121" s="30"/>
       <c r="L121" s="43" t="s">
         <v>49</v>
@@ -6598,15 +6539,15 @@
       <c r="D122" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E122" s="91"/>
-      <c r="F122" s="82"/>
-      <c r="G122" s="86" t="str">
+      <c r="E122" s="81"/>
+      <c r="F122" s="87"/>
+      <c r="G122" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H122" s="86"/>
-      <c r="I122" s="86"/>
-      <c r="J122" s="86"/>
+      <c r="H122" s="82"/>
+      <c r="I122" s="82"/>
+      <c r="J122" s="82"/>
       <c r="K122" s="30"/>
       <c r="L122" s="30"/>
       <c r="M122" s="30"/>
@@ -6620,17 +6561,17 @@
       <c r="C123" s="30"/>
       <c r="D123" s="61">
         <f>'Senet Taksit Giriş'!C8</f>
-        <v>45503</v>
-      </c>
-      <c r="E123" s="91"/>
-      <c r="F123" s="82"/>
-      <c r="G123" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="E123" s="81"/>
+      <c r="F123" s="87"/>
+      <c r="G123" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H123" s="87"/>
-      <c r="I123" s="87"/>
-      <c r="J123" s="87"/>
+      <c r="H123" s="83"/>
+      <c r="I123" s="83"/>
+      <c r="J123" s="83"/>
       <c r="K123" s="58"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -6681,7 +6622,7 @@
       <c r="D126" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E126" s="91" t="str">
+      <c r="E126" s="81" t="str">
         <f>$D133 &amp;"    - Taksit No: " &amp; $D128&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 7 #  </v>
       </c>
@@ -6714,16 +6655,16 @@
       <c r="D127" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E127" s="91"/>
+      <c r="E127" s="81"/>
       <c r="F127" s="30"/>
       <c r="G127" s="45">
         <f>D141</f>
-        <v>45716</v>
+        <v>0</v>
       </c>
       <c r="H127" s="46"/>
       <c r="I127" s="47" t="str">
         <f>D130</f>
-        <v># 17.000 TL #</v>
+        <v># 0 TL #</v>
       </c>
       <c r="J127" s="48" t="str">
         <f>D131</f>
@@ -6738,7 +6679,7 @@
       <c r="N127" s="39"/>
       <c r="O127" s="50">
         <f>D143</f>
-        <v>45503</v>
+        <v>0</v>
       </c>
       <c r="P127" s="51"/>
     </row>
@@ -6750,7 +6691,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B9),"##.##0")&amp;" #"</f>
         <v># 7 #</v>
       </c>
-      <c r="E128" s="91"/>
+      <c r="E128" s="81"/>
       <c r="F128" s="30"/>
       <c r="G128" s="30"/>
       <c r="H128" s="30"/>
@@ -6770,20 +6711,20 @@
       <c r="D129" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E129" s="91"/>
-      <c r="F129" s="88" t="str">
+      <c r="E129" s="81"/>
+      <c r="F129" s="84" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G127,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F9&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G9&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
-        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
-      </c>
-      <c r="G129" s="88"/>
-      <c r="H129" s="88"/>
-      <c r="I129" s="88"/>
-      <c r="J129" s="88"/>
-      <c r="K129" s="88"/>
-      <c r="L129" s="88"/>
-      <c r="M129" s="88"/>
-      <c r="N129" s="88"/>
-      <c r="O129" s="88"/>
+        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 1900 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız #  TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
+      </c>
+      <c r="G129" s="84"/>
+      <c r="H129" s="84"/>
+      <c r="I129" s="84"/>
+      <c r="J129" s="84"/>
+      <c r="K129" s="84"/>
+      <c r="L129" s="84"/>
+      <c r="M129" s="84"/>
+      <c r="N129" s="84"/>
+      <c r="O129" s="84"/>
       <c r="P129" s="51"/>
     </row>
     <row r="130" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6792,19 +6733,19 @@
       <c r="C130" s="43"/>
       <c r="D130" s="54" t="str">
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E9),"##.##0")&amp;" TL #"</f>
-        <v># 17.000 TL #</v>
-      </c>
-      <c r="E130" s="91"/>
-      <c r="F130" s="88"/>
-      <c r="G130" s="88"/>
-      <c r="H130" s="88"/>
-      <c r="I130" s="88"/>
-      <c r="J130" s="88"/>
-      <c r="K130" s="88"/>
-      <c r="L130" s="88"/>
-      <c r="M130" s="88"/>
-      <c r="N130" s="88"/>
-      <c r="O130" s="88"/>
+        <v># 0 TL #</v>
+      </c>
+      <c r="E130" s="81"/>
+      <c r="F130" s="84"/>
+      <c r="G130" s="84"/>
+      <c r="H130" s="84"/>
+      <c r="I130" s="84"/>
+      <c r="J130" s="84"/>
+      <c r="K130" s="84"/>
+      <c r="L130" s="84"/>
+      <c r="M130" s="84"/>
+      <c r="N130" s="84"/>
+      <c r="O130" s="84"/>
       <c r="P130" s="51"/>
     </row>
     <row r="131" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6815,17 +6756,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E132-INT('Senet Taksit Giriş'!E132))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E131" s="91"/>
-      <c r="F131" s="88"/>
-      <c r="G131" s="88"/>
-      <c r="H131" s="88"/>
-      <c r="I131" s="88"/>
-      <c r="J131" s="88"/>
-      <c r="K131" s="88"/>
-      <c r="L131" s="88"/>
-      <c r="M131" s="88"/>
-      <c r="N131" s="88"/>
-      <c r="O131" s="88"/>
+      <c r="E131" s="81"/>
+      <c r="F131" s="84"/>
+      <c r="G131" s="84"/>
+      <c r="H131" s="84"/>
+      <c r="I131" s="84"/>
+      <c r="J131" s="84"/>
+      <c r="K131" s="84"/>
+      <c r="L131" s="84"/>
+      <c r="M131" s="84"/>
+      <c r="N131" s="84"/>
+      <c r="O131" s="84"/>
       <c r="P131" s="51"/>
     </row>
     <row r="132" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -6835,28 +6776,28 @@
       <c r="D132" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E132" s="91"/>
-      <c r="F132" s="88"/>
-      <c r="G132" s="88"/>
-      <c r="H132" s="88"/>
-      <c r="I132" s="88"/>
-      <c r="J132" s="88"/>
-      <c r="K132" s="88"/>
-      <c r="L132" s="88"/>
-      <c r="M132" s="88"/>
-      <c r="N132" s="88"/>
-      <c r="O132" s="88"/>
+      <c r="E132" s="81"/>
+      <c r="F132" s="84"/>
+      <c r="G132" s="84"/>
+      <c r="H132" s="84"/>
+      <c r="I132" s="84"/>
+      <c r="J132" s="84"/>
+      <c r="K132" s="84"/>
+      <c r="L132" s="84"/>
+      <c r="M132" s="84"/>
+      <c r="N132" s="84"/>
+      <c r="O132" s="84"/>
       <c r="P132" s="51"/>
     </row>
     <row r="133" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="30"/>
       <c r="B133" s="55"/>
       <c r="C133" s="30"/>
-      <c r="D133" s="81" t="str">
+      <c r="D133" s="86" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E133" s="91"/>
+      <c r="E133" s="81"/>
       <c r="F133"/>
       <c r="G133"/>
       <c r="H133"/>
@@ -6873,22 +6814,22 @@
       <c r="A134" s="30"/>
       <c r="B134" s="42"/>
       <c r="C134" s="30"/>
-      <c r="D134" s="81"/>
-      <c r="E134" s="91"/>
-      <c r="F134" s="82" t="s">
+      <c r="D134" s="86"/>
+      <c r="E134" s="81"/>
+      <c r="F134" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G134" s="90" t="str">
+      <c r="G134" s="88" t="str">
         <f>"İsim : "&amp;$D133</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H134" s="90"/>
-      <c r="I134" s="90"/>
-      <c r="J134" s="90"/>
+      <c r="H134" s="88"/>
+      <c r="I134" s="88"/>
+      <c r="J134" s="88"/>
       <c r="K134" s="32"/>
       <c r="L134" s="32"/>
-      <c r="M134" s="84"/>
-      <c r="N134" s="84"/>
+      <c r="M134" s="89"/>
+      <c r="N134" s="89"/>
       <c r="O134" s="33"/>
       <c r="P134" s="51"/>
     </row>
@@ -6896,17 +6837,17 @@
       <c r="A135" s="30"/>
       <c r="B135" s="56"/>
       <c r="C135" s="57"/>
-      <c r="D135" s="81"/>
-      <c r="E135" s="91"/>
-      <c r="F135" s="82"/>
-      <c r="G135" s="85" t="str">
+      <c r="D135" s="86"/>
+      <c r="E135" s="81"/>
+      <c r="F135" s="87"/>
+      <c r="G135" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H135" s="85"/>
-      <c r="I135" s="85"/>
-      <c r="J135" s="85"/>
-      <c r="K135" s="85"/>
+      <c r="H135" s="90"/>
+      <c r="I135" s="90"/>
+      <c r="J135" s="90"/>
+      <c r="K135" s="90"/>
       <c r="L135" s="30"/>
       <c r="M135" s="30"/>
       <c r="N135" s="30"/>
@@ -6917,14 +6858,14 @@
       <c r="A136" s="30"/>
       <c r="B136" s="56"/>
       <c r="C136" s="57"/>
-      <c r="D136" s="81"/>
-      <c r="E136" s="91"/>
-      <c r="F136" s="82"/>
-      <c r="G136" s="85"/>
-      <c r="H136" s="85"/>
-      <c r="I136" s="85"/>
-      <c r="J136" s="85"/>
-      <c r="K136" s="85"/>
+      <c r="D136" s="86"/>
+      <c r="E136" s="81"/>
+      <c r="F136" s="87"/>
+      <c r="G136" s="90"/>
+      <c r="H136" s="90"/>
+      <c r="I136" s="90"/>
+      <c r="J136" s="90"/>
+      <c r="K136" s="90"/>
       <c r="L136" s="43" t="s">
         <v>49</v>
       </c>
@@ -6937,16 +6878,16 @@
       <c r="A137" s="30"/>
       <c r="B137" s="56"/>
       <c r="C137" s="57"/>
-      <c r="D137" s="81"/>
-      <c r="E137" s="91"/>
-      <c r="F137" s="82"/>
-      <c r="G137" s="86" t="str">
+      <c r="D137" s="86"/>
+      <c r="E137" s="81"/>
+      <c r="F137" s="87"/>
+      <c r="G137" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H137" s="86"/>
-      <c r="I137" s="86"/>
-      <c r="J137" s="86"/>
+      <c r="H137" s="82"/>
+      <c r="I137" s="82"/>
+      <c r="J137" s="82"/>
       <c r="K137" s="30"/>
       <c r="L137" s="30"/>
       <c r="M137" s="30"/>
@@ -6958,16 +6899,16 @@
       <c r="A138" s="30"/>
       <c r="B138" s="42"/>
       <c r="C138" s="30"/>
-      <c r="D138" s="81"/>
-      <c r="E138" s="91"/>
-      <c r="F138" s="82"/>
-      <c r="G138" s="87" t="str">
+      <c r="D138" s="86"/>
+      <c r="E138" s="81"/>
+      <c r="F138" s="87"/>
+      <c r="G138" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H138" s="87"/>
-      <c r="I138" s="87"/>
-      <c r="J138" s="87"/>
+      <c r="H138" s="83"/>
+      <c r="I138" s="83"/>
+      <c r="J138" s="83"/>
       <c r="K138" s="58"/>
       <c r="L138" s="58"/>
       <c r="M138" s="58"/>
@@ -6979,18 +6920,18 @@
       <c r="A139" s="30"/>
       <c r="B139" s="55"/>
       <c r="C139" s="30"/>
-      <c r="D139" s="81"/>
-      <c r="E139" s="91"/>
-      <c r="F139" s="82" t="s">
+      <c r="D139" s="86"/>
+      <c r="E139" s="81"/>
+      <c r="F139" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G139" s="90" t="str">
+      <c r="G139" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H139" s="90"/>
-      <c r="I139" s="90"/>
-      <c r="J139" s="90"/>
+      <c r="H139" s="88"/>
+      <c r="I139" s="88"/>
+      <c r="J139" s="88"/>
       <c r="K139" s="32"/>
       <c r="L139" s="60"/>
       <c r="M139" s="32"/>
@@ -7005,15 +6946,15 @@
       <c r="D140" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E140" s="91"/>
-      <c r="F140" s="82"/>
-      <c r="G140" s="85" t="str">
+      <c r="E140" s="81"/>
+      <c r="F140" s="87"/>
+      <c r="G140" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H140" s="85"/>
-      <c r="I140" s="85"/>
-      <c r="J140" s="85"/>
+      <c r="H140" s="90"/>
+      <c r="I140" s="90"/>
+      <c r="J140" s="90"/>
       <c r="K140" s="30"/>
       <c r="L140" s="30"/>
       <c r="M140" s="30"/>
@@ -7027,14 +6968,14 @@
       <c r="C141" s="30"/>
       <c r="D141" s="61">
         <f>'Senet Taksit Giriş'!D9</f>
-        <v>45716</v>
-      </c>
-      <c r="E141" s="91"/>
-      <c r="F141" s="82"/>
-      <c r="G141" s="85"/>
-      <c r="H141" s="85"/>
-      <c r="I141" s="85"/>
-      <c r="J141" s="85"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="81"/>
+      <c r="F141" s="87"/>
+      <c r="G141" s="90"/>
+      <c r="H141" s="90"/>
+      <c r="I141" s="90"/>
+      <c r="J141" s="90"/>
       <c r="K141" s="30"/>
       <c r="L141" s="43" t="s">
         <v>49</v>
@@ -7051,15 +6992,15 @@
       <c r="D142" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E142" s="91"/>
-      <c r="F142" s="82"/>
-      <c r="G142" s="86" t="str">
+      <c r="E142" s="81"/>
+      <c r="F142" s="87"/>
+      <c r="G142" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H142" s="86"/>
-      <c r="I142" s="86"/>
-      <c r="J142" s="86"/>
+      <c r="H142" s="82"/>
+      <c r="I142" s="82"/>
+      <c r="J142" s="82"/>
       <c r="K142" s="30"/>
       <c r="L142" s="30"/>
       <c r="M142" s="30"/>
@@ -7073,17 +7014,17 @@
       <c r="C143" s="30"/>
       <c r="D143" s="61">
         <f>'Senet Taksit Giriş'!C9</f>
-        <v>45503</v>
-      </c>
-      <c r="E143" s="91"/>
-      <c r="F143" s="82"/>
-      <c r="G143" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="E143" s="81"/>
+      <c r="F143" s="87"/>
+      <c r="G143" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H143" s="87"/>
-      <c r="I143" s="87"/>
-      <c r="J143" s="87"/>
+      <c r="H143" s="83"/>
+      <c r="I143" s="83"/>
+      <c r="J143" s="83"/>
       <c r="K143" s="58"/>
       <c r="L143" s="58"/>
       <c r="M143" s="58"/>
@@ -7134,7 +7075,7 @@
       <c r="D147" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E147" s="91" t="str">
+      <c r="E147" s="81" t="str">
         <f>$D154 &amp;"    - Taksit No: " &amp; $D149&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 8 #  </v>
       </c>
@@ -7167,16 +7108,16 @@
       <c r="D148" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E148" s="91"/>
+      <c r="E148" s="81"/>
       <c r="F148" s="30"/>
       <c r="G148" s="45">
         <f>D162</f>
-        <v>45746</v>
+        <v>0</v>
       </c>
       <c r="H148" s="46"/>
       <c r="I148" s="47" t="str">
         <f>D151</f>
-        <v># 17.000 TL #</v>
+        <v># 0 TL #</v>
       </c>
       <c r="J148" s="48" t="str">
         <f>D152</f>
@@ -7191,7 +7132,7 @@
       <c r="N148" s="39"/>
       <c r="O148" s="50">
         <f>D164</f>
-        <v>45503</v>
+        <v>0</v>
       </c>
       <c r="P148" s="51"/>
     </row>
@@ -7203,7 +7144,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B10),"##.##0")&amp;" #"</f>
         <v># 8 #</v>
       </c>
-      <c r="E149" s="91"/>
+      <c r="E149" s="81"/>
       <c r="F149" s="30"/>
       <c r="G149" s="30"/>
       <c r="H149" s="30"/>
@@ -7223,20 +7164,20 @@
       <c r="D150" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E150" s="91"/>
-      <c r="F150" s="88" t="str">
+      <c r="E150" s="81"/>
+      <c r="F150" s="84" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G148,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F10&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G10&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
-        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
-      </c>
-      <c r="G150" s="88"/>
-      <c r="H150" s="88"/>
-      <c r="I150" s="88"/>
-      <c r="J150" s="88"/>
-      <c r="K150" s="88"/>
-      <c r="L150" s="88"/>
-      <c r="M150" s="88"/>
-      <c r="N150" s="88"/>
-      <c r="O150" s="88"/>
+        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 1900 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız #  TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
+      </c>
+      <c r="G150" s="84"/>
+      <c r="H150" s="84"/>
+      <c r="I150" s="84"/>
+      <c r="J150" s="84"/>
+      <c r="K150" s="84"/>
+      <c r="L150" s="84"/>
+      <c r="M150" s="84"/>
+      <c r="N150" s="84"/>
+      <c r="O150" s="84"/>
       <c r="P150" s="51"/>
     </row>
     <row r="151" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7245,19 +7186,19 @@
       <c r="C151" s="43"/>
       <c r="D151" s="54" t="str">
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E10),"##.##0")&amp;" TL #"</f>
-        <v># 17.000 TL #</v>
-      </c>
-      <c r="E151" s="91"/>
-      <c r="F151" s="88"/>
-      <c r="G151" s="88"/>
-      <c r="H151" s="88"/>
-      <c r="I151" s="88"/>
-      <c r="J151" s="88"/>
-      <c r="K151" s="88"/>
-      <c r="L151" s="88"/>
-      <c r="M151" s="88"/>
-      <c r="N151" s="88"/>
-      <c r="O151" s="88"/>
+        <v># 0 TL #</v>
+      </c>
+      <c r="E151" s="81"/>
+      <c r="F151" s="84"/>
+      <c r="G151" s="84"/>
+      <c r="H151" s="84"/>
+      <c r="I151" s="84"/>
+      <c r="J151" s="84"/>
+      <c r="K151" s="84"/>
+      <c r="L151" s="84"/>
+      <c r="M151" s="84"/>
+      <c r="N151" s="84"/>
+      <c r="O151" s="84"/>
       <c r="P151" s="51"/>
     </row>
     <row r="152" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7268,17 +7209,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E153-INT('Senet Taksit Giriş'!E153))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E152" s="91"/>
-      <c r="F152" s="88"/>
-      <c r="G152" s="88"/>
-      <c r="H152" s="88"/>
-      <c r="I152" s="88"/>
-      <c r="J152" s="88"/>
-      <c r="K152" s="88"/>
-      <c r="L152" s="88"/>
-      <c r="M152" s="88"/>
-      <c r="N152" s="88"/>
-      <c r="O152" s="88"/>
+      <c r="E152" s="81"/>
+      <c r="F152" s="84"/>
+      <c r="G152" s="84"/>
+      <c r="H152" s="84"/>
+      <c r="I152" s="84"/>
+      <c r="J152" s="84"/>
+      <c r="K152" s="84"/>
+      <c r="L152" s="84"/>
+      <c r="M152" s="84"/>
+      <c r="N152" s="84"/>
+      <c r="O152" s="84"/>
       <c r="P152" s="51"/>
     </row>
     <row r="153" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7288,28 +7229,28 @@
       <c r="D153" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E153" s="91"/>
-      <c r="F153" s="88"/>
-      <c r="G153" s="88"/>
-      <c r="H153" s="88"/>
-      <c r="I153" s="88"/>
-      <c r="J153" s="88"/>
-      <c r="K153" s="88"/>
-      <c r="L153" s="88"/>
-      <c r="M153" s="88"/>
-      <c r="N153" s="88"/>
-      <c r="O153" s="88"/>
+      <c r="E153" s="81"/>
+      <c r="F153" s="84"/>
+      <c r="G153" s="84"/>
+      <c r="H153" s="84"/>
+      <c r="I153" s="84"/>
+      <c r="J153" s="84"/>
+      <c r="K153" s="84"/>
+      <c r="L153" s="84"/>
+      <c r="M153" s="84"/>
+      <c r="N153" s="84"/>
+      <c r="O153" s="84"/>
       <c r="P153" s="51"/>
     </row>
     <row r="154" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="30"/>
       <c r="B154" s="55"/>
       <c r="C154" s="30"/>
-      <c r="D154" s="81" t="str">
+      <c r="D154" s="86" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E154" s="91"/>
+      <c r="E154" s="81"/>
       <c r="F154"/>
       <c r="G154"/>
       <c r="H154"/>
@@ -7326,22 +7267,22 @@
       <c r="A155" s="30"/>
       <c r="B155" s="42"/>
       <c r="C155" s="30"/>
-      <c r="D155" s="81"/>
-      <c r="E155" s="91"/>
-      <c r="F155" s="82" t="s">
+      <c r="D155" s="86"/>
+      <c r="E155" s="81"/>
+      <c r="F155" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G155" s="90" t="str">
+      <c r="G155" s="88" t="str">
         <f>"İsim : "&amp;$D154</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H155" s="90"/>
-      <c r="I155" s="90"/>
-      <c r="J155" s="90"/>
+      <c r="H155" s="88"/>
+      <c r="I155" s="88"/>
+      <c r="J155" s="88"/>
       <c r="K155" s="32"/>
       <c r="L155" s="32"/>
-      <c r="M155" s="84"/>
-      <c r="N155" s="84"/>
+      <c r="M155" s="89"/>
+      <c r="N155" s="89"/>
       <c r="O155" s="33"/>
       <c r="P155" s="51"/>
     </row>
@@ -7349,17 +7290,17 @@
       <c r="A156" s="30"/>
       <c r="B156" s="56"/>
       <c r="C156" s="57"/>
-      <c r="D156" s="81"/>
-      <c r="E156" s="91"/>
-      <c r="F156" s="82"/>
-      <c r="G156" s="85" t="str">
+      <c r="D156" s="86"/>
+      <c r="E156" s="81"/>
+      <c r="F156" s="87"/>
+      <c r="G156" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H156" s="85"/>
-      <c r="I156" s="85"/>
-      <c r="J156" s="85"/>
-      <c r="K156" s="85"/>
+      <c r="H156" s="90"/>
+      <c r="I156" s="90"/>
+      <c r="J156" s="90"/>
+      <c r="K156" s="90"/>
       <c r="L156" s="30"/>
       <c r="M156" s="30"/>
       <c r="N156" s="30"/>
@@ -7370,14 +7311,14 @@
       <c r="A157" s="30"/>
       <c r="B157" s="56"/>
       <c r="C157" s="57"/>
-      <c r="D157" s="81"/>
-      <c r="E157" s="91"/>
-      <c r="F157" s="82"/>
-      <c r="G157" s="85"/>
-      <c r="H157" s="85"/>
-      <c r="I157" s="85"/>
-      <c r="J157" s="85"/>
-      <c r="K157" s="85"/>
+      <c r="D157" s="86"/>
+      <c r="E157" s="81"/>
+      <c r="F157" s="87"/>
+      <c r="G157" s="90"/>
+      <c r="H157" s="90"/>
+      <c r="I157" s="90"/>
+      <c r="J157" s="90"/>
+      <c r="K157" s="90"/>
       <c r="L157" s="43" t="s">
         <v>49</v>
       </c>
@@ -7390,16 +7331,16 @@
       <c r="A158" s="30"/>
       <c r="B158" s="56"/>
       <c r="C158" s="57"/>
-      <c r="D158" s="81"/>
-      <c r="E158" s="91"/>
-      <c r="F158" s="82"/>
-      <c r="G158" s="86" t="str">
+      <c r="D158" s="86"/>
+      <c r="E158" s="81"/>
+      <c r="F158" s="87"/>
+      <c r="G158" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H158" s="86"/>
-      <c r="I158" s="86"/>
-      <c r="J158" s="86"/>
+      <c r="H158" s="82"/>
+      <c r="I158" s="82"/>
+      <c r="J158" s="82"/>
       <c r="K158" s="30"/>
       <c r="L158" s="30"/>
       <c r="M158" s="30"/>
@@ -7411,16 +7352,16 @@
       <c r="A159" s="30"/>
       <c r="B159" s="42"/>
       <c r="C159" s="30"/>
-      <c r="D159" s="81"/>
-      <c r="E159" s="91"/>
-      <c r="F159" s="82"/>
-      <c r="G159" s="87" t="str">
+      <c r="D159" s="86"/>
+      <c r="E159" s="81"/>
+      <c r="F159" s="87"/>
+      <c r="G159" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H159" s="87"/>
-      <c r="I159" s="87"/>
-      <c r="J159" s="87"/>
+      <c r="H159" s="83"/>
+      <c r="I159" s="83"/>
+      <c r="J159" s="83"/>
       <c r="K159" s="58"/>
       <c r="L159" s="58"/>
       <c r="M159" s="58"/>
@@ -7432,18 +7373,18 @@
       <c r="A160" s="30"/>
       <c r="B160" s="55"/>
       <c r="C160" s="30"/>
-      <c r="D160" s="81"/>
-      <c r="E160" s="91"/>
-      <c r="F160" s="82" t="s">
+      <c r="D160" s="86"/>
+      <c r="E160" s="81"/>
+      <c r="F160" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G160" s="90" t="str">
+      <c r="G160" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H160" s="90"/>
-      <c r="I160" s="90"/>
-      <c r="J160" s="90"/>
+      <c r="H160" s="88"/>
+      <c r="I160" s="88"/>
+      <c r="J160" s="88"/>
       <c r="K160" s="32"/>
       <c r="L160" s="60"/>
       <c r="M160" s="32"/>
@@ -7458,15 +7399,15 @@
       <c r="D161" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E161" s="91"/>
-      <c r="F161" s="82"/>
-      <c r="G161" s="85" t="str">
+      <c r="E161" s="81"/>
+      <c r="F161" s="87"/>
+      <c r="G161" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H161" s="85"/>
-      <c r="I161" s="85"/>
-      <c r="J161" s="85"/>
+      <c r="H161" s="90"/>
+      <c r="I161" s="90"/>
+      <c r="J161" s="90"/>
       <c r="K161" s="30"/>
       <c r="L161" s="30"/>
       <c r="M161" s="30"/>
@@ -7480,14 +7421,14 @@
       <c r="C162" s="30"/>
       <c r="D162" s="61">
         <f>'Senet Taksit Giriş'!D10</f>
-        <v>45746</v>
-      </c>
-      <c r="E162" s="91"/>
-      <c r="F162" s="82"/>
-      <c r="G162" s="85"/>
-      <c r="H162" s="85"/>
-      <c r="I162" s="85"/>
-      <c r="J162" s="85"/>
+        <v>0</v>
+      </c>
+      <c r="E162" s="81"/>
+      <c r="F162" s="87"/>
+      <c r="G162" s="90"/>
+      <c r="H162" s="90"/>
+      <c r="I162" s="90"/>
+      <c r="J162" s="90"/>
       <c r="K162" s="30"/>
       <c r="L162" s="43" t="s">
         <v>49</v>
@@ -7504,15 +7445,15 @@
       <c r="D163" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E163" s="91"/>
-      <c r="F163" s="82"/>
-      <c r="G163" s="86" t="str">
+      <c r="E163" s="81"/>
+      <c r="F163" s="87"/>
+      <c r="G163" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H163" s="86"/>
-      <c r="I163" s="86"/>
-      <c r="J163" s="86"/>
+      <c r="H163" s="82"/>
+      <c r="I163" s="82"/>
+      <c r="J163" s="82"/>
       <c r="K163" s="30"/>
       <c r="L163" s="30"/>
       <c r="M163" s="30"/>
@@ -7526,17 +7467,17 @@
       <c r="C164" s="30"/>
       <c r="D164" s="61">
         <f>'Senet Taksit Giriş'!C10</f>
-        <v>45503</v>
-      </c>
-      <c r="E164" s="91"/>
-      <c r="F164" s="82"/>
-      <c r="G164" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="E164" s="81"/>
+      <c r="F164" s="87"/>
+      <c r="G164" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H164" s="87"/>
-      <c r="I164" s="87"/>
-      <c r="J164" s="87"/>
+      <c r="H164" s="83"/>
+      <c r="I164" s="83"/>
+      <c r="J164" s="83"/>
       <c r="K164" s="58"/>
       <c r="L164" s="58"/>
       <c r="M164" s="58"/>
@@ -7587,7 +7528,7 @@
       <c r="D168" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E168" s="91" t="str">
+      <c r="E168" s="81" t="str">
         <f>$D175 &amp;"    - Taksit No: " &amp; $D170&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 9 #  </v>
       </c>
@@ -7620,16 +7561,16 @@
       <c r="D169" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E169" s="91"/>
+      <c r="E169" s="81"/>
       <c r="F169" s="30"/>
       <c r="G169" s="45">
         <f>D183</f>
-        <v>45777</v>
+        <v>0</v>
       </c>
       <c r="H169" s="46"/>
       <c r="I169" s="47" t="str">
         <f>D172</f>
-        <v># 17.000 TL #</v>
+        <v># 0 TL #</v>
       </c>
       <c r="J169" s="48" t="str">
         <f>D173</f>
@@ -7644,7 +7585,7 @@
       <c r="N169" s="39"/>
       <c r="O169" s="50">
         <f>D185</f>
-        <v>45503</v>
+        <v>0</v>
       </c>
       <c r="P169" s="51"/>
     </row>
@@ -7656,7 +7597,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B11),"##.##0")&amp;" #"</f>
         <v># 9 #</v>
       </c>
-      <c r="E170" s="91"/>
+      <c r="E170" s="81"/>
       <c r="F170" s="30"/>
       <c r="G170" s="30"/>
       <c r="H170" s="30"/>
@@ -7676,20 +7617,20 @@
       <c r="D171" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E171" s="91"/>
-      <c r="F171" s="88" t="str">
+      <c r="E171" s="81"/>
+      <c r="F171" s="84" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G169,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F11&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G11&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
-        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
-      </c>
-      <c r="G171" s="88"/>
-      <c r="H171" s="88"/>
-      <c r="I171" s="88"/>
-      <c r="J171" s="88"/>
-      <c r="K171" s="88"/>
-      <c r="L171" s="88"/>
-      <c r="M171" s="88"/>
-      <c r="N171" s="88"/>
-      <c r="O171" s="88"/>
+        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 1900 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız #  TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
+      </c>
+      <c r="G171" s="84"/>
+      <c r="H171" s="84"/>
+      <c r="I171" s="84"/>
+      <c r="J171" s="84"/>
+      <c r="K171" s="84"/>
+      <c r="L171" s="84"/>
+      <c r="M171" s="84"/>
+      <c r="N171" s="84"/>
+      <c r="O171" s="84"/>
       <c r="P171" s="51"/>
     </row>
     <row r="172" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7698,19 +7639,19 @@
       <c r="C172" s="43"/>
       <c r="D172" s="54" t="str">
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E11),"##.##0")&amp;" TL #"</f>
-        <v># 17.000 TL #</v>
-      </c>
-      <c r="E172" s="91"/>
-      <c r="F172" s="88"/>
-      <c r="G172" s="88"/>
-      <c r="H172" s="88"/>
-      <c r="I172" s="88"/>
-      <c r="J172" s="88"/>
-      <c r="K172" s="88"/>
-      <c r="L172" s="88"/>
-      <c r="M172" s="88"/>
-      <c r="N172" s="88"/>
-      <c r="O172" s="88"/>
+        <v># 0 TL #</v>
+      </c>
+      <c r="E172" s="81"/>
+      <c r="F172" s="84"/>
+      <c r="G172" s="84"/>
+      <c r="H172" s="84"/>
+      <c r="I172" s="84"/>
+      <c r="J172" s="84"/>
+      <c r="K172" s="84"/>
+      <c r="L172" s="84"/>
+      <c r="M172" s="84"/>
+      <c r="N172" s="84"/>
+      <c r="O172" s="84"/>
       <c r="P172" s="51"/>
     </row>
     <row r="173" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7721,17 +7662,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E174-INT('Senet Taksit Giriş'!E174))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E173" s="91"/>
-      <c r="F173" s="88"/>
-      <c r="G173" s="88"/>
-      <c r="H173" s="88"/>
-      <c r="I173" s="88"/>
-      <c r="J173" s="88"/>
-      <c r="K173" s="88"/>
-      <c r="L173" s="88"/>
-      <c r="M173" s="88"/>
-      <c r="N173" s="88"/>
-      <c r="O173" s="88"/>
+      <c r="E173" s="81"/>
+      <c r="F173" s="84"/>
+      <c r="G173" s="84"/>
+      <c r="H173" s="84"/>
+      <c r="I173" s="84"/>
+      <c r="J173" s="84"/>
+      <c r="K173" s="84"/>
+      <c r="L173" s="84"/>
+      <c r="M173" s="84"/>
+      <c r="N173" s="84"/>
+      <c r="O173" s="84"/>
       <c r="P173" s="51"/>
     </row>
     <row r="174" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -7741,28 +7682,28 @@
       <c r="D174" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E174" s="91"/>
-      <c r="F174" s="88"/>
-      <c r="G174" s="88"/>
-      <c r="H174" s="88"/>
-      <c r="I174" s="88"/>
-      <c r="J174" s="88"/>
-      <c r="K174" s="88"/>
-      <c r="L174" s="88"/>
-      <c r="M174" s="88"/>
-      <c r="N174" s="88"/>
-      <c r="O174" s="88"/>
+      <c r="E174" s="81"/>
+      <c r="F174" s="84"/>
+      <c r="G174" s="84"/>
+      <c r="H174" s="84"/>
+      <c r="I174" s="84"/>
+      <c r="J174" s="84"/>
+      <c r="K174" s="84"/>
+      <c r="L174" s="84"/>
+      <c r="M174" s="84"/>
+      <c r="N174" s="84"/>
+      <c r="O174" s="84"/>
       <c r="P174" s="51"/>
     </row>
     <row r="175" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="30"/>
       <c r="B175" s="55"/>
       <c r="C175" s="30"/>
-      <c r="D175" s="81" t="str">
+      <c r="D175" s="86" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E175" s="91"/>
+      <c r="E175" s="81"/>
       <c r="F175"/>
       <c r="G175"/>
       <c r="H175"/>
@@ -7779,22 +7720,22 @@
       <c r="A176" s="30"/>
       <c r="B176" s="42"/>
       <c r="C176" s="30"/>
-      <c r="D176" s="81"/>
-      <c r="E176" s="91"/>
-      <c r="F176" s="82" t="s">
+      <c r="D176" s="86"/>
+      <c r="E176" s="81"/>
+      <c r="F176" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G176" s="90" t="str">
+      <c r="G176" s="88" t="str">
         <f>"İsim : "&amp;$D175</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H176" s="90"/>
-      <c r="I176" s="90"/>
-      <c r="J176" s="90"/>
+      <c r="H176" s="88"/>
+      <c r="I176" s="88"/>
+      <c r="J176" s="88"/>
       <c r="K176" s="32"/>
       <c r="L176" s="32"/>
-      <c r="M176" s="84"/>
-      <c r="N176" s="84"/>
+      <c r="M176" s="89"/>
+      <c r="N176" s="89"/>
       <c r="O176" s="33"/>
       <c r="P176" s="51"/>
     </row>
@@ -7802,17 +7743,17 @@
       <c r="A177" s="30"/>
       <c r="B177" s="56"/>
       <c r="C177" s="57"/>
-      <c r="D177" s="81"/>
-      <c r="E177" s="91"/>
-      <c r="F177" s="82"/>
-      <c r="G177" s="85" t="str">
+      <c r="D177" s="86"/>
+      <c r="E177" s="81"/>
+      <c r="F177" s="87"/>
+      <c r="G177" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H177" s="85"/>
-      <c r="I177" s="85"/>
-      <c r="J177" s="85"/>
-      <c r="K177" s="85"/>
+      <c r="H177" s="90"/>
+      <c r="I177" s="90"/>
+      <c r="J177" s="90"/>
+      <c r="K177" s="90"/>
       <c r="L177" s="30"/>
       <c r="M177" s="30"/>
       <c r="N177" s="30"/>
@@ -7823,14 +7764,14 @@
       <c r="A178" s="30"/>
       <c r="B178" s="56"/>
       <c r="C178" s="57"/>
-      <c r="D178" s="81"/>
-      <c r="E178" s="91"/>
-      <c r="F178" s="82"/>
-      <c r="G178" s="85"/>
-      <c r="H178" s="85"/>
-      <c r="I178" s="85"/>
-      <c r="J178" s="85"/>
-      <c r="K178" s="85"/>
+      <c r="D178" s="86"/>
+      <c r="E178" s="81"/>
+      <c r="F178" s="87"/>
+      <c r="G178" s="90"/>
+      <c r="H178" s="90"/>
+      <c r="I178" s="90"/>
+      <c r="J178" s="90"/>
+      <c r="K178" s="90"/>
       <c r="L178" s="43" t="s">
         <v>49</v>
       </c>
@@ -7843,16 +7784,16 @@
       <c r="A179" s="30"/>
       <c r="B179" s="56"/>
       <c r="C179" s="57"/>
-      <c r="D179" s="81"/>
-      <c r="E179" s="91"/>
-      <c r="F179" s="82"/>
-      <c r="G179" s="86" t="str">
+      <c r="D179" s="86"/>
+      <c r="E179" s="81"/>
+      <c r="F179" s="87"/>
+      <c r="G179" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H179" s="86"/>
-      <c r="I179" s="86"/>
-      <c r="J179" s="86"/>
+      <c r="H179" s="82"/>
+      <c r="I179" s="82"/>
+      <c r="J179" s="82"/>
       <c r="K179" s="30"/>
       <c r="L179" s="30"/>
       <c r="M179" s="30"/>
@@ -7864,16 +7805,16 @@
       <c r="A180" s="30"/>
       <c r="B180" s="42"/>
       <c r="C180" s="30"/>
-      <c r="D180" s="81"/>
-      <c r="E180" s="91"/>
-      <c r="F180" s="82"/>
-      <c r="G180" s="87" t="str">
+      <c r="D180" s="86"/>
+      <c r="E180" s="81"/>
+      <c r="F180" s="87"/>
+      <c r="G180" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H180" s="87"/>
-      <c r="I180" s="87"/>
-      <c r="J180" s="87"/>
+      <c r="H180" s="83"/>
+      <c r="I180" s="83"/>
+      <c r="J180" s="83"/>
       <c r="K180" s="58"/>
       <c r="L180" s="58"/>
       <c r="M180" s="58"/>
@@ -7885,18 +7826,18 @@
       <c r="A181" s="30"/>
       <c r="B181" s="55"/>
       <c r="C181" s="30"/>
-      <c r="D181" s="81"/>
-      <c r="E181" s="91"/>
-      <c r="F181" s="82" t="s">
+      <c r="D181" s="86"/>
+      <c r="E181" s="81"/>
+      <c r="F181" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G181" s="90" t="str">
+      <c r="G181" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H181" s="90"/>
-      <c r="I181" s="90"/>
-      <c r="J181" s="90"/>
+      <c r="H181" s="88"/>
+      <c r="I181" s="88"/>
+      <c r="J181" s="88"/>
       <c r="K181" s="32"/>
       <c r="L181" s="60"/>
       <c r="M181" s="32"/>
@@ -7911,15 +7852,15 @@
       <c r="D182" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E182" s="91"/>
-      <c r="F182" s="82"/>
-      <c r="G182" s="85" t="str">
+      <c r="E182" s="81"/>
+      <c r="F182" s="87"/>
+      <c r="G182" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H182" s="85"/>
-      <c r="I182" s="85"/>
-      <c r="J182" s="85"/>
+      <c r="H182" s="90"/>
+      <c r="I182" s="90"/>
+      <c r="J182" s="90"/>
       <c r="K182" s="30"/>
       <c r="L182" s="30"/>
       <c r="M182" s="30"/>
@@ -7933,14 +7874,14 @@
       <c r="C183" s="30"/>
       <c r="D183" s="61">
         <f>'Senet Taksit Giriş'!D11</f>
-        <v>45777</v>
-      </c>
-      <c r="E183" s="91"/>
-      <c r="F183" s="82"/>
-      <c r="G183" s="85"/>
-      <c r="H183" s="85"/>
-      <c r="I183" s="85"/>
-      <c r="J183" s="85"/>
+        <v>0</v>
+      </c>
+      <c r="E183" s="81"/>
+      <c r="F183" s="87"/>
+      <c r="G183" s="90"/>
+      <c r="H183" s="90"/>
+      <c r="I183" s="90"/>
+      <c r="J183" s="90"/>
       <c r="K183" s="30"/>
       <c r="L183" s="43" t="s">
         <v>49</v>
@@ -7957,15 +7898,15 @@
       <c r="D184" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E184" s="91"/>
-      <c r="F184" s="82"/>
-      <c r="G184" s="86" t="str">
+      <c r="E184" s="81"/>
+      <c r="F184" s="87"/>
+      <c r="G184" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H184" s="86"/>
-      <c r="I184" s="86"/>
-      <c r="J184" s="86"/>
+      <c r="H184" s="82"/>
+      <c r="I184" s="82"/>
+      <c r="J184" s="82"/>
       <c r="K184" s="30"/>
       <c r="L184" s="30"/>
       <c r="M184" s="30"/>
@@ -7979,17 +7920,17 @@
       <c r="C185" s="30"/>
       <c r="D185" s="61">
         <f>'Senet Taksit Giriş'!C11</f>
-        <v>45503</v>
-      </c>
-      <c r="E185" s="91"/>
-      <c r="F185" s="82"/>
-      <c r="G185" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="E185" s="81"/>
+      <c r="F185" s="87"/>
+      <c r="G185" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H185" s="87"/>
-      <c r="I185" s="87"/>
-      <c r="J185" s="87"/>
+      <c r="H185" s="83"/>
+      <c r="I185" s="83"/>
+      <c r="J185" s="83"/>
       <c r="K185" s="58"/>
       <c r="L185" s="58"/>
       <c r="M185" s="58"/>
@@ -8040,7 +7981,7 @@
       <c r="D188" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E188" s="91" t="str">
+      <c r="E188" s="81" t="str">
         <f>$D195 &amp;"    - Taksit No: " &amp; $D190&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 10 #  </v>
       </c>
@@ -8073,16 +8014,16 @@
       <c r="D189" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E189" s="91"/>
+      <c r="E189" s="81"/>
       <c r="F189" s="30"/>
       <c r="G189" s="45">
         <f>D203</f>
-        <v>45807</v>
+        <v>0</v>
       </c>
       <c r="H189" s="46"/>
       <c r="I189" s="47" t="str">
         <f>D192</f>
-        <v># 17.000 TL #</v>
+        <v># 0 TL #</v>
       </c>
       <c r="J189" s="48" t="str">
         <f>D193</f>
@@ -8097,7 +8038,7 @@
       <c r="N189" s="39"/>
       <c r="O189" s="50">
         <f>D205</f>
-        <v>45503</v>
+        <v>0</v>
       </c>
       <c r="P189" s="51"/>
     </row>
@@ -8109,7 +8050,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B12),"##.##0")&amp;" #"</f>
         <v># 10 #</v>
       </c>
-      <c r="E190" s="91"/>
+      <c r="E190" s="81"/>
       <c r="F190" s="30"/>
       <c r="G190" s="30"/>
       <c r="H190" s="30"/>
@@ -8129,20 +8070,20 @@
       <c r="D191" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E191" s="91"/>
-      <c r="F191" s="88" t="str">
+      <c r="E191" s="81"/>
+      <c r="F191" s="84" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G189,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F12&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G12&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
-        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
-      </c>
-      <c r="G191" s="88"/>
-      <c r="H191" s="88"/>
-      <c r="I191" s="88"/>
-      <c r="J191" s="88"/>
-      <c r="K191" s="88"/>
-      <c r="L191" s="88"/>
-      <c r="M191" s="88"/>
-      <c r="N191" s="88"/>
-      <c r="O191" s="88"/>
+        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 1900 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız #  TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
+      </c>
+      <c r="G191" s="84"/>
+      <c r="H191" s="84"/>
+      <c r="I191" s="84"/>
+      <c r="J191" s="84"/>
+      <c r="K191" s="84"/>
+      <c r="L191" s="84"/>
+      <c r="M191" s="84"/>
+      <c r="N191" s="84"/>
+      <c r="O191" s="84"/>
       <c r="P191" s="51"/>
     </row>
     <row r="192" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8151,19 +8092,19 @@
       <c r="C192" s="43"/>
       <c r="D192" s="54" t="str">
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E12),"##.##0")&amp;" TL #"</f>
-        <v># 17.000 TL #</v>
-      </c>
-      <c r="E192" s="91"/>
-      <c r="F192" s="88"/>
-      <c r="G192" s="88"/>
-      <c r="H192" s="88"/>
-      <c r="I192" s="88"/>
-      <c r="J192" s="88"/>
-      <c r="K192" s="88"/>
-      <c r="L192" s="88"/>
-      <c r="M192" s="88"/>
-      <c r="N192" s="88"/>
-      <c r="O192" s="88"/>
+        <v># 0 TL #</v>
+      </c>
+      <c r="E192" s="81"/>
+      <c r="F192" s="84"/>
+      <c r="G192" s="84"/>
+      <c r="H192" s="84"/>
+      <c r="I192" s="84"/>
+      <c r="J192" s="84"/>
+      <c r="K192" s="84"/>
+      <c r="L192" s="84"/>
+      <c r="M192" s="84"/>
+      <c r="N192" s="84"/>
+      <c r="O192" s="84"/>
       <c r="P192" s="51"/>
     </row>
     <row r="193" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8174,17 +8115,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E195-INT('Senet Taksit Giriş'!E195))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E193" s="91"/>
-      <c r="F193" s="88"/>
-      <c r="G193" s="88"/>
-      <c r="H193" s="88"/>
-      <c r="I193" s="88"/>
-      <c r="J193" s="88"/>
-      <c r="K193" s="88"/>
-      <c r="L193" s="88"/>
-      <c r="M193" s="88"/>
-      <c r="N193" s="88"/>
-      <c r="O193" s="88"/>
+      <c r="E193" s="81"/>
+      <c r="F193" s="84"/>
+      <c r="G193" s="84"/>
+      <c r="H193" s="84"/>
+      <c r="I193" s="84"/>
+      <c r="J193" s="84"/>
+      <c r="K193" s="84"/>
+      <c r="L193" s="84"/>
+      <c r="M193" s="84"/>
+      <c r="N193" s="84"/>
+      <c r="O193" s="84"/>
       <c r="P193" s="51"/>
     </row>
     <row r="194" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8194,28 +8135,28 @@
       <c r="D194" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E194" s="91"/>
-      <c r="F194" s="88"/>
-      <c r="G194" s="88"/>
-      <c r="H194" s="88"/>
-      <c r="I194" s="88"/>
-      <c r="J194" s="88"/>
-      <c r="K194" s="88"/>
-      <c r="L194" s="88"/>
-      <c r="M194" s="88"/>
-      <c r="N194" s="88"/>
-      <c r="O194" s="88"/>
+      <c r="E194" s="81"/>
+      <c r="F194" s="84"/>
+      <c r="G194" s="84"/>
+      <c r="H194" s="84"/>
+      <c r="I194" s="84"/>
+      <c r="J194" s="84"/>
+      <c r="K194" s="84"/>
+      <c r="L194" s="84"/>
+      <c r="M194" s="84"/>
+      <c r="N194" s="84"/>
+      <c r="O194" s="84"/>
       <c r="P194" s="51"/>
     </row>
     <row r="195" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="30"/>
       <c r="B195" s="55"/>
       <c r="C195" s="30"/>
-      <c r="D195" s="81" t="str">
+      <c r="D195" s="86" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E195" s="91"/>
+      <c r="E195" s="81"/>
       <c r="F195"/>
       <c r="G195"/>
       <c r="H195"/>
@@ -8232,22 +8173,22 @@
       <c r="A196" s="30"/>
       <c r="B196" s="42"/>
       <c r="C196" s="30"/>
-      <c r="D196" s="81"/>
-      <c r="E196" s="91"/>
-      <c r="F196" s="82" t="s">
+      <c r="D196" s="86"/>
+      <c r="E196" s="81"/>
+      <c r="F196" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G196" s="90" t="str">
+      <c r="G196" s="88" t="str">
         <f>"İsim : "&amp;$D195</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H196" s="90"/>
-      <c r="I196" s="90"/>
-      <c r="J196" s="90"/>
+      <c r="H196" s="88"/>
+      <c r="I196" s="88"/>
+      <c r="J196" s="88"/>
       <c r="K196" s="32"/>
       <c r="L196" s="32"/>
-      <c r="M196" s="84"/>
-      <c r="N196" s="84"/>
+      <c r="M196" s="89"/>
+      <c r="N196" s="89"/>
       <c r="O196" s="33"/>
       <c r="P196" s="51"/>
     </row>
@@ -8255,17 +8196,17 @@
       <c r="A197" s="30"/>
       <c r="B197" s="56"/>
       <c r="C197" s="57"/>
-      <c r="D197" s="81"/>
-      <c r="E197" s="91"/>
-      <c r="F197" s="82"/>
-      <c r="G197" s="85" t="str">
+      <c r="D197" s="86"/>
+      <c r="E197" s="81"/>
+      <c r="F197" s="87"/>
+      <c r="G197" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H197" s="85"/>
-      <c r="I197" s="85"/>
-      <c r="J197" s="85"/>
-      <c r="K197" s="85"/>
+      <c r="H197" s="90"/>
+      <c r="I197" s="90"/>
+      <c r="J197" s="90"/>
+      <c r="K197" s="90"/>
       <c r="L197" s="30"/>
       <c r="M197" s="30"/>
       <c r="N197" s="30"/>
@@ -8276,14 +8217,14 @@
       <c r="A198" s="30"/>
       <c r="B198" s="56"/>
       <c r="C198" s="57"/>
-      <c r="D198" s="81"/>
-      <c r="E198" s="91"/>
-      <c r="F198" s="82"/>
-      <c r="G198" s="85"/>
-      <c r="H198" s="85"/>
-      <c r="I198" s="85"/>
-      <c r="J198" s="85"/>
-      <c r="K198" s="85"/>
+      <c r="D198" s="86"/>
+      <c r="E198" s="81"/>
+      <c r="F198" s="87"/>
+      <c r="G198" s="90"/>
+      <c r="H198" s="90"/>
+      <c r="I198" s="90"/>
+      <c r="J198" s="90"/>
+      <c r="K198" s="90"/>
       <c r="L198" s="43" t="s">
         <v>49</v>
       </c>
@@ -8296,16 +8237,16 @@
       <c r="A199" s="30"/>
       <c r="B199" s="56"/>
       <c r="C199" s="57"/>
-      <c r="D199" s="81"/>
-      <c r="E199" s="91"/>
-      <c r="F199" s="82"/>
-      <c r="G199" s="86" t="str">
+      <c r="D199" s="86"/>
+      <c r="E199" s="81"/>
+      <c r="F199" s="87"/>
+      <c r="G199" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H199" s="86"/>
-      <c r="I199" s="86"/>
-      <c r="J199" s="86"/>
+      <c r="H199" s="82"/>
+      <c r="I199" s="82"/>
+      <c r="J199" s="82"/>
       <c r="K199" s="30"/>
       <c r="L199" s="30"/>
       <c r="M199" s="30"/>
@@ -8317,16 +8258,16 @@
       <c r="A200" s="30"/>
       <c r="B200" s="42"/>
       <c r="C200" s="30"/>
-      <c r="D200" s="81"/>
-      <c r="E200" s="91"/>
-      <c r="F200" s="82"/>
-      <c r="G200" s="87" t="str">
+      <c r="D200" s="86"/>
+      <c r="E200" s="81"/>
+      <c r="F200" s="87"/>
+      <c r="G200" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H200" s="87"/>
-      <c r="I200" s="87"/>
-      <c r="J200" s="87"/>
+      <c r="H200" s="83"/>
+      <c r="I200" s="83"/>
+      <c r="J200" s="83"/>
       <c r="K200" s="58"/>
       <c r="L200" s="58"/>
       <c r="M200" s="58"/>
@@ -8338,18 +8279,18 @@
       <c r="A201" s="30"/>
       <c r="B201" s="55"/>
       <c r="C201" s="30"/>
-      <c r="D201" s="81"/>
-      <c r="E201" s="91"/>
-      <c r="F201" s="82" t="s">
+      <c r="D201" s="86"/>
+      <c r="E201" s="81"/>
+      <c r="F201" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G201" s="90" t="str">
+      <c r="G201" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H201" s="90"/>
-      <c r="I201" s="90"/>
-      <c r="J201" s="90"/>
+      <c r="H201" s="88"/>
+      <c r="I201" s="88"/>
+      <c r="J201" s="88"/>
       <c r="K201" s="32"/>
       <c r="L201" s="60"/>
       <c r="M201" s="32"/>
@@ -8364,15 +8305,15 @@
       <c r="D202" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E202" s="91"/>
-      <c r="F202" s="82"/>
-      <c r="G202" s="85" t="str">
+      <c r="E202" s="81"/>
+      <c r="F202" s="87"/>
+      <c r="G202" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H202" s="85"/>
-      <c r="I202" s="85"/>
-      <c r="J202" s="85"/>
+      <c r="H202" s="90"/>
+      <c r="I202" s="90"/>
+      <c r="J202" s="90"/>
       <c r="K202" s="30"/>
       <c r="L202" s="30"/>
       <c r="M202" s="30"/>
@@ -8386,14 +8327,14 @@
       <c r="C203" s="30"/>
       <c r="D203" s="61">
         <f>'Senet Taksit Giriş'!D12</f>
-        <v>45807</v>
-      </c>
-      <c r="E203" s="91"/>
-      <c r="F203" s="82"/>
-      <c r="G203" s="85"/>
-      <c r="H203" s="85"/>
-      <c r="I203" s="85"/>
-      <c r="J203" s="85"/>
+        <v>0</v>
+      </c>
+      <c r="E203" s="81"/>
+      <c r="F203" s="87"/>
+      <c r="G203" s="90"/>
+      <c r="H203" s="90"/>
+      <c r="I203" s="90"/>
+      <c r="J203" s="90"/>
       <c r="K203" s="30"/>
       <c r="L203" s="43" t="s">
         <v>49</v>
@@ -8410,15 +8351,15 @@
       <c r="D204" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E204" s="91"/>
-      <c r="F204" s="82"/>
-      <c r="G204" s="86" t="str">
+      <c r="E204" s="81"/>
+      <c r="F204" s="87"/>
+      <c r="G204" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H204" s="86"/>
-      <c r="I204" s="86"/>
-      <c r="J204" s="86"/>
+      <c r="H204" s="82"/>
+      <c r="I204" s="82"/>
+      <c r="J204" s="82"/>
       <c r="K204" s="30"/>
       <c r="L204" s="30"/>
       <c r="M204" s="30"/>
@@ -8432,17 +8373,17 @@
       <c r="C205" s="30"/>
       <c r="D205" s="61">
         <f>'Senet Taksit Giriş'!C12</f>
-        <v>45503</v>
-      </c>
-      <c r="E205" s="91"/>
-      <c r="F205" s="82"/>
-      <c r="G205" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="E205" s="81"/>
+      <c r="F205" s="87"/>
+      <c r="G205" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H205" s="87"/>
-      <c r="I205" s="87"/>
-      <c r="J205" s="87"/>
+      <c r="H205" s="83"/>
+      <c r="I205" s="83"/>
+      <c r="J205" s="83"/>
       <c r="K205" s="58"/>
       <c r="L205" s="58"/>
       <c r="M205" s="58"/>
@@ -8493,7 +8434,7 @@
       <c r="D209" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E209" s="91" t="str">
+      <c r="E209" s="81" t="str">
         <f>$D216 &amp;"    - Taksit No: " &amp; $D211&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 11 #  </v>
       </c>
@@ -8526,16 +8467,16 @@
       <c r="D210" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E210" s="91"/>
+      <c r="E210" s="81"/>
       <c r="F210" s="30"/>
       <c r="G210" s="45">
         <f>D224</f>
-        <v>45838</v>
+        <v>0</v>
       </c>
       <c r="H210" s="46"/>
       <c r="I210" s="47" t="str">
         <f>D213</f>
-        <v># 17.000 TL #</v>
+        <v># 0 TL #</v>
       </c>
       <c r="J210" s="48" t="str">
         <f>D214</f>
@@ -8550,7 +8491,7 @@
       <c r="N210" s="39"/>
       <c r="O210" s="50">
         <f>D226</f>
-        <v>45503</v>
+        <v>0</v>
       </c>
       <c r="P210" s="51"/>
     </row>
@@ -8562,7 +8503,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B13),"##.##0")&amp;" #"</f>
         <v># 11 #</v>
       </c>
-      <c r="E211" s="91"/>
+      <c r="E211" s="81"/>
       <c r="F211" s="30"/>
       <c r="G211" s="30"/>
       <c r="H211" s="30"/>
@@ -8582,20 +8523,20 @@
       <c r="D212" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E212" s="91"/>
-      <c r="F212" s="88" t="str">
+      <c r="E212" s="81"/>
+      <c r="F212" s="84" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G210,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F13&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G13&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
-        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
-      </c>
-      <c r="G212" s="88"/>
-      <c r="H212" s="88"/>
-      <c r="I212" s="88"/>
-      <c r="J212" s="88"/>
-      <c r="K212" s="88"/>
-      <c r="L212" s="88"/>
-      <c r="M212" s="88"/>
-      <c r="N212" s="88"/>
-      <c r="O212" s="88"/>
+        <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 1900 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız #  TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
+      </c>
+      <c r="G212" s="84"/>
+      <c r="H212" s="84"/>
+      <c r="I212" s="84"/>
+      <c r="J212" s="84"/>
+      <c r="K212" s="84"/>
+      <c r="L212" s="84"/>
+      <c r="M212" s="84"/>
+      <c r="N212" s="84"/>
+      <c r="O212" s="84"/>
       <c r="P212" s="51"/>
     </row>
     <row r="213" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8604,19 +8545,19 @@
       <c r="C213" s="43"/>
       <c r="D213" s="54" t="str">
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E13),"##.##0")&amp;" TL #"</f>
-        <v># 17.000 TL #</v>
-      </c>
-      <c r="E213" s="91"/>
-      <c r="F213" s="88"/>
-      <c r="G213" s="88"/>
-      <c r="H213" s="88"/>
-      <c r="I213" s="88"/>
-      <c r="J213" s="88"/>
-      <c r="K213" s="88"/>
-      <c r="L213" s="88"/>
-      <c r="M213" s="88"/>
-      <c r="N213" s="88"/>
-      <c r="O213" s="88"/>
+        <v># 0 TL #</v>
+      </c>
+      <c r="E213" s="81"/>
+      <c r="F213" s="84"/>
+      <c r="G213" s="84"/>
+      <c r="H213" s="84"/>
+      <c r="I213" s="84"/>
+      <c r="J213" s="84"/>
+      <c r="K213" s="84"/>
+      <c r="L213" s="84"/>
+      <c r="M213" s="84"/>
+      <c r="N213" s="84"/>
+      <c r="O213" s="84"/>
       <c r="P213" s="51"/>
     </row>
     <row r="214" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8627,17 +8568,17 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E216-INT('Senet Taksit Giriş'!E216))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E214" s="91"/>
-      <c r="F214" s="88"/>
-      <c r="G214" s="88"/>
-      <c r="H214" s="88"/>
-      <c r="I214" s="88"/>
-      <c r="J214" s="88"/>
-      <c r="K214" s="88"/>
-      <c r="L214" s="88"/>
-      <c r="M214" s="88"/>
-      <c r="N214" s="88"/>
-      <c r="O214" s="88"/>
+      <c r="E214" s="81"/>
+      <c r="F214" s="84"/>
+      <c r="G214" s="84"/>
+      <c r="H214" s="84"/>
+      <c r="I214" s="84"/>
+      <c r="J214" s="84"/>
+      <c r="K214" s="84"/>
+      <c r="L214" s="84"/>
+      <c r="M214" s="84"/>
+      <c r="N214" s="84"/>
+      <c r="O214" s="84"/>
       <c r="P214" s="51"/>
     </row>
     <row r="215" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8647,28 +8588,28 @@
       <c r="D215" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E215" s="91"/>
-      <c r="F215" s="88"/>
-      <c r="G215" s="88"/>
-      <c r="H215" s="88"/>
-      <c r="I215" s="88"/>
-      <c r="J215" s="88"/>
-      <c r="K215" s="88"/>
-      <c r="L215" s="88"/>
-      <c r="M215" s="88"/>
-      <c r="N215" s="88"/>
-      <c r="O215" s="88"/>
+      <c r="E215" s="81"/>
+      <c r="F215" s="84"/>
+      <c r="G215" s="84"/>
+      <c r="H215" s="84"/>
+      <c r="I215" s="84"/>
+      <c r="J215" s="84"/>
+      <c r="K215" s="84"/>
+      <c r="L215" s="84"/>
+      <c r="M215" s="84"/>
+      <c r="N215" s="84"/>
+      <c r="O215" s="84"/>
       <c r="P215" s="51"/>
     </row>
     <row r="216" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="30"/>
       <c r="B216" s="55"/>
       <c r="C216" s="30"/>
-      <c r="D216" s="81" t="str">
+      <c r="D216" s="86" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E216" s="91"/>
+      <c r="E216" s="81"/>
       <c r="F216"/>
       <c r="G216"/>
       <c r="H216"/>
@@ -8685,22 +8626,22 @@
       <c r="A217" s="30"/>
       <c r="B217" s="42"/>
       <c r="C217" s="30"/>
-      <c r="D217" s="81"/>
-      <c r="E217" s="91"/>
-      <c r="F217" s="82" t="s">
+      <c r="D217" s="86"/>
+      <c r="E217" s="81"/>
+      <c r="F217" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G217" s="90" t="str">
+      <c r="G217" s="88" t="str">
         <f>"İsim : "&amp;$D216</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H217" s="90"/>
-      <c r="I217" s="90"/>
-      <c r="J217" s="90"/>
+      <c r="H217" s="88"/>
+      <c r="I217" s="88"/>
+      <c r="J217" s="88"/>
       <c r="K217" s="32"/>
       <c r="L217" s="32"/>
-      <c r="M217" s="84"/>
-      <c r="N217" s="84"/>
+      <c r="M217" s="89"/>
+      <c r="N217" s="89"/>
       <c r="O217" s="33"/>
       <c r="P217" s="51"/>
     </row>
@@ -8708,17 +8649,17 @@
       <c r="A218" s="30"/>
       <c r="B218" s="56"/>
       <c r="C218" s="57"/>
-      <c r="D218" s="81"/>
-      <c r="E218" s="91"/>
-      <c r="F218" s="82"/>
-      <c r="G218" s="85" t="str">
+      <c r="D218" s="86"/>
+      <c r="E218" s="81"/>
+      <c r="F218" s="87"/>
+      <c r="G218" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H218" s="85"/>
-      <c r="I218" s="85"/>
-      <c r="J218" s="85"/>
-      <c r="K218" s="85"/>
+      <c r="H218" s="90"/>
+      <c r="I218" s="90"/>
+      <c r="J218" s="90"/>
+      <c r="K218" s="90"/>
       <c r="L218" s="30"/>
       <c r="M218" s="30"/>
       <c r="N218" s="30"/>
@@ -8729,14 +8670,14 @@
       <c r="A219" s="30"/>
       <c r="B219" s="56"/>
       <c r="C219" s="57"/>
-      <c r="D219" s="81"/>
-      <c r="E219" s="91"/>
-      <c r="F219" s="82"/>
-      <c r="G219" s="85"/>
-      <c r="H219" s="85"/>
-      <c r="I219" s="85"/>
-      <c r="J219" s="85"/>
-      <c r="K219" s="85"/>
+      <c r="D219" s="86"/>
+      <c r="E219" s="81"/>
+      <c r="F219" s="87"/>
+      <c r="G219" s="90"/>
+      <c r="H219" s="90"/>
+      <c r="I219" s="90"/>
+      <c r="J219" s="90"/>
+      <c r="K219" s="90"/>
       <c r="L219" s="43" t="s">
         <v>49</v>
       </c>
@@ -8749,16 +8690,16 @@
       <c r="A220" s="30"/>
       <c r="B220" s="56"/>
       <c r="C220" s="57"/>
-      <c r="D220" s="81"/>
-      <c r="E220" s="91"/>
-      <c r="F220" s="82"/>
-      <c r="G220" s="86" t="str">
+      <c r="D220" s="86"/>
+      <c r="E220" s="81"/>
+      <c r="F220" s="87"/>
+      <c r="G220" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H220" s="86"/>
-      <c r="I220" s="86"/>
-      <c r="J220" s="86"/>
+      <c r="H220" s="82"/>
+      <c r="I220" s="82"/>
+      <c r="J220" s="82"/>
       <c r="K220" s="30"/>
       <c r="L220" s="30"/>
       <c r="M220" s="30"/>
@@ -8770,16 +8711,16 @@
       <c r="A221" s="30"/>
       <c r="B221" s="42"/>
       <c r="C221" s="30"/>
-      <c r="D221" s="81"/>
-      <c r="E221" s="91"/>
-      <c r="F221" s="82"/>
-      <c r="G221" s="87" t="str">
+      <c r="D221" s="86"/>
+      <c r="E221" s="81"/>
+      <c r="F221" s="87"/>
+      <c r="G221" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H221" s="87"/>
-      <c r="I221" s="87"/>
-      <c r="J221" s="87"/>
+      <c r="H221" s="83"/>
+      <c r="I221" s="83"/>
+      <c r="J221" s="83"/>
       <c r="K221" s="58"/>
       <c r="L221" s="58"/>
       <c r="M221" s="58"/>
@@ -8791,18 +8732,18 @@
       <c r="A222" s="30"/>
       <c r="B222" s="55"/>
       <c r="C222" s="30"/>
-      <c r="D222" s="81"/>
-      <c r="E222" s="91"/>
-      <c r="F222" s="82" t="s">
+      <c r="D222" s="86"/>
+      <c r="E222" s="81"/>
+      <c r="F222" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G222" s="90" t="str">
+      <c r="G222" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H222" s="90"/>
-      <c r="I222" s="90"/>
-      <c r="J222" s="90"/>
+      <c r="H222" s="88"/>
+      <c r="I222" s="88"/>
+      <c r="J222" s="88"/>
       <c r="K222" s="32"/>
       <c r="L222" s="60"/>
       <c r="M222" s="32"/>
@@ -8817,15 +8758,15 @@
       <c r="D223" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E223" s="91"/>
-      <c r="F223" s="82"/>
-      <c r="G223" s="85" t="str">
+      <c r="E223" s="81"/>
+      <c r="F223" s="87"/>
+      <c r="G223" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H223" s="85"/>
-      <c r="I223" s="85"/>
-      <c r="J223" s="85"/>
+      <c r="H223" s="90"/>
+      <c r="I223" s="90"/>
+      <c r="J223" s="90"/>
       <c r="K223" s="30"/>
       <c r="L223" s="30"/>
       <c r="M223" s="30"/>
@@ -8839,14 +8780,14 @@
       <c r="C224" s="30"/>
       <c r="D224" s="61">
         <f>'Senet Taksit Giriş'!D13</f>
-        <v>45838</v>
-      </c>
-      <c r="E224" s="91"/>
-      <c r="F224" s="82"/>
-      <c r="G224" s="85"/>
-      <c r="H224" s="85"/>
-      <c r="I224" s="85"/>
-      <c r="J224" s="85"/>
+        <v>0</v>
+      </c>
+      <c r="E224" s="81"/>
+      <c r="F224" s="87"/>
+      <c r="G224" s="90"/>
+      <c r="H224" s="90"/>
+      <c r="I224" s="90"/>
+      <c r="J224" s="90"/>
       <c r="K224" s="30"/>
       <c r="L224" s="43" t="s">
         <v>49</v>
@@ -8863,15 +8804,15 @@
       <c r="D225" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E225" s="91"/>
-      <c r="F225" s="82"/>
-      <c r="G225" s="86" t="str">
+      <c r="E225" s="81"/>
+      <c r="F225" s="87"/>
+      <c r="G225" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H225" s="86"/>
-      <c r="I225" s="86"/>
-      <c r="J225" s="86"/>
+      <c r="H225" s="82"/>
+      <c r="I225" s="82"/>
+      <c r="J225" s="82"/>
       <c r="K225" s="30"/>
       <c r="L225" s="30"/>
       <c r="M225" s="30"/>
@@ -8885,17 +8826,17 @@
       <c r="C226" s="30"/>
       <c r="D226" s="61">
         <f>'Senet Taksit Giriş'!C13</f>
-        <v>45503</v>
-      </c>
-      <c r="E226" s="91"/>
-      <c r="F226" s="82"/>
-      <c r="G226" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="E226" s="81"/>
+      <c r="F226" s="87"/>
+      <c r="G226" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H226" s="87"/>
-      <c r="I226" s="87"/>
-      <c r="J226" s="87"/>
+      <c r="H226" s="83"/>
+      <c r="I226" s="83"/>
+      <c r="J226" s="83"/>
       <c r="K226" s="58"/>
       <c r="L226" s="58"/>
       <c r="M226" s="58"/>
@@ -8946,7 +8887,7 @@
       <c r="D230" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E230" s="91" t="str">
+      <c r="E230" s="81" t="str">
         <f>$D238 &amp;"    - Taksit No: " &amp; $D232&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: #         #  </v>
       </c>
@@ -8979,7 +8920,7 @@
       <c r="D231" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E231" s="91"/>
+      <c r="E231" s="81"/>
       <c r="F231" s="30"/>
       <c r="G231" s="45"/>
       <c r="H231" s="46"/>
@@ -9009,7 +8950,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B14),"##.##    ")&amp;"    #"</f>
         <v>#         #</v>
       </c>
-      <c r="E232" s="91"/>
+      <c r="E232" s="81"/>
       <c r="F232" s="30"/>
       <c r="G232" s="30"/>
       <c r="H232" s="30"/>
@@ -9029,20 +8970,20 @@
       <c r="D233" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E233" s="91"/>
-      <c r="F233" s="88" t="str">
+      <c r="E233" s="81"/>
+      <c r="F233" s="84" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin") &amp; " mükabilinde                 " &amp; "              tarihinde Sayın :                                                                       'ya "&amp;" veyahut emruhavalesine yukarıda yazılı Yalnız #                                      " &amp; "                                                                                            # TL ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G14&amp;"  ahzolunmuştur. "</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde                               tarihinde Sayın :                                                                       'ya  veyahut emruhavalesine yukarıda yazılı Yalnız #                                                                                                                                  # TL ödeyeceğim. Bedeli nakden  ahzolunmuştur. </v>
       </c>
-      <c r="G233" s="89"/>
-      <c r="H233" s="89"/>
-      <c r="I233" s="89"/>
-      <c r="J233" s="89"/>
-      <c r="K233" s="89"/>
-      <c r="L233" s="89"/>
-      <c r="M233" s="89"/>
-      <c r="N233" s="89"/>
-      <c r="O233" s="89"/>
+      <c r="G233" s="85"/>
+      <c r="H233" s="85"/>
+      <c r="I233" s="85"/>
+      <c r="J233" s="85"/>
+      <c r="K233" s="85"/>
+      <c r="L233" s="85"/>
+      <c r="M233" s="85"/>
+      <c r="N233" s="85"/>
+      <c r="O233" s="85"/>
       <c r="P233" s="51"/>
     </row>
     <row r="234" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -9053,17 +8994,17 @@
         <f>TEXT(INT('Senet Taksit Giriş'!E14),"##.##                        ")&amp;" TL "</f>
         <v xml:space="preserve">                         TL </v>
       </c>
-      <c r="E234" s="91"/>
-      <c r="F234" s="89"/>
-      <c r="G234" s="89"/>
-      <c r="H234" s="89"/>
-      <c r="I234" s="89"/>
-      <c r="J234" s="89"/>
-      <c r="K234" s="89"/>
-      <c r="L234" s="89"/>
-      <c r="M234" s="89"/>
-      <c r="N234" s="89"/>
-      <c r="O234" s="89"/>
+      <c r="E234" s="81"/>
+      <c r="F234" s="85"/>
+      <c r="G234" s="85"/>
+      <c r="H234" s="85"/>
+      <c r="I234" s="85"/>
+      <c r="J234" s="85"/>
+      <c r="K234" s="85"/>
+      <c r="L234" s="85"/>
+      <c r="M234" s="85"/>
+      <c r="N234" s="85"/>
+      <c r="O234" s="85"/>
       <c r="P234" s="51"/>
     </row>
     <row r="235" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -9074,17 +9015,17 @@
         <f>" "&amp;TEXT(('Senet Taksit Giriş'!E237-INT('Senet Taksit Giriş'!E237))*100,"##.##       ")&amp;" Krş "</f>
         <v xml:space="preserve">         Krş </v>
       </c>
-      <c r="E235" s="91"/>
-      <c r="F235" s="89"/>
-      <c r="G235" s="89"/>
-      <c r="H235" s="89"/>
-      <c r="I235" s="89"/>
-      <c r="J235" s="89"/>
-      <c r="K235" s="89"/>
-      <c r="L235" s="89"/>
-      <c r="M235" s="89"/>
-      <c r="N235" s="89"/>
-      <c r="O235" s="89"/>
+      <c r="E235" s="81"/>
+      <c r="F235" s="85"/>
+      <c r="G235" s="85"/>
+      <c r="H235" s="85"/>
+      <c r="I235" s="85"/>
+      <c r="J235" s="85"/>
+      <c r="K235" s="85"/>
+      <c r="L235" s="85"/>
+      <c r="M235" s="85"/>
+      <c r="N235" s="85"/>
+      <c r="O235" s="85"/>
       <c r="P235" s="51"/>
     </row>
     <row r="236" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9094,20 +9035,20 @@
       <c r="D236" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E236" s="91"/>
-      <c r="F236" s="88" t="str">
+      <c r="E236" s="81"/>
+      <c r="F236" s="84" t="str">
         <f>"İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak, temerrüt faizi olarak ise yasal faizin iki katı faiz uygulanmasını kabul ettiğimi, "&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v>İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak, temerrüt faizi olarak ise yasal faizin iki katı faiz uygulanmasını kabul ettiğimi,  ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G236" s="89"/>
-      <c r="H236" s="89"/>
-      <c r="I236" s="89"/>
-      <c r="J236" s="89"/>
-      <c r="K236" s="89"/>
-      <c r="L236" s="89"/>
-      <c r="M236" s="89"/>
-      <c r="N236" s="89"/>
-      <c r="O236" s="89"/>
+      <c r="G236" s="85"/>
+      <c r="H236" s="85"/>
+      <c r="I236" s="85"/>
+      <c r="J236" s="85"/>
+      <c r="K236" s="85"/>
+      <c r="L236" s="85"/>
+      <c r="M236" s="85"/>
+      <c r="N236" s="85"/>
+      <c r="O236" s="85"/>
       <c r="P236" s="51"/>
     </row>
     <row r="237" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -9115,28 +9056,28 @@
       <c r="B237" s="42"/>
       <c r="C237" s="30"/>
       <c r="D237" s="74"/>
-      <c r="E237" s="91"/>
-      <c r="F237" s="89"/>
-      <c r="G237" s="89"/>
-      <c r="H237" s="89"/>
-      <c r="I237" s="89"/>
-      <c r="J237" s="89"/>
-      <c r="K237" s="89"/>
-      <c r="L237" s="89"/>
-      <c r="M237" s="89"/>
-      <c r="N237" s="89"/>
-      <c r="O237" s="89"/>
+      <c r="E237" s="81"/>
+      <c r="F237" s="85"/>
+      <c r="G237" s="85"/>
+      <c r="H237" s="85"/>
+      <c r="I237" s="85"/>
+      <c r="J237" s="85"/>
+      <c r="K237" s="85"/>
+      <c r="L237" s="85"/>
+      <c r="M237" s="85"/>
+      <c r="N237" s="85"/>
+      <c r="O237" s="85"/>
       <c r="P237" s="51"/>
     </row>
     <row r="238" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="30"/>
       <c r="B238" s="55"/>
       <c r="C238" s="30"/>
-      <c r="D238" s="81" t="str">
+      <c r="D238" s="86" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E238" s="91"/>
+      <c r="E238" s="81"/>
       <c r="F238"/>
       <c r="G238"/>
       <c r="H238"/>
@@ -9153,22 +9094,22 @@
       <c r="A239" s="30"/>
       <c r="B239" s="42"/>
       <c r="C239" s="30"/>
-      <c r="D239" s="81"/>
-      <c r="E239" s="91"/>
-      <c r="F239" s="82" t="s">
+      <c r="D239" s="86"/>
+      <c r="E239" s="81"/>
+      <c r="F239" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G239" s="90" t="str">
+      <c r="G239" s="88" t="str">
         <f>"İsim : "&amp;$D238</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H239" s="90"/>
-      <c r="I239" s="90"/>
-      <c r="J239" s="90"/>
+      <c r="H239" s="88"/>
+      <c r="I239" s="88"/>
+      <c r="J239" s="88"/>
       <c r="K239" s="32"/>
       <c r="L239" s="32"/>
-      <c r="M239" s="84"/>
-      <c r="N239" s="84"/>
+      <c r="M239" s="89"/>
+      <c r="N239" s="89"/>
       <c r="O239" s="33"/>
       <c r="P239" s="51"/>
     </row>
@@ -9176,17 +9117,17 @@
       <c r="A240" s="30"/>
       <c r="B240" s="56"/>
       <c r="C240" s="57"/>
-      <c r="D240" s="81"/>
-      <c r="E240" s="91"/>
-      <c r="F240" s="82"/>
-      <c r="G240" s="85" t="str">
+      <c r="D240" s="86"/>
+      <c r="E240" s="81"/>
+      <c r="F240" s="87"/>
+      <c r="G240" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H240" s="85"/>
-      <c r="I240" s="85"/>
-      <c r="J240" s="85"/>
-      <c r="K240" s="85"/>
+      <c r="H240" s="90"/>
+      <c r="I240" s="90"/>
+      <c r="J240" s="90"/>
+      <c r="K240" s="90"/>
       <c r="L240" s="30"/>
       <c r="M240" s="30"/>
       <c r="N240" s="30"/>
@@ -9197,14 +9138,14 @@
       <c r="A241" s="30"/>
       <c r="B241" s="56"/>
       <c r="C241" s="57"/>
-      <c r="D241" s="81"/>
-      <c r="E241" s="91"/>
-      <c r="F241" s="82"/>
-      <c r="G241" s="85"/>
-      <c r="H241" s="85"/>
-      <c r="I241" s="85"/>
-      <c r="J241" s="85"/>
-      <c r="K241" s="85"/>
+      <c r="D241" s="86"/>
+      <c r="E241" s="81"/>
+      <c r="F241" s="87"/>
+      <c r="G241" s="90"/>
+      <c r="H241" s="90"/>
+      <c r="I241" s="90"/>
+      <c r="J241" s="90"/>
+      <c r="K241" s="90"/>
       <c r="L241" s="43" t="s">
         <v>49</v>
       </c>
@@ -9217,16 +9158,16 @@
       <c r="A242" s="30"/>
       <c r="B242" s="56"/>
       <c r="C242" s="57"/>
-      <c r="D242" s="81"/>
-      <c r="E242" s="91"/>
-      <c r="F242" s="82"/>
-      <c r="G242" s="86" t="str">
+      <c r="D242" s="86"/>
+      <c r="E242" s="81"/>
+      <c r="F242" s="87"/>
+      <c r="G242" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H242" s="86"/>
-      <c r="I242" s="86"/>
-      <c r="J242" s="86"/>
+      <c r="H242" s="82"/>
+      <c r="I242" s="82"/>
+      <c r="J242" s="82"/>
       <c r="K242" s="30"/>
       <c r="L242" s="30"/>
       <c r="M242" s="30"/>
@@ -9238,16 +9179,16 @@
       <c r="A243" s="30"/>
       <c r="B243" s="42"/>
       <c r="C243" s="30"/>
-      <c r="D243" s="81"/>
-      <c r="E243" s="91"/>
-      <c r="F243" s="82"/>
-      <c r="G243" s="87" t="str">
+      <c r="D243" s="86"/>
+      <c r="E243" s="81"/>
+      <c r="F243" s="87"/>
+      <c r="G243" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H243" s="87"/>
-      <c r="I243" s="87"/>
-      <c r="J243" s="87"/>
+      <c r="H243" s="83"/>
+      <c r="I243" s="83"/>
+      <c r="J243" s="83"/>
       <c r="K243" s="58"/>
       <c r="L243" s="58"/>
       <c r="M243" s="58"/>
@@ -9259,18 +9200,18 @@
       <c r="A244" s="30"/>
       <c r="B244" s="55"/>
       <c r="C244" s="30"/>
-      <c r="D244" s="81"/>
-      <c r="E244" s="91"/>
-      <c r="F244" s="82" t="s">
+      <c r="D244" s="86"/>
+      <c r="E244" s="81"/>
+      <c r="F244" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G244" s="90" t="str">
+      <c r="G244" s="88" t="str">
         <f>"İsim : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H244" s="90"/>
-      <c r="I244" s="90"/>
-      <c r="J244" s="90"/>
+      <c r="H244" s="88"/>
+      <c r="I244" s="88"/>
+      <c r="J244" s="88"/>
       <c r="K244" s="32"/>
       <c r="L244" s="60"/>
       <c r="M244" s="32"/>
@@ -9285,15 +9226,15 @@
       <c r="D245" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E245" s="91"/>
-      <c r="F245" s="82"/>
-      <c r="G245" s="85" t="str">
+      <c r="E245" s="81"/>
+      <c r="F245" s="87"/>
+      <c r="G245" s="90" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H245" s="85"/>
-      <c r="I245" s="85"/>
-      <c r="J245" s="85"/>
+      <c r="H245" s="90"/>
+      <c r="I245" s="90"/>
+      <c r="J245" s="90"/>
       <c r="K245" s="30"/>
       <c r="L245" s="30"/>
       <c r="M245" s="30"/>
@@ -9309,12 +9250,12 @@
         <f>'Senet Taksit Giriş'!D14</f>
         <v>0</v>
       </c>
-      <c r="E246" s="91"/>
-      <c r="F246" s="82"/>
-      <c r="G246" s="85"/>
-      <c r="H246" s="85"/>
-      <c r="I246" s="85"/>
-      <c r="J246" s="85"/>
+      <c r="E246" s="81"/>
+      <c r="F246" s="87"/>
+      <c r="G246" s="90"/>
+      <c r="H246" s="90"/>
+      <c r="I246" s="90"/>
+      <c r="J246" s="90"/>
       <c r="K246" s="30"/>
       <c r="L246" s="43" t="s">
         <v>49</v>
@@ -9331,15 +9272,15 @@
       <c r="D247" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E247" s="91"/>
-      <c r="F247" s="82"/>
-      <c r="G247" s="86" t="str">
+      <c r="E247" s="81"/>
+      <c r="F247" s="87"/>
+      <c r="G247" s="82" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H247" s="86"/>
-      <c r="I247" s="86"/>
-      <c r="J247" s="86"/>
+      <c r="H247" s="82"/>
+      <c r="I247" s="82"/>
+      <c r="J247" s="82"/>
       <c r="K247" s="30"/>
       <c r="L247" s="30"/>
       <c r="M247" s="30"/>
@@ -9353,17 +9294,17 @@
       <c r="C248" s="30"/>
       <c r="D248" s="61">
         <f>'Senet Taksit Giriş'!C14</f>
-        <v>45503</v>
-      </c>
-      <c r="E248" s="91"/>
-      <c r="F248" s="82"/>
-      <c r="G248" s="87" t="str">
+        <v>0</v>
+      </c>
+      <c r="E248" s="81"/>
+      <c r="F248" s="87"/>
+      <c r="G248" s="83" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H248" s="87"/>
-      <c r="I248" s="87"/>
-      <c r="J248" s="87"/>
+      <c r="H248" s="83"/>
+      <c r="I248" s="83"/>
+      <c r="J248" s="83"/>
       <c r="K248" s="58"/>
       <c r="L248" s="58"/>
       <c r="M248" s="58"/>
@@ -9419,6 +9360,151 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="169">
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="G11:K12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F233:O235"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="E23:E40"/>
+    <mergeCell ref="F26:O29"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="F5:O8"/>
+    <mergeCell ref="D51:D57"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="G53:K54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="G32:K33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J38"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="G58:J59"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="E64:E81"/>
+    <mergeCell ref="F67:O70"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="E44:E61"/>
+    <mergeCell ref="F47:O50"/>
+    <mergeCell ref="D92:D98"/>
+    <mergeCell ref="F93:F97"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="G94:K95"/>
+    <mergeCell ref="G96:J96"/>
+    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="F98:F102"/>
+    <mergeCell ref="D71:D77"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="G73:K74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="G78:J79"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="G99:J100"/>
+    <mergeCell ref="G101:J101"/>
+    <mergeCell ref="G102:J102"/>
+    <mergeCell ref="E106:E123"/>
+    <mergeCell ref="F109:O112"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="E85:E102"/>
+    <mergeCell ref="F88:O91"/>
+    <mergeCell ref="D133:D139"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="G134:J134"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="G135:K136"/>
+    <mergeCell ref="G137:J137"/>
+    <mergeCell ref="G138:J138"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="D113:D119"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="G114:J114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="G115:K116"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="F119:F123"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="G120:J121"/>
+    <mergeCell ref="G139:J139"/>
+    <mergeCell ref="G140:J141"/>
+    <mergeCell ref="G142:J142"/>
+    <mergeCell ref="G143:J143"/>
+    <mergeCell ref="E147:E164"/>
+    <mergeCell ref="F150:O153"/>
+    <mergeCell ref="G163:J163"/>
+    <mergeCell ref="G164:J164"/>
+    <mergeCell ref="E126:E143"/>
+    <mergeCell ref="F129:O132"/>
+    <mergeCell ref="D175:D181"/>
+    <mergeCell ref="F176:F180"/>
+    <mergeCell ref="G176:J176"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="G177:K178"/>
+    <mergeCell ref="G179:J179"/>
+    <mergeCell ref="G180:J180"/>
+    <mergeCell ref="F181:F185"/>
+    <mergeCell ref="D154:D160"/>
+    <mergeCell ref="F155:F159"/>
+    <mergeCell ref="G155:J155"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="G156:K157"/>
+    <mergeCell ref="G158:J158"/>
+    <mergeCell ref="G159:J159"/>
+    <mergeCell ref="F160:F164"/>
+    <mergeCell ref="G160:J160"/>
+    <mergeCell ref="G161:J162"/>
+    <mergeCell ref="G222:J222"/>
+    <mergeCell ref="G223:J224"/>
+    <mergeCell ref="G225:J225"/>
+    <mergeCell ref="G226:J226"/>
+    <mergeCell ref="G181:J181"/>
+    <mergeCell ref="G182:J183"/>
+    <mergeCell ref="G184:J184"/>
+    <mergeCell ref="G185:J185"/>
+    <mergeCell ref="E188:E205"/>
+    <mergeCell ref="F191:O194"/>
+    <mergeCell ref="G204:J204"/>
+    <mergeCell ref="G205:J205"/>
+    <mergeCell ref="E168:E185"/>
+    <mergeCell ref="F171:O174"/>
+    <mergeCell ref="D195:D201"/>
+    <mergeCell ref="F196:F200"/>
+    <mergeCell ref="G196:J196"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="G197:K198"/>
+    <mergeCell ref="G199:J199"/>
+    <mergeCell ref="G200:J200"/>
+    <mergeCell ref="F201:F205"/>
+    <mergeCell ref="G201:J201"/>
+    <mergeCell ref="G202:J203"/>
     <mergeCell ref="E230:E248"/>
     <mergeCell ref="G247:J247"/>
     <mergeCell ref="G248:J248"/>
@@ -9443,151 +9529,6 @@
     <mergeCell ref="G220:J220"/>
     <mergeCell ref="G221:J221"/>
     <mergeCell ref="F222:F226"/>
-    <mergeCell ref="D195:D201"/>
-    <mergeCell ref="F196:F200"/>
-    <mergeCell ref="G196:J196"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="G197:K198"/>
-    <mergeCell ref="G199:J199"/>
-    <mergeCell ref="G200:J200"/>
-    <mergeCell ref="F201:F205"/>
-    <mergeCell ref="G201:J201"/>
-    <mergeCell ref="G202:J203"/>
-    <mergeCell ref="G222:J222"/>
-    <mergeCell ref="G223:J224"/>
-    <mergeCell ref="G225:J225"/>
-    <mergeCell ref="G226:J226"/>
-    <mergeCell ref="G181:J181"/>
-    <mergeCell ref="G182:J183"/>
-    <mergeCell ref="G184:J184"/>
-    <mergeCell ref="G185:J185"/>
-    <mergeCell ref="E188:E205"/>
-    <mergeCell ref="F191:O194"/>
-    <mergeCell ref="G204:J204"/>
-    <mergeCell ref="G205:J205"/>
-    <mergeCell ref="E168:E185"/>
-    <mergeCell ref="F171:O174"/>
-    <mergeCell ref="E147:E164"/>
-    <mergeCell ref="F150:O153"/>
-    <mergeCell ref="G163:J163"/>
-    <mergeCell ref="G164:J164"/>
-    <mergeCell ref="E126:E143"/>
-    <mergeCell ref="F129:O132"/>
-    <mergeCell ref="D175:D181"/>
-    <mergeCell ref="F176:F180"/>
-    <mergeCell ref="G176:J176"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="G177:K178"/>
-    <mergeCell ref="G179:J179"/>
-    <mergeCell ref="G180:J180"/>
-    <mergeCell ref="F181:F185"/>
-    <mergeCell ref="D154:D160"/>
-    <mergeCell ref="F155:F159"/>
-    <mergeCell ref="G155:J155"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="G156:K157"/>
-    <mergeCell ref="G158:J158"/>
-    <mergeCell ref="G159:J159"/>
-    <mergeCell ref="F160:F164"/>
-    <mergeCell ref="G160:J160"/>
-    <mergeCell ref="G161:J162"/>
-    <mergeCell ref="D133:D139"/>
-    <mergeCell ref="F134:F138"/>
-    <mergeCell ref="G134:J134"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="G135:K136"/>
-    <mergeCell ref="G137:J137"/>
-    <mergeCell ref="G138:J138"/>
-    <mergeCell ref="F139:F143"/>
-    <mergeCell ref="D113:D119"/>
-    <mergeCell ref="F114:F118"/>
-    <mergeCell ref="G114:J114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="G115:K116"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="G118:J118"/>
-    <mergeCell ref="F119:F123"/>
-    <mergeCell ref="G119:J119"/>
-    <mergeCell ref="G120:J121"/>
-    <mergeCell ref="G139:J139"/>
-    <mergeCell ref="G140:J141"/>
-    <mergeCell ref="G142:J142"/>
-    <mergeCell ref="G143:J143"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="G99:J100"/>
-    <mergeCell ref="G101:J101"/>
-    <mergeCell ref="G102:J102"/>
-    <mergeCell ref="E106:E123"/>
-    <mergeCell ref="F109:O112"/>
-    <mergeCell ref="G122:J122"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="E85:E102"/>
-    <mergeCell ref="F88:O91"/>
-    <mergeCell ref="E64:E81"/>
-    <mergeCell ref="F67:O70"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="E44:E61"/>
-    <mergeCell ref="F47:O50"/>
-    <mergeCell ref="D92:D98"/>
-    <mergeCell ref="F93:F97"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="G94:K95"/>
-    <mergeCell ref="G96:J96"/>
-    <mergeCell ref="G97:J97"/>
-    <mergeCell ref="F98:F102"/>
-    <mergeCell ref="D71:D77"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="G73:K74"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="G78:J79"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="G32:K33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J38"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="G58:J59"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="G11:K12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F233:O235"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="E23:E40"/>
-    <mergeCell ref="F26:O29"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="E2:E19"/>
-    <mergeCell ref="F5:O8"/>
-    <mergeCell ref="D51:D57"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="G53:K54"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.59015748031496074" bottom="1.1417322834645671" header="0.19645669291338586" footer="0.74803149606299213"/>
